--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Robotique 2018\ELEC\1-LIB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="576" yWindow="96" windowWidth="29604" windowHeight="13776"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="188">
   <si>
     <t xml:space="preserve">code couleur: </t>
   </si>
@@ -416,9 +411,6 @@
     <t>pwr, cdc, prp</t>
   </si>
   <si>
-    <t>je dois vérifier l'empreinte</t>
-  </si>
-  <si>
     <t>ISO1050DUBR</t>
   </si>
   <si>
@@ -482,9 +474,6 @@
   </si>
   <si>
     <t>pour aller avec le composant ci-dessus, voir sa datasheet</t>
-  </si>
-  <si>
-    <t>La bobine n'est pas encore faite</t>
   </si>
   <si>
     <t>Wurth</t>
@@ -577,9 +566,6 @@
     <t>NX3008PBKS</t>
   </si>
   <si>
-    <t>INA139</t>
-  </si>
-  <si>
     <t>OPA340</t>
   </si>
   <si>
@@ -592,21 +578,65 @@
     <t>GoG_PWR</t>
   </si>
   <si>
-    <t>symbole incorrect, il manque la Part B (voir youtube: /watch?v=i6x7t1woQXc)</t>
+    <t>INA139NA/250</t>
   </si>
   <si>
-    <t>symbole incomplet: il manque la pin 9, le "Pad"</t>
+    <t>BAT54XV2</t>
   </si>
   <si>
-    <t>Il en existe deux versions possibles :  
-INA139NA/250 et INA139NA/3K ; je dois prendre laquelle ? (J'ai pris la 250).</t>
+    <t>fichier Step "SOD-523F" pour la 3D ajouté au répertoire "98_generic_component_3Dstep"</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>CaP_CDC</t>
+  </si>
+  <si>
+    <t>j'ai corrigé, mais 
+-le symbole était incorrect, il manquait la Part B (voir youtube: /watch?v=i6x7t1woQXc)
+- le Mosfet représenté n'est pas un P mais un N</t>
+  </si>
+  <si>
+    <t>-j'ai changé le 3D de l'empreinte
+- ce n'est pas CI? Mais U?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a rangé dans la lib CI et non AOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (penser à mettre à jour les composants dans les schémas)
+- j'ai changé le 3D de l'empreinte
+- ce n'est pas CI? Mais U?</t>
+    </r>
+  </si>
+  <si>
+    <t>- pin de 20 et non de 30.
+- pin en "passive"</t>
+  </si>
+  <si>
+    <t>La bobine n'est pas encore faite, wurth 74404020022? (c'est ce qui est sur la carte en ce moment)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -653,6 +683,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -823,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -948,6 +985,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +1048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1041,26 +1081,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1093,23 +1116,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1288,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2975,10 +2981,10 @@
         <v>31</v>
       </c>
       <c r="L35" s="33">
-        <v>42799</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>124</v>
+        <v>43170</v>
+      </c>
+      <c r="M35" s="46" t="s">
+        <v>186</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>33</v>
@@ -3000,22 +3006,22 @@
     </row>
     <row r="36" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -3046,22 +3052,22 @@
     </row>
     <row r="37" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -3095,13 +3101,13 @@
         <v>605240</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>111</v>
@@ -3141,7 +3147,7 @@
     </row>
     <row r="39" spans="1:28" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>100</v>
@@ -3161,7 +3167,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="33"/>
       <c r="M39" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3181,17 +3187,17 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>117</v>
@@ -3227,13 +3233,13 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3245,7 +3251,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="33"/>
       <c r="M41" s="3" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3268,17 +3274,17 @@
         <v>61300311021</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -3318,38 +3324,42 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>149</v>
+      <c r="A43" s="27" t="s">
+        <v>147</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="33"/>
+      <c r="H43" s="33">
+        <v>42805</v>
+      </c>
       <c r="I43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="33"/>
+        <v>27</v>
+      </c>
+      <c r="J43" s="33">
+        <v>43170</v>
+      </c>
       <c r="K43" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L43" s="33">
         <v>43108</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
@@ -3370,10 +3380,10 @@
         <v>158301227</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>29</v>
@@ -3382,7 +3392,7 @@
         <v>30</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -3420,11 +3430,11 @@
         <v>418121270808</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>119</v>
@@ -3472,17 +3482,17 @@
         <v>82401646</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -3526,19 +3536,19 @@
         <v>452403012014</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>119</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -3582,11 +3592,11 @@
         <v>824540241</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>95</v>
@@ -3633,7 +3643,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
@@ -3685,12 +3695,12 @@
     </row>
     <row r="50" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>85</v>
@@ -3717,7 +3727,7 @@
         <v>42806</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>33</v>
@@ -3742,11 +3752,11 @@
         <v>691322110006</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>103</v>
@@ -3796,11 +3806,11 @@
         <v>691322110002</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>103</v>
@@ -3850,17 +3860,17 @@
         <v>691322110003</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>26</v>
@@ -3901,14 +3911,14 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>103</v>
@@ -3955,17 +3965,17 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>53</v>
@@ -4001,9 +4011,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
     </row>
-    <row r="56" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>175</v>
+    <row r="56" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
@@ -4035,9 +4045,11 @@
         <v>43108</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N56" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -4053,22 +4065,20 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
     </row>
-    <row r="57" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="31" t="s">
-        <v>176</v>
+    <row r="57" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>178</v>
       </c>
       <c r="B57" s="2"/>
-      <c r="C57" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>26</v>
@@ -4082,10 +4092,18 @@
       <c r="J57" s="33">
         <v>43122</v>
       </c>
-      <c r="K57" s="2"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="K57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" s="33">
+        <v>43170</v>
+      </c>
+      <c r="M57" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -4101,22 +4119,20 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
     </row>
-    <row r="58" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+    <row r="58" spans="1:28" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -4130,9 +4146,15 @@
       <c r="J58" s="33">
         <v>43122</v>
       </c>
-      <c r="K58" s="2"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="3"/>
+      <c r="K58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" s="33">
+        <v>43170</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
@@ -4149,13 +4171,23 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
+    <row r="59" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>179</v>
+      </c>
       <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="C59" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="33"/>
       <c r="I59" s="2"/>

--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\1-LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF63740-538E-453B-90A2-1F2208E831B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF68D4C-853F-47A4-AA99-C3219AF6511E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1365" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="composant_a_creer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="250">
   <si>
     <t xml:space="preserve">code couleur: </t>
   </si>
@@ -809,12 +809,6 @@
     <t>rangé dans la lib relays.schlib au lieu de Switches.schlib</t>
   </si>
   <si>
-    <t>le fichier schlib correspondant n'a pas été remonté</t>
-  </si>
-  <si>
-    <t>NOK</t>
-  </si>
-  <si>
     <t>HT7550-1</t>
   </si>
   <si>
@@ -831,6 +825,15 @@
   </si>
   <si>
     <t>Pince 2020</t>
+  </si>
+  <si>
+    <t>FT232RL-reel</t>
+  </si>
+  <si>
+    <t>Future Designs</t>
+  </si>
+  <si>
+    <t>USB-to-UART, associer JLCPCB C8690</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1032,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1176,6 +1179,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1188,10 +1197,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1580,8 +1589,8 @@
   <dimension ref="A1:AMJ1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D75" sqref="D75"/>
+      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,28 +1717,28 @@
       <c r="AB3" s="23"/>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
@@ -4942,25 +4951,25 @@
       <c r="AB69" s="10"/>
     </row>
     <row r="70" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="15">
+      <c r="A70" s="12">
         <v>82400274</v>
       </c>
-      <c r="B70" s="54" t="s">
+      <c r="B70" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="57" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="54" t="s">
+      <c r="D70" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="54" t="s">
+      <c r="E70" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="54" t="s">
+      <c r="F70" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="G70" s="54" t="s">
+      <c r="G70" s="56" t="s">
         <v>239</v>
       </c>
       <c r="H70" s="8"/>
@@ -4970,13 +4979,11 @@
         <v>27</v>
       </c>
       <c r="L70" s="8">
-        <v>43953</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>241</v>
-      </c>
+        <v>43954</v>
+      </c>
+      <c r="M70" s="9"/>
       <c r="N70" s="9" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="O70" s="9"/>
       <c r="P70" s="10"/>
@@ -5627,13 +5634,13 @@
     </row>
     <row r="85" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>232</v>
@@ -5642,7 +5649,7 @@
         <v>233</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="8"/>
@@ -5669,21 +5676,21 @@
     </row>
     <row r="86" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
-        <v>246</v>
-      </c>
-      <c r="B86" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="C86" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="D86" s="54" t="s">
+      <c r="B86" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="E86" s="54" t="s">
+      <c r="E86" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="F86" s="54" t="s">
+      <c r="F86" s="50" t="s">
         <v>190</v>
       </c>
       <c r="G86" s="7"/>
@@ -5709,13 +5716,25 @@
       <c r="AA86" s="10"/>
       <c r="AB86" s="10"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+    <row r="87" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="8"/>
       <c r="I87" s="7"/>
@@ -33350,6 +33369,6 @@
     <hyperlink ref="C76" r:id="rId1" location="440GS67082622" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\1-LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF68D4C-853F-47A4-AA99-C3219AF6511E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0B0DA-B4ED-49D9-B90A-FE32609B2727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1365" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="composant_a_creer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="256">
   <si>
     <t xml:space="preserve">code couleur: </t>
   </si>
@@ -835,6 +835,24 @@
   <si>
     <t>USB-to-UART, associer JLCPCB C8690</t>
   </si>
+  <si>
+    <t>A3213EUA-T</t>
+  </si>
+  <si>
+    <t>Alegro</t>
+  </si>
+  <si>
+    <t>Capteur à effet Hall</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>l'association JLCPCB avait été oublié (ou perdue)</t>
+  </si>
+  <si>
+    <t>capa 10uF 25V JLCPCB C15850??</t>
+  </si>
 </sst>
 </file>
 
@@ -1032,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1185,6 +1203,15 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1196,12 +1223,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1589,8 +1610,8 @@
   <dimension ref="A1:AMJ1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,28 +1738,28 @@
       <c r="AB3" s="23"/>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="56"/>
+      <c r="I4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
       <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
@@ -4954,22 +4975,22 @@
       <c r="A70" s="12">
         <v>82400274</v>
       </c>
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="57" t="s">
+      <c r="C70" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="56" t="s">
+      <c r="D70" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="56" t="s">
+      <c r="E70" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="56" t="s">
+      <c r="F70" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="G70" s="56" t="s">
+      <c r="G70" s="52" t="s">
         <v>239</v>
       </c>
       <c r="H70" s="8"/>
@@ -4981,7 +5002,9 @@
       <c r="L70" s="8">
         <v>43954</v>
       </c>
-      <c r="M70" s="9"/>
+      <c r="M70" s="9" t="s">
+        <v>254</v>
+      </c>
       <c r="N70" s="9" t="s">
         <v>33</v>
       </c>
@@ -5759,13 +5782,25 @@
       <c r="AB87" s="10"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
+      <c r="A88" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G88" s="54"/>
       <c r="H88" s="8"/>
       <c r="I88" s="7"/>
       <c r="J88" s="8"/>
@@ -5791,7 +5826,9 @@
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="49"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>

--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\1-LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0B0DA-B4ED-49D9-B90A-FE32609B2727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C43F85-8911-45CC-AFD3-9CB4E05BE978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1365" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="composant_a_creer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="257">
   <si>
     <t xml:space="preserve">code couleur: </t>
   </si>
@@ -815,9 +815,6 @@
     <t>Holtek Semicon</t>
   </si>
   <si>
-    <t>LDO 5V, associer JLCPCB C160106</t>
-  </si>
-  <si>
     <t>HT7533-1</t>
   </si>
   <si>
@@ -852,6 +849,12 @@
   </si>
   <si>
     <t>capa 10uF 25V JLCPCB C15850??</t>
+  </si>
+  <si>
+    <t>LDO 5V, associer JLCPCB C16106</t>
+  </si>
+  <si>
+    <t>Nappe 1mm 8p top contact (utilisé avec 686608200001 ou 686708200001)</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,18 +986,6 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCD5B5"/>
-        <bgColor rgb="FFFBD4B4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1050,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1188,19 +1179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1222,6 +1204,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1610,8 +1595,8 @@
   <dimension ref="A1:AMJ1007"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,28 +1723,28 @@
       <c r="AB3" s="23"/>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
@@ -4488,7 +4473,7 @@
       <c r="AB58" s="10"/>
     </row>
     <row r="59" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="16" t="s">
         <v>184</v>
       </c>
       <c r="B59" s="7"/>
@@ -4628,7 +4613,7 @@
       <c r="AB61" s="10"/>
     </row>
     <row r="62" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B62" s="7" t="s">
@@ -4678,7 +4663,7 @@
       <c r="AB62" s="10"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="12" t="s">
         <v>195</v>
       </c>
       <c r="B63" s="7"/>
@@ -4700,8 +4685,12 @@
       <c r="H63" s="8"/>
       <c r="I63" s="7"/>
       <c r="J63" s="8"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
+      <c r="K63" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" s="8">
+        <v>43961</v>
+      </c>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
@@ -4720,7 +4709,7 @@
       <c r="AB63" s="10"/>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>198</v>
       </c>
       <c r="B64" s="7"/>
@@ -4742,8 +4731,12 @@
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
       <c r="J64" s="8"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
+      <c r="K64" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" s="8">
+        <v>43961</v>
+      </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
@@ -4762,7 +4755,7 @@
       <c r="AB64" s="10"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>200</v>
       </c>
       <c r="B65" s="7"/>
@@ -4784,8 +4777,12 @@
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
       <c r="J65" s="8"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
+      <c r="K65" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" s="8">
+        <v>43961</v>
+      </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
@@ -4804,7 +4801,7 @@
       <c r="AB65" s="10"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="12" t="s">
         <v>202</v>
       </c>
       <c r="B66" s="7"/>
@@ -4826,8 +4823,12 @@
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
       <c r="J66" s="8"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
+      <c r="K66" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" s="8">
+        <v>43961</v>
+      </c>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
@@ -4845,8 +4846,8 @@
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
+    <row r="67" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>200</v>
       </c>
       <c r="B67" s="7"/>
@@ -4868,8 +4869,12 @@
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
       <c r="J67" s="8"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="8"/>
+      <c r="K67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" s="8">
+        <v>43961</v>
+      </c>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
@@ -4888,7 +4893,7 @@
       <c r="AB67" s="10"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="12" t="s">
         <v>204</v>
       </c>
       <c r="B68" s="7"/>
@@ -4910,8 +4915,12 @@
       <c r="H68" s="8"/>
       <c r="I68" s="7"/>
       <c r="J68" s="8"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
+      <c r="K68" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" s="8">
+        <v>43961</v>
+      </c>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
@@ -4930,7 +4939,7 @@
       <c r="AB68" s="10"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>206</v>
       </c>
       <c r="B69" s="7"/>
@@ -4952,8 +4961,12 @@
       <c r="H69" s="8"/>
       <c r="I69" s="7"/>
       <c r="J69" s="8"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="8"/>
+      <c r="K69" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" s="8">
+        <v>43961</v>
+      </c>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
@@ -4975,22 +4988,22 @@
       <c r="A70" s="12">
         <v>82400274</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="49" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="52" t="s">
+      <c r="F70" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="G70" s="52" t="s">
+      <c r="G70" s="49" t="s">
         <v>239</v>
       </c>
       <c r="H70" s="8"/>
@@ -5003,7 +5016,7 @@
         <v>43954</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N70" s="9" t="s">
         <v>33</v>
@@ -5024,7 +5037,7 @@
       <c r="AB70" s="10"/>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="12" t="s">
         <v>210</v>
       </c>
       <c r="B71" s="7" t="s">
@@ -5074,7 +5087,7 @@
       <c r="AB71" s="10"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12" t="s">
         <v>214</v>
       </c>
       <c r="B72" s="7"/>
@@ -5096,8 +5109,12 @@
       <c r="H72" s="8"/>
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="8"/>
+      <c r="K72" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" s="8">
+        <v>43961</v>
+      </c>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
@@ -5404,7 +5421,7 @@
       <c r="AB78" s="10"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="12" t="s">
         <v>230</v>
       </c>
       <c r="B79" s="7" t="s">
@@ -5422,8 +5439,12 @@
       <c r="F79" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
+      <c r="G79" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="8">
+        <v>43961</v>
+      </c>
       <c r="I79" s="46"/>
       <c r="J79" s="8"/>
       <c r="K79" s="7"/>
@@ -5452,7 +5473,7 @@
       <c r="B80" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="48" t="s">
+      <c r="C80" s="47" t="s">
         <v>234</v>
       </c>
       <c r="D80" s="7" t="s">
@@ -5494,7 +5515,7 @@
       <c r="B81" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="48" t="s">
+      <c r="C81" s="47" t="s">
         <v>234</v>
       </c>
       <c r="D81" s="7" t="s">
@@ -5536,7 +5557,7 @@
       <c r="B82" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C82" s="47" t="s">
         <v>235</v>
       </c>
       <c r="D82" s="7" t="s">
@@ -5578,7 +5599,7 @@
       <c r="B83" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="48" t="s">
+      <c r="C83" s="47" t="s">
         <v>235</v>
       </c>
       <c r="D83" s="7" t="s">
@@ -5620,7 +5641,7 @@
       <c r="B84" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="47" t="s">
         <v>236</v>
       </c>
       <c r="D84" s="7" t="s">
@@ -5656,14 +5677,14 @@
       <c r="AB84" s="10"/>
     </row>
     <row r="85" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="42" t="s">
+      <c r="A85" s="12" t="s">
         <v>241</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>242</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>232</v>
@@ -5672,10 +5693,14 @@
         <v>233</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G85" s="7"/>
-      <c r="H85" s="8"/>
+        <v>245</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="8">
+        <v>43961</v>
+      </c>
       <c r="I85" s="46"/>
       <c r="J85" s="8"/>
       <c r="K85" s="7"/>
@@ -5698,26 +5723,30 @@
       <c r="AB85" s="10"/>
     </row>
     <row r="86" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B86" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="B86" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="C86" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="D86" s="50" t="s">
+      <c r="D86" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="E86" s="50" t="s">
+      <c r="E86" s="49" t="s">
         <v>233</v>
       </c>
-      <c r="F86" s="50" t="s">
+      <c r="F86" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="8"/>
+      <c r="G86" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="8">
+        <v>43961</v>
+      </c>
       <c r="I86" s="46"/>
       <c r="J86" s="8"/>
       <c r="K86" s="7"/>
@@ -5740,14 +5769,14 @@
       <c r="AB86" s="10"/>
     </row>
     <row r="87" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>248</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>249</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>38</v>
@@ -5782,25 +5811,25 @@
       <c r="AB87" s="10"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="49" t="s">
+      <c r="A88" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>252</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>223</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G88" s="54"/>
+      <c r="G88" s="51"/>
       <c r="H88" s="8"/>
       <c r="I88" s="7"/>
       <c r="J88" s="8"/>
@@ -5824,14 +5853,24 @@
       <c r="AB88" s="10"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="56">
+        <v>885012107010</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="C89" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+        <v>254</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="8"/>
       <c r="I89" s="7"/>
@@ -5855,13 +5894,25 @@
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+    <row r="90" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="56">
+        <v>68610814122</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>245</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="8"/>
       <c r="I90" s="7"/>
@@ -5886,7 +5937,7 @@
       <c r="AB90" s="10"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
       <c r="D91" s="7"/>
@@ -5916,7 +5967,7 @@
       <c r="AB91" s="10"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
       <c r="D92" s="7"/>
@@ -5946,7 +5997,7 @@
       <c r="AB92" s="10"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="49"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
@@ -5976,7 +6027,7 @@
       <c r="AB93" s="10"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
@@ -6006,7 +6057,7 @@
       <c r="AB94" s="10"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
@@ -6036,7 +6087,7 @@
       <c r="AB95" s="10"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
@@ -6066,7 +6117,7 @@
       <c r="AB96" s="10"/>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
@@ -6096,7 +6147,7 @@
       <c r="AB97" s="10"/>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
@@ -6126,7 +6177,7 @@
       <c r="AB98" s="10"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
@@ -6156,7 +6207,7 @@
       <c r="AB99" s="10"/>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
@@ -6186,7 +6237,7 @@
       <c r="AB100" s="10"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
+      <c r="A101" s="48"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
@@ -6216,7 +6267,7 @@
       <c r="AB101" s="10"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
@@ -6246,7 +6297,7 @@
       <c r="AB102" s="10"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A103" s="49"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
@@ -6276,7 +6327,7 @@
       <c r="AB103" s="10"/>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
@@ -6306,7 +6357,7 @@
       <c r="AB104" s="10"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
@@ -6336,7 +6387,7 @@
       <c r="AB105" s="10"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="49"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
@@ -6366,7 +6417,7 @@
       <c r="AB106" s="10"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
@@ -6396,7 +6447,7 @@
       <c r="AB107" s="10"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
+      <c r="A108" s="48"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
@@ -6426,7 +6477,7 @@
       <c r="AB108" s="10"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
+      <c r="A109" s="48"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
@@ -6456,7 +6507,7 @@
       <c r="AB109" s="10"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
+      <c r="A110" s="48"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
@@ -6486,7 +6537,7 @@
       <c r="AB110" s="10"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="49"/>
+      <c r="A111" s="48"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
@@ -6516,7 +6567,7 @@
       <c r="AB111" s="10"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
@@ -6546,7 +6597,7 @@
       <c r="AB112" s="10"/>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
@@ -6576,7 +6627,7 @@
       <c r="AB113" s="10"/>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
+      <c r="A114" s="48"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
@@ -6606,7 +6657,7 @@
       <c r="AB114" s="10"/>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="7"/>
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
@@ -6636,7 +6687,7 @@
       <c r="AB115" s="10"/>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
@@ -6666,7 +6717,7 @@
       <c r="AB116" s="10"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
+      <c r="A117" s="48"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
@@ -6696,7 +6747,7 @@
       <c r="AB117" s="10"/>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
+      <c r="A118" s="48"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
@@ -6726,7 +6777,7 @@
       <c r="AB118" s="10"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
+      <c r="A119" s="48"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
@@ -6756,7 +6807,7 @@
       <c r="AB119" s="10"/>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
+      <c r="A120" s="48"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
@@ -6786,7 +6837,7 @@
       <c r="AB120" s="10"/>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A121" s="49"/>
+      <c r="A121" s="48"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
@@ -6816,7 +6867,7 @@
       <c r="AB121" s="10"/>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
+      <c r="A122" s="48"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
@@ -6846,7 +6897,7 @@
       <c r="AB122" s="10"/>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A123" s="49"/>
+      <c r="A123" s="48"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
@@ -6876,7 +6927,7 @@
       <c r="AB123" s="10"/>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
+      <c r="A124" s="48"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
@@ -6906,7 +6957,7 @@
       <c r="AB124" s="10"/>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A125" s="49"/>
+      <c r="A125" s="48"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
@@ -6936,7 +6987,7 @@
       <c r="AB125" s="10"/>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A126" s="49"/>
+      <c r="A126" s="48"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
@@ -6966,7 +7017,7 @@
       <c r="AB126" s="10"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A127" s="49"/>
+      <c r="A127" s="48"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
@@ -6996,7 +7047,7 @@
       <c r="AB127" s="10"/>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A128" s="49"/>
+      <c r="A128" s="48"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
@@ -7026,7 +7077,7 @@
       <c r="AB128" s="10"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A129" s="49"/>
+      <c r="A129" s="48"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
@@ -7056,7 +7107,7 @@
       <c r="AB129" s="10"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A130" s="49"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
@@ -7086,7 +7137,7 @@
       <c r="AB130" s="10"/>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A131" s="49"/>
+      <c r="A131" s="48"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
@@ -7116,7 +7167,7 @@
       <c r="AB131" s="10"/>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
+      <c r="A132" s="48"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
@@ -7146,7 +7197,7 @@
       <c r="AB132" s="10"/>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
+      <c r="A133" s="48"/>
       <c r="B133" s="7"/>
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
@@ -7176,7 +7227,7 @@
       <c r="AB133" s="10"/>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A134" s="49"/>
+      <c r="A134" s="48"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
@@ -7206,7 +7257,7 @@
       <c r="AB134" s="10"/>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A135" s="49"/>
+      <c r="A135" s="48"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
@@ -7236,7 +7287,7 @@
       <c r="AB135" s="10"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A136" s="49"/>
+      <c r="A136" s="48"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
@@ -7266,7 +7317,7 @@
       <c r="AB136" s="10"/>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A137" s="49"/>
+      <c r="A137" s="48"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
@@ -7296,7 +7347,7 @@
       <c r="AB137" s="10"/>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
+      <c r="A138" s="48"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
@@ -7326,7 +7377,7 @@
       <c r="AB138" s="10"/>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
+      <c r="A139" s="48"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
@@ -7356,7 +7407,7 @@
       <c r="AB139" s="10"/>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
+      <c r="A140" s="48"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
@@ -7386,7 +7437,7 @@
       <c r="AB140" s="10"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A141" s="49"/>
+      <c r="A141" s="48"/>
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
@@ -7416,7 +7467,7 @@
       <c r="AB141" s="10"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A142" s="49"/>
+      <c r="A142" s="48"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
@@ -7446,7 +7497,7 @@
       <c r="AB142" s="10"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
+      <c r="A143" s="48"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
@@ -7476,7 +7527,7 @@
       <c r="AB143" s="10"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
+      <c r="A144" s="48"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
@@ -7506,7 +7557,7 @@
       <c r="AB144" s="10"/>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A145" s="49"/>
+      <c r="A145" s="48"/>
       <c r="B145" s="7"/>
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
@@ -7536,7 +7587,7 @@
       <c r="AB145" s="10"/>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A146" s="49"/>
+      <c r="A146" s="48"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
@@ -7566,7 +7617,7 @@
       <c r="AB146" s="10"/>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A147" s="49"/>
+      <c r="A147" s="48"/>
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
@@ -7596,7 +7647,7 @@
       <c r="AB147" s="10"/>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A148" s="49"/>
+      <c r="A148" s="48"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
@@ -7626,7 +7677,7 @@
       <c r="AB148" s="10"/>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A149" s="49"/>
+      <c r="A149" s="48"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
@@ -7656,7 +7707,7 @@
       <c r="AB149" s="10"/>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
+      <c r="A150" s="48"/>
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
@@ -7686,7 +7737,7 @@
       <c r="AB150" s="10"/>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A151" s="49"/>
+      <c r="A151" s="48"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
@@ -7716,7 +7767,7 @@
       <c r="AB151" s="10"/>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A152" s="49"/>
+      <c r="A152" s="48"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
@@ -7746,7 +7797,7 @@
       <c r="AB152" s="10"/>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A153" s="49"/>
+      <c r="A153" s="48"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
@@ -7776,7 +7827,7 @@
       <c r="AB153" s="10"/>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A154" s="49"/>
+      <c r="A154" s="48"/>
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
@@ -7806,7 +7857,7 @@
       <c r="AB154" s="10"/>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A155" s="49"/>
+      <c r="A155" s="48"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
@@ -7836,7 +7887,7 @@
       <c r="AB155" s="10"/>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A156" s="49"/>
+      <c r="A156" s="48"/>
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
@@ -7866,7 +7917,7 @@
       <c r="AB156" s="10"/>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A157" s="49"/>
+      <c r="A157" s="48"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
@@ -7896,7 +7947,7 @@
       <c r="AB157" s="10"/>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A158" s="49"/>
+      <c r="A158" s="48"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
@@ -7926,7 +7977,7 @@
       <c r="AB158" s="10"/>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A159" s="49"/>
+      <c r="A159" s="48"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
@@ -7956,7 +8007,7 @@
       <c r="AB159" s="10"/>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A160" s="49"/>
+      <c r="A160" s="48"/>
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
@@ -7986,7 +8037,7 @@
       <c r="AB160" s="10"/>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A161" s="49"/>
+      <c r="A161" s="48"/>
       <c r="B161" s="7"/>
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
@@ -8016,7 +8067,7 @@
       <c r="AB161" s="10"/>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A162" s="49"/>
+      <c r="A162" s="48"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
@@ -8046,7 +8097,7 @@
       <c r="AB162" s="10"/>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A163" s="49"/>
+      <c r="A163" s="48"/>
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
@@ -8076,7 +8127,7 @@
       <c r="AB163" s="10"/>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A164" s="49"/>
+      <c r="A164" s="48"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
@@ -8106,7 +8157,7 @@
       <c r="AB164" s="10"/>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A165" s="49"/>
+      <c r="A165" s="48"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
@@ -8136,7 +8187,7 @@
       <c r="AB165" s="10"/>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A166" s="49"/>
+      <c r="A166" s="48"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
@@ -8166,7 +8217,7 @@
       <c r="AB166" s="10"/>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A167" s="49"/>
+      <c r="A167" s="48"/>
       <c r="B167" s="7"/>
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
@@ -8196,7 +8247,7 @@
       <c r="AB167" s="10"/>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A168" s="49"/>
+      <c r="A168" s="48"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
@@ -8226,7 +8277,7 @@
       <c r="AB168" s="10"/>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A169" s="49"/>
+      <c r="A169" s="48"/>
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
@@ -8256,7 +8307,7 @@
       <c r="AB169" s="10"/>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A170" s="49"/>
+      <c r="A170" s="48"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
@@ -8286,7 +8337,7 @@
       <c r="AB170" s="10"/>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A171" s="49"/>
+      <c r="A171" s="48"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
@@ -8316,7 +8367,7 @@
       <c r="AB171" s="10"/>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A172" s="49"/>
+      <c r="A172" s="48"/>
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
@@ -8346,7 +8397,7 @@
       <c r="AB172" s="10"/>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A173" s="49"/>
+      <c r="A173" s="48"/>
       <c r="B173" s="7"/>
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
@@ -8376,7 +8427,7 @@
       <c r="AB173" s="10"/>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A174" s="49"/>
+      <c r="A174" s="48"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
@@ -8406,7 +8457,7 @@
       <c r="AB174" s="10"/>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A175" s="49"/>
+      <c r="A175" s="48"/>
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
@@ -8436,7 +8487,7 @@
       <c r="AB175" s="10"/>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A176" s="49"/>
+      <c r="A176" s="48"/>
       <c r="B176" s="7"/>
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
@@ -8466,7 +8517,7 @@
       <c r="AB176" s="10"/>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A177" s="49"/>
+      <c r="A177" s="48"/>
       <c r="B177" s="7"/>
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
@@ -8496,7 +8547,7 @@
       <c r="AB177" s="10"/>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A178" s="49"/>
+      <c r="A178" s="48"/>
       <c r="B178" s="7"/>
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
@@ -8526,7 +8577,7 @@
       <c r="AB178" s="10"/>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A179" s="49"/>
+      <c r="A179" s="48"/>
       <c r="B179" s="7"/>
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
@@ -8556,7 +8607,7 @@
       <c r="AB179" s="10"/>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A180" s="49"/>
+      <c r="A180" s="48"/>
       <c r="B180" s="7"/>
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
@@ -8586,7 +8637,7 @@
       <c r="AB180" s="10"/>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A181" s="49"/>
+      <c r="A181" s="48"/>
       <c r="B181" s="7"/>
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
@@ -8616,7 +8667,7 @@
       <c r="AB181" s="10"/>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A182" s="49"/>
+      <c r="A182" s="48"/>
       <c r="B182" s="7"/>
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
@@ -8646,7 +8697,7 @@
       <c r="AB182" s="10"/>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A183" s="49"/>
+      <c r="A183" s="48"/>
       <c r="B183" s="7"/>
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
@@ -8676,7 +8727,7 @@
       <c r="AB183" s="10"/>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A184" s="49"/>
+      <c r="A184" s="48"/>
       <c r="B184" s="7"/>
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
@@ -8706,7 +8757,7 @@
       <c r="AB184" s="10"/>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A185" s="49"/>
+      <c r="A185" s="48"/>
       <c r="B185" s="7"/>
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
@@ -8736,7 +8787,7 @@
       <c r="AB185" s="10"/>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A186" s="49"/>
+      <c r="A186" s="48"/>
       <c r="B186" s="7"/>
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
@@ -8766,7 +8817,7 @@
       <c r="AB186" s="10"/>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A187" s="49"/>
+      <c r="A187" s="48"/>
       <c r="B187" s="7"/>
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
@@ -8796,7 +8847,7 @@
       <c r="AB187" s="10"/>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A188" s="49"/>
+      <c r="A188" s="48"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
@@ -8826,7 +8877,7 @@
       <c r="AB188" s="10"/>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A189" s="49"/>
+      <c r="A189" s="48"/>
       <c r="B189" s="7"/>
       <c r="C189" s="6"/>
       <c r="D189" s="7"/>
@@ -8856,7 +8907,7 @@
       <c r="AB189" s="10"/>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A190" s="49"/>
+      <c r="A190" s="48"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
       <c r="D190" s="7"/>
@@ -8886,7 +8937,7 @@
       <c r="AB190" s="10"/>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A191" s="49"/>
+      <c r="A191" s="48"/>
       <c r="B191" s="7"/>
       <c r="C191" s="6"/>
       <c r="D191" s="7"/>
@@ -8916,7 +8967,7 @@
       <c r="AB191" s="10"/>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A192" s="49"/>
+      <c r="A192" s="48"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
       <c r="D192" s="7"/>
@@ -8946,7 +8997,7 @@
       <c r="AB192" s="10"/>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A193" s="49"/>
+      <c r="A193" s="48"/>
       <c r="B193" s="7"/>
       <c r="C193" s="6"/>
       <c r="D193" s="7"/>
@@ -8976,7 +9027,7 @@
       <c r="AB193" s="10"/>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A194" s="49"/>
+      <c r="A194" s="48"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
       <c r="D194" s="7"/>
@@ -9006,7 +9057,7 @@
       <c r="AB194" s="10"/>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A195" s="49"/>
+      <c r="A195" s="48"/>
       <c r="B195" s="7"/>
       <c r="C195" s="6"/>
       <c r="D195" s="7"/>
@@ -9036,7 +9087,7 @@
       <c r="AB195" s="10"/>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A196" s="49"/>
+      <c r="A196" s="48"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
       <c r="D196" s="7"/>
@@ -9066,7 +9117,7 @@
       <c r="AB196" s="10"/>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A197" s="49"/>
+      <c r="A197" s="48"/>
       <c r="B197" s="7"/>
       <c r="C197" s="6"/>
       <c r="D197" s="7"/>
@@ -9096,7 +9147,7 @@
       <c r="AB197" s="10"/>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A198" s="49"/>
+      <c r="A198" s="48"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
       <c r="D198" s="7"/>
@@ -9126,7 +9177,7 @@
       <c r="AB198" s="10"/>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A199" s="49"/>
+      <c r="A199" s="48"/>
       <c r="B199" s="7"/>
       <c r="C199" s="6"/>
       <c r="D199" s="7"/>
@@ -9156,7 +9207,7 @@
       <c r="AB199" s="10"/>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A200" s="49"/>
+      <c r="A200" s="48"/>
       <c r="B200" s="7"/>
       <c r="C200" s="6"/>
       <c r="D200" s="7"/>
@@ -9186,7 +9237,7 @@
       <c r="AB200" s="10"/>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A201" s="49"/>
+      <c r="A201" s="48"/>
       <c r="B201" s="7"/>
       <c r="C201" s="6"/>
       <c r="D201" s="7"/>
@@ -9216,7 +9267,7 @@
       <c r="AB201" s="10"/>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A202" s="49"/>
+      <c r="A202" s="48"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
       <c r="D202" s="7"/>
@@ -9246,7 +9297,7 @@
       <c r="AB202" s="10"/>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A203" s="49"/>
+      <c r="A203" s="48"/>
       <c r="B203" s="7"/>
       <c r="C203" s="6"/>
       <c r="D203" s="7"/>
@@ -9276,7 +9327,7 @@
       <c r="AB203" s="10"/>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A204" s="49"/>
+      <c r="A204" s="48"/>
       <c r="B204" s="7"/>
       <c r="C204" s="6"/>
       <c r="D204" s="7"/>
@@ -9306,7 +9357,7 @@
       <c r="AB204" s="10"/>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A205" s="49"/>
+      <c r="A205" s="48"/>
       <c r="B205" s="7"/>
       <c r="C205" s="6"/>
       <c r="D205" s="7"/>
@@ -9336,7 +9387,7 @@
       <c r="AB205" s="10"/>
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A206" s="49"/>
+      <c r="A206" s="48"/>
       <c r="B206" s="7"/>
       <c r="C206" s="6"/>
       <c r="D206" s="7"/>
@@ -9366,7 +9417,7 @@
       <c r="AB206" s="10"/>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A207" s="49"/>
+      <c r="A207" s="48"/>
       <c r="B207" s="7"/>
       <c r="C207" s="6"/>
       <c r="D207" s="7"/>
@@ -9396,7 +9447,7 @@
       <c r="AB207" s="10"/>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A208" s="49"/>
+      <c r="A208" s="48"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
       <c r="D208" s="7"/>
@@ -9426,7 +9477,7 @@
       <c r="AB208" s="10"/>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A209" s="49"/>
+      <c r="A209" s="48"/>
       <c r="B209" s="7"/>
       <c r="C209" s="6"/>
       <c r="D209" s="7"/>
@@ -9456,7 +9507,7 @@
       <c r="AB209" s="10"/>
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A210" s="49"/>
+      <c r="A210" s="48"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
       <c r="D210" s="7"/>
@@ -9486,7 +9537,7 @@
       <c r="AB210" s="10"/>
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A211" s="49"/>
+      <c r="A211" s="48"/>
       <c r="B211" s="7"/>
       <c r="C211" s="6"/>
       <c r="D211" s="7"/>
@@ -9516,7 +9567,7 @@
       <c r="AB211" s="10"/>
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A212" s="49"/>
+      <c r="A212" s="48"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
       <c r="D212" s="7"/>
@@ -9546,7 +9597,7 @@
       <c r="AB212" s="10"/>
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A213" s="49"/>
+      <c r="A213" s="48"/>
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
       <c r="D213" s="7"/>
@@ -9576,7 +9627,7 @@
       <c r="AB213" s="10"/>
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A214" s="49"/>
+      <c r="A214" s="48"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
       <c r="D214" s="7"/>
@@ -9606,7 +9657,7 @@
       <c r="AB214" s="10"/>
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A215" s="49"/>
+      <c r="A215" s="48"/>
       <c r="B215" s="7"/>
       <c r="C215" s="6"/>
       <c r="D215" s="7"/>
@@ -9636,7 +9687,7 @@
       <c r="AB215" s="10"/>
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A216" s="49"/>
+      <c r="A216" s="48"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
       <c r="D216" s="7"/>
@@ -9666,7 +9717,7 @@
       <c r="AB216" s="10"/>
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A217" s="49"/>
+      <c r="A217" s="48"/>
       <c r="B217" s="7"/>
       <c r="C217" s="6"/>
       <c r="D217" s="7"/>
@@ -9696,7 +9747,7 @@
       <c r="AB217" s="10"/>
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A218" s="49"/>
+      <c r="A218" s="48"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
       <c r="D218" s="7"/>
@@ -9726,7 +9777,7 @@
       <c r="AB218" s="10"/>
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A219" s="49"/>
+      <c r="A219" s="48"/>
       <c r="B219" s="7"/>
       <c r="C219" s="6"/>
       <c r="D219" s="7"/>
@@ -9756,7 +9807,7 @@
       <c r="AB219" s="10"/>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A220" s="49"/>
+      <c r="A220" s="48"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
       <c r="D220" s="7"/>
@@ -9786,7 +9837,7 @@
       <c r="AB220" s="10"/>
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A221" s="49"/>
+      <c r="A221" s="48"/>
       <c r="B221" s="7"/>
       <c r="C221" s="6"/>
       <c r="D221" s="7"/>
@@ -9816,7 +9867,7 @@
       <c r="AB221" s="10"/>
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A222" s="49"/>
+      <c r="A222" s="48"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
       <c r="D222" s="7"/>
@@ -9846,7 +9897,7 @@
       <c r="AB222" s="10"/>
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A223" s="49"/>
+      <c r="A223" s="48"/>
       <c r="B223" s="7"/>
       <c r="C223" s="6"/>
       <c r="D223" s="7"/>
@@ -9876,7 +9927,7 @@
       <c r="AB223" s="10"/>
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A224" s="49"/>
+      <c r="A224" s="48"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
       <c r="D224" s="7"/>
@@ -9906,7 +9957,7 @@
       <c r="AB224" s="10"/>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A225" s="49"/>
+      <c r="A225" s="48"/>
       <c r="B225" s="7"/>
       <c r="C225" s="6"/>
       <c r="D225" s="7"/>
@@ -9936,7 +9987,7 @@
       <c r="AB225" s="10"/>
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A226" s="49"/>
+      <c r="A226" s="48"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
       <c r="D226" s="7"/>
@@ -9966,7 +10017,7 @@
       <c r="AB226" s="10"/>
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A227" s="49"/>
+      <c r="A227" s="48"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
       <c r="D227" s="7"/>
@@ -9996,7 +10047,7 @@
       <c r="AB227" s="10"/>
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A228" s="49"/>
+      <c r="A228" s="48"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
       <c r="D228" s="7"/>
@@ -10026,7 +10077,7 @@
       <c r="AB228" s="10"/>
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A229" s="49"/>
+      <c r="A229" s="48"/>
       <c r="B229" s="7"/>
       <c r="C229" s="6"/>
       <c r="D229" s="7"/>
@@ -10056,7 +10107,7 @@
       <c r="AB229" s="10"/>
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A230" s="49"/>
+      <c r="A230" s="48"/>
       <c r="B230" s="7"/>
       <c r="C230" s="6"/>
       <c r="D230" s="7"/>
@@ -10086,7 +10137,7 @@
       <c r="AB230" s="10"/>
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A231" s="49"/>
+      <c r="A231" s="48"/>
       <c r="B231" s="7"/>
       <c r="C231" s="6"/>
       <c r="D231" s="7"/>
@@ -10116,7 +10167,7 @@
       <c r="AB231" s="10"/>
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A232" s="49"/>
+      <c r="A232" s="48"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
       <c r="D232" s="7"/>
@@ -10146,7 +10197,7 @@
       <c r="AB232" s="10"/>
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A233" s="49"/>
+      <c r="A233" s="48"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
       <c r="D233" s="7"/>
@@ -10176,7 +10227,7 @@
       <c r="AB233" s="10"/>
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A234" s="49"/>
+      <c r="A234" s="48"/>
       <c r="B234" s="7"/>
       <c r="C234" s="6"/>
       <c r="D234" s="7"/>
@@ -10206,7 +10257,7 @@
       <c r="AB234" s="10"/>
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A235" s="49"/>
+      <c r="A235" s="48"/>
       <c r="B235" s="7"/>
       <c r="C235" s="6"/>
       <c r="D235" s="7"/>
@@ -10236,7 +10287,7 @@
       <c r="AB235" s="10"/>
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A236" s="49"/>
+      <c r="A236" s="48"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
       <c r="D236" s="7"/>
@@ -10266,7 +10317,7 @@
       <c r="AB236" s="10"/>
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A237" s="49"/>
+      <c r="A237" s="48"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
       <c r="D237" s="7"/>
@@ -10296,7 +10347,7 @@
       <c r="AB237" s="10"/>
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A238" s="49"/>
+      <c r="A238" s="48"/>
       <c r="B238" s="7"/>
       <c r="C238" s="6"/>
       <c r="D238" s="7"/>
@@ -10326,7 +10377,7 @@
       <c r="AB238" s="10"/>
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A239" s="49"/>
+      <c r="A239" s="48"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
       <c r="D239" s="7"/>
@@ -10356,7 +10407,7 @@
       <c r="AB239" s="10"/>
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A240" s="49"/>
+      <c r="A240" s="48"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
       <c r="D240" s="7"/>
@@ -10386,7 +10437,7 @@
       <c r="AB240" s="10"/>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A241" s="49"/>
+      <c r="A241" s="48"/>
       <c r="B241" s="7"/>
       <c r="C241" s="6"/>
       <c r="D241" s="7"/>
@@ -10416,7 +10467,7 @@
       <c r="AB241" s="10"/>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A242" s="49"/>
+      <c r="A242" s="48"/>
       <c r="B242" s="7"/>
       <c r="C242" s="6"/>
       <c r="D242" s="7"/>
@@ -10446,7 +10497,7 @@
       <c r="AB242" s="10"/>
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A243" s="49"/>
+      <c r="A243" s="48"/>
       <c r="B243" s="7"/>
       <c r="C243" s="6"/>
       <c r="D243" s="7"/>
@@ -10476,7 +10527,7 @@
       <c r="AB243" s="10"/>
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A244" s="49"/>
+      <c r="A244" s="48"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
       <c r="D244" s="7"/>
@@ -10506,7 +10557,7 @@
       <c r="AB244" s="10"/>
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A245" s="49"/>
+      <c r="A245" s="48"/>
       <c r="B245" s="7"/>
       <c r="C245" s="6"/>
       <c r="D245" s="7"/>
@@ -10536,7 +10587,7 @@
       <c r="AB245" s="10"/>
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A246" s="49"/>
+      <c r="A246" s="48"/>
       <c r="B246" s="7"/>
       <c r="C246" s="6"/>
       <c r="D246" s="7"/>
@@ -10566,7 +10617,7 @@
       <c r="AB246" s="10"/>
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A247" s="49"/>
+      <c r="A247" s="48"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
       <c r="D247" s="7"/>
@@ -10596,7 +10647,7 @@
       <c r="AB247" s="10"/>
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A248" s="49"/>
+      <c r="A248" s="48"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
       <c r="D248" s="7"/>
@@ -10626,7 +10677,7 @@
       <c r="AB248" s="10"/>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A249" s="49"/>
+      <c r="A249" s="48"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
       <c r="D249" s="7"/>
@@ -10656,7 +10707,7 @@
       <c r="AB249" s="10"/>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A250" s="49"/>
+      <c r="A250" s="48"/>
       <c r="B250" s="7"/>
       <c r="C250" s="6"/>
       <c r="D250" s="7"/>
@@ -10686,7 +10737,7 @@
       <c r="AB250" s="10"/>
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A251" s="49"/>
+      <c r="A251" s="48"/>
       <c r="B251" s="7"/>
       <c r="C251" s="6"/>
       <c r="D251" s="7"/>
@@ -10716,7 +10767,7 @@
       <c r="AB251" s="10"/>
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A252" s="49"/>
+      <c r="A252" s="48"/>
       <c r="B252" s="7"/>
       <c r="C252" s="6"/>
       <c r="D252" s="7"/>
@@ -10746,7 +10797,7 @@
       <c r="AB252" s="10"/>
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A253" s="49"/>
+      <c r="A253" s="48"/>
       <c r="B253" s="7"/>
       <c r="C253" s="6"/>
       <c r="D253" s="7"/>
@@ -10776,7 +10827,7 @@
       <c r="AB253" s="10"/>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A254" s="49"/>
+      <c r="A254" s="48"/>
       <c r="B254" s="7"/>
       <c r="C254" s="6"/>
       <c r="D254" s="7"/>
@@ -10806,7 +10857,7 @@
       <c r="AB254" s="10"/>
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A255" s="49"/>
+      <c r="A255" s="48"/>
       <c r="B255" s="7"/>
       <c r="C255" s="6"/>
       <c r="D255" s="7"/>
@@ -10836,7 +10887,7 @@
       <c r="AB255" s="10"/>
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A256" s="49"/>
+      <c r="A256" s="48"/>
       <c r="B256" s="7"/>
       <c r="C256" s="6"/>
       <c r="D256" s="7"/>
@@ -10866,7 +10917,7 @@
       <c r="AB256" s="10"/>
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A257" s="49"/>
+      <c r="A257" s="48"/>
       <c r="B257" s="7"/>
       <c r="C257" s="6"/>
       <c r="D257" s="7"/>
@@ -10896,7 +10947,7 @@
       <c r="AB257" s="10"/>
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A258" s="49"/>
+      <c r="A258" s="48"/>
       <c r="B258" s="7"/>
       <c r="C258" s="6"/>
       <c r="D258" s="7"/>
@@ -10926,7 +10977,7 @@
       <c r="AB258" s="10"/>
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A259" s="49"/>
+      <c r="A259" s="48"/>
       <c r="B259" s="7"/>
       <c r="C259" s="6"/>
       <c r="D259" s="7"/>
@@ -10956,7 +11007,7 @@
       <c r="AB259" s="10"/>
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A260" s="49"/>
+      <c r="A260" s="48"/>
       <c r="B260" s="7"/>
       <c r="C260" s="6"/>
       <c r="D260" s="7"/>
@@ -10986,7 +11037,7 @@
       <c r="AB260" s="10"/>
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A261" s="49"/>
+      <c r="A261" s="48"/>
       <c r="B261" s="7"/>
       <c r="C261" s="6"/>
       <c r="D261" s="7"/>
@@ -11016,7 +11067,7 @@
       <c r="AB261" s="10"/>
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A262" s="49"/>
+      <c r="A262" s="48"/>
       <c r="B262" s="7"/>
       <c r="C262" s="6"/>
       <c r="D262" s="7"/>
@@ -11046,7 +11097,7 @@
       <c r="AB262" s="10"/>
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A263" s="49"/>
+      <c r="A263" s="48"/>
       <c r="B263" s="7"/>
       <c r="C263" s="6"/>
       <c r="D263" s="7"/>
@@ -11076,7 +11127,7 @@
       <c r="AB263" s="10"/>
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A264" s="49"/>
+      <c r="A264" s="48"/>
       <c r="B264" s="7"/>
       <c r="C264" s="6"/>
       <c r="D264" s="7"/>
@@ -11106,7 +11157,7 @@
       <c r="AB264" s="10"/>
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A265" s="49"/>
+      <c r="A265" s="48"/>
       <c r="B265" s="7"/>
       <c r="C265" s="6"/>
       <c r="D265" s="7"/>
@@ -11136,7 +11187,7 @@
       <c r="AB265" s="10"/>
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A266" s="49"/>
+      <c r="A266" s="48"/>
       <c r="B266" s="7"/>
       <c r="C266" s="6"/>
       <c r="D266" s="7"/>
@@ -11166,7 +11217,7 @@
       <c r="AB266" s="10"/>
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A267" s="49"/>
+      <c r="A267" s="48"/>
       <c r="B267" s="7"/>
       <c r="C267" s="6"/>
       <c r="D267" s="7"/>
@@ -11196,7 +11247,7 @@
       <c r="AB267" s="10"/>
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A268" s="49"/>
+      <c r="A268" s="48"/>
       <c r="B268" s="7"/>
       <c r="C268" s="6"/>
       <c r="D268" s="7"/>
@@ -11226,7 +11277,7 @@
       <c r="AB268" s="10"/>
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A269" s="49"/>
+      <c r="A269" s="48"/>
       <c r="B269" s="7"/>
       <c r="C269" s="6"/>
       <c r="D269" s="7"/>
@@ -11256,7 +11307,7 @@
       <c r="AB269" s="10"/>
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A270" s="49"/>
+      <c r="A270" s="48"/>
       <c r="B270" s="7"/>
       <c r="C270" s="6"/>
       <c r="D270" s="7"/>
@@ -11286,7 +11337,7 @@
       <c r="AB270" s="10"/>
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A271" s="49"/>
+      <c r="A271" s="48"/>
       <c r="B271" s="7"/>
       <c r="C271" s="6"/>
       <c r="D271" s="7"/>
@@ -11316,7 +11367,7 @@
       <c r="AB271" s="10"/>
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A272" s="49"/>
+      <c r="A272" s="48"/>
       <c r="B272" s="7"/>
       <c r="C272" s="6"/>
       <c r="D272" s="7"/>
@@ -11346,7 +11397,7 @@
       <c r="AB272" s="10"/>
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A273" s="49"/>
+      <c r="A273" s="48"/>
       <c r="B273" s="7"/>
       <c r="C273" s="6"/>
       <c r="D273" s="7"/>
@@ -11376,7 +11427,7 @@
       <c r="AB273" s="10"/>
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A274" s="49"/>
+      <c r="A274" s="48"/>
       <c r="B274" s="7"/>
       <c r="C274" s="6"/>
       <c r="D274" s="7"/>
@@ -11406,7 +11457,7 @@
       <c r="AB274" s="10"/>
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A275" s="49"/>
+      <c r="A275" s="48"/>
       <c r="B275" s="7"/>
       <c r="C275" s="6"/>
       <c r="D275" s="7"/>
@@ -11436,7 +11487,7 @@
       <c r="AB275" s="10"/>
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A276" s="49"/>
+      <c r="A276" s="48"/>
       <c r="B276" s="7"/>
       <c r="C276" s="6"/>
       <c r="D276" s="7"/>
@@ -11466,7 +11517,7 @@
       <c r="AB276" s="10"/>
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A277" s="49"/>
+      <c r="A277" s="48"/>
       <c r="B277" s="7"/>
       <c r="C277" s="6"/>
       <c r="D277" s="7"/>
@@ -11496,7 +11547,7 @@
       <c r="AB277" s="10"/>
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A278" s="49"/>
+      <c r="A278" s="48"/>
       <c r="B278" s="7"/>
       <c r="C278" s="6"/>
       <c r="D278" s="7"/>
@@ -11526,7 +11577,7 @@
       <c r="AB278" s="10"/>
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A279" s="49"/>
+      <c r="A279" s="48"/>
       <c r="B279" s="7"/>
       <c r="C279" s="6"/>
       <c r="D279" s="7"/>
@@ -11556,7 +11607,7 @@
       <c r="AB279" s="10"/>
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A280" s="49"/>
+      <c r="A280" s="48"/>
       <c r="B280" s="7"/>
       <c r="C280" s="6"/>
       <c r="D280" s="7"/>
@@ -11586,7 +11637,7 @@
       <c r="AB280" s="10"/>
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A281" s="49"/>
+      <c r="A281" s="48"/>
       <c r="B281" s="7"/>
       <c r="C281" s="6"/>
       <c r="D281" s="7"/>
@@ -11616,7 +11667,7 @@
       <c r="AB281" s="10"/>
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A282" s="49"/>
+      <c r="A282" s="48"/>
       <c r="B282" s="7"/>
       <c r="C282" s="6"/>
       <c r="D282" s="7"/>
@@ -11646,7 +11697,7 @@
       <c r="AB282" s="10"/>
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A283" s="49"/>
+      <c r="A283" s="48"/>
       <c r="B283" s="7"/>
       <c r="C283" s="6"/>
       <c r="D283" s="7"/>
@@ -11676,7 +11727,7 @@
       <c r="AB283" s="10"/>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A284" s="49"/>
+      <c r="A284" s="48"/>
       <c r="B284" s="7"/>
       <c r="C284" s="6"/>
       <c r="D284" s="7"/>
@@ -11706,7 +11757,7 @@
       <c r="AB284" s="10"/>
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A285" s="49"/>
+      <c r="A285" s="48"/>
       <c r="B285" s="7"/>
       <c r="C285" s="6"/>
       <c r="D285" s="7"/>
@@ -11736,7 +11787,7 @@
       <c r="AB285" s="10"/>
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A286" s="49"/>
+      <c r="A286" s="48"/>
       <c r="B286" s="7"/>
       <c r="C286" s="6"/>
       <c r="D286" s="7"/>
@@ -11766,7 +11817,7 @@
       <c r="AB286" s="10"/>
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A287" s="49"/>
+      <c r="A287" s="48"/>
       <c r="B287" s="7"/>
       <c r="C287" s="6"/>
       <c r="D287" s="7"/>
@@ -11796,7 +11847,7 @@
       <c r="AB287" s="10"/>
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A288" s="49"/>
+      <c r="A288" s="48"/>
       <c r="B288" s="7"/>
       <c r="C288" s="6"/>
       <c r="D288" s="7"/>
@@ -11826,7 +11877,7 @@
       <c r="AB288" s="10"/>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A289" s="49"/>
+      <c r="A289" s="48"/>
       <c r="B289" s="7"/>
       <c r="C289" s="6"/>
       <c r="D289" s="7"/>
@@ -11856,7 +11907,7 @@
       <c r="AB289" s="10"/>
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A290" s="49"/>
+      <c r="A290" s="48"/>
       <c r="B290" s="7"/>
       <c r="C290" s="6"/>
       <c r="D290" s="7"/>
@@ -11886,7 +11937,7 @@
       <c r="AB290" s="10"/>
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A291" s="49"/>
+      <c r="A291" s="48"/>
       <c r="B291" s="7"/>
       <c r="C291" s="6"/>
       <c r="D291" s="7"/>
@@ -11916,7 +11967,7 @@
       <c r="AB291" s="10"/>
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A292" s="49"/>
+      <c r="A292" s="48"/>
       <c r="B292" s="7"/>
       <c r="C292" s="6"/>
       <c r="D292" s="7"/>
@@ -11946,7 +11997,7 @@
       <c r="AB292" s="10"/>
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A293" s="49"/>
+      <c r="A293" s="48"/>
       <c r="B293" s="7"/>
       <c r="C293" s="6"/>
       <c r="D293" s="7"/>
@@ -11976,7 +12027,7 @@
       <c r="AB293" s="10"/>
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A294" s="49"/>
+      <c r="A294" s="48"/>
       <c r="B294" s="7"/>
       <c r="C294" s="6"/>
       <c r="D294" s="7"/>
@@ -12006,7 +12057,7 @@
       <c r="AB294" s="10"/>
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A295" s="49"/>
+      <c r="A295" s="48"/>
       <c r="B295" s="7"/>
       <c r="C295" s="6"/>
       <c r="D295" s="7"/>
@@ -12036,7 +12087,7 @@
       <c r="AB295" s="10"/>
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A296" s="49"/>
+      <c r="A296" s="48"/>
       <c r="B296" s="7"/>
       <c r="C296" s="6"/>
       <c r="D296" s="7"/>
@@ -12066,7 +12117,7 @@
       <c r="AB296" s="10"/>
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A297" s="49"/>
+      <c r="A297" s="48"/>
       <c r="B297" s="7"/>
       <c r="C297" s="6"/>
       <c r="D297" s="7"/>
@@ -12096,7 +12147,7 @@
       <c r="AB297" s="10"/>
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A298" s="49"/>
+      <c r="A298" s="48"/>
       <c r="B298" s="7"/>
       <c r="C298" s="6"/>
       <c r="D298" s="7"/>
@@ -12126,7 +12177,7 @@
       <c r="AB298" s="10"/>
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A299" s="49"/>
+      <c r="A299" s="48"/>
       <c r="B299" s="7"/>
       <c r="C299" s="6"/>
       <c r="D299" s="7"/>
@@ -12156,7 +12207,7 @@
       <c r="AB299" s="10"/>
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A300" s="49"/>
+      <c r="A300" s="48"/>
       <c r="B300" s="7"/>
       <c r="C300" s="6"/>
       <c r="D300" s="7"/>
@@ -12186,7 +12237,7 @@
       <c r="AB300" s="10"/>
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A301" s="49"/>
+      <c r="A301" s="48"/>
       <c r="B301" s="7"/>
       <c r="C301" s="6"/>
       <c r="D301" s="7"/>
@@ -12216,7 +12267,7 @@
       <c r="AB301" s="10"/>
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A302" s="49"/>
+      <c r="A302" s="48"/>
       <c r="B302" s="7"/>
       <c r="C302" s="6"/>
       <c r="D302" s="7"/>
@@ -12246,7 +12297,7 @@
       <c r="AB302" s="10"/>
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A303" s="49"/>
+      <c r="A303" s="48"/>
       <c r="B303" s="7"/>
       <c r="C303" s="6"/>
       <c r="D303" s="7"/>
@@ -12276,7 +12327,7 @@
       <c r="AB303" s="10"/>
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A304" s="49"/>
+      <c r="A304" s="48"/>
       <c r="B304" s="7"/>
       <c r="C304" s="6"/>
       <c r="D304" s="7"/>
@@ -12306,7 +12357,7 @@
       <c r="AB304" s="10"/>
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A305" s="49"/>
+      <c r="A305" s="48"/>
       <c r="B305" s="7"/>
       <c r="C305" s="6"/>
       <c r="D305" s="7"/>
@@ -12336,7 +12387,7 @@
       <c r="AB305" s="10"/>
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A306" s="49"/>
+      <c r="A306" s="48"/>
       <c r="B306" s="7"/>
       <c r="C306" s="6"/>
       <c r="D306" s="7"/>
@@ -12366,7 +12417,7 @@
       <c r="AB306" s="10"/>
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A307" s="49"/>
+      <c r="A307" s="48"/>
       <c r="B307" s="7"/>
       <c r="C307" s="6"/>
       <c r="D307" s="7"/>
@@ -12396,7 +12447,7 @@
       <c r="AB307" s="10"/>
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A308" s="49"/>
+      <c r="A308" s="48"/>
       <c r="B308" s="7"/>
       <c r="C308" s="6"/>
       <c r="D308" s="7"/>
@@ -12426,7 +12477,7 @@
       <c r="AB308" s="10"/>
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A309" s="49"/>
+      <c r="A309" s="48"/>
       <c r="B309" s="7"/>
       <c r="C309" s="6"/>
       <c r="D309" s="7"/>
@@ -12456,7 +12507,7 @@
       <c r="AB309" s="10"/>
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A310" s="49"/>
+      <c r="A310" s="48"/>
       <c r="B310" s="7"/>
       <c r="C310" s="6"/>
       <c r="D310" s="7"/>
@@ -12486,7 +12537,7 @@
       <c r="AB310" s="10"/>
     </row>
     <row r="311" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A311" s="49"/>
+      <c r="A311" s="48"/>
       <c r="B311" s="7"/>
       <c r="C311" s="6"/>
       <c r="D311" s="7"/>
@@ -12516,7 +12567,7 @@
       <c r="AB311" s="10"/>
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A312" s="49"/>
+      <c r="A312" s="48"/>
       <c r="B312" s="7"/>
       <c r="C312" s="6"/>
       <c r="D312" s="7"/>
@@ -12546,7 +12597,7 @@
       <c r="AB312" s="10"/>
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A313" s="49"/>
+      <c r="A313" s="48"/>
       <c r="B313" s="7"/>
       <c r="C313" s="6"/>
       <c r="D313" s="7"/>
@@ -12576,7 +12627,7 @@
       <c r="AB313" s="10"/>
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A314" s="49"/>
+      <c r="A314" s="48"/>
       <c r="B314" s="7"/>
       <c r="C314" s="6"/>
       <c r="D314" s="7"/>
@@ -12606,7 +12657,7 @@
       <c r="AB314" s="10"/>
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A315" s="49"/>
+      <c r="A315" s="48"/>
       <c r="B315" s="7"/>
       <c r="C315" s="6"/>
       <c r="D315" s="7"/>
@@ -12636,7 +12687,7 @@
       <c r="AB315" s="10"/>
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A316" s="49"/>
+      <c r="A316" s="48"/>
       <c r="B316" s="7"/>
       <c r="C316" s="6"/>
       <c r="D316" s="7"/>
@@ -12666,7 +12717,7 @@
       <c r="AB316" s="10"/>
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A317" s="49"/>
+      <c r="A317" s="48"/>
       <c r="B317" s="7"/>
       <c r="C317" s="6"/>
       <c r="D317" s="7"/>
@@ -12696,7 +12747,7 @@
       <c r="AB317" s="10"/>
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A318" s="49"/>
+      <c r="A318" s="48"/>
       <c r="B318" s="7"/>
       <c r="C318" s="6"/>
       <c r="D318" s="7"/>
@@ -12726,7 +12777,7 @@
       <c r="AB318" s="10"/>
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A319" s="49"/>
+      <c r="A319" s="48"/>
       <c r="B319" s="7"/>
       <c r="C319" s="6"/>
       <c r="D319" s="7"/>
@@ -12756,7 +12807,7 @@
       <c r="AB319" s="10"/>
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A320" s="49"/>
+      <c r="A320" s="48"/>
       <c r="B320" s="7"/>
       <c r="C320" s="6"/>
       <c r="D320" s="7"/>
@@ -12786,7 +12837,7 @@
       <c r="AB320" s="10"/>
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A321" s="49"/>
+      <c r="A321" s="48"/>
       <c r="B321" s="7"/>
       <c r="C321" s="6"/>
       <c r="D321" s="7"/>
@@ -12816,7 +12867,7 @@
       <c r="AB321" s="10"/>
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A322" s="49"/>
+      <c r="A322" s="48"/>
       <c r="B322" s="7"/>
       <c r="C322" s="6"/>
       <c r="D322" s="7"/>
@@ -12846,7 +12897,7 @@
       <c r="AB322" s="10"/>
     </row>
     <row r="323" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A323" s="49"/>
+      <c r="A323" s="48"/>
       <c r="B323" s="7"/>
       <c r="C323" s="6"/>
       <c r="D323" s="7"/>
@@ -12876,7 +12927,7 @@
       <c r="AB323" s="10"/>
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A324" s="49"/>
+      <c r="A324" s="48"/>
       <c r="B324" s="7"/>
       <c r="C324" s="6"/>
       <c r="D324" s="7"/>
@@ -12906,7 +12957,7 @@
       <c r="AB324" s="10"/>
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A325" s="49"/>
+      <c r="A325" s="48"/>
       <c r="B325" s="7"/>
       <c r="C325" s="6"/>
       <c r="D325" s="7"/>
@@ -12936,7 +12987,7 @@
       <c r="AB325" s="10"/>
     </row>
     <row r="326" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A326" s="49"/>
+      <c r="A326" s="48"/>
       <c r="B326" s="7"/>
       <c r="C326" s="6"/>
       <c r="D326" s="7"/>
@@ -12966,7 +13017,7 @@
       <c r="AB326" s="10"/>
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A327" s="49"/>
+      <c r="A327" s="48"/>
       <c r="B327" s="7"/>
       <c r="C327" s="6"/>
       <c r="D327" s="7"/>
@@ -12996,7 +13047,7 @@
       <c r="AB327" s="10"/>
     </row>
     <row r="328" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A328" s="49"/>
+      <c r="A328" s="48"/>
       <c r="B328" s="7"/>
       <c r="C328" s="6"/>
       <c r="D328" s="7"/>
@@ -13026,7 +13077,7 @@
       <c r="AB328" s="10"/>
     </row>
     <row r="329" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A329" s="49"/>
+      <c r="A329" s="48"/>
       <c r="B329" s="7"/>
       <c r="C329" s="6"/>
       <c r="D329" s="7"/>
@@ -13056,7 +13107,7 @@
       <c r="AB329" s="10"/>
     </row>
     <row r="330" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A330" s="49"/>
+      <c r="A330" s="48"/>
       <c r="B330" s="7"/>
       <c r="C330" s="6"/>
       <c r="D330" s="7"/>
@@ -13086,7 +13137,7 @@
       <c r="AB330" s="10"/>
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A331" s="49"/>
+      <c r="A331" s="48"/>
       <c r="B331" s="7"/>
       <c r="C331" s="6"/>
       <c r="D331" s="7"/>
@@ -13116,7 +13167,7 @@
       <c r="AB331" s="10"/>
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A332" s="49"/>
+      <c r="A332" s="48"/>
       <c r="B332" s="7"/>
       <c r="C332" s="6"/>
       <c r="D332" s="7"/>
@@ -13146,7 +13197,7 @@
       <c r="AB332" s="10"/>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A333" s="49"/>
+      <c r="A333" s="48"/>
       <c r="B333" s="7"/>
       <c r="C333" s="6"/>
       <c r="D333" s="7"/>
@@ -13176,7 +13227,7 @@
       <c r="AB333" s="10"/>
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A334" s="49"/>
+      <c r="A334" s="48"/>
       <c r="B334" s="7"/>
       <c r="C334" s="6"/>
       <c r="D334" s="7"/>
@@ -13206,7 +13257,7 @@
       <c r="AB334" s="10"/>
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A335" s="49"/>
+      <c r="A335" s="48"/>
       <c r="B335" s="7"/>
       <c r="C335" s="6"/>
       <c r="D335" s="7"/>
@@ -13236,7 +13287,7 @@
       <c r="AB335" s="10"/>
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A336" s="49"/>
+      <c r="A336" s="48"/>
       <c r="B336" s="7"/>
       <c r="C336" s="6"/>
       <c r="D336" s="7"/>
@@ -13266,7 +13317,7 @@
       <c r="AB336" s="10"/>
     </row>
     <row r="337" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A337" s="49"/>
+      <c r="A337" s="48"/>
       <c r="B337" s="7"/>
       <c r="C337" s="6"/>
       <c r="D337" s="7"/>
@@ -13296,7 +13347,7 @@
       <c r="AB337" s="10"/>
     </row>
     <row r="338" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A338" s="49"/>
+      <c r="A338" s="48"/>
       <c r="B338" s="7"/>
       <c r="C338" s="6"/>
       <c r="D338" s="7"/>
@@ -13326,7 +13377,7 @@
       <c r="AB338" s="10"/>
     </row>
     <row r="339" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A339" s="49"/>
+      <c r="A339" s="48"/>
       <c r="B339" s="7"/>
       <c r="C339" s="6"/>
       <c r="D339" s="7"/>
@@ -13356,7 +13407,7 @@
       <c r="AB339" s="10"/>
     </row>
     <row r="340" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A340" s="49"/>
+      <c r="A340" s="48"/>
       <c r="B340" s="7"/>
       <c r="C340" s="6"/>
       <c r="D340" s="7"/>
@@ -13386,7 +13437,7 @@
       <c r="AB340" s="10"/>
     </row>
     <row r="341" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A341" s="49"/>
+      <c r="A341" s="48"/>
       <c r="B341" s="7"/>
       <c r="C341" s="6"/>
       <c r="D341" s="7"/>
@@ -13416,7 +13467,7 @@
       <c r="AB341" s="10"/>
     </row>
     <row r="342" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A342" s="49"/>
+      <c r="A342" s="48"/>
       <c r="B342" s="7"/>
       <c r="C342" s="6"/>
       <c r="D342" s="7"/>
@@ -13446,7 +13497,7 @@
       <c r="AB342" s="10"/>
     </row>
     <row r="343" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A343" s="49"/>
+      <c r="A343" s="48"/>
       <c r="B343" s="7"/>
       <c r="C343" s="6"/>
       <c r="D343" s="7"/>
@@ -13476,7 +13527,7 @@
       <c r="AB343" s="10"/>
     </row>
     <row r="344" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A344" s="49"/>
+      <c r="A344" s="48"/>
       <c r="B344" s="7"/>
       <c r="C344" s="6"/>
       <c r="D344" s="7"/>
@@ -13506,7 +13557,7 @@
       <c r="AB344" s="10"/>
     </row>
     <row r="345" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A345" s="49"/>
+      <c r="A345" s="48"/>
       <c r="B345" s="7"/>
       <c r="C345" s="6"/>
       <c r="D345" s="7"/>
@@ -13536,7 +13587,7 @@
       <c r="AB345" s="10"/>
     </row>
     <row r="346" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A346" s="49"/>
+      <c r="A346" s="48"/>
       <c r="B346" s="7"/>
       <c r="C346" s="6"/>
       <c r="D346" s="7"/>
@@ -13566,7 +13617,7 @@
       <c r="AB346" s="10"/>
     </row>
     <row r="347" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A347" s="49"/>
+      <c r="A347" s="48"/>
       <c r="B347" s="7"/>
       <c r="C347" s="6"/>
       <c r="D347" s="7"/>
@@ -13596,7 +13647,7 @@
       <c r="AB347" s="10"/>
     </row>
     <row r="348" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A348" s="49"/>
+      <c r="A348" s="48"/>
       <c r="B348" s="7"/>
       <c r="C348" s="6"/>
       <c r="D348" s="7"/>
@@ -13626,7 +13677,7 @@
       <c r="AB348" s="10"/>
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A349" s="49"/>
+      <c r="A349" s="48"/>
       <c r="B349" s="7"/>
       <c r="C349" s="6"/>
       <c r="D349" s="7"/>
@@ -13656,7 +13707,7 @@
       <c r="AB349" s="10"/>
     </row>
     <row r="350" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A350" s="49"/>
+      <c r="A350" s="48"/>
       <c r="B350" s="7"/>
       <c r="C350" s="6"/>
       <c r="D350" s="7"/>
@@ -13686,7 +13737,7 @@
       <c r="AB350" s="10"/>
     </row>
     <row r="351" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A351" s="49"/>
+      <c r="A351" s="48"/>
       <c r="B351" s="7"/>
       <c r="C351" s="6"/>
       <c r="D351" s="7"/>
@@ -13716,7 +13767,7 @@
       <c r="AB351" s="10"/>
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A352" s="49"/>
+      <c r="A352" s="48"/>
       <c r="B352" s="7"/>
       <c r="C352" s="6"/>
       <c r="D352" s="7"/>
@@ -13746,7 +13797,7 @@
       <c r="AB352" s="10"/>
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A353" s="49"/>
+      <c r="A353" s="48"/>
       <c r="B353" s="7"/>
       <c r="C353" s="6"/>
       <c r="D353" s="7"/>
@@ -13776,7 +13827,7 @@
       <c r="AB353" s="10"/>
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A354" s="49"/>
+      <c r="A354" s="48"/>
       <c r="B354" s="7"/>
       <c r="C354" s="6"/>
       <c r="D354" s="7"/>
@@ -13806,7 +13857,7 @@
       <c r="AB354" s="10"/>
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A355" s="49"/>
+      <c r="A355" s="48"/>
       <c r="B355" s="7"/>
       <c r="C355" s="6"/>
       <c r="D355" s="7"/>
@@ -13836,7 +13887,7 @@
       <c r="AB355" s="10"/>
     </row>
     <row r="356" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A356" s="49"/>
+      <c r="A356" s="48"/>
       <c r="B356" s="7"/>
       <c r="C356" s="6"/>
       <c r="D356" s="7"/>
@@ -13866,7 +13917,7 @@
       <c r="AB356" s="10"/>
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A357" s="49"/>
+      <c r="A357" s="48"/>
       <c r="B357" s="7"/>
       <c r="C357" s="6"/>
       <c r="D357" s="7"/>
@@ -13896,7 +13947,7 @@
       <c r="AB357" s="10"/>
     </row>
     <row r="358" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A358" s="49"/>
+      <c r="A358" s="48"/>
       <c r="B358" s="7"/>
       <c r="C358" s="6"/>
       <c r="D358" s="7"/>
@@ -13926,7 +13977,7 @@
       <c r="AB358" s="10"/>
     </row>
     <row r="359" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A359" s="49"/>
+      <c r="A359" s="48"/>
       <c r="B359" s="7"/>
       <c r="C359" s="6"/>
       <c r="D359" s="7"/>
@@ -13956,7 +14007,7 @@
       <c r="AB359" s="10"/>
     </row>
     <row r="360" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A360" s="49"/>
+      <c r="A360" s="48"/>
       <c r="B360" s="7"/>
       <c r="C360" s="6"/>
       <c r="D360" s="7"/>
@@ -13986,7 +14037,7 @@
       <c r="AB360" s="10"/>
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A361" s="49"/>
+      <c r="A361" s="48"/>
       <c r="B361" s="7"/>
       <c r="C361" s="6"/>
       <c r="D361" s="7"/>
@@ -14016,7 +14067,7 @@
       <c r="AB361" s="10"/>
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A362" s="49"/>
+      <c r="A362" s="48"/>
       <c r="B362" s="7"/>
       <c r="C362" s="6"/>
       <c r="D362" s="7"/>
@@ -14046,7 +14097,7 @@
       <c r="AB362" s="10"/>
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A363" s="49"/>
+      <c r="A363" s="48"/>
       <c r="B363" s="7"/>
       <c r="C363" s="6"/>
       <c r="D363" s="7"/>
@@ -14076,7 +14127,7 @@
       <c r="AB363" s="10"/>
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A364" s="49"/>
+      <c r="A364" s="48"/>
       <c r="B364" s="7"/>
       <c r="C364" s="6"/>
       <c r="D364" s="7"/>
@@ -14106,7 +14157,7 @@
       <c r="AB364" s="10"/>
     </row>
     <row r="365" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A365" s="49"/>
+      <c r="A365" s="48"/>
       <c r="B365" s="7"/>
       <c r="C365" s="6"/>
       <c r="D365" s="7"/>
@@ -14136,7 +14187,7 @@
       <c r="AB365" s="10"/>
     </row>
     <row r="366" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A366" s="49"/>
+      <c r="A366" s="48"/>
       <c r="B366" s="7"/>
       <c r="C366" s="6"/>
       <c r="D366" s="7"/>
@@ -14166,7 +14217,7 @@
       <c r="AB366" s="10"/>
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A367" s="49"/>
+      <c r="A367" s="48"/>
       <c r="B367" s="7"/>
       <c r="C367" s="6"/>
       <c r="D367" s="7"/>
@@ -14196,7 +14247,7 @@
       <c r="AB367" s="10"/>
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A368" s="49"/>
+      <c r="A368" s="48"/>
       <c r="B368" s="7"/>
       <c r="C368" s="6"/>
       <c r="D368" s="7"/>
@@ -14226,7 +14277,7 @@
       <c r="AB368" s="10"/>
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A369" s="49"/>
+      <c r="A369" s="48"/>
       <c r="B369" s="7"/>
       <c r="C369" s="6"/>
       <c r="D369" s="7"/>
@@ -14256,7 +14307,7 @@
       <c r="AB369" s="10"/>
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A370" s="49"/>
+      <c r="A370" s="48"/>
       <c r="B370" s="7"/>
       <c r="C370" s="6"/>
       <c r="D370" s="7"/>
@@ -14286,7 +14337,7 @@
       <c r="AB370" s="10"/>
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A371" s="49"/>
+      <c r="A371" s="48"/>
       <c r="B371" s="7"/>
       <c r="C371" s="6"/>
       <c r="D371" s="7"/>
@@ -14316,7 +14367,7 @@
       <c r="AB371" s="10"/>
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A372" s="49"/>
+      <c r="A372" s="48"/>
       <c r="B372" s="7"/>
       <c r="C372" s="6"/>
       <c r="D372" s="7"/>
@@ -14346,7 +14397,7 @@
       <c r="AB372" s="10"/>
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A373" s="49"/>
+      <c r="A373" s="48"/>
       <c r="B373" s="7"/>
       <c r="C373" s="6"/>
       <c r="D373" s="7"/>
@@ -14376,7 +14427,7 @@
       <c r="AB373" s="10"/>
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A374" s="49"/>
+      <c r="A374" s="48"/>
       <c r="B374" s="7"/>
       <c r="C374" s="6"/>
       <c r="D374" s="7"/>
@@ -14406,7 +14457,7 @@
       <c r="AB374" s="10"/>
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A375" s="49"/>
+      <c r="A375" s="48"/>
       <c r="B375" s="7"/>
       <c r="C375" s="6"/>
       <c r="D375" s="7"/>
@@ -14436,7 +14487,7 @@
       <c r="AB375" s="10"/>
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A376" s="49"/>
+      <c r="A376" s="48"/>
       <c r="B376" s="7"/>
       <c r="C376" s="6"/>
       <c r="D376" s="7"/>
@@ -14466,7 +14517,7 @@
       <c r="AB376" s="10"/>
     </row>
     <row r="377" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A377" s="49"/>
+      <c r="A377" s="48"/>
       <c r="B377" s="7"/>
       <c r="C377" s="6"/>
       <c r="D377" s="7"/>
@@ -14496,7 +14547,7 @@
       <c r="AB377" s="10"/>
     </row>
     <row r="378" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A378" s="49"/>
+      <c r="A378" s="48"/>
       <c r="B378" s="7"/>
       <c r="C378" s="6"/>
       <c r="D378" s="7"/>
@@ -14526,7 +14577,7 @@
       <c r="AB378" s="10"/>
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A379" s="49"/>
+      <c r="A379" s="48"/>
       <c r="B379" s="7"/>
       <c r="C379" s="6"/>
       <c r="D379" s="7"/>
@@ -14556,7 +14607,7 @@
       <c r="AB379" s="10"/>
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A380" s="49"/>
+      <c r="A380" s="48"/>
       <c r="B380" s="7"/>
       <c r="C380" s="6"/>
       <c r="D380" s="7"/>
@@ -14586,7 +14637,7 @@
       <c r="AB380" s="10"/>
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A381" s="49"/>
+      <c r="A381" s="48"/>
       <c r="B381" s="7"/>
       <c r="C381" s="6"/>
       <c r="D381" s="7"/>
@@ -14616,7 +14667,7 @@
       <c r="AB381" s="10"/>
     </row>
     <row r="382" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A382" s="49"/>
+      <c r="A382" s="48"/>
       <c r="B382" s="7"/>
       <c r="C382" s="6"/>
       <c r="D382" s="7"/>
@@ -14646,7 +14697,7 @@
       <c r="AB382" s="10"/>
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A383" s="49"/>
+      <c r="A383" s="48"/>
       <c r="B383" s="7"/>
       <c r="C383" s="6"/>
       <c r="D383" s="7"/>
@@ -14676,7 +14727,7 @@
       <c r="AB383" s="10"/>
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A384" s="49"/>
+      <c r="A384" s="48"/>
       <c r="B384" s="7"/>
       <c r="C384" s="6"/>
       <c r="D384" s="7"/>
@@ -14706,7 +14757,7 @@
       <c r="AB384" s="10"/>
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A385" s="49"/>
+      <c r="A385" s="48"/>
       <c r="B385" s="7"/>
       <c r="C385" s="6"/>
       <c r="D385" s="7"/>
@@ -14736,7 +14787,7 @@
       <c r="AB385" s="10"/>
     </row>
     <row r="386" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A386" s="49"/>
+      <c r="A386" s="48"/>
       <c r="B386" s="7"/>
       <c r="C386" s="6"/>
       <c r="D386" s="7"/>
@@ -14766,7 +14817,7 @@
       <c r="AB386" s="10"/>
     </row>
     <row r="387" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A387" s="49"/>
+      <c r="A387" s="48"/>
       <c r="B387" s="7"/>
       <c r="C387" s="6"/>
       <c r="D387" s="7"/>
@@ -14796,7 +14847,7 @@
       <c r="AB387" s="10"/>
     </row>
     <row r="388" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A388" s="49"/>
+      <c r="A388" s="48"/>
       <c r="B388" s="7"/>
       <c r="C388" s="6"/>
       <c r="D388" s="7"/>
@@ -14826,7 +14877,7 @@
       <c r="AB388" s="10"/>
     </row>
     <row r="389" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A389" s="49"/>
+      <c r="A389" s="48"/>
       <c r="B389" s="7"/>
       <c r="C389" s="6"/>
       <c r="D389" s="7"/>
@@ -14856,7 +14907,7 @@
       <c r="AB389" s="10"/>
     </row>
     <row r="390" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A390" s="49"/>
+      <c r="A390" s="48"/>
       <c r="B390" s="7"/>
       <c r="C390" s="6"/>
       <c r="D390" s="7"/>
@@ -14886,7 +14937,7 @@
       <c r="AB390" s="10"/>
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A391" s="49"/>
+      <c r="A391" s="48"/>
       <c r="B391" s="7"/>
       <c r="C391" s="6"/>
       <c r="D391" s="7"/>
@@ -14916,7 +14967,7 @@
       <c r="AB391" s="10"/>
     </row>
     <row r="392" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A392" s="49"/>
+      <c r="A392" s="48"/>
       <c r="B392" s="7"/>
       <c r="C392" s="6"/>
       <c r="D392" s="7"/>
@@ -14946,7 +14997,7 @@
       <c r="AB392" s="10"/>
     </row>
     <row r="393" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A393" s="49"/>
+      <c r="A393" s="48"/>
       <c r="B393" s="7"/>
       <c r="C393" s="6"/>
       <c r="D393" s="7"/>
@@ -14976,7 +15027,7 @@
       <c r="AB393" s="10"/>
     </row>
     <row r="394" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A394" s="49"/>
+      <c r="A394" s="48"/>
       <c r="B394" s="7"/>
       <c r="C394" s="6"/>
       <c r="D394" s="7"/>
@@ -15006,7 +15057,7 @@
       <c r="AB394" s="10"/>
     </row>
     <row r="395" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A395" s="49"/>
+      <c r="A395" s="48"/>
       <c r="B395" s="7"/>
       <c r="C395" s="6"/>
       <c r="D395" s="7"/>
@@ -15036,7 +15087,7 @@
       <c r="AB395" s="10"/>
     </row>
     <row r="396" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A396" s="49"/>
+      <c r="A396" s="48"/>
       <c r="B396" s="7"/>
       <c r="C396" s="6"/>
       <c r="D396" s="7"/>
@@ -15066,7 +15117,7 @@
       <c r="AB396" s="10"/>
     </row>
     <row r="397" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A397" s="49"/>
+      <c r="A397" s="48"/>
       <c r="B397" s="7"/>
       <c r="C397" s="6"/>
       <c r="D397" s="7"/>
@@ -15096,7 +15147,7 @@
       <c r="AB397" s="10"/>
     </row>
     <row r="398" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A398" s="49"/>
+      <c r="A398" s="48"/>
       <c r="B398" s="7"/>
       <c r="C398" s="6"/>
       <c r="D398" s="7"/>
@@ -15126,7 +15177,7 @@
       <c r="AB398" s="10"/>
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A399" s="49"/>
+      <c r="A399" s="48"/>
       <c r="B399" s="7"/>
       <c r="C399" s="6"/>
       <c r="D399" s="7"/>
@@ -15156,7 +15207,7 @@
       <c r="AB399" s="10"/>
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A400" s="49"/>
+      <c r="A400" s="48"/>
       <c r="B400" s="7"/>
       <c r="C400" s="6"/>
       <c r="D400" s="7"/>
@@ -15186,7 +15237,7 @@
       <c r="AB400" s="10"/>
     </row>
     <row r="401" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A401" s="49"/>
+      <c r="A401" s="48"/>
       <c r="B401" s="7"/>
       <c r="C401" s="6"/>
       <c r="D401" s="7"/>
@@ -15216,7 +15267,7 @@
       <c r="AB401" s="10"/>
     </row>
     <row r="402" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A402" s="49"/>
+      <c r="A402" s="48"/>
       <c r="B402" s="7"/>
       <c r="C402" s="6"/>
       <c r="D402" s="7"/>
@@ -15246,7 +15297,7 @@
       <c r="AB402" s="10"/>
     </row>
     <row r="403" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A403" s="49"/>
+      <c r="A403" s="48"/>
       <c r="B403" s="7"/>
       <c r="C403" s="6"/>
       <c r="D403" s="7"/>
@@ -15276,7 +15327,7 @@
       <c r="AB403" s="10"/>
     </row>
     <row r="404" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A404" s="49"/>
+      <c r="A404" s="48"/>
       <c r="B404" s="7"/>
       <c r="C404" s="6"/>
       <c r="D404" s="7"/>
@@ -15306,7 +15357,7 @@
       <c r="AB404" s="10"/>
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A405" s="49"/>
+      <c r="A405" s="48"/>
       <c r="B405" s="7"/>
       <c r="C405" s="6"/>
       <c r="D405" s="7"/>
@@ -15336,7 +15387,7 @@
       <c r="AB405" s="10"/>
     </row>
     <row r="406" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A406" s="49"/>
+      <c r="A406" s="48"/>
       <c r="B406" s="7"/>
       <c r="C406" s="6"/>
       <c r="D406" s="7"/>
@@ -15366,7 +15417,7 @@
       <c r="AB406" s="10"/>
     </row>
     <row r="407" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A407" s="49"/>
+      <c r="A407" s="48"/>
       <c r="B407" s="7"/>
       <c r="C407" s="6"/>
       <c r="D407" s="7"/>
@@ -15396,7 +15447,7 @@
       <c r="AB407" s="10"/>
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A408" s="49"/>
+      <c r="A408" s="48"/>
       <c r="B408" s="7"/>
       <c r="C408" s="6"/>
       <c r="D408" s="7"/>
@@ -15426,7 +15477,7 @@
       <c r="AB408" s="10"/>
     </row>
     <row r="409" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A409" s="49"/>
+      <c r="A409" s="48"/>
       <c r="B409" s="7"/>
       <c r="C409" s="6"/>
       <c r="D409" s="7"/>
@@ -15456,7 +15507,7 @@
       <c r="AB409" s="10"/>
     </row>
     <row r="410" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A410" s="49"/>
+      <c r="A410" s="48"/>
       <c r="B410" s="7"/>
       <c r="C410" s="6"/>
       <c r="D410" s="7"/>
@@ -15486,7 +15537,7 @@
       <c r="AB410" s="10"/>
     </row>
     <row r="411" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A411" s="49"/>
+      <c r="A411" s="48"/>
       <c r="B411" s="7"/>
       <c r="C411" s="6"/>
       <c r="D411" s="7"/>
@@ -15516,7 +15567,7 @@
       <c r="AB411" s="10"/>
     </row>
     <row r="412" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A412" s="49"/>
+      <c r="A412" s="48"/>
       <c r="B412" s="7"/>
       <c r="C412" s="6"/>
       <c r="D412" s="7"/>
@@ -15546,7 +15597,7 @@
       <c r="AB412" s="10"/>
     </row>
     <row r="413" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A413" s="49"/>
+      <c r="A413" s="48"/>
       <c r="B413" s="7"/>
       <c r="C413" s="6"/>
       <c r="D413" s="7"/>
@@ -15576,7 +15627,7 @@
       <c r="AB413" s="10"/>
     </row>
     <row r="414" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A414" s="49"/>
+      <c r="A414" s="48"/>
       <c r="B414" s="7"/>
       <c r="C414" s="6"/>
       <c r="D414" s="7"/>
@@ -15606,7 +15657,7 @@
       <c r="AB414" s="10"/>
     </row>
     <row r="415" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A415" s="49"/>
+      <c r="A415" s="48"/>
       <c r="B415" s="7"/>
       <c r="C415" s="6"/>
       <c r="D415" s="7"/>
@@ -15636,7 +15687,7 @@
       <c r="AB415" s="10"/>
     </row>
     <row r="416" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A416" s="49"/>
+      <c r="A416" s="48"/>
       <c r="B416" s="7"/>
       <c r="C416" s="6"/>
       <c r="D416" s="7"/>
@@ -15666,7 +15717,7 @@
       <c r="AB416" s="10"/>
     </row>
     <row r="417" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A417" s="49"/>
+      <c r="A417" s="48"/>
       <c r="B417" s="7"/>
       <c r="C417" s="6"/>
       <c r="D417" s="7"/>
@@ -15696,7 +15747,7 @@
       <c r="AB417" s="10"/>
     </row>
     <row r="418" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A418" s="49"/>
+      <c r="A418" s="48"/>
       <c r="B418" s="7"/>
       <c r="C418" s="6"/>
       <c r="D418" s="7"/>
@@ -15726,7 +15777,7 @@
       <c r="AB418" s="10"/>
     </row>
     <row r="419" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A419" s="49"/>
+      <c r="A419" s="48"/>
       <c r="B419" s="7"/>
       <c r="C419" s="6"/>
       <c r="D419" s="7"/>
@@ -15756,7 +15807,7 @@
       <c r="AB419" s="10"/>
     </row>
     <row r="420" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A420" s="49"/>
+      <c r="A420" s="48"/>
       <c r="B420" s="7"/>
       <c r="C420" s="6"/>
       <c r="D420" s="7"/>
@@ -15786,7 +15837,7 @@
       <c r="AB420" s="10"/>
     </row>
     <row r="421" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A421" s="49"/>
+      <c r="A421" s="48"/>
       <c r="B421" s="7"/>
       <c r="C421" s="6"/>
       <c r="D421" s="7"/>
@@ -15816,7 +15867,7 @@
       <c r="AB421" s="10"/>
     </row>
     <row r="422" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A422" s="49"/>
+      <c r="A422" s="48"/>
       <c r="B422" s="7"/>
       <c r="C422" s="6"/>
       <c r="D422" s="7"/>
@@ -15846,7 +15897,7 @@
       <c r="AB422" s="10"/>
     </row>
     <row r="423" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A423" s="49"/>
+      <c r="A423" s="48"/>
       <c r="B423" s="7"/>
       <c r="C423" s="6"/>
       <c r="D423" s="7"/>
@@ -15876,7 +15927,7 @@
       <c r="AB423" s="10"/>
     </row>
     <row r="424" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A424" s="49"/>
+      <c r="A424" s="48"/>
       <c r="B424" s="7"/>
       <c r="C424" s="6"/>
       <c r="D424" s="7"/>
@@ -15906,7 +15957,7 @@
       <c r="AB424" s="10"/>
     </row>
     <row r="425" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A425" s="49"/>
+      <c r="A425" s="48"/>
       <c r="B425" s="7"/>
       <c r="C425" s="6"/>
       <c r="D425" s="7"/>
@@ -15936,7 +15987,7 @@
       <c r="AB425" s="10"/>
     </row>
     <row r="426" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A426" s="49"/>
+      <c r="A426" s="48"/>
       <c r="B426" s="7"/>
       <c r="C426" s="6"/>
       <c r="D426" s="7"/>
@@ -15966,7 +16017,7 @@
       <c r="AB426" s="10"/>
     </row>
     <row r="427" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A427" s="49"/>
+      <c r="A427" s="48"/>
       <c r="B427" s="7"/>
       <c r="C427" s="6"/>
       <c r="D427" s="7"/>
@@ -15996,7 +16047,7 @@
       <c r="AB427" s="10"/>
     </row>
     <row r="428" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A428" s="49"/>
+      <c r="A428" s="48"/>
       <c r="B428" s="7"/>
       <c r="C428" s="6"/>
       <c r="D428" s="7"/>
@@ -16026,7 +16077,7 @@
       <c r="AB428" s="10"/>
     </row>
     <row r="429" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A429" s="49"/>
+      <c r="A429" s="48"/>
       <c r="B429" s="7"/>
       <c r="C429" s="6"/>
       <c r="D429" s="7"/>
@@ -16056,7 +16107,7 @@
       <c r="AB429" s="10"/>
     </row>
     <row r="430" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A430" s="49"/>
+      <c r="A430" s="48"/>
       <c r="B430" s="7"/>
       <c r="C430" s="6"/>
       <c r="D430" s="7"/>
@@ -16086,7 +16137,7 @@
       <c r="AB430" s="10"/>
     </row>
     <row r="431" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A431" s="49"/>
+      <c r="A431" s="48"/>
       <c r="B431" s="7"/>
       <c r="C431" s="6"/>
       <c r="D431" s="7"/>
@@ -16116,7 +16167,7 @@
       <c r="AB431" s="10"/>
     </row>
     <row r="432" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A432" s="49"/>
+      <c r="A432" s="48"/>
       <c r="B432" s="7"/>
       <c r="C432" s="6"/>
       <c r="D432" s="7"/>
@@ -16146,7 +16197,7 @@
       <c r="AB432" s="10"/>
     </row>
     <row r="433" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A433" s="49"/>
+      <c r="A433" s="48"/>
       <c r="B433" s="7"/>
       <c r="C433" s="6"/>
       <c r="D433" s="7"/>
@@ -16176,7 +16227,7 @@
       <c r="AB433" s="10"/>
     </row>
     <row r="434" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A434" s="49"/>
+      <c r="A434" s="48"/>
       <c r="B434" s="7"/>
       <c r="C434" s="6"/>
       <c r="D434" s="7"/>
@@ -16206,7 +16257,7 @@
       <c r="AB434" s="10"/>
     </row>
     <row r="435" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A435" s="49"/>
+      <c r="A435" s="48"/>
       <c r="B435" s="7"/>
       <c r="C435" s="6"/>
       <c r="D435" s="7"/>
@@ -16236,7 +16287,7 @@
       <c r="AB435" s="10"/>
     </row>
     <row r="436" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A436" s="49"/>
+      <c r="A436" s="48"/>
       <c r="B436" s="7"/>
       <c r="C436" s="6"/>
       <c r="D436" s="7"/>
@@ -16266,7 +16317,7 @@
       <c r="AB436" s="10"/>
     </row>
     <row r="437" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A437" s="49"/>
+      <c r="A437" s="48"/>
       <c r="B437" s="7"/>
       <c r="C437" s="6"/>
       <c r="D437" s="7"/>
@@ -16296,7 +16347,7 @@
       <c r="AB437" s="10"/>
     </row>
     <row r="438" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A438" s="49"/>
+      <c r="A438" s="48"/>
       <c r="B438" s="7"/>
       <c r="C438" s="6"/>
       <c r="D438" s="7"/>
@@ -16326,7 +16377,7 @@
       <c r="AB438" s="10"/>
     </row>
     <row r="439" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A439" s="49"/>
+      <c r="A439" s="48"/>
       <c r="B439" s="7"/>
       <c r="C439" s="6"/>
       <c r="D439" s="7"/>
@@ -16356,7 +16407,7 @@
       <c r="AB439" s="10"/>
     </row>
     <row r="440" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A440" s="49"/>
+      <c r="A440" s="48"/>
       <c r="B440" s="7"/>
       <c r="C440" s="6"/>
       <c r="D440" s="7"/>
@@ -16386,7 +16437,7 @@
       <c r="AB440" s="10"/>
     </row>
     <row r="441" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A441" s="49"/>
+      <c r="A441" s="48"/>
       <c r="B441" s="7"/>
       <c r="C441" s="6"/>
       <c r="D441" s="7"/>
@@ -16416,7 +16467,7 @@
       <c r="AB441" s="10"/>
     </row>
     <row r="442" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A442" s="49"/>
+      <c r="A442" s="48"/>
       <c r="B442" s="7"/>
       <c r="C442" s="6"/>
       <c r="D442" s="7"/>
@@ -16446,7 +16497,7 @@
       <c r="AB442" s="10"/>
     </row>
     <row r="443" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A443" s="49"/>
+      <c r="A443" s="48"/>
       <c r="B443" s="7"/>
       <c r="C443" s="6"/>
       <c r="D443" s="7"/>
@@ -16476,7 +16527,7 @@
       <c r="AB443" s="10"/>
     </row>
     <row r="444" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A444" s="49"/>
+      <c r="A444" s="48"/>
       <c r="B444" s="7"/>
       <c r="C444" s="6"/>
       <c r="D444" s="7"/>
@@ -16506,7 +16557,7 @@
       <c r="AB444" s="10"/>
     </row>
     <row r="445" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A445" s="49"/>
+      <c r="A445" s="48"/>
       <c r="B445" s="7"/>
       <c r="C445" s="6"/>
       <c r="D445" s="7"/>
@@ -16536,7 +16587,7 @@
       <c r="AB445" s="10"/>
     </row>
     <row r="446" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A446" s="49"/>
+      <c r="A446" s="48"/>
       <c r="B446" s="7"/>
       <c r="C446" s="6"/>
       <c r="D446" s="7"/>
@@ -16566,7 +16617,7 @@
       <c r="AB446" s="10"/>
     </row>
     <row r="447" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A447" s="49"/>
+      <c r="A447" s="48"/>
       <c r="B447" s="7"/>
       <c r="C447" s="6"/>
       <c r="D447" s="7"/>
@@ -16596,7 +16647,7 @@
       <c r="AB447" s="10"/>
     </row>
     <row r="448" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A448" s="49"/>
+      <c r="A448" s="48"/>
       <c r="B448" s="7"/>
       <c r="C448" s="6"/>
       <c r="D448" s="7"/>
@@ -16626,7 +16677,7 @@
       <c r="AB448" s="10"/>
     </row>
     <row r="449" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A449" s="49"/>
+      <c r="A449" s="48"/>
       <c r="B449" s="7"/>
       <c r="C449" s="6"/>
       <c r="D449" s="7"/>
@@ -16656,7 +16707,7 @@
       <c r="AB449" s="10"/>
     </row>
     <row r="450" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A450" s="49"/>
+      <c r="A450" s="48"/>
       <c r="B450" s="7"/>
       <c r="C450" s="6"/>
       <c r="D450" s="7"/>
@@ -16686,7 +16737,7 @@
       <c r="AB450" s="10"/>
     </row>
     <row r="451" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A451" s="49"/>
+      <c r="A451" s="48"/>
       <c r="B451" s="7"/>
       <c r="C451" s="6"/>
       <c r="D451" s="7"/>
@@ -16716,7 +16767,7 @@
       <c r="AB451" s="10"/>
     </row>
     <row r="452" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A452" s="49"/>
+      <c r="A452" s="48"/>
       <c r="B452" s="7"/>
       <c r="C452" s="6"/>
       <c r="D452" s="7"/>
@@ -16746,7 +16797,7 @@
       <c r="AB452" s="10"/>
     </row>
     <row r="453" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A453" s="49"/>
+      <c r="A453" s="48"/>
       <c r="B453" s="7"/>
       <c r="C453" s="6"/>
       <c r="D453" s="7"/>
@@ -16776,7 +16827,7 @@
       <c r="AB453" s="10"/>
     </row>
     <row r="454" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A454" s="49"/>
+      <c r="A454" s="48"/>
       <c r="B454" s="7"/>
       <c r="C454" s="6"/>
       <c r="D454" s="7"/>
@@ -16806,7 +16857,7 @@
       <c r="AB454" s="10"/>
     </row>
     <row r="455" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A455" s="49"/>
+      <c r="A455" s="48"/>
       <c r="B455" s="7"/>
       <c r="C455" s="6"/>
       <c r="D455" s="7"/>
@@ -16836,7 +16887,7 @@
       <c r="AB455" s="10"/>
     </row>
     <row r="456" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A456" s="49"/>
+      <c r="A456" s="48"/>
       <c r="B456" s="7"/>
       <c r="C456" s="6"/>
       <c r="D456" s="7"/>
@@ -16866,7 +16917,7 @@
       <c r="AB456" s="10"/>
     </row>
     <row r="457" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A457" s="49"/>
+      <c r="A457" s="48"/>
       <c r="B457" s="7"/>
       <c r="C457" s="6"/>
       <c r="D457" s="7"/>
@@ -16896,7 +16947,7 @@
       <c r="AB457" s="10"/>
     </row>
     <row r="458" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A458" s="49"/>
+      <c r="A458" s="48"/>
       <c r="B458" s="7"/>
       <c r="C458" s="6"/>
       <c r="D458" s="7"/>
@@ -16926,7 +16977,7 @@
       <c r="AB458" s="10"/>
     </row>
     <row r="459" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A459" s="49"/>
+      <c r="A459" s="48"/>
       <c r="B459" s="7"/>
       <c r="C459" s="6"/>
       <c r="D459" s="7"/>
@@ -16956,7 +17007,7 @@
       <c r="AB459" s="10"/>
     </row>
     <row r="460" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A460" s="49"/>
+      <c r="A460" s="48"/>
       <c r="B460" s="7"/>
       <c r="C460" s="6"/>
       <c r="D460" s="7"/>
@@ -16986,7 +17037,7 @@
       <c r="AB460" s="10"/>
     </row>
     <row r="461" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A461" s="49"/>
+      <c r="A461" s="48"/>
       <c r="B461" s="7"/>
       <c r="C461" s="6"/>
       <c r="D461" s="7"/>
@@ -17016,7 +17067,7 @@
       <c r="AB461" s="10"/>
     </row>
     <row r="462" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A462" s="49"/>
+      <c r="A462" s="48"/>
       <c r="B462" s="7"/>
       <c r="C462" s="6"/>
       <c r="D462" s="7"/>
@@ -17046,7 +17097,7 @@
       <c r="AB462" s="10"/>
     </row>
     <row r="463" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A463" s="49"/>
+      <c r="A463" s="48"/>
       <c r="B463" s="7"/>
       <c r="C463" s="6"/>
       <c r="D463" s="7"/>
@@ -17076,7 +17127,7 @@
       <c r="AB463" s="10"/>
     </row>
     <row r="464" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A464" s="49"/>
+      <c r="A464" s="48"/>
       <c r="B464" s="7"/>
       <c r="C464" s="6"/>
       <c r="D464" s="7"/>
@@ -17106,7 +17157,7 @@
       <c r="AB464" s="10"/>
     </row>
     <row r="465" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A465" s="49"/>
+      <c r="A465" s="48"/>
       <c r="B465" s="7"/>
       <c r="C465" s="6"/>
       <c r="D465" s="7"/>
@@ -17136,7 +17187,7 @@
       <c r="AB465" s="10"/>
     </row>
     <row r="466" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A466" s="49"/>
+      <c r="A466" s="48"/>
       <c r="B466" s="7"/>
       <c r="C466" s="6"/>
       <c r="D466" s="7"/>
@@ -17166,7 +17217,7 @@
       <c r="AB466" s="10"/>
     </row>
     <row r="467" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A467" s="49"/>
+      <c r="A467" s="48"/>
       <c r="B467" s="7"/>
       <c r="C467" s="6"/>
       <c r="D467" s="7"/>
@@ -17196,7 +17247,7 @@
       <c r="AB467" s="10"/>
     </row>
     <row r="468" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A468" s="49"/>
+      <c r="A468" s="48"/>
       <c r="B468" s="7"/>
       <c r="C468" s="6"/>
       <c r="D468" s="7"/>
@@ -17226,7 +17277,7 @@
       <c r="AB468" s="10"/>
     </row>
     <row r="469" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A469" s="49"/>
+      <c r="A469" s="48"/>
       <c r="B469" s="7"/>
       <c r="C469" s="6"/>
       <c r="D469" s="7"/>
@@ -17256,7 +17307,7 @@
       <c r="AB469" s="10"/>
     </row>
     <row r="470" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A470" s="49"/>
+      <c r="A470" s="48"/>
       <c r="B470" s="7"/>
       <c r="C470" s="6"/>
       <c r="D470" s="7"/>
@@ -17286,7 +17337,7 @@
       <c r="AB470" s="10"/>
     </row>
     <row r="471" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A471" s="49"/>
+      <c r="A471" s="48"/>
       <c r="B471" s="7"/>
       <c r="C471" s="6"/>
       <c r="D471" s="7"/>
@@ -17316,7 +17367,7 @@
       <c r="AB471" s="10"/>
     </row>
     <row r="472" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A472" s="49"/>
+      <c r="A472" s="48"/>
       <c r="B472" s="7"/>
       <c r="C472" s="6"/>
       <c r="D472" s="7"/>
@@ -17346,7 +17397,7 @@
       <c r="AB472" s="10"/>
     </row>
     <row r="473" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A473" s="49"/>
+      <c r="A473" s="48"/>
       <c r="B473" s="7"/>
       <c r="C473" s="6"/>
       <c r="D473" s="7"/>
@@ -17376,7 +17427,7 @@
       <c r="AB473" s="10"/>
     </row>
     <row r="474" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A474" s="49"/>
+      <c r="A474" s="48"/>
       <c r="B474" s="7"/>
       <c r="C474" s="6"/>
       <c r="D474" s="7"/>
@@ -17406,7 +17457,7 @@
       <c r="AB474" s="10"/>
     </row>
     <row r="475" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A475" s="49"/>
+      <c r="A475" s="48"/>
       <c r="B475" s="7"/>
       <c r="C475" s="6"/>
       <c r="D475" s="7"/>
@@ -17436,7 +17487,7 @@
       <c r="AB475" s="10"/>
     </row>
     <row r="476" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A476" s="49"/>
+      <c r="A476" s="48"/>
       <c r="B476" s="7"/>
       <c r="C476" s="6"/>
       <c r="D476" s="7"/>
@@ -17466,7 +17517,7 @@
       <c r="AB476" s="10"/>
     </row>
     <row r="477" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A477" s="49"/>
+      <c r="A477" s="48"/>
       <c r="B477" s="7"/>
       <c r="C477" s="6"/>
       <c r="D477" s="7"/>
@@ -17496,7 +17547,7 @@
       <c r="AB477" s="10"/>
     </row>
     <row r="478" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A478" s="49"/>
+      <c r="A478" s="48"/>
       <c r="B478" s="7"/>
       <c r="C478" s="6"/>
       <c r="D478" s="7"/>
@@ -17526,7 +17577,7 @@
       <c r="AB478" s="10"/>
     </row>
     <row r="479" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A479" s="49"/>
+      <c r="A479" s="48"/>
       <c r="B479" s="7"/>
       <c r="C479" s="6"/>
       <c r="D479" s="7"/>
@@ -17556,7 +17607,7 @@
       <c r="AB479" s="10"/>
     </row>
     <row r="480" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A480" s="49"/>
+      <c r="A480" s="48"/>
       <c r="B480" s="7"/>
       <c r="C480" s="6"/>
       <c r="D480" s="7"/>
@@ -17586,7 +17637,7 @@
       <c r="AB480" s="10"/>
     </row>
     <row r="481" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A481" s="49"/>
+      <c r="A481" s="48"/>
       <c r="B481" s="7"/>
       <c r="C481" s="6"/>
       <c r="D481" s="7"/>
@@ -17616,7 +17667,7 @@
       <c r="AB481" s="10"/>
     </row>
     <row r="482" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A482" s="49"/>
+      <c r="A482" s="48"/>
       <c r="B482" s="7"/>
       <c r="C482" s="6"/>
       <c r="D482" s="7"/>
@@ -17646,7 +17697,7 @@
       <c r="AB482" s="10"/>
     </row>
     <row r="483" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A483" s="49"/>
+      <c r="A483" s="48"/>
       <c r="B483" s="7"/>
       <c r="C483" s="6"/>
       <c r="D483" s="7"/>
@@ -17676,7 +17727,7 @@
       <c r="AB483" s="10"/>
     </row>
     <row r="484" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A484" s="49"/>
+      <c r="A484" s="48"/>
       <c r="B484" s="7"/>
       <c r="C484" s="6"/>
       <c r="D484" s="7"/>
@@ -17706,7 +17757,7 @@
       <c r="AB484" s="10"/>
     </row>
     <row r="485" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A485" s="49"/>
+      <c r="A485" s="48"/>
       <c r="B485" s="7"/>
       <c r="C485" s="6"/>
       <c r="D485" s="7"/>
@@ -17736,7 +17787,7 @@
       <c r="AB485" s="10"/>
     </row>
     <row r="486" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A486" s="49"/>
+      <c r="A486" s="48"/>
       <c r="B486" s="7"/>
       <c r="C486" s="6"/>
       <c r="D486" s="7"/>
@@ -17766,7 +17817,7 @@
       <c r="AB486" s="10"/>
     </row>
     <row r="487" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A487" s="49"/>
+      <c r="A487" s="48"/>
       <c r="B487" s="7"/>
       <c r="C487" s="6"/>
       <c r="D487" s="7"/>
@@ -17796,7 +17847,7 @@
       <c r="AB487" s="10"/>
     </row>
     <row r="488" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A488" s="49"/>
+      <c r="A488" s="48"/>
       <c r="B488" s="7"/>
       <c r="C488" s="6"/>
       <c r="D488" s="7"/>
@@ -17826,7 +17877,7 @@
       <c r="AB488" s="10"/>
     </row>
     <row r="489" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A489" s="49"/>
+      <c r="A489" s="48"/>
       <c r="B489" s="7"/>
       <c r="C489" s="6"/>
       <c r="D489" s="7"/>
@@ -17856,7 +17907,7 @@
       <c r="AB489" s="10"/>
     </row>
     <row r="490" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A490" s="49"/>
+      <c r="A490" s="48"/>
       <c r="B490" s="7"/>
       <c r="C490" s="6"/>
       <c r="D490" s="7"/>
@@ -17886,7 +17937,7 @@
       <c r="AB490" s="10"/>
     </row>
     <row r="491" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A491" s="49"/>
+      <c r="A491" s="48"/>
       <c r="B491" s="7"/>
       <c r="C491" s="6"/>
       <c r="D491" s="7"/>
@@ -17916,7 +17967,7 @@
       <c r="AB491" s="10"/>
     </row>
     <row r="492" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A492" s="49"/>
+      <c r="A492" s="48"/>
       <c r="B492" s="7"/>
       <c r="C492" s="6"/>
       <c r="D492" s="7"/>
@@ -17946,7 +17997,7 @@
       <c r="AB492" s="10"/>
     </row>
     <row r="493" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A493" s="49"/>
+      <c r="A493" s="48"/>
       <c r="B493" s="7"/>
       <c r="C493" s="6"/>
       <c r="D493" s="7"/>
@@ -17976,7 +18027,7 @@
       <c r="AB493" s="10"/>
     </row>
     <row r="494" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A494" s="49"/>
+      <c r="A494" s="48"/>
       <c r="B494" s="7"/>
       <c r="C494" s="6"/>
       <c r="D494" s="7"/>
@@ -18006,7 +18057,7 @@
       <c r="AB494" s="10"/>
     </row>
     <row r="495" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A495" s="49"/>
+      <c r="A495" s="48"/>
       <c r="B495" s="7"/>
       <c r="C495" s="6"/>
       <c r="D495" s="7"/>
@@ -18036,7 +18087,7 @@
       <c r="AB495" s="10"/>
     </row>
     <row r="496" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A496" s="49"/>
+      <c r="A496" s="48"/>
       <c r="B496" s="7"/>
       <c r="C496" s="6"/>
       <c r="D496" s="7"/>
@@ -18066,7 +18117,7 @@
       <c r="AB496" s="10"/>
     </row>
     <row r="497" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A497" s="49"/>
+      <c r="A497" s="48"/>
       <c r="B497" s="7"/>
       <c r="C497" s="6"/>
       <c r="D497" s="7"/>
@@ -18096,7 +18147,7 @@
       <c r="AB497" s="10"/>
     </row>
     <row r="498" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A498" s="49"/>
+      <c r="A498" s="48"/>
       <c r="B498" s="7"/>
       <c r="C498" s="6"/>
       <c r="D498" s="7"/>
@@ -18126,7 +18177,7 @@
       <c r="AB498" s="10"/>
     </row>
     <row r="499" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A499" s="49"/>
+      <c r="A499" s="48"/>
       <c r="B499" s="7"/>
       <c r="C499" s="6"/>
       <c r="D499" s="7"/>
@@ -18156,7 +18207,7 @@
       <c r="AB499" s="10"/>
     </row>
     <row r="500" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A500" s="49"/>
+      <c r="A500" s="48"/>
       <c r="B500" s="7"/>
       <c r="C500" s="6"/>
       <c r="D500" s="7"/>
@@ -18186,7 +18237,7 @@
       <c r="AB500" s="10"/>
     </row>
     <row r="501" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A501" s="49"/>
+      <c r="A501" s="48"/>
       <c r="B501" s="7"/>
       <c r="C501" s="6"/>
       <c r="D501" s="7"/>
@@ -18216,7 +18267,7 @@
       <c r="AB501" s="10"/>
     </row>
     <row r="502" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A502" s="49"/>
+      <c r="A502" s="48"/>
       <c r="B502" s="7"/>
       <c r="C502" s="6"/>
       <c r="D502" s="7"/>
@@ -18246,7 +18297,7 @@
       <c r="AB502" s="10"/>
     </row>
     <row r="503" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A503" s="49"/>
+      <c r="A503" s="48"/>
       <c r="B503" s="7"/>
       <c r="C503" s="6"/>
       <c r="D503" s="7"/>
@@ -18276,7 +18327,7 @@
       <c r="AB503" s="10"/>
     </row>
     <row r="504" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A504" s="49"/>
+      <c r="A504" s="48"/>
       <c r="B504" s="7"/>
       <c r="C504" s="6"/>
       <c r="D504" s="7"/>
@@ -18306,7 +18357,7 @@
       <c r="AB504" s="10"/>
     </row>
     <row r="505" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A505" s="49"/>
+      <c r="A505" s="48"/>
       <c r="B505" s="7"/>
       <c r="C505" s="6"/>
       <c r="D505" s="7"/>
@@ -18336,7 +18387,7 @@
       <c r="AB505" s="10"/>
     </row>
     <row r="506" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A506" s="49"/>
+      <c r="A506" s="48"/>
       <c r="B506" s="7"/>
       <c r="C506" s="6"/>
       <c r="D506" s="7"/>
@@ -18366,7 +18417,7 @@
       <c r="AB506" s="10"/>
     </row>
     <row r="507" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A507" s="49"/>
+      <c r="A507" s="48"/>
       <c r="B507" s="7"/>
       <c r="C507" s="6"/>
       <c r="D507" s="7"/>
@@ -18396,7 +18447,7 @@
       <c r="AB507" s="10"/>
     </row>
     <row r="508" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A508" s="49"/>
+      <c r="A508" s="48"/>
       <c r="B508" s="7"/>
       <c r="C508" s="6"/>
       <c r="D508" s="7"/>
@@ -18426,7 +18477,7 @@
       <c r="AB508" s="10"/>
     </row>
     <row r="509" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A509" s="49"/>
+      <c r="A509" s="48"/>
       <c r="B509" s="7"/>
       <c r="C509" s="6"/>
       <c r="D509" s="7"/>
@@ -18456,7 +18507,7 @@
       <c r="AB509" s="10"/>
     </row>
     <row r="510" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A510" s="49"/>
+      <c r="A510" s="48"/>
       <c r="B510" s="7"/>
       <c r="C510" s="6"/>
       <c r="D510" s="7"/>
@@ -18486,7 +18537,7 @@
       <c r="AB510" s="10"/>
     </row>
     <row r="511" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A511" s="49"/>
+      <c r="A511" s="48"/>
       <c r="B511" s="7"/>
       <c r="C511" s="6"/>
       <c r="D511" s="7"/>
@@ -18516,7 +18567,7 @@
       <c r="AB511" s="10"/>
     </row>
     <row r="512" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A512" s="49"/>
+      <c r="A512" s="48"/>
       <c r="B512" s="7"/>
       <c r="C512" s="6"/>
       <c r="D512" s="7"/>
@@ -18546,7 +18597,7 @@
       <c r="AB512" s="10"/>
     </row>
     <row r="513" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A513" s="49"/>
+      <c r="A513" s="48"/>
       <c r="B513" s="7"/>
       <c r="C513" s="6"/>
       <c r="D513" s="7"/>
@@ -18576,7 +18627,7 @@
       <c r="AB513" s="10"/>
     </row>
     <row r="514" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A514" s="49"/>
+      <c r="A514" s="48"/>
       <c r="B514" s="7"/>
       <c r="C514" s="6"/>
       <c r="D514" s="7"/>
@@ -18606,7 +18657,7 @@
       <c r="AB514" s="10"/>
     </row>
     <row r="515" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A515" s="49"/>
+      <c r="A515" s="48"/>
       <c r="B515" s="7"/>
       <c r="C515" s="6"/>
       <c r="D515" s="7"/>
@@ -18636,7 +18687,7 @@
       <c r="AB515" s="10"/>
     </row>
     <row r="516" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A516" s="49"/>
+      <c r="A516" s="48"/>
       <c r="B516" s="7"/>
       <c r="C516" s="6"/>
       <c r="D516" s="7"/>
@@ -18666,7 +18717,7 @@
       <c r="AB516" s="10"/>
     </row>
     <row r="517" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A517" s="49"/>
+      <c r="A517" s="48"/>
       <c r="B517" s="7"/>
       <c r="C517" s="6"/>
       <c r="D517" s="7"/>
@@ -18696,7 +18747,7 @@
       <c r="AB517" s="10"/>
     </row>
     <row r="518" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A518" s="49"/>
+      <c r="A518" s="48"/>
       <c r="B518" s="7"/>
       <c r="C518" s="6"/>
       <c r="D518" s="7"/>
@@ -18726,7 +18777,7 @@
       <c r="AB518" s="10"/>
     </row>
     <row r="519" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A519" s="49"/>
+      <c r="A519" s="48"/>
       <c r="B519" s="7"/>
       <c r="C519" s="6"/>
       <c r="D519" s="7"/>
@@ -18756,7 +18807,7 @@
       <c r="AB519" s="10"/>
     </row>
     <row r="520" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A520" s="49"/>
+      <c r="A520" s="48"/>
       <c r="B520" s="7"/>
       <c r="C520" s="6"/>
       <c r="D520" s="7"/>
@@ -18786,7 +18837,7 @@
       <c r="AB520" s="10"/>
     </row>
     <row r="521" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A521" s="49"/>
+      <c r="A521" s="48"/>
       <c r="B521" s="7"/>
       <c r="C521" s="6"/>
       <c r="D521" s="7"/>
@@ -18816,7 +18867,7 @@
       <c r="AB521" s="10"/>
     </row>
     <row r="522" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A522" s="49"/>
+      <c r="A522" s="48"/>
       <c r="B522" s="7"/>
       <c r="C522" s="6"/>
       <c r="D522" s="7"/>
@@ -18846,7 +18897,7 @@
       <c r="AB522" s="10"/>
     </row>
     <row r="523" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A523" s="49"/>
+      <c r="A523" s="48"/>
       <c r="B523" s="7"/>
       <c r="C523" s="6"/>
       <c r="D523" s="7"/>
@@ -18876,7 +18927,7 @@
       <c r="AB523" s="10"/>
     </row>
     <row r="524" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A524" s="49"/>
+      <c r="A524" s="48"/>
       <c r="B524" s="7"/>
       <c r="C524" s="6"/>
       <c r="D524" s="7"/>
@@ -18906,7 +18957,7 @@
       <c r="AB524" s="10"/>
     </row>
     <row r="525" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A525" s="49"/>
+      <c r="A525" s="48"/>
       <c r="B525" s="7"/>
       <c r="C525" s="6"/>
       <c r="D525" s="7"/>
@@ -18936,7 +18987,7 @@
       <c r="AB525" s="10"/>
     </row>
     <row r="526" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A526" s="49"/>
+      <c r="A526" s="48"/>
       <c r="B526" s="7"/>
       <c r="C526" s="6"/>
       <c r="D526" s="7"/>
@@ -18966,7 +19017,7 @@
       <c r="AB526" s="10"/>
     </row>
     <row r="527" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A527" s="49"/>
+      <c r="A527" s="48"/>
       <c r="B527" s="7"/>
       <c r="C527" s="6"/>
       <c r="D527" s="7"/>
@@ -18996,7 +19047,7 @@
       <c r="AB527" s="10"/>
     </row>
     <row r="528" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A528" s="49"/>
+      <c r="A528" s="48"/>
       <c r="B528" s="7"/>
       <c r="C528" s="6"/>
       <c r="D528" s="7"/>
@@ -19026,7 +19077,7 @@
       <c r="AB528" s="10"/>
     </row>
     <row r="529" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A529" s="49"/>
+      <c r="A529" s="48"/>
       <c r="B529" s="7"/>
       <c r="C529" s="6"/>
       <c r="D529" s="7"/>
@@ -19056,7 +19107,7 @@
       <c r="AB529" s="10"/>
     </row>
     <row r="530" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A530" s="49"/>
+      <c r="A530" s="48"/>
       <c r="B530" s="7"/>
       <c r="C530" s="6"/>
       <c r="D530" s="7"/>
@@ -19086,7 +19137,7 @@
       <c r="AB530" s="10"/>
     </row>
     <row r="531" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A531" s="49"/>
+      <c r="A531" s="48"/>
       <c r="B531" s="7"/>
       <c r="C531" s="6"/>
       <c r="D531" s="7"/>
@@ -19116,7 +19167,7 @@
       <c r="AB531" s="10"/>
     </row>
     <row r="532" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A532" s="49"/>
+      <c r="A532" s="48"/>
       <c r="B532" s="7"/>
       <c r="C532" s="6"/>
       <c r="D532" s="7"/>
@@ -19146,7 +19197,7 @@
       <c r="AB532" s="10"/>
     </row>
     <row r="533" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A533" s="49"/>
+      <c r="A533" s="48"/>
       <c r="B533" s="7"/>
       <c r="C533" s="6"/>
       <c r="D533" s="7"/>
@@ -19176,7 +19227,7 @@
       <c r="AB533" s="10"/>
     </row>
     <row r="534" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A534" s="49"/>
+      <c r="A534" s="48"/>
       <c r="B534" s="7"/>
       <c r="C534" s="6"/>
       <c r="D534" s="7"/>
@@ -19206,7 +19257,7 @@
       <c r="AB534" s="10"/>
     </row>
     <row r="535" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A535" s="49"/>
+      <c r="A535" s="48"/>
       <c r="B535" s="7"/>
       <c r="C535" s="6"/>
       <c r="D535" s="7"/>
@@ -19236,7 +19287,7 @@
       <c r="AB535" s="10"/>
     </row>
     <row r="536" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A536" s="49"/>
+      <c r="A536" s="48"/>
       <c r="B536" s="7"/>
       <c r="C536" s="6"/>
       <c r="D536" s="7"/>
@@ -19266,7 +19317,7 @@
       <c r="AB536" s="10"/>
     </row>
     <row r="537" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A537" s="49"/>
+      <c r="A537" s="48"/>
       <c r="B537" s="7"/>
       <c r="C537" s="6"/>
       <c r="D537" s="7"/>
@@ -19296,7 +19347,7 @@
       <c r="AB537" s="10"/>
     </row>
     <row r="538" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A538" s="49"/>
+      <c r="A538" s="48"/>
       <c r="B538" s="7"/>
       <c r="C538" s="6"/>
       <c r="D538" s="7"/>
@@ -19326,7 +19377,7 @@
       <c r="AB538" s="10"/>
     </row>
     <row r="539" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A539" s="49"/>
+      <c r="A539" s="48"/>
       <c r="B539" s="7"/>
       <c r="C539" s="6"/>
       <c r="D539" s="7"/>
@@ -19356,7 +19407,7 @@
       <c r="AB539" s="10"/>
     </row>
     <row r="540" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A540" s="49"/>
+      <c r="A540" s="48"/>
       <c r="B540" s="7"/>
       <c r="C540" s="6"/>
       <c r="D540" s="7"/>
@@ -19386,7 +19437,7 @@
       <c r="AB540" s="10"/>
     </row>
     <row r="541" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A541" s="49"/>
+      <c r="A541" s="48"/>
       <c r="B541" s="7"/>
       <c r="C541" s="6"/>
       <c r="D541" s="7"/>
@@ -19416,7 +19467,7 @@
       <c r="AB541" s="10"/>
     </row>
     <row r="542" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A542" s="49"/>
+      <c r="A542" s="48"/>
       <c r="B542" s="7"/>
       <c r="C542" s="6"/>
       <c r="D542" s="7"/>
@@ -19446,7 +19497,7 @@
       <c r="AB542" s="10"/>
     </row>
     <row r="543" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A543" s="49"/>
+      <c r="A543" s="48"/>
       <c r="B543" s="7"/>
       <c r="C543" s="6"/>
       <c r="D543" s="7"/>
@@ -19476,7 +19527,7 @@
       <c r="AB543" s="10"/>
     </row>
     <row r="544" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A544" s="49"/>
+      <c r="A544" s="48"/>
       <c r="B544" s="7"/>
       <c r="C544" s="6"/>
       <c r="D544" s="7"/>
@@ -19506,7 +19557,7 @@
       <c r="AB544" s="10"/>
     </row>
     <row r="545" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A545" s="49"/>
+      <c r="A545" s="48"/>
       <c r="B545" s="7"/>
       <c r="C545" s="6"/>
       <c r="D545" s="7"/>
@@ -19536,7 +19587,7 @@
       <c r="AB545" s="10"/>
     </row>
     <row r="546" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A546" s="49"/>
+      <c r="A546" s="48"/>
       <c r="B546" s="7"/>
       <c r="C546" s="6"/>
       <c r="D546" s="7"/>
@@ -19566,7 +19617,7 @@
       <c r="AB546" s="10"/>
     </row>
     <row r="547" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A547" s="49"/>
+      <c r="A547" s="48"/>
       <c r="B547" s="7"/>
       <c r="C547" s="6"/>
       <c r="D547" s="7"/>
@@ -19596,7 +19647,7 @@
       <c r="AB547" s="10"/>
     </row>
     <row r="548" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A548" s="49"/>
+      <c r="A548" s="48"/>
       <c r="B548" s="7"/>
       <c r="C548" s="6"/>
       <c r="D548" s="7"/>
@@ -19626,7 +19677,7 @@
       <c r="AB548" s="10"/>
     </row>
     <row r="549" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A549" s="49"/>
+      <c r="A549" s="48"/>
       <c r="B549" s="7"/>
       <c r="C549" s="6"/>
       <c r="D549" s="7"/>
@@ -19656,7 +19707,7 @@
       <c r="AB549" s="10"/>
     </row>
     <row r="550" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A550" s="49"/>
+      <c r="A550" s="48"/>
       <c r="B550" s="7"/>
       <c r="C550" s="6"/>
       <c r="D550" s="7"/>
@@ -19686,7 +19737,7 @@
       <c r="AB550" s="10"/>
     </row>
     <row r="551" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A551" s="49"/>
+      <c r="A551" s="48"/>
       <c r="B551" s="7"/>
       <c r="C551" s="6"/>
       <c r="D551" s="7"/>
@@ -19716,7 +19767,7 @@
       <c r="AB551" s="10"/>
     </row>
     <row r="552" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A552" s="49"/>
+      <c r="A552" s="48"/>
       <c r="B552" s="7"/>
       <c r="C552" s="6"/>
       <c r="D552" s="7"/>
@@ -19746,7 +19797,7 @@
       <c r="AB552" s="10"/>
     </row>
     <row r="553" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A553" s="49"/>
+      <c r="A553" s="48"/>
       <c r="B553" s="7"/>
       <c r="C553" s="6"/>
       <c r="D553" s="7"/>
@@ -19776,7 +19827,7 @@
       <c r="AB553" s="10"/>
     </row>
     <row r="554" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A554" s="49"/>
+      <c r="A554" s="48"/>
       <c r="B554" s="7"/>
       <c r="C554" s="6"/>
       <c r="D554" s="7"/>
@@ -19806,7 +19857,7 @@
       <c r="AB554" s="10"/>
     </row>
     <row r="555" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A555" s="49"/>
+      <c r="A555" s="48"/>
       <c r="B555" s="7"/>
       <c r="C555" s="6"/>
       <c r="D555" s="7"/>
@@ -19836,7 +19887,7 @@
       <c r="AB555" s="10"/>
     </row>
     <row r="556" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A556" s="49"/>
+      <c r="A556" s="48"/>
       <c r="B556" s="7"/>
       <c r="C556" s="6"/>
       <c r="D556" s="7"/>
@@ -19866,7 +19917,7 @@
       <c r="AB556" s="10"/>
     </row>
     <row r="557" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A557" s="49"/>
+      <c r="A557" s="48"/>
       <c r="B557" s="7"/>
       <c r="C557" s="6"/>
       <c r="D557" s="7"/>
@@ -19896,7 +19947,7 @@
       <c r="AB557" s="10"/>
     </row>
     <row r="558" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A558" s="49"/>
+      <c r="A558" s="48"/>
       <c r="B558" s="7"/>
       <c r="C558" s="6"/>
       <c r="D558" s="7"/>
@@ -19926,7 +19977,7 @@
       <c r="AB558" s="10"/>
     </row>
     <row r="559" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A559" s="49"/>
+      <c r="A559" s="48"/>
       <c r="B559" s="7"/>
       <c r="C559" s="6"/>
       <c r="D559" s="7"/>
@@ -19956,7 +20007,7 @@
       <c r="AB559" s="10"/>
     </row>
     <row r="560" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A560" s="49"/>
+      <c r="A560" s="48"/>
       <c r="B560" s="7"/>
       <c r="C560" s="6"/>
       <c r="D560" s="7"/>
@@ -19986,7 +20037,7 @@
       <c r="AB560" s="10"/>
     </row>
     <row r="561" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A561" s="49"/>
+      <c r="A561" s="48"/>
       <c r="B561" s="7"/>
       <c r="C561" s="6"/>
       <c r="D561" s="7"/>
@@ -20016,7 +20067,7 @@
       <c r="AB561" s="10"/>
     </row>
     <row r="562" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A562" s="49"/>
+      <c r="A562" s="48"/>
       <c r="B562" s="7"/>
       <c r="C562" s="6"/>
       <c r="D562" s="7"/>
@@ -20046,7 +20097,7 @@
       <c r="AB562" s="10"/>
     </row>
     <row r="563" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A563" s="49"/>
+      <c r="A563" s="48"/>
       <c r="B563" s="7"/>
       <c r="C563" s="6"/>
       <c r="D563" s="7"/>
@@ -20076,7 +20127,7 @@
       <c r="AB563" s="10"/>
     </row>
     <row r="564" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A564" s="49"/>
+      <c r="A564" s="48"/>
       <c r="B564" s="7"/>
       <c r="C564" s="6"/>
       <c r="D564" s="7"/>
@@ -20106,7 +20157,7 @@
       <c r="AB564" s="10"/>
     </row>
     <row r="565" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A565" s="49"/>
+      <c r="A565" s="48"/>
       <c r="B565" s="7"/>
       <c r="C565" s="6"/>
       <c r="D565" s="7"/>
@@ -20136,7 +20187,7 @@
       <c r="AB565" s="10"/>
     </row>
     <row r="566" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A566" s="49"/>
+      <c r="A566" s="48"/>
       <c r="B566" s="7"/>
       <c r="C566" s="6"/>
       <c r="D566" s="7"/>
@@ -20166,7 +20217,7 @@
       <c r="AB566" s="10"/>
     </row>
     <row r="567" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A567" s="49"/>
+      <c r="A567" s="48"/>
       <c r="B567" s="7"/>
       <c r="C567" s="6"/>
       <c r="D567" s="7"/>
@@ -20196,7 +20247,7 @@
       <c r="AB567" s="10"/>
     </row>
     <row r="568" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A568" s="49"/>
+      <c r="A568" s="48"/>
       <c r="B568" s="7"/>
       <c r="C568" s="6"/>
       <c r="D568" s="7"/>
@@ -20226,7 +20277,7 @@
       <c r="AB568" s="10"/>
     </row>
     <row r="569" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A569" s="49"/>
+      <c r="A569" s="48"/>
       <c r="B569" s="7"/>
       <c r="C569" s="6"/>
       <c r="D569" s="7"/>
@@ -20256,7 +20307,7 @@
       <c r="AB569" s="10"/>
     </row>
     <row r="570" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A570" s="49"/>
+      <c r="A570" s="48"/>
       <c r="B570" s="7"/>
       <c r="C570" s="6"/>
       <c r="D570" s="7"/>
@@ -20286,7 +20337,7 @@
       <c r="AB570" s="10"/>
     </row>
     <row r="571" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A571" s="49"/>
+      <c r="A571" s="48"/>
       <c r="B571" s="7"/>
       <c r="C571" s="6"/>
       <c r="D571" s="7"/>
@@ -20316,7 +20367,7 @@
       <c r="AB571" s="10"/>
     </row>
     <row r="572" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A572" s="49"/>
+      <c r="A572" s="48"/>
       <c r="B572" s="7"/>
       <c r="C572" s="6"/>
       <c r="D572" s="7"/>
@@ -20346,7 +20397,7 @@
       <c r="AB572" s="10"/>
     </row>
     <row r="573" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A573" s="49"/>
+      <c r="A573" s="48"/>
       <c r="B573" s="7"/>
       <c r="C573" s="6"/>
       <c r="D573" s="7"/>
@@ -20376,7 +20427,7 @@
       <c r="AB573" s="10"/>
     </row>
     <row r="574" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A574" s="49"/>
+      <c r="A574" s="48"/>
       <c r="B574" s="7"/>
       <c r="C574" s="6"/>
       <c r="D574" s="7"/>
@@ -20406,7 +20457,7 @@
       <c r="AB574" s="10"/>
     </row>
     <row r="575" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A575" s="49"/>
+      <c r="A575" s="48"/>
       <c r="B575" s="7"/>
       <c r="C575" s="6"/>
       <c r="D575" s="7"/>
@@ -20436,7 +20487,7 @@
       <c r="AB575" s="10"/>
     </row>
     <row r="576" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A576" s="49"/>
+      <c r="A576" s="48"/>
       <c r="B576" s="7"/>
       <c r="C576" s="6"/>
       <c r="D576" s="7"/>
@@ -20466,7 +20517,7 @@
       <c r="AB576" s="10"/>
     </row>
     <row r="577" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A577" s="49"/>
+      <c r="A577" s="48"/>
       <c r="B577" s="7"/>
       <c r="C577" s="6"/>
       <c r="D577" s="7"/>
@@ -20496,7 +20547,7 @@
       <c r="AB577" s="10"/>
     </row>
     <row r="578" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A578" s="49"/>
+      <c r="A578" s="48"/>
       <c r="B578" s="7"/>
       <c r="C578" s="6"/>
       <c r="D578" s="7"/>
@@ -20526,7 +20577,7 @@
       <c r="AB578" s="10"/>
     </row>
     <row r="579" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A579" s="49"/>
+      <c r="A579" s="48"/>
       <c r="B579" s="7"/>
       <c r="C579" s="6"/>
       <c r="D579" s="7"/>
@@ -20556,7 +20607,7 @@
       <c r="AB579" s="10"/>
     </row>
     <row r="580" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A580" s="49"/>
+      <c r="A580" s="48"/>
       <c r="B580" s="7"/>
       <c r="C580" s="6"/>
       <c r="D580" s="7"/>
@@ -20586,7 +20637,7 @@
       <c r="AB580" s="10"/>
     </row>
     <row r="581" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A581" s="49"/>
+      <c r="A581" s="48"/>
       <c r="B581" s="7"/>
       <c r="C581" s="6"/>
       <c r="D581" s="7"/>
@@ -20616,7 +20667,7 @@
       <c r="AB581" s="10"/>
     </row>
     <row r="582" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A582" s="49"/>
+      <c r="A582" s="48"/>
       <c r="B582" s="7"/>
       <c r="C582" s="6"/>
       <c r="D582" s="7"/>
@@ -20646,7 +20697,7 @@
       <c r="AB582" s="10"/>
     </row>
     <row r="583" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A583" s="49"/>
+      <c r="A583" s="48"/>
       <c r="B583" s="7"/>
       <c r="C583" s="6"/>
       <c r="D583" s="7"/>
@@ -20676,7 +20727,7 @@
       <c r="AB583" s="10"/>
     </row>
     <row r="584" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A584" s="49"/>
+      <c r="A584" s="48"/>
       <c r="B584" s="7"/>
       <c r="C584" s="6"/>
       <c r="D584" s="7"/>
@@ -20706,7 +20757,7 @@
       <c r="AB584" s="10"/>
     </row>
     <row r="585" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A585" s="49"/>
+      <c r="A585" s="48"/>
       <c r="B585" s="7"/>
       <c r="C585" s="6"/>
       <c r="D585" s="7"/>
@@ -20736,7 +20787,7 @@
       <c r="AB585" s="10"/>
     </row>
     <row r="586" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A586" s="49"/>
+      <c r="A586" s="48"/>
       <c r="B586" s="7"/>
       <c r="C586" s="6"/>
       <c r="D586" s="7"/>
@@ -20766,7 +20817,7 @@
       <c r="AB586" s="10"/>
     </row>
     <row r="587" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A587" s="49"/>
+      <c r="A587" s="48"/>
       <c r="B587" s="7"/>
       <c r="C587" s="6"/>
       <c r="D587" s="7"/>
@@ -20796,7 +20847,7 @@
       <c r="AB587" s="10"/>
     </row>
     <row r="588" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A588" s="49"/>
+      <c r="A588" s="48"/>
       <c r="B588" s="7"/>
       <c r="C588" s="6"/>
       <c r="D588" s="7"/>
@@ -20826,7 +20877,7 @@
       <c r="AB588" s="10"/>
     </row>
     <row r="589" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A589" s="49"/>
+      <c r="A589" s="48"/>
       <c r="B589" s="7"/>
       <c r="C589" s="6"/>
       <c r="D589" s="7"/>
@@ -20856,7 +20907,7 @@
       <c r="AB589" s="10"/>
     </row>
     <row r="590" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A590" s="49"/>
+      <c r="A590" s="48"/>
       <c r="B590" s="7"/>
       <c r="C590" s="6"/>
       <c r="D590" s="7"/>
@@ -20886,7 +20937,7 @@
       <c r="AB590" s="10"/>
     </row>
     <row r="591" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A591" s="49"/>
+      <c r="A591" s="48"/>
       <c r="B591" s="7"/>
       <c r="C591" s="6"/>
       <c r="D591" s="7"/>
@@ -20916,7 +20967,7 @@
       <c r="AB591" s="10"/>
     </row>
     <row r="592" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A592" s="49"/>
+      <c r="A592" s="48"/>
       <c r="B592" s="7"/>
       <c r="C592" s="6"/>
       <c r="D592" s="7"/>
@@ -20946,7 +20997,7 @@
       <c r="AB592" s="10"/>
     </row>
     <row r="593" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A593" s="49"/>
+      <c r="A593" s="48"/>
       <c r="B593" s="7"/>
       <c r="C593" s="6"/>
       <c r="D593" s="7"/>
@@ -20976,7 +21027,7 @@
       <c r="AB593" s="10"/>
     </row>
     <row r="594" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A594" s="49"/>
+      <c r="A594" s="48"/>
       <c r="B594" s="7"/>
       <c r="C594" s="6"/>
       <c r="D594" s="7"/>
@@ -21006,7 +21057,7 @@
       <c r="AB594" s="10"/>
     </row>
     <row r="595" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A595" s="49"/>
+      <c r="A595" s="48"/>
       <c r="B595" s="7"/>
       <c r="C595" s="6"/>
       <c r="D595" s="7"/>
@@ -21036,7 +21087,7 @@
       <c r="AB595" s="10"/>
     </row>
     <row r="596" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A596" s="49"/>
+      <c r="A596" s="48"/>
       <c r="B596" s="7"/>
       <c r="C596" s="6"/>
       <c r="D596" s="7"/>
@@ -21066,7 +21117,7 @@
       <c r="AB596" s="10"/>
     </row>
     <row r="597" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A597" s="49"/>
+      <c r="A597" s="48"/>
       <c r="B597" s="7"/>
       <c r="C597" s="6"/>
       <c r="D597" s="7"/>
@@ -21096,7 +21147,7 @@
       <c r="AB597" s="10"/>
     </row>
     <row r="598" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A598" s="49"/>
+      <c r="A598" s="48"/>
       <c r="B598" s="7"/>
       <c r="C598" s="6"/>
       <c r="D598" s="7"/>
@@ -21126,7 +21177,7 @@
       <c r="AB598" s="10"/>
     </row>
     <row r="599" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A599" s="49"/>
+      <c r="A599" s="48"/>
       <c r="B599" s="7"/>
       <c r="C599" s="6"/>
       <c r="D599" s="7"/>
@@ -21156,7 +21207,7 @@
       <c r="AB599" s="10"/>
     </row>
     <row r="600" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A600" s="49"/>
+      <c r="A600" s="48"/>
       <c r="B600" s="7"/>
       <c r="C600" s="6"/>
       <c r="D600" s="7"/>
@@ -21186,7 +21237,7 @@
       <c r="AB600" s="10"/>
     </row>
     <row r="601" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A601" s="49"/>
+      <c r="A601" s="48"/>
       <c r="B601" s="7"/>
       <c r="C601" s="6"/>
       <c r="D601" s="7"/>
@@ -21216,7 +21267,7 @@
       <c r="AB601" s="10"/>
     </row>
     <row r="602" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A602" s="49"/>
+      <c r="A602" s="48"/>
       <c r="B602" s="7"/>
       <c r="C602" s="6"/>
       <c r="D602" s="7"/>
@@ -21246,7 +21297,7 @@
       <c r="AB602" s="10"/>
     </row>
     <row r="603" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A603" s="49"/>
+      <c r="A603" s="48"/>
       <c r="B603" s="7"/>
       <c r="C603" s="6"/>
       <c r="D603" s="7"/>
@@ -21276,7 +21327,7 @@
       <c r="AB603" s="10"/>
     </row>
     <row r="604" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A604" s="49"/>
+      <c r="A604" s="48"/>
       <c r="B604" s="7"/>
       <c r="C604" s="6"/>
       <c r="D604" s="7"/>
@@ -21306,7 +21357,7 @@
       <c r="AB604" s="10"/>
     </row>
     <row r="605" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A605" s="49"/>
+      <c r="A605" s="48"/>
       <c r="B605" s="7"/>
       <c r="C605" s="6"/>
       <c r="D605" s="7"/>
@@ -21336,7 +21387,7 @@
       <c r="AB605" s="10"/>
     </row>
     <row r="606" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A606" s="49"/>
+      <c r="A606" s="48"/>
       <c r="B606" s="7"/>
       <c r="C606" s="6"/>
       <c r="D606" s="7"/>
@@ -21366,7 +21417,7 @@
       <c r="AB606" s="10"/>
     </row>
     <row r="607" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A607" s="49"/>
+      <c r="A607" s="48"/>
       <c r="B607" s="7"/>
       <c r="C607" s="6"/>
       <c r="D607" s="7"/>
@@ -21396,7 +21447,7 @@
       <c r="AB607" s="10"/>
     </row>
     <row r="608" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A608" s="49"/>
+      <c r="A608" s="48"/>
       <c r="B608" s="7"/>
       <c r="C608" s="6"/>
       <c r="D608" s="7"/>
@@ -21426,7 +21477,7 @@
       <c r="AB608" s="10"/>
     </row>
     <row r="609" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A609" s="49"/>
+      <c r="A609" s="48"/>
       <c r="B609" s="7"/>
       <c r="C609" s="6"/>
       <c r="D609" s="7"/>
@@ -21456,7 +21507,7 @@
       <c r="AB609" s="10"/>
     </row>
     <row r="610" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A610" s="49"/>
+      <c r="A610" s="48"/>
       <c r="B610" s="7"/>
       <c r="C610" s="6"/>
       <c r="D610" s="7"/>
@@ -21486,7 +21537,7 @@
       <c r="AB610" s="10"/>
     </row>
     <row r="611" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A611" s="49"/>
+      <c r="A611" s="48"/>
       <c r="B611" s="7"/>
       <c r="C611" s="6"/>
       <c r="D611" s="7"/>
@@ -21516,7 +21567,7 @@
       <c r="AB611" s="10"/>
     </row>
     <row r="612" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A612" s="49"/>
+      <c r="A612" s="48"/>
       <c r="B612" s="7"/>
       <c r="C612" s="6"/>
       <c r="D612" s="7"/>
@@ -21546,7 +21597,7 @@
       <c r="AB612" s="10"/>
     </row>
     <row r="613" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A613" s="49"/>
+      <c r="A613" s="48"/>
       <c r="B613" s="7"/>
       <c r="C613" s="6"/>
       <c r="D613" s="7"/>
@@ -21576,7 +21627,7 @@
       <c r="AB613" s="10"/>
     </row>
     <row r="614" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A614" s="49"/>
+      <c r="A614" s="48"/>
       <c r="B614" s="7"/>
       <c r="C614" s="6"/>
       <c r="D614" s="7"/>
@@ -21606,7 +21657,7 @@
       <c r="AB614" s="10"/>
     </row>
     <row r="615" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A615" s="49"/>
+      <c r="A615" s="48"/>
       <c r="B615" s="7"/>
       <c r="C615" s="6"/>
       <c r="D615" s="7"/>
@@ -21636,7 +21687,7 @@
       <c r="AB615" s="10"/>
     </row>
     <row r="616" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A616" s="49"/>
+      <c r="A616" s="48"/>
       <c r="B616" s="7"/>
       <c r="C616" s="6"/>
       <c r="D616" s="7"/>
@@ -21666,7 +21717,7 @@
       <c r="AB616" s="10"/>
     </row>
     <row r="617" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A617" s="49"/>
+      <c r="A617" s="48"/>
       <c r="B617" s="7"/>
       <c r="C617" s="6"/>
       <c r="D617" s="7"/>
@@ -21696,7 +21747,7 @@
       <c r="AB617" s="10"/>
     </row>
     <row r="618" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A618" s="49"/>
+      <c r="A618" s="48"/>
       <c r="B618" s="7"/>
       <c r="C618" s="6"/>
       <c r="D618" s="7"/>
@@ -21726,7 +21777,7 @@
       <c r="AB618" s="10"/>
     </row>
     <row r="619" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A619" s="49"/>
+      <c r="A619" s="48"/>
       <c r="B619" s="7"/>
       <c r="C619" s="6"/>
       <c r="D619" s="7"/>
@@ -21756,7 +21807,7 @@
       <c r="AB619" s="10"/>
     </row>
     <row r="620" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A620" s="49"/>
+      <c r="A620" s="48"/>
       <c r="B620" s="7"/>
       <c r="C620" s="6"/>
       <c r="D620" s="7"/>
@@ -21786,7 +21837,7 @@
       <c r="AB620" s="10"/>
     </row>
     <row r="621" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A621" s="49"/>
+      <c r="A621" s="48"/>
       <c r="B621" s="7"/>
       <c r="C621" s="6"/>
       <c r="D621" s="7"/>
@@ -21816,7 +21867,7 @@
       <c r="AB621" s="10"/>
     </row>
     <row r="622" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A622" s="49"/>
+      <c r="A622" s="48"/>
       <c r="B622" s="7"/>
       <c r="C622" s="6"/>
       <c r="D622" s="7"/>
@@ -21846,7 +21897,7 @@
       <c r="AB622" s="10"/>
     </row>
     <row r="623" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A623" s="49"/>
+      <c r="A623" s="48"/>
       <c r="B623" s="7"/>
       <c r="C623" s="6"/>
       <c r="D623" s="7"/>
@@ -21876,7 +21927,7 @@
       <c r="AB623" s="10"/>
     </row>
     <row r="624" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A624" s="49"/>
+      <c r="A624" s="48"/>
       <c r="B624" s="7"/>
       <c r="C624" s="6"/>
       <c r="D624" s="7"/>
@@ -21906,7 +21957,7 @@
       <c r="AB624" s="10"/>
     </row>
     <row r="625" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A625" s="49"/>
+      <c r="A625" s="48"/>
       <c r="B625" s="7"/>
       <c r="C625" s="6"/>
       <c r="D625" s="7"/>
@@ -21936,7 +21987,7 @@
       <c r="AB625" s="10"/>
     </row>
     <row r="626" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A626" s="49"/>
+      <c r="A626" s="48"/>
       <c r="B626" s="7"/>
       <c r="C626" s="6"/>
       <c r="D626" s="7"/>
@@ -21966,7 +22017,7 @@
       <c r="AB626" s="10"/>
     </row>
     <row r="627" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A627" s="49"/>
+      <c r="A627" s="48"/>
       <c r="B627" s="7"/>
       <c r="C627" s="6"/>
       <c r="D627" s="7"/>
@@ -21996,7 +22047,7 @@
       <c r="AB627" s="10"/>
     </row>
     <row r="628" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A628" s="49"/>
+      <c r="A628" s="48"/>
       <c r="B628" s="7"/>
       <c r="C628" s="6"/>
       <c r="D628" s="7"/>
@@ -22026,7 +22077,7 @@
       <c r="AB628" s="10"/>
     </row>
     <row r="629" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A629" s="49"/>
+      <c r="A629" s="48"/>
       <c r="B629" s="7"/>
       <c r="C629" s="6"/>
       <c r="D629" s="7"/>
@@ -22056,7 +22107,7 @@
       <c r="AB629" s="10"/>
     </row>
     <row r="630" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A630" s="49"/>
+      <c r="A630" s="48"/>
       <c r="B630" s="7"/>
       <c r="C630" s="6"/>
       <c r="D630" s="7"/>
@@ -22086,7 +22137,7 @@
       <c r="AB630" s="10"/>
     </row>
     <row r="631" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A631" s="49"/>
+      <c r="A631" s="48"/>
       <c r="B631" s="7"/>
       <c r="C631" s="6"/>
       <c r="D631" s="7"/>
@@ -22116,7 +22167,7 @@
       <c r="AB631" s="10"/>
     </row>
     <row r="632" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A632" s="49"/>
+      <c r="A632" s="48"/>
       <c r="B632" s="7"/>
       <c r="C632" s="6"/>
       <c r="D632" s="7"/>
@@ -22146,7 +22197,7 @@
       <c r="AB632" s="10"/>
     </row>
     <row r="633" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A633" s="49"/>
+      <c r="A633" s="48"/>
       <c r="B633" s="7"/>
       <c r="C633" s="6"/>
       <c r="D633" s="7"/>
@@ -22176,7 +22227,7 @@
       <c r="AB633" s="10"/>
     </row>
     <row r="634" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A634" s="49"/>
+      <c r="A634" s="48"/>
       <c r="B634" s="7"/>
       <c r="C634" s="6"/>
       <c r="D634" s="7"/>
@@ -22206,7 +22257,7 @@
       <c r="AB634" s="10"/>
     </row>
     <row r="635" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A635" s="49"/>
+      <c r="A635" s="48"/>
       <c r="B635" s="7"/>
       <c r="C635" s="6"/>
       <c r="D635" s="7"/>
@@ -22236,7 +22287,7 @@
       <c r="AB635" s="10"/>
     </row>
     <row r="636" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A636" s="49"/>
+      <c r="A636" s="48"/>
       <c r="B636" s="7"/>
       <c r="C636" s="6"/>
       <c r="D636" s="7"/>
@@ -22266,7 +22317,7 @@
       <c r="AB636" s="10"/>
     </row>
     <row r="637" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A637" s="49"/>
+      <c r="A637" s="48"/>
       <c r="B637" s="7"/>
       <c r="C637" s="6"/>
       <c r="D637" s="7"/>
@@ -22296,7 +22347,7 @@
       <c r="AB637" s="10"/>
     </row>
     <row r="638" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A638" s="49"/>
+      <c r="A638" s="48"/>
       <c r="B638" s="7"/>
       <c r="C638" s="6"/>
       <c r="D638" s="7"/>
@@ -22326,7 +22377,7 @@
       <c r="AB638" s="10"/>
     </row>
     <row r="639" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A639" s="49"/>
+      <c r="A639" s="48"/>
       <c r="B639" s="7"/>
       <c r="C639" s="6"/>
       <c r="D639" s="7"/>
@@ -22356,7 +22407,7 @@
       <c r="AB639" s="10"/>
     </row>
     <row r="640" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A640" s="49"/>
+      <c r="A640" s="48"/>
       <c r="B640" s="7"/>
       <c r="C640" s="6"/>
       <c r="D640" s="7"/>
@@ -22386,7 +22437,7 @@
       <c r="AB640" s="10"/>
     </row>
     <row r="641" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A641" s="49"/>
+      <c r="A641" s="48"/>
       <c r="B641" s="7"/>
       <c r="C641" s="6"/>
       <c r="D641" s="7"/>
@@ -22416,7 +22467,7 @@
       <c r="AB641" s="10"/>
     </row>
     <row r="642" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A642" s="49"/>
+      <c r="A642" s="48"/>
       <c r="B642" s="7"/>
       <c r="C642" s="6"/>
       <c r="D642" s="7"/>
@@ -22446,7 +22497,7 @@
       <c r="AB642" s="10"/>
     </row>
     <row r="643" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A643" s="49"/>
+      <c r="A643" s="48"/>
       <c r="B643" s="7"/>
       <c r="C643" s="6"/>
       <c r="D643" s="7"/>
@@ -22476,7 +22527,7 @@
       <c r="AB643" s="10"/>
     </row>
     <row r="644" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A644" s="49"/>
+      <c r="A644" s="48"/>
       <c r="B644" s="7"/>
       <c r="C644" s="6"/>
       <c r="D644" s="7"/>
@@ -22506,7 +22557,7 @@
       <c r="AB644" s="10"/>
     </row>
     <row r="645" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A645" s="49"/>
+      <c r="A645" s="48"/>
       <c r="B645" s="7"/>
       <c r="C645" s="6"/>
       <c r="D645" s="7"/>
@@ -22536,7 +22587,7 @@
       <c r="AB645" s="10"/>
     </row>
     <row r="646" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A646" s="49"/>
+      <c r="A646" s="48"/>
       <c r="B646" s="7"/>
       <c r="C646" s="6"/>
       <c r="D646" s="7"/>
@@ -22566,7 +22617,7 @@
       <c r="AB646" s="10"/>
     </row>
     <row r="647" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A647" s="49"/>
+      <c r="A647" s="48"/>
       <c r="B647" s="7"/>
       <c r="C647" s="6"/>
       <c r="D647" s="7"/>
@@ -22596,7 +22647,7 @@
       <c r="AB647" s="10"/>
     </row>
     <row r="648" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A648" s="49"/>
+      <c r="A648" s="48"/>
       <c r="B648" s="7"/>
       <c r="C648" s="6"/>
       <c r="D648" s="7"/>
@@ -22626,7 +22677,7 @@
       <c r="AB648" s="10"/>
     </row>
     <row r="649" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A649" s="49"/>
+      <c r="A649" s="48"/>
       <c r="B649" s="7"/>
       <c r="C649" s="6"/>
       <c r="D649" s="7"/>
@@ -22656,7 +22707,7 @@
       <c r="AB649" s="10"/>
     </row>
     <row r="650" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A650" s="49"/>
+      <c r="A650" s="48"/>
       <c r="B650" s="7"/>
       <c r="C650" s="6"/>
       <c r="D650" s="7"/>
@@ -22686,7 +22737,7 @@
       <c r="AB650" s="10"/>
     </row>
     <row r="651" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A651" s="49"/>
+      <c r="A651" s="48"/>
       <c r="B651" s="7"/>
       <c r="C651" s="6"/>
       <c r="D651" s="7"/>
@@ -22716,7 +22767,7 @@
       <c r="AB651" s="10"/>
     </row>
     <row r="652" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A652" s="49"/>
+      <c r="A652" s="48"/>
       <c r="B652" s="7"/>
       <c r="C652" s="6"/>
       <c r="D652" s="7"/>
@@ -22746,7 +22797,7 @@
       <c r="AB652" s="10"/>
     </row>
     <row r="653" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A653" s="49"/>
+      <c r="A653" s="48"/>
       <c r="B653" s="7"/>
       <c r="C653" s="6"/>
       <c r="D653" s="7"/>
@@ -22776,7 +22827,7 @@
       <c r="AB653" s="10"/>
     </row>
     <row r="654" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A654" s="49"/>
+      <c r="A654" s="48"/>
       <c r="B654" s="7"/>
       <c r="C654" s="6"/>
       <c r="D654" s="7"/>
@@ -22806,7 +22857,7 @@
       <c r="AB654" s="10"/>
     </row>
     <row r="655" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A655" s="49"/>
+      <c r="A655" s="48"/>
       <c r="B655" s="7"/>
       <c r="C655" s="6"/>
       <c r="D655" s="7"/>
@@ -22836,7 +22887,7 @@
       <c r="AB655" s="10"/>
     </row>
     <row r="656" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A656" s="49"/>
+      <c r="A656" s="48"/>
       <c r="B656" s="7"/>
       <c r="C656" s="6"/>
       <c r="D656" s="7"/>
@@ -22866,7 +22917,7 @@
       <c r="AB656" s="10"/>
     </row>
     <row r="657" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A657" s="49"/>
+      <c r="A657" s="48"/>
       <c r="B657" s="7"/>
       <c r="C657" s="6"/>
       <c r="D657" s="7"/>
@@ -22896,7 +22947,7 @@
       <c r="AB657" s="10"/>
     </row>
     <row r="658" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A658" s="49"/>
+      <c r="A658" s="48"/>
       <c r="B658" s="7"/>
       <c r="C658" s="6"/>
       <c r="D658" s="7"/>
@@ -22926,7 +22977,7 @@
       <c r="AB658" s="10"/>
     </row>
     <row r="659" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A659" s="49"/>
+      <c r="A659" s="48"/>
       <c r="B659" s="7"/>
       <c r="C659" s="6"/>
       <c r="D659" s="7"/>
@@ -22956,7 +23007,7 @@
       <c r="AB659" s="10"/>
     </row>
     <row r="660" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A660" s="49"/>
+      <c r="A660" s="48"/>
       <c r="B660" s="7"/>
       <c r="C660" s="6"/>
       <c r="D660" s="7"/>
@@ -22986,7 +23037,7 @@
       <c r="AB660" s="10"/>
     </row>
     <row r="661" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A661" s="49"/>
+      <c r="A661" s="48"/>
       <c r="B661" s="7"/>
       <c r="C661" s="6"/>
       <c r="D661" s="7"/>
@@ -23016,7 +23067,7 @@
       <c r="AB661" s="10"/>
     </row>
     <row r="662" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A662" s="49"/>
+      <c r="A662" s="48"/>
       <c r="B662" s="7"/>
       <c r="C662" s="6"/>
       <c r="D662" s="7"/>
@@ -23046,7 +23097,7 @@
       <c r="AB662" s="10"/>
     </row>
     <row r="663" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A663" s="49"/>
+      <c r="A663" s="48"/>
       <c r="B663" s="7"/>
       <c r="C663" s="6"/>
       <c r="D663" s="7"/>
@@ -23076,7 +23127,7 @@
       <c r="AB663" s="10"/>
     </row>
     <row r="664" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A664" s="49"/>
+      <c r="A664" s="48"/>
       <c r="B664" s="7"/>
       <c r="C664" s="6"/>
       <c r="D664" s="7"/>
@@ -23106,7 +23157,7 @@
       <c r="AB664" s="10"/>
     </row>
     <row r="665" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A665" s="49"/>
+      <c r="A665" s="48"/>
       <c r="B665" s="7"/>
       <c r="C665" s="6"/>
       <c r="D665" s="7"/>
@@ -23136,7 +23187,7 @@
       <c r="AB665" s="10"/>
     </row>
     <row r="666" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A666" s="49"/>
+      <c r="A666" s="48"/>
       <c r="B666" s="7"/>
       <c r="C666" s="6"/>
       <c r="D666" s="7"/>
@@ -23166,7 +23217,7 @@
       <c r="AB666" s="10"/>
     </row>
     <row r="667" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A667" s="49"/>
+      <c r="A667" s="48"/>
       <c r="B667" s="7"/>
       <c r="C667" s="6"/>
       <c r="D667" s="7"/>
@@ -23196,7 +23247,7 @@
       <c r="AB667" s="10"/>
     </row>
     <row r="668" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A668" s="49"/>
+      <c r="A668" s="48"/>
       <c r="B668" s="7"/>
       <c r="C668" s="6"/>
       <c r="D668" s="7"/>
@@ -23226,7 +23277,7 @@
       <c r="AB668" s="10"/>
     </row>
     <row r="669" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A669" s="49"/>
+      <c r="A669" s="48"/>
       <c r="B669" s="7"/>
       <c r="C669" s="6"/>
       <c r="D669" s="7"/>
@@ -23256,7 +23307,7 @@
       <c r="AB669" s="10"/>
     </row>
     <row r="670" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A670" s="49"/>
+      <c r="A670" s="48"/>
       <c r="B670" s="7"/>
       <c r="C670" s="6"/>
       <c r="D670" s="7"/>
@@ -23286,7 +23337,7 @@
       <c r="AB670" s="10"/>
     </row>
     <row r="671" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A671" s="49"/>
+      <c r="A671" s="48"/>
       <c r="B671" s="7"/>
       <c r="C671" s="6"/>
       <c r="D671" s="7"/>
@@ -23316,7 +23367,7 @@
       <c r="AB671" s="10"/>
     </row>
     <row r="672" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A672" s="49"/>
+      <c r="A672" s="48"/>
       <c r="B672" s="7"/>
       <c r="C672" s="6"/>
       <c r="D672" s="7"/>
@@ -23346,7 +23397,7 @@
       <c r="AB672" s="10"/>
     </row>
     <row r="673" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A673" s="49"/>
+      <c r="A673" s="48"/>
       <c r="B673" s="7"/>
       <c r="C673" s="6"/>
       <c r="D673" s="7"/>
@@ -23376,7 +23427,7 @@
       <c r="AB673" s="10"/>
     </row>
     <row r="674" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A674" s="49"/>
+      <c r="A674" s="48"/>
       <c r="B674" s="7"/>
       <c r="C674" s="6"/>
       <c r="D674" s="7"/>
@@ -23406,7 +23457,7 @@
       <c r="AB674" s="10"/>
     </row>
     <row r="675" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A675" s="49"/>
+      <c r="A675" s="48"/>
       <c r="B675" s="7"/>
       <c r="C675" s="6"/>
       <c r="D675" s="7"/>
@@ -23436,7 +23487,7 @@
       <c r="AB675" s="10"/>
     </row>
     <row r="676" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A676" s="49"/>
+      <c r="A676" s="48"/>
       <c r="B676" s="7"/>
       <c r="C676" s="6"/>
       <c r="D676" s="7"/>
@@ -23466,7 +23517,7 @@
       <c r="AB676" s="10"/>
     </row>
     <row r="677" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A677" s="49"/>
+      <c r="A677" s="48"/>
       <c r="B677" s="7"/>
       <c r="C677" s="6"/>
       <c r="D677" s="7"/>
@@ -23496,7 +23547,7 @@
       <c r="AB677" s="10"/>
     </row>
     <row r="678" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A678" s="49"/>
+      <c r="A678" s="48"/>
       <c r="B678" s="7"/>
       <c r="C678" s="6"/>
       <c r="D678" s="7"/>
@@ -23526,7 +23577,7 @@
       <c r="AB678" s="10"/>
     </row>
     <row r="679" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A679" s="49"/>
+      <c r="A679" s="48"/>
       <c r="B679" s="7"/>
       <c r="C679" s="6"/>
       <c r="D679" s="7"/>
@@ -23556,7 +23607,7 @@
       <c r="AB679" s="10"/>
     </row>
     <row r="680" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A680" s="49"/>
+      <c r="A680" s="48"/>
       <c r="B680" s="7"/>
       <c r="C680" s="6"/>
       <c r="D680" s="7"/>
@@ -23586,7 +23637,7 @@
       <c r="AB680" s="10"/>
     </row>
     <row r="681" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A681" s="49"/>
+      <c r="A681" s="48"/>
       <c r="B681" s="7"/>
       <c r="C681" s="6"/>
       <c r="D681" s="7"/>
@@ -23616,7 +23667,7 @@
       <c r="AB681" s="10"/>
     </row>
     <row r="682" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A682" s="49"/>
+      <c r="A682" s="48"/>
       <c r="B682" s="7"/>
       <c r="C682" s="6"/>
       <c r="D682" s="7"/>
@@ -23646,7 +23697,7 @@
       <c r="AB682" s="10"/>
     </row>
     <row r="683" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A683" s="49"/>
+      <c r="A683" s="48"/>
       <c r="B683" s="7"/>
       <c r="C683" s="6"/>
       <c r="D683" s="7"/>
@@ -23676,7 +23727,7 @@
       <c r="AB683" s="10"/>
     </row>
     <row r="684" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A684" s="49"/>
+      <c r="A684" s="48"/>
       <c r="B684" s="7"/>
       <c r="C684" s="6"/>
       <c r="D684" s="7"/>
@@ -23706,7 +23757,7 @@
       <c r="AB684" s="10"/>
     </row>
     <row r="685" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A685" s="49"/>
+      <c r="A685" s="48"/>
       <c r="B685" s="7"/>
       <c r="C685" s="6"/>
       <c r="D685" s="7"/>
@@ -23736,7 +23787,7 @@
       <c r="AB685" s="10"/>
     </row>
     <row r="686" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A686" s="49"/>
+      <c r="A686" s="48"/>
       <c r="B686" s="7"/>
       <c r="C686" s="6"/>
       <c r="D686" s="7"/>
@@ -23766,7 +23817,7 @@
       <c r="AB686" s="10"/>
     </row>
     <row r="687" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A687" s="49"/>
+      <c r="A687" s="48"/>
       <c r="B687" s="7"/>
       <c r="C687" s="6"/>
       <c r="D687" s="7"/>
@@ -23796,7 +23847,7 @@
       <c r="AB687" s="10"/>
     </row>
     <row r="688" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A688" s="49"/>
+      <c r="A688" s="48"/>
       <c r="B688" s="7"/>
       <c r="C688" s="6"/>
       <c r="D688" s="7"/>
@@ -23826,7 +23877,7 @@
       <c r="AB688" s="10"/>
     </row>
     <row r="689" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A689" s="49"/>
+      <c r="A689" s="48"/>
       <c r="B689" s="7"/>
       <c r="C689" s="6"/>
       <c r="D689" s="7"/>
@@ -23856,7 +23907,7 @@
       <c r="AB689" s="10"/>
     </row>
     <row r="690" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A690" s="49"/>
+      <c r="A690" s="48"/>
       <c r="B690" s="7"/>
       <c r="C690" s="6"/>
       <c r="D690" s="7"/>
@@ -23886,7 +23937,7 @@
       <c r="AB690" s="10"/>
     </row>
     <row r="691" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A691" s="49"/>
+      <c r="A691" s="48"/>
       <c r="B691" s="7"/>
       <c r="C691" s="6"/>
       <c r="D691" s="7"/>
@@ -23916,7 +23967,7 @@
       <c r="AB691" s="10"/>
     </row>
     <row r="692" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A692" s="49"/>
+      <c r="A692" s="48"/>
       <c r="B692" s="7"/>
       <c r="C692" s="6"/>
       <c r="D692" s="7"/>
@@ -23946,7 +23997,7 @@
       <c r="AB692" s="10"/>
     </row>
     <row r="693" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A693" s="49"/>
+      <c r="A693" s="48"/>
       <c r="B693" s="7"/>
       <c r="C693" s="6"/>
       <c r="D693" s="7"/>
@@ -23976,7 +24027,7 @@
       <c r="AB693" s="10"/>
     </row>
     <row r="694" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A694" s="49"/>
+      <c r="A694" s="48"/>
       <c r="B694" s="7"/>
       <c r="C694" s="6"/>
       <c r="D694" s="7"/>
@@ -24006,7 +24057,7 @@
       <c r="AB694" s="10"/>
     </row>
     <row r="695" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A695" s="49"/>
+      <c r="A695" s="48"/>
       <c r="B695" s="7"/>
       <c r="C695" s="6"/>
       <c r="D695" s="7"/>
@@ -24036,7 +24087,7 @@
       <c r="AB695" s="10"/>
     </row>
     <row r="696" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A696" s="49"/>
+      <c r="A696" s="48"/>
       <c r="B696" s="7"/>
       <c r="C696" s="6"/>
       <c r="D696" s="7"/>
@@ -24066,7 +24117,7 @@
       <c r="AB696" s="10"/>
     </row>
     <row r="697" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A697" s="49"/>
+      <c r="A697" s="48"/>
       <c r="B697" s="7"/>
       <c r="C697" s="6"/>
       <c r="D697" s="7"/>
@@ -24096,7 +24147,7 @@
       <c r="AB697" s="10"/>
     </row>
     <row r="698" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A698" s="49"/>
+      <c r="A698" s="48"/>
       <c r="B698" s="7"/>
       <c r="C698" s="6"/>
       <c r="D698" s="7"/>
@@ -24126,7 +24177,7 @@
       <c r="AB698" s="10"/>
     </row>
     <row r="699" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A699" s="49"/>
+      <c r="A699" s="48"/>
       <c r="B699" s="7"/>
       <c r="C699" s="6"/>
       <c r="D699" s="7"/>
@@ -24156,7 +24207,7 @@
       <c r="AB699" s="10"/>
     </row>
     <row r="700" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A700" s="49"/>
+      <c r="A700" s="48"/>
       <c r="B700" s="7"/>
       <c r="C700" s="6"/>
       <c r="D700" s="7"/>
@@ -24186,7 +24237,7 @@
       <c r="AB700" s="10"/>
     </row>
     <row r="701" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A701" s="49"/>
+      <c r="A701" s="48"/>
       <c r="B701" s="7"/>
       <c r="C701" s="6"/>
       <c r="D701" s="7"/>
@@ -24216,7 +24267,7 @@
       <c r="AB701" s="10"/>
     </row>
     <row r="702" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A702" s="49"/>
+      <c r="A702" s="48"/>
       <c r="B702" s="7"/>
       <c r="C702" s="6"/>
       <c r="D702" s="7"/>
@@ -24246,7 +24297,7 @@
       <c r="AB702" s="10"/>
     </row>
     <row r="703" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A703" s="49"/>
+      <c r="A703" s="48"/>
       <c r="B703" s="7"/>
       <c r="C703" s="6"/>
       <c r="D703" s="7"/>
@@ -24276,7 +24327,7 @@
       <c r="AB703" s="10"/>
     </row>
     <row r="704" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A704" s="49"/>
+      <c r="A704" s="48"/>
       <c r="B704" s="7"/>
       <c r="C704" s="6"/>
       <c r="D704" s="7"/>
@@ -24306,7 +24357,7 @@
       <c r="AB704" s="10"/>
     </row>
     <row r="705" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A705" s="49"/>
+      <c r="A705" s="48"/>
       <c r="B705" s="7"/>
       <c r="C705" s="6"/>
       <c r="D705" s="7"/>
@@ -24336,7 +24387,7 @@
       <c r="AB705" s="10"/>
     </row>
     <row r="706" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A706" s="49"/>
+      <c r="A706" s="48"/>
       <c r="B706" s="7"/>
       <c r="C706" s="6"/>
       <c r="D706" s="7"/>
@@ -24366,7 +24417,7 @@
       <c r="AB706" s="10"/>
     </row>
     <row r="707" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A707" s="49"/>
+      <c r="A707" s="48"/>
       <c r="B707" s="7"/>
       <c r="C707" s="6"/>
       <c r="D707" s="7"/>
@@ -24396,7 +24447,7 @@
       <c r="AB707" s="10"/>
     </row>
     <row r="708" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A708" s="49"/>
+      <c r="A708" s="48"/>
       <c r="B708" s="7"/>
       <c r="C708" s="6"/>
       <c r="D708" s="7"/>
@@ -24426,7 +24477,7 @@
       <c r="AB708" s="10"/>
     </row>
     <row r="709" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A709" s="49"/>
+      <c r="A709" s="48"/>
       <c r="B709" s="7"/>
       <c r="C709" s="6"/>
       <c r="D709" s="7"/>
@@ -24456,7 +24507,7 @@
       <c r="AB709" s="10"/>
     </row>
     <row r="710" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A710" s="49"/>
+      <c r="A710" s="48"/>
       <c r="B710" s="7"/>
       <c r="C710" s="6"/>
       <c r="D710" s="7"/>
@@ -24486,7 +24537,7 @@
       <c r="AB710" s="10"/>
     </row>
     <row r="711" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A711" s="49"/>
+      <c r="A711" s="48"/>
       <c r="B711" s="7"/>
       <c r="C711" s="6"/>
       <c r="D711" s="7"/>
@@ -24516,7 +24567,7 @@
       <c r="AB711" s="10"/>
     </row>
     <row r="712" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A712" s="49"/>
+      <c r="A712" s="48"/>
       <c r="B712" s="7"/>
       <c r="C712" s="6"/>
       <c r="D712" s="7"/>
@@ -24546,7 +24597,7 @@
       <c r="AB712" s="10"/>
     </row>
     <row r="713" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A713" s="49"/>
+      <c r="A713" s="48"/>
       <c r="B713" s="7"/>
       <c r="C713" s="6"/>
       <c r="D713" s="7"/>
@@ -24576,7 +24627,7 @@
       <c r="AB713" s="10"/>
     </row>
     <row r="714" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A714" s="49"/>
+      <c r="A714" s="48"/>
       <c r="B714" s="7"/>
       <c r="C714" s="6"/>
       <c r="D714" s="7"/>
@@ -24606,7 +24657,7 @@
       <c r="AB714" s="10"/>
     </row>
     <row r="715" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A715" s="49"/>
+      <c r="A715" s="48"/>
       <c r="B715" s="7"/>
       <c r="C715" s="6"/>
       <c r="D715" s="7"/>
@@ -24636,7 +24687,7 @@
       <c r="AB715" s="10"/>
     </row>
     <row r="716" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A716" s="49"/>
+      <c r="A716" s="48"/>
       <c r="B716" s="7"/>
       <c r="C716" s="6"/>
       <c r="D716" s="7"/>
@@ -24666,7 +24717,7 @@
       <c r="AB716" s="10"/>
     </row>
     <row r="717" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A717" s="49"/>
+      <c r="A717" s="48"/>
       <c r="B717" s="7"/>
       <c r="C717" s="6"/>
       <c r="D717" s="7"/>
@@ -24696,7 +24747,7 @@
       <c r="AB717" s="10"/>
     </row>
     <row r="718" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A718" s="49"/>
+      <c r="A718" s="48"/>
       <c r="B718" s="7"/>
       <c r="C718" s="6"/>
       <c r="D718" s="7"/>
@@ -24726,7 +24777,7 @@
       <c r="AB718" s="10"/>
     </row>
     <row r="719" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A719" s="49"/>
+      <c r="A719" s="48"/>
       <c r="B719" s="7"/>
       <c r="C719" s="6"/>
       <c r="D719" s="7"/>
@@ -24756,7 +24807,7 @@
       <c r="AB719" s="10"/>
     </row>
     <row r="720" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A720" s="49"/>
+      <c r="A720" s="48"/>
       <c r="B720" s="7"/>
       <c r="C720" s="6"/>
       <c r="D720" s="7"/>
@@ -24786,7 +24837,7 @@
       <c r="AB720" s="10"/>
     </row>
     <row r="721" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A721" s="49"/>
+      <c r="A721" s="48"/>
       <c r="B721" s="7"/>
       <c r="C721" s="6"/>
       <c r="D721" s="7"/>
@@ -24816,7 +24867,7 @@
       <c r="AB721" s="10"/>
     </row>
     <row r="722" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A722" s="49"/>
+      <c r="A722" s="48"/>
       <c r="B722" s="7"/>
       <c r="C722" s="6"/>
       <c r="D722" s="7"/>
@@ -24846,7 +24897,7 @@
       <c r="AB722" s="10"/>
     </row>
     <row r="723" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A723" s="49"/>
+      <c r="A723" s="48"/>
       <c r="B723" s="7"/>
       <c r="C723" s="6"/>
       <c r="D723" s="7"/>
@@ -24876,7 +24927,7 @@
       <c r="AB723" s="10"/>
     </row>
     <row r="724" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A724" s="49"/>
+      <c r="A724" s="48"/>
       <c r="B724" s="7"/>
       <c r="C724" s="6"/>
       <c r="D724" s="7"/>
@@ -24906,7 +24957,7 @@
       <c r="AB724" s="10"/>
     </row>
     <row r="725" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A725" s="49"/>
+      <c r="A725" s="48"/>
       <c r="B725" s="7"/>
       <c r="C725" s="6"/>
       <c r="D725" s="7"/>
@@ -24936,7 +24987,7 @@
       <c r="AB725" s="10"/>
     </row>
     <row r="726" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A726" s="49"/>
+      <c r="A726" s="48"/>
       <c r="B726" s="7"/>
       <c r="C726" s="6"/>
       <c r="D726" s="7"/>
@@ -24966,7 +25017,7 @@
       <c r="AB726" s="10"/>
     </row>
     <row r="727" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A727" s="49"/>
+      <c r="A727" s="48"/>
       <c r="B727" s="7"/>
       <c r="C727" s="6"/>
       <c r="D727" s="7"/>
@@ -24996,7 +25047,7 @@
       <c r="AB727" s="10"/>
     </row>
     <row r="728" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A728" s="49"/>
+      <c r="A728" s="48"/>
       <c r="B728" s="7"/>
       <c r="C728" s="6"/>
       <c r="D728" s="7"/>
@@ -25026,7 +25077,7 @@
       <c r="AB728" s="10"/>
     </row>
     <row r="729" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A729" s="49"/>
+      <c r="A729" s="48"/>
       <c r="B729" s="7"/>
       <c r="C729" s="6"/>
       <c r="D729" s="7"/>
@@ -25056,7 +25107,7 @@
       <c r="AB729" s="10"/>
     </row>
     <row r="730" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A730" s="49"/>
+      <c r="A730" s="48"/>
       <c r="B730" s="7"/>
       <c r="C730" s="6"/>
       <c r="D730" s="7"/>
@@ -25086,7 +25137,7 @@
       <c r="AB730" s="10"/>
     </row>
     <row r="731" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A731" s="49"/>
+      <c r="A731" s="48"/>
       <c r="B731" s="7"/>
       <c r="C731" s="6"/>
       <c r="D731" s="7"/>
@@ -25116,7 +25167,7 @@
       <c r="AB731" s="10"/>
     </row>
     <row r="732" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A732" s="49"/>
+      <c r="A732" s="48"/>
       <c r="B732" s="7"/>
       <c r="C732" s="6"/>
       <c r="D732" s="7"/>
@@ -25146,7 +25197,7 @@
       <c r="AB732" s="10"/>
     </row>
     <row r="733" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A733" s="49"/>
+      <c r="A733" s="48"/>
       <c r="B733" s="7"/>
       <c r="C733" s="6"/>
       <c r="D733" s="7"/>
@@ -25176,7 +25227,7 @@
       <c r="AB733" s="10"/>
     </row>
     <row r="734" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A734" s="49"/>
+      <c r="A734" s="48"/>
       <c r="B734" s="7"/>
       <c r="C734" s="6"/>
       <c r="D734" s="7"/>
@@ -25206,7 +25257,7 @@
       <c r="AB734" s="10"/>
     </row>
     <row r="735" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A735" s="49"/>
+      <c r="A735" s="48"/>
       <c r="B735" s="7"/>
       <c r="C735" s="6"/>
       <c r="D735" s="7"/>
@@ -25236,7 +25287,7 @@
       <c r="AB735" s="10"/>
     </row>
     <row r="736" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A736" s="49"/>
+      <c r="A736" s="48"/>
       <c r="B736" s="7"/>
       <c r="C736" s="6"/>
       <c r="D736" s="7"/>
@@ -25266,7 +25317,7 @@
       <c r="AB736" s="10"/>
     </row>
     <row r="737" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A737" s="49"/>
+      <c r="A737" s="48"/>
       <c r="B737" s="7"/>
       <c r="C737" s="6"/>
       <c r="D737" s="7"/>
@@ -25296,7 +25347,7 @@
       <c r="AB737" s="10"/>
     </row>
     <row r="738" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A738" s="49"/>
+      <c r="A738" s="48"/>
       <c r="B738" s="7"/>
       <c r="C738" s="6"/>
       <c r="D738" s="7"/>
@@ -25326,7 +25377,7 @@
       <c r="AB738" s="10"/>
     </row>
     <row r="739" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A739" s="49"/>
+      <c r="A739" s="48"/>
       <c r="B739" s="7"/>
       <c r="C739" s="6"/>
       <c r="D739" s="7"/>
@@ -25356,7 +25407,7 @@
       <c r="AB739" s="10"/>
     </row>
     <row r="740" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A740" s="49"/>
+      <c r="A740" s="48"/>
       <c r="B740" s="7"/>
       <c r="C740" s="6"/>
       <c r="D740" s="7"/>
@@ -25386,7 +25437,7 @@
       <c r="AB740" s="10"/>
     </row>
     <row r="741" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A741" s="49"/>
+      <c r="A741" s="48"/>
       <c r="B741" s="7"/>
       <c r="C741" s="6"/>
       <c r="D741" s="7"/>
@@ -25416,7 +25467,7 @@
       <c r="AB741" s="10"/>
     </row>
     <row r="742" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A742" s="49"/>
+      <c r="A742" s="48"/>
       <c r="B742" s="7"/>
       <c r="C742" s="6"/>
       <c r="D742" s="7"/>
@@ -25446,7 +25497,7 @@
       <c r="AB742" s="10"/>
     </row>
     <row r="743" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A743" s="49"/>
+      <c r="A743" s="48"/>
       <c r="B743" s="7"/>
       <c r="C743" s="6"/>
       <c r="D743" s="7"/>
@@ -25476,7 +25527,7 @@
       <c r="AB743" s="10"/>
     </row>
     <row r="744" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A744" s="49"/>
+      <c r="A744" s="48"/>
       <c r="B744" s="7"/>
       <c r="C744" s="6"/>
       <c r="D744" s="7"/>
@@ -25506,7 +25557,7 @@
       <c r="AB744" s="10"/>
     </row>
     <row r="745" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A745" s="49"/>
+      <c r="A745" s="48"/>
       <c r="B745" s="7"/>
       <c r="C745" s="6"/>
       <c r="D745" s="7"/>
@@ -25536,7 +25587,7 @@
       <c r="AB745" s="10"/>
     </row>
     <row r="746" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A746" s="49"/>
+      <c r="A746" s="48"/>
       <c r="B746" s="7"/>
       <c r="C746" s="6"/>
       <c r="D746" s="7"/>
@@ -25566,7 +25617,7 @@
       <c r="AB746" s="10"/>
     </row>
     <row r="747" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A747" s="49"/>
+      <c r="A747" s="48"/>
       <c r="B747" s="7"/>
       <c r="C747" s="6"/>
       <c r="D747" s="7"/>
@@ -25596,7 +25647,7 @@
       <c r="AB747" s="10"/>
     </row>
     <row r="748" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A748" s="49"/>
+      <c r="A748" s="48"/>
       <c r="B748" s="7"/>
       <c r="C748" s="6"/>
       <c r="D748" s="7"/>
@@ -25626,7 +25677,7 @@
       <c r="AB748" s="10"/>
     </row>
     <row r="749" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A749" s="49"/>
+      <c r="A749" s="48"/>
       <c r="B749" s="7"/>
       <c r="C749" s="6"/>
       <c r="D749" s="7"/>
@@ -25656,7 +25707,7 @@
       <c r="AB749" s="10"/>
     </row>
     <row r="750" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A750" s="49"/>
+      <c r="A750" s="48"/>
       <c r="B750" s="7"/>
       <c r="C750" s="6"/>
       <c r="D750" s="7"/>
@@ -25686,7 +25737,7 @@
       <c r="AB750" s="10"/>
     </row>
     <row r="751" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A751" s="49"/>
+      <c r="A751" s="48"/>
       <c r="B751" s="7"/>
       <c r="C751" s="6"/>
       <c r="D751" s="7"/>
@@ -25716,7 +25767,7 @@
       <c r="AB751" s="10"/>
     </row>
     <row r="752" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A752" s="49"/>
+      <c r="A752" s="48"/>
       <c r="B752" s="7"/>
       <c r="C752" s="6"/>
       <c r="D752" s="7"/>
@@ -25746,7 +25797,7 @@
       <c r="AB752" s="10"/>
     </row>
     <row r="753" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A753" s="49"/>
+      <c r="A753" s="48"/>
       <c r="B753" s="7"/>
       <c r="C753" s="6"/>
       <c r="D753" s="7"/>
@@ -25776,7 +25827,7 @@
       <c r="AB753" s="10"/>
     </row>
     <row r="754" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A754" s="49"/>
+      <c r="A754" s="48"/>
       <c r="B754" s="7"/>
       <c r="C754" s="6"/>
       <c r="D754" s="7"/>
@@ -25806,7 +25857,7 @@
       <c r="AB754" s="10"/>
     </row>
     <row r="755" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A755" s="49"/>
+      <c r="A755" s="48"/>
       <c r="B755" s="7"/>
       <c r="C755" s="6"/>
       <c r="D755" s="7"/>
@@ -25836,7 +25887,7 @@
       <c r="AB755" s="10"/>
     </row>
     <row r="756" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A756" s="49"/>
+      <c r="A756" s="48"/>
       <c r="B756" s="7"/>
       <c r="C756" s="6"/>
       <c r="D756" s="7"/>
@@ -25866,7 +25917,7 @@
       <c r="AB756" s="10"/>
     </row>
     <row r="757" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A757" s="49"/>
+      <c r="A757" s="48"/>
       <c r="B757" s="7"/>
       <c r="C757" s="6"/>
       <c r="D757" s="7"/>
@@ -25896,7 +25947,7 @@
       <c r="AB757" s="10"/>
     </row>
     <row r="758" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A758" s="49"/>
+      <c r="A758" s="48"/>
       <c r="B758" s="7"/>
       <c r="C758" s="6"/>
       <c r="D758" s="7"/>
@@ -25926,7 +25977,7 @@
       <c r="AB758" s="10"/>
     </row>
     <row r="759" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A759" s="49"/>
+      <c r="A759" s="48"/>
       <c r="B759" s="7"/>
       <c r="C759" s="6"/>
       <c r="D759" s="7"/>
@@ -25956,7 +26007,7 @@
       <c r="AB759" s="10"/>
     </row>
     <row r="760" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A760" s="49"/>
+      <c r="A760" s="48"/>
       <c r="B760" s="7"/>
       <c r="C760" s="6"/>
       <c r="D760" s="7"/>
@@ -25986,7 +26037,7 @@
       <c r="AB760" s="10"/>
     </row>
     <row r="761" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A761" s="49"/>
+      <c r="A761" s="48"/>
       <c r="B761" s="7"/>
       <c r="C761" s="6"/>
       <c r="D761" s="7"/>
@@ -26016,7 +26067,7 @@
       <c r="AB761" s="10"/>
     </row>
     <row r="762" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A762" s="49"/>
+      <c r="A762" s="48"/>
       <c r="B762" s="7"/>
       <c r="C762" s="6"/>
       <c r="D762" s="7"/>
@@ -26046,7 +26097,7 @@
       <c r="AB762" s="10"/>
     </row>
     <row r="763" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A763" s="49"/>
+      <c r="A763" s="48"/>
       <c r="B763" s="7"/>
       <c r="C763" s="6"/>
       <c r="D763" s="7"/>
@@ -26076,7 +26127,7 @@
       <c r="AB763" s="10"/>
     </row>
     <row r="764" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A764" s="49"/>
+      <c r="A764" s="48"/>
       <c r="B764" s="7"/>
       <c r="C764" s="6"/>
       <c r="D764" s="7"/>
@@ -26106,7 +26157,7 @@
       <c r="AB764" s="10"/>
     </row>
     <row r="765" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A765" s="49"/>
+      <c r="A765" s="48"/>
       <c r="B765" s="7"/>
       <c r="C765" s="6"/>
       <c r="D765" s="7"/>
@@ -26136,7 +26187,7 @@
       <c r="AB765" s="10"/>
     </row>
     <row r="766" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A766" s="49"/>
+      <c r="A766" s="48"/>
       <c r="B766" s="7"/>
       <c r="C766" s="6"/>
       <c r="D766" s="7"/>
@@ -26166,7 +26217,7 @@
       <c r="AB766" s="10"/>
     </row>
     <row r="767" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A767" s="49"/>
+      <c r="A767" s="48"/>
       <c r="B767" s="7"/>
       <c r="C767" s="6"/>
       <c r="D767" s="7"/>
@@ -26196,7 +26247,7 @@
       <c r="AB767" s="10"/>
     </row>
     <row r="768" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A768" s="49"/>
+      <c r="A768" s="48"/>
       <c r="B768" s="7"/>
       <c r="C768" s="6"/>
       <c r="D768" s="7"/>
@@ -26226,7 +26277,7 @@
       <c r="AB768" s="10"/>
     </row>
     <row r="769" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A769" s="49"/>
+      <c r="A769" s="48"/>
       <c r="B769" s="7"/>
       <c r="C769" s="6"/>
       <c r="D769" s="7"/>
@@ -26256,7 +26307,7 @@
       <c r="AB769" s="10"/>
     </row>
     <row r="770" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A770" s="49"/>
+      <c r="A770" s="48"/>
       <c r="B770" s="7"/>
       <c r="C770" s="6"/>
       <c r="D770" s="7"/>
@@ -26286,7 +26337,7 @@
       <c r="AB770" s="10"/>
     </row>
     <row r="771" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A771" s="49"/>
+      <c r="A771" s="48"/>
       <c r="B771" s="7"/>
       <c r="C771" s="6"/>
       <c r="D771" s="7"/>
@@ -26316,7 +26367,7 @@
       <c r="AB771" s="10"/>
     </row>
     <row r="772" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A772" s="49"/>
+      <c r="A772" s="48"/>
       <c r="B772" s="7"/>
       <c r="C772" s="6"/>
       <c r="D772" s="7"/>
@@ -26346,7 +26397,7 @@
       <c r="AB772" s="10"/>
     </row>
     <row r="773" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A773" s="49"/>
+      <c r="A773" s="48"/>
       <c r="B773" s="7"/>
       <c r="C773" s="6"/>
       <c r="D773" s="7"/>
@@ -26376,7 +26427,7 @@
       <c r="AB773" s="10"/>
     </row>
     <row r="774" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A774" s="49"/>
+      <c r="A774" s="48"/>
       <c r="B774" s="7"/>
       <c r="C774" s="6"/>
       <c r="D774" s="7"/>
@@ -26406,7 +26457,7 @@
       <c r="AB774" s="10"/>
     </row>
     <row r="775" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A775" s="49"/>
+      <c r="A775" s="48"/>
       <c r="B775" s="7"/>
       <c r="C775" s="6"/>
       <c r="D775" s="7"/>
@@ -26436,7 +26487,7 @@
       <c r="AB775" s="10"/>
     </row>
     <row r="776" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A776" s="49"/>
+      <c r="A776" s="48"/>
       <c r="B776" s="7"/>
       <c r="C776" s="6"/>
       <c r="D776" s="7"/>
@@ -26466,7 +26517,7 @@
       <c r="AB776" s="10"/>
     </row>
     <row r="777" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A777" s="49"/>
+      <c r="A777" s="48"/>
       <c r="B777" s="7"/>
       <c r="C777" s="6"/>
       <c r="D777" s="7"/>
@@ -26496,7 +26547,7 @@
       <c r="AB777" s="10"/>
     </row>
     <row r="778" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A778" s="49"/>
+      <c r="A778" s="48"/>
       <c r="B778" s="7"/>
       <c r="C778" s="6"/>
       <c r="D778" s="7"/>
@@ -26526,7 +26577,7 @@
       <c r="AB778" s="10"/>
     </row>
     <row r="779" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A779" s="49"/>
+      <c r="A779" s="48"/>
       <c r="B779" s="7"/>
       <c r="C779" s="6"/>
       <c r="D779" s="7"/>
@@ -26556,7 +26607,7 @@
       <c r="AB779" s="10"/>
     </row>
     <row r="780" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A780" s="49"/>
+      <c r="A780" s="48"/>
       <c r="B780" s="7"/>
       <c r="C780" s="6"/>
       <c r="D780" s="7"/>
@@ -26586,7 +26637,7 @@
       <c r="AB780" s="10"/>
     </row>
     <row r="781" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A781" s="49"/>
+      <c r="A781" s="48"/>
       <c r="B781" s="7"/>
       <c r="C781" s="6"/>
       <c r="D781" s="7"/>
@@ -26616,7 +26667,7 @@
       <c r="AB781" s="10"/>
     </row>
     <row r="782" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A782" s="49"/>
+      <c r="A782" s="48"/>
       <c r="B782" s="7"/>
       <c r="C782" s="6"/>
       <c r="D782" s="7"/>
@@ -26646,7 +26697,7 @@
       <c r="AB782" s="10"/>
     </row>
     <row r="783" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A783" s="49"/>
+      <c r="A783" s="48"/>
       <c r="B783" s="7"/>
       <c r="C783" s="6"/>
       <c r="D783" s="7"/>
@@ -26676,7 +26727,7 @@
       <c r="AB783" s="10"/>
     </row>
     <row r="784" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A784" s="49"/>
+      <c r="A784" s="48"/>
       <c r="B784" s="7"/>
       <c r="C784" s="6"/>
       <c r="D784" s="7"/>
@@ -26706,7 +26757,7 @@
       <c r="AB784" s="10"/>
     </row>
     <row r="785" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A785" s="49"/>
+      <c r="A785" s="48"/>
       <c r="B785" s="7"/>
       <c r="C785" s="6"/>
       <c r="D785" s="7"/>
@@ -26736,7 +26787,7 @@
       <c r="AB785" s="10"/>
     </row>
     <row r="786" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A786" s="49"/>
+      <c r="A786" s="48"/>
       <c r="B786" s="7"/>
       <c r="C786" s="6"/>
       <c r="D786" s="7"/>
@@ -26766,7 +26817,7 @@
       <c r="AB786" s="10"/>
     </row>
     <row r="787" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A787" s="49"/>
+      <c r="A787" s="48"/>
       <c r="B787" s="7"/>
       <c r="C787" s="6"/>
       <c r="D787" s="7"/>
@@ -26796,7 +26847,7 @@
       <c r="AB787" s="10"/>
     </row>
     <row r="788" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A788" s="49"/>
+      <c r="A788" s="48"/>
       <c r="B788" s="7"/>
       <c r="C788" s="6"/>
       <c r="D788" s="7"/>
@@ -26826,7 +26877,7 @@
       <c r="AB788" s="10"/>
     </row>
     <row r="789" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A789" s="49"/>
+      <c r="A789" s="48"/>
       <c r="B789" s="7"/>
       <c r="C789" s="6"/>
       <c r="D789" s="7"/>
@@ -26856,7 +26907,7 @@
       <c r="AB789" s="10"/>
     </row>
     <row r="790" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A790" s="49"/>
+      <c r="A790" s="48"/>
       <c r="B790" s="7"/>
       <c r="C790" s="6"/>
       <c r="D790" s="7"/>
@@ -26886,7 +26937,7 @@
       <c r="AB790" s="10"/>
     </row>
     <row r="791" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A791" s="49"/>
+      <c r="A791" s="48"/>
       <c r="B791" s="7"/>
       <c r="C791" s="6"/>
       <c r="D791" s="7"/>
@@ -26916,7 +26967,7 @@
       <c r="AB791" s="10"/>
     </row>
     <row r="792" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A792" s="49"/>
+      <c r="A792" s="48"/>
       <c r="B792" s="7"/>
       <c r="C792" s="6"/>
       <c r="D792" s="7"/>
@@ -26946,7 +26997,7 @@
       <c r="AB792" s="10"/>
     </row>
     <row r="793" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A793" s="49"/>
+      <c r="A793" s="48"/>
       <c r="B793" s="7"/>
       <c r="C793" s="6"/>
       <c r="D793" s="7"/>
@@ -26976,7 +27027,7 @@
       <c r="AB793" s="10"/>
     </row>
     <row r="794" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A794" s="49"/>
+      <c r="A794" s="48"/>
       <c r="B794" s="7"/>
       <c r="C794" s="6"/>
       <c r="D794" s="7"/>
@@ -27006,7 +27057,7 @@
       <c r="AB794" s="10"/>
     </row>
     <row r="795" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A795" s="49"/>
+      <c r="A795" s="48"/>
       <c r="B795" s="7"/>
       <c r="C795" s="6"/>
       <c r="D795" s="7"/>
@@ -27036,7 +27087,7 @@
       <c r="AB795" s="10"/>
     </row>
     <row r="796" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A796" s="49"/>
+      <c r="A796" s="48"/>
       <c r="B796" s="7"/>
       <c r="C796" s="6"/>
       <c r="D796" s="7"/>
@@ -27066,7 +27117,7 @@
       <c r="AB796" s="10"/>
     </row>
     <row r="797" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A797" s="49"/>
+      <c r="A797" s="48"/>
       <c r="B797" s="7"/>
       <c r="C797" s="6"/>
       <c r="D797" s="7"/>
@@ -27096,7 +27147,7 @@
       <c r="AB797" s="10"/>
     </row>
     <row r="798" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A798" s="49"/>
+      <c r="A798" s="48"/>
       <c r="B798" s="7"/>
       <c r="C798" s="6"/>
       <c r="D798" s="7"/>
@@ -27126,7 +27177,7 @@
       <c r="AB798" s="10"/>
     </row>
     <row r="799" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A799" s="49"/>
+      <c r="A799" s="48"/>
       <c r="B799" s="7"/>
       <c r="C799" s="6"/>
       <c r="D799" s="7"/>
@@ -27156,7 +27207,7 @@
       <c r="AB799" s="10"/>
     </row>
     <row r="800" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A800" s="49"/>
+      <c r="A800" s="48"/>
       <c r="B800" s="7"/>
       <c r="C800" s="6"/>
       <c r="D800" s="7"/>
@@ -27186,7 +27237,7 @@
       <c r="AB800" s="10"/>
     </row>
     <row r="801" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A801" s="49"/>
+      <c r="A801" s="48"/>
       <c r="B801" s="7"/>
       <c r="C801" s="6"/>
       <c r="D801" s="7"/>
@@ -27216,7 +27267,7 @@
       <c r="AB801" s="10"/>
     </row>
     <row r="802" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A802" s="49"/>
+      <c r="A802" s="48"/>
       <c r="B802" s="7"/>
       <c r="C802" s="6"/>
       <c r="D802" s="7"/>
@@ -27246,7 +27297,7 @@
       <c r="AB802" s="10"/>
     </row>
     <row r="803" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A803" s="49"/>
+      <c r="A803" s="48"/>
       <c r="B803" s="7"/>
       <c r="C803" s="6"/>
       <c r="D803" s="7"/>
@@ -27276,7 +27327,7 @@
       <c r="AB803" s="10"/>
     </row>
     <row r="804" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A804" s="49"/>
+      <c r="A804" s="48"/>
       <c r="B804" s="7"/>
       <c r="C804" s="6"/>
       <c r="D804" s="7"/>
@@ -27306,7 +27357,7 @@
       <c r="AB804" s="10"/>
     </row>
     <row r="805" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A805" s="49"/>
+      <c r="A805" s="48"/>
       <c r="B805" s="7"/>
       <c r="C805" s="6"/>
       <c r="D805" s="7"/>
@@ -27336,7 +27387,7 @@
       <c r="AB805" s="10"/>
     </row>
     <row r="806" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A806" s="49"/>
+      <c r="A806" s="48"/>
       <c r="B806" s="7"/>
       <c r="C806" s="6"/>
       <c r="D806" s="7"/>
@@ -27366,7 +27417,7 @@
       <c r="AB806" s="10"/>
     </row>
     <row r="807" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A807" s="49"/>
+      <c r="A807" s="48"/>
       <c r="B807" s="7"/>
       <c r="C807" s="6"/>
       <c r="D807" s="7"/>
@@ -27396,7 +27447,7 @@
       <c r="AB807" s="10"/>
     </row>
     <row r="808" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A808" s="49"/>
+      <c r="A808" s="48"/>
       <c r="B808" s="7"/>
       <c r="C808" s="6"/>
       <c r="D808" s="7"/>
@@ -27426,7 +27477,7 @@
       <c r="AB808" s="10"/>
     </row>
     <row r="809" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A809" s="49"/>
+      <c r="A809" s="48"/>
       <c r="B809" s="7"/>
       <c r="C809" s="6"/>
       <c r="D809" s="7"/>
@@ -27456,7 +27507,7 @@
       <c r="AB809" s="10"/>
     </row>
     <row r="810" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A810" s="49"/>
+      <c r="A810" s="48"/>
       <c r="B810" s="7"/>
       <c r="C810" s="6"/>
       <c r="D810" s="7"/>
@@ -27486,7 +27537,7 @@
       <c r="AB810" s="10"/>
     </row>
     <row r="811" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A811" s="49"/>
+      <c r="A811" s="48"/>
       <c r="B811" s="7"/>
       <c r="C811" s="6"/>
       <c r="D811" s="7"/>
@@ -27516,7 +27567,7 @@
       <c r="AB811" s="10"/>
     </row>
     <row r="812" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A812" s="49"/>
+      <c r="A812" s="48"/>
       <c r="B812" s="7"/>
       <c r="C812" s="6"/>
       <c r="D812" s="7"/>
@@ -27546,7 +27597,7 @@
       <c r="AB812" s="10"/>
     </row>
     <row r="813" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A813" s="49"/>
+      <c r="A813" s="48"/>
       <c r="B813" s="7"/>
       <c r="C813" s="6"/>
       <c r="D813" s="7"/>
@@ -27576,7 +27627,7 @@
       <c r="AB813" s="10"/>
     </row>
     <row r="814" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A814" s="49"/>
+      <c r="A814" s="48"/>
       <c r="B814" s="7"/>
       <c r="C814" s="6"/>
       <c r="D814" s="7"/>
@@ -27606,7 +27657,7 @@
       <c r="AB814" s="10"/>
     </row>
     <row r="815" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A815" s="49"/>
+      <c r="A815" s="48"/>
       <c r="B815" s="7"/>
       <c r="C815" s="6"/>
       <c r="D815" s="7"/>
@@ -27636,7 +27687,7 @@
       <c r="AB815" s="10"/>
     </row>
     <row r="816" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A816" s="49"/>
+      <c r="A816" s="48"/>
       <c r="B816" s="7"/>
       <c r="C816" s="6"/>
       <c r="D816" s="7"/>
@@ -27666,7 +27717,7 @@
       <c r="AB816" s="10"/>
     </row>
     <row r="817" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A817" s="49"/>
+      <c r="A817" s="48"/>
       <c r="B817" s="7"/>
       <c r="C817" s="6"/>
       <c r="D817" s="7"/>
@@ -27696,7 +27747,7 @@
       <c r="AB817" s="10"/>
     </row>
     <row r="818" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A818" s="49"/>
+      <c r="A818" s="48"/>
       <c r="B818" s="7"/>
       <c r="C818" s="6"/>
       <c r="D818" s="7"/>
@@ -27726,7 +27777,7 @@
       <c r="AB818" s="10"/>
     </row>
     <row r="819" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A819" s="49"/>
+      <c r="A819" s="48"/>
       <c r="B819" s="7"/>
       <c r="C819" s="6"/>
       <c r="D819" s="7"/>
@@ -27756,7 +27807,7 @@
       <c r="AB819" s="10"/>
     </row>
     <row r="820" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A820" s="49"/>
+      <c r="A820" s="48"/>
       <c r="B820" s="7"/>
       <c r="C820" s="6"/>
       <c r="D820" s="7"/>
@@ -27786,7 +27837,7 @@
       <c r="AB820" s="10"/>
     </row>
     <row r="821" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A821" s="49"/>
+      <c r="A821" s="48"/>
       <c r="B821" s="7"/>
       <c r="C821" s="6"/>
       <c r="D821" s="7"/>
@@ -27816,7 +27867,7 @@
       <c r="AB821" s="10"/>
     </row>
     <row r="822" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A822" s="49"/>
+      <c r="A822" s="48"/>
       <c r="B822" s="7"/>
       <c r="C822" s="6"/>
       <c r="D822" s="7"/>
@@ -27846,7 +27897,7 @@
       <c r="AB822" s="10"/>
     </row>
     <row r="823" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A823" s="49"/>
+      <c r="A823" s="48"/>
       <c r="B823" s="7"/>
       <c r="C823" s="6"/>
       <c r="D823" s="7"/>
@@ -27876,7 +27927,7 @@
       <c r="AB823" s="10"/>
     </row>
     <row r="824" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A824" s="49"/>
+      <c r="A824" s="48"/>
       <c r="B824" s="7"/>
       <c r="C824" s="6"/>
       <c r="D824" s="7"/>
@@ -27906,7 +27957,7 @@
       <c r="AB824" s="10"/>
     </row>
     <row r="825" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A825" s="49"/>
+      <c r="A825" s="48"/>
       <c r="B825" s="7"/>
       <c r="C825" s="6"/>
       <c r="D825" s="7"/>
@@ -27936,7 +27987,7 @@
       <c r="AB825" s="10"/>
     </row>
     <row r="826" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A826" s="49"/>
+      <c r="A826" s="48"/>
       <c r="B826" s="7"/>
       <c r="C826" s="6"/>
       <c r="D826" s="7"/>
@@ -27966,7 +28017,7 @@
       <c r="AB826" s="10"/>
     </row>
     <row r="827" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A827" s="49"/>
+      <c r="A827" s="48"/>
       <c r="B827" s="7"/>
       <c r="C827" s="6"/>
       <c r="D827" s="7"/>
@@ -27996,7 +28047,7 @@
       <c r="AB827" s="10"/>
     </row>
     <row r="828" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A828" s="49"/>
+      <c r="A828" s="48"/>
       <c r="B828" s="7"/>
       <c r="C828" s="6"/>
       <c r="D828" s="7"/>
@@ -28026,7 +28077,7 @@
       <c r="AB828" s="10"/>
     </row>
     <row r="829" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A829" s="49"/>
+      <c r="A829" s="48"/>
       <c r="B829" s="7"/>
       <c r="C829" s="6"/>
       <c r="D829" s="7"/>
@@ -28056,7 +28107,7 @@
       <c r="AB829" s="10"/>
     </row>
     <row r="830" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A830" s="49"/>
+      <c r="A830" s="48"/>
       <c r="B830" s="7"/>
       <c r="C830" s="6"/>
       <c r="D830" s="7"/>
@@ -28086,7 +28137,7 @@
       <c r="AB830" s="10"/>
     </row>
     <row r="831" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A831" s="49"/>
+      <c r="A831" s="48"/>
       <c r="B831" s="7"/>
       <c r="C831" s="6"/>
       <c r="D831" s="7"/>
@@ -28116,7 +28167,7 @@
       <c r="AB831" s="10"/>
     </row>
     <row r="832" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A832" s="49"/>
+      <c r="A832" s="48"/>
       <c r="B832" s="7"/>
       <c r="C832" s="6"/>
       <c r="D832" s="7"/>
@@ -28146,7 +28197,7 @@
       <c r="AB832" s="10"/>
     </row>
     <row r="833" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A833" s="49"/>
+      <c r="A833" s="48"/>
       <c r="B833" s="7"/>
       <c r="C833" s="6"/>
       <c r="D833" s="7"/>
@@ -28176,7 +28227,7 @@
       <c r="AB833" s="10"/>
     </row>
     <row r="834" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A834" s="49"/>
+      <c r="A834" s="48"/>
       <c r="B834" s="7"/>
       <c r="C834" s="6"/>
       <c r="D834" s="7"/>
@@ -28206,7 +28257,7 @@
       <c r="AB834" s="10"/>
     </row>
     <row r="835" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A835" s="49"/>
+      <c r="A835" s="48"/>
       <c r="B835" s="7"/>
       <c r="C835" s="6"/>
       <c r="D835" s="7"/>
@@ -28236,7 +28287,7 @@
       <c r="AB835" s="10"/>
     </row>
     <row r="836" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A836" s="49"/>
+      <c r="A836" s="48"/>
       <c r="B836" s="7"/>
       <c r="C836" s="6"/>
       <c r="D836" s="7"/>
@@ -28266,7 +28317,7 @@
       <c r="AB836" s="10"/>
     </row>
     <row r="837" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A837" s="49"/>
+      <c r="A837" s="48"/>
       <c r="B837" s="7"/>
       <c r="C837" s="6"/>
       <c r="D837" s="7"/>
@@ -28296,7 +28347,7 @@
       <c r="AB837" s="10"/>
     </row>
     <row r="838" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A838" s="49"/>
+      <c r="A838" s="48"/>
       <c r="B838" s="7"/>
       <c r="C838" s="6"/>
       <c r="D838" s="7"/>
@@ -28326,7 +28377,7 @@
       <c r="AB838" s="10"/>
     </row>
     <row r="839" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A839" s="49"/>
+      <c r="A839" s="48"/>
       <c r="B839" s="7"/>
       <c r="C839" s="6"/>
       <c r="D839" s="7"/>
@@ -28356,7 +28407,7 @@
       <c r="AB839" s="10"/>
     </row>
     <row r="840" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A840" s="49"/>
+      <c r="A840" s="48"/>
       <c r="B840" s="7"/>
       <c r="C840" s="6"/>
       <c r="D840" s="7"/>
@@ -28386,7 +28437,7 @@
       <c r="AB840" s="10"/>
     </row>
     <row r="841" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A841" s="49"/>
+      <c r="A841" s="48"/>
       <c r="B841" s="7"/>
       <c r="C841" s="6"/>
       <c r="D841" s="7"/>
@@ -28416,7 +28467,7 @@
       <c r="AB841" s="10"/>
     </row>
     <row r="842" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A842" s="49"/>
+      <c r="A842" s="48"/>
       <c r="B842" s="7"/>
       <c r="C842" s="6"/>
       <c r="D842" s="7"/>
@@ -28446,7 +28497,7 @@
       <c r="AB842" s="10"/>
     </row>
     <row r="843" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A843" s="49"/>
+      <c r="A843" s="48"/>
       <c r="B843" s="7"/>
       <c r="C843" s="6"/>
       <c r="D843" s="7"/>
@@ -28476,7 +28527,7 @@
       <c r="AB843" s="10"/>
     </row>
     <row r="844" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A844" s="49"/>
+      <c r="A844" s="48"/>
       <c r="B844" s="7"/>
       <c r="C844" s="6"/>
       <c r="D844" s="7"/>
@@ -28506,7 +28557,7 @@
       <c r="AB844" s="10"/>
     </row>
     <row r="845" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A845" s="49"/>
+      <c r="A845" s="48"/>
       <c r="B845" s="7"/>
       <c r="C845" s="6"/>
       <c r="D845" s="7"/>
@@ -28536,7 +28587,7 @@
       <c r="AB845" s="10"/>
     </row>
     <row r="846" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A846" s="49"/>
+      <c r="A846" s="48"/>
       <c r="B846" s="7"/>
       <c r="C846" s="6"/>
       <c r="D846" s="7"/>
@@ -28566,7 +28617,7 @@
       <c r="AB846" s="10"/>
     </row>
     <row r="847" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A847" s="49"/>
+      <c r="A847" s="48"/>
       <c r="B847" s="7"/>
       <c r="C847" s="6"/>
       <c r="D847" s="7"/>
@@ -28596,7 +28647,7 @@
       <c r="AB847" s="10"/>
     </row>
     <row r="848" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A848" s="49"/>
+      <c r="A848" s="48"/>
       <c r="B848" s="7"/>
       <c r="C848" s="6"/>
       <c r="D848" s="7"/>
@@ -28626,7 +28677,7 @@
       <c r="AB848" s="10"/>
     </row>
     <row r="849" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A849" s="49"/>
+      <c r="A849" s="48"/>
       <c r="B849" s="7"/>
       <c r="C849" s="6"/>
       <c r="D849" s="7"/>
@@ -28656,7 +28707,7 @@
       <c r="AB849" s="10"/>
     </row>
     <row r="850" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A850" s="49"/>
+      <c r="A850" s="48"/>
       <c r="B850" s="7"/>
       <c r="C850" s="6"/>
       <c r="D850" s="7"/>
@@ -28686,7 +28737,7 @@
       <c r="AB850" s="10"/>
     </row>
     <row r="851" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A851" s="49"/>
+      <c r="A851" s="48"/>
       <c r="B851" s="7"/>
       <c r="C851" s="6"/>
       <c r="D851" s="7"/>
@@ -28716,7 +28767,7 @@
       <c r="AB851" s="10"/>
     </row>
     <row r="852" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A852" s="49"/>
+      <c r="A852" s="48"/>
       <c r="B852" s="7"/>
       <c r="C852" s="6"/>
       <c r="D852" s="7"/>
@@ -28746,7 +28797,7 @@
       <c r="AB852" s="10"/>
     </row>
     <row r="853" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A853" s="49"/>
+      <c r="A853" s="48"/>
       <c r="B853" s="7"/>
       <c r="C853" s="6"/>
       <c r="D853" s="7"/>
@@ -28776,7 +28827,7 @@
       <c r="AB853" s="10"/>
     </row>
     <row r="854" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A854" s="49"/>
+      <c r="A854" s="48"/>
       <c r="B854" s="7"/>
       <c r="C854" s="6"/>
       <c r="D854" s="7"/>
@@ -28806,7 +28857,7 @@
       <c r="AB854" s="10"/>
     </row>
     <row r="855" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A855" s="49"/>
+      <c r="A855" s="48"/>
       <c r="B855" s="7"/>
       <c r="C855" s="6"/>
       <c r="D855" s="7"/>
@@ -28836,7 +28887,7 @@
       <c r="AB855" s="10"/>
     </row>
     <row r="856" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A856" s="49"/>
+      <c r="A856" s="48"/>
       <c r="B856" s="7"/>
       <c r="C856" s="6"/>
       <c r="D856" s="7"/>
@@ -28866,7 +28917,7 @@
       <c r="AB856" s="10"/>
     </row>
     <row r="857" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A857" s="49"/>
+      <c r="A857" s="48"/>
       <c r="B857" s="7"/>
       <c r="C857" s="6"/>
       <c r="D857" s="7"/>
@@ -28896,7 +28947,7 @@
       <c r="AB857" s="10"/>
     </row>
     <row r="858" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A858" s="49"/>
+      <c r="A858" s="48"/>
       <c r="B858" s="7"/>
       <c r="C858" s="6"/>
       <c r="D858" s="7"/>
@@ -28926,7 +28977,7 @@
       <c r="AB858" s="10"/>
     </row>
     <row r="859" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A859" s="49"/>
+      <c r="A859" s="48"/>
       <c r="B859" s="7"/>
       <c r="C859" s="6"/>
       <c r="D859" s="7"/>
@@ -28956,7 +29007,7 @@
       <c r="AB859" s="10"/>
     </row>
     <row r="860" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A860" s="49"/>
+      <c r="A860" s="48"/>
       <c r="B860" s="7"/>
       <c r="C860" s="6"/>
       <c r="D860" s="7"/>
@@ -28986,7 +29037,7 @@
       <c r="AB860" s="10"/>
     </row>
     <row r="861" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A861" s="49"/>
+      <c r="A861" s="48"/>
       <c r="B861" s="7"/>
       <c r="C861" s="6"/>
       <c r="D861" s="7"/>
@@ -29016,7 +29067,7 @@
       <c r="AB861" s="10"/>
     </row>
     <row r="862" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A862" s="49"/>
+      <c r="A862" s="48"/>
       <c r="B862" s="7"/>
       <c r="C862" s="6"/>
       <c r="D862" s="7"/>
@@ -29046,7 +29097,7 @@
       <c r="AB862" s="10"/>
     </row>
     <row r="863" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A863" s="49"/>
+      <c r="A863" s="48"/>
       <c r="B863" s="7"/>
       <c r="C863" s="6"/>
       <c r="D863" s="7"/>
@@ -29076,7 +29127,7 @@
       <c r="AB863" s="10"/>
     </row>
     <row r="864" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A864" s="49"/>
+      <c r="A864" s="48"/>
       <c r="B864" s="7"/>
       <c r="C864" s="6"/>
       <c r="D864" s="7"/>
@@ -29106,7 +29157,7 @@
       <c r="AB864" s="10"/>
     </row>
     <row r="865" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A865" s="49"/>
+      <c r="A865" s="48"/>
       <c r="B865" s="7"/>
       <c r="C865" s="6"/>
       <c r="D865" s="7"/>
@@ -29136,7 +29187,7 @@
       <c r="AB865" s="10"/>
     </row>
     <row r="866" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A866" s="49"/>
+      <c r="A866" s="48"/>
       <c r="B866" s="7"/>
       <c r="C866" s="6"/>
       <c r="D866" s="7"/>
@@ -29166,7 +29217,7 @@
       <c r="AB866" s="10"/>
     </row>
     <row r="867" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A867" s="49"/>
+      <c r="A867" s="48"/>
       <c r="B867" s="7"/>
       <c r="C867" s="6"/>
       <c r="D867" s="7"/>
@@ -29196,7 +29247,7 @@
       <c r="AB867" s="10"/>
     </row>
     <row r="868" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A868" s="49"/>
+      <c r="A868" s="48"/>
       <c r="B868" s="7"/>
       <c r="C868" s="6"/>
       <c r="D868" s="7"/>
@@ -29226,7 +29277,7 @@
       <c r="AB868" s="10"/>
     </row>
     <row r="869" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A869" s="49"/>
+      <c r="A869" s="48"/>
       <c r="B869" s="7"/>
       <c r="C869" s="6"/>
       <c r="D869" s="7"/>
@@ -29256,7 +29307,7 @@
       <c r="AB869" s="10"/>
     </row>
     <row r="870" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A870" s="49"/>
+      <c r="A870" s="48"/>
       <c r="B870" s="7"/>
       <c r="C870" s="6"/>
       <c r="D870" s="7"/>
@@ -29286,7 +29337,7 @@
       <c r="AB870" s="10"/>
     </row>
     <row r="871" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A871" s="49"/>
+      <c r="A871" s="48"/>
       <c r="B871" s="7"/>
       <c r="C871" s="6"/>
       <c r="D871" s="7"/>
@@ -29316,7 +29367,7 @@
       <c r="AB871" s="10"/>
     </row>
     <row r="872" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A872" s="49"/>
+      <c r="A872" s="48"/>
       <c r="B872" s="7"/>
       <c r="C872" s="6"/>
       <c r="D872" s="7"/>
@@ -29346,7 +29397,7 @@
       <c r="AB872" s="10"/>
     </row>
     <row r="873" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A873" s="49"/>
+      <c r="A873" s="48"/>
       <c r="B873" s="7"/>
       <c r="C873" s="6"/>
       <c r="D873" s="7"/>
@@ -29376,7 +29427,7 @@
       <c r="AB873" s="10"/>
     </row>
     <row r="874" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A874" s="49"/>
+      <c r="A874" s="48"/>
       <c r="B874" s="7"/>
       <c r="C874" s="6"/>
       <c r="D874" s="7"/>
@@ -29406,7 +29457,7 @@
       <c r="AB874" s="10"/>
     </row>
     <row r="875" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A875" s="49"/>
+      <c r="A875" s="48"/>
       <c r="B875" s="7"/>
       <c r="C875" s="6"/>
       <c r="D875" s="7"/>
@@ -29436,7 +29487,7 @@
       <c r="AB875" s="10"/>
     </row>
     <row r="876" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A876" s="49"/>
+      <c r="A876" s="48"/>
       <c r="B876" s="7"/>
       <c r="C876" s="6"/>
       <c r="D876" s="7"/>
@@ -29466,7 +29517,7 @@
       <c r="AB876" s="10"/>
     </row>
     <row r="877" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A877" s="49"/>
+      <c r="A877" s="48"/>
       <c r="B877" s="7"/>
       <c r="C877" s="6"/>
       <c r="D877" s="7"/>
@@ -29496,7 +29547,7 @@
       <c r="AB877" s="10"/>
     </row>
     <row r="878" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A878" s="49"/>
+      <c r="A878" s="48"/>
       <c r="B878" s="7"/>
       <c r="C878" s="6"/>
       <c r="D878" s="7"/>
@@ -29526,7 +29577,7 @@
       <c r="AB878" s="10"/>
     </row>
     <row r="879" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A879" s="49"/>
+      <c r="A879" s="48"/>
       <c r="B879" s="7"/>
       <c r="C879" s="6"/>
       <c r="D879" s="7"/>
@@ -29556,7 +29607,7 @@
       <c r="AB879" s="10"/>
     </row>
     <row r="880" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A880" s="49"/>
+      <c r="A880" s="48"/>
       <c r="B880" s="7"/>
       <c r="C880" s="6"/>
       <c r="D880" s="7"/>
@@ -29586,7 +29637,7 @@
       <c r="AB880" s="10"/>
     </row>
     <row r="881" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A881" s="49"/>
+      <c r="A881" s="48"/>
       <c r="B881" s="7"/>
       <c r="C881" s="6"/>
       <c r="D881" s="7"/>
@@ -29616,7 +29667,7 @@
       <c r="AB881" s="10"/>
     </row>
     <row r="882" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A882" s="49"/>
+      <c r="A882" s="48"/>
       <c r="B882" s="7"/>
       <c r="C882" s="6"/>
       <c r="D882" s="7"/>
@@ -29646,7 +29697,7 @@
       <c r="AB882" s="10"/>
     </row>
     <row r="883" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A883" s="49"/>
+      <c r="A883" s="48"/>
       <c r="B883" s="7"/>
       <c r="C883" s="6"/>
       <c r="D883" s="7"/>
@@ -29676,7 +29727,7 @@
       <c r="AB883" s="10"/>
     </row>
     <row r="884" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A884" s="49"/>
+      <c r="A884" s="48"/>
       <c r="B884" s="7"/>
       <c r="C884" s="6"/>
       <c r="D884" s="7"/>
@@ -29706,7 +29757,7 @@
       <c r="AB884" s="10"/>
     </row>
     <row r="885" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A885" s="49"/>
+      <c r="A885" s="48"/>
       <c r="B885" s="7"/>
       <c r="C885" s="6"/>
       <c r="D885" s="7"/>
@@ -29736,7 +29787,7 @@
       <c r="AB885" s="10"/>
     </row>
     <row r="886" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A886" s="49"/>
+      <c r="A886" s="48"/>
       <c r="B886" s="7"/>
       <c r="C886" s="6"/>
       <c r="D886" s="7"/>
@@ -29766,7 +29817,7 @@
       <c r="AB886" s="10"/>
     </row>
     <row r="887" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A887" s="49"/>
+      <c r="A887" s="48"/>
       <c r="B887" s="7"/>
       <c r="C887" s="6"/>
       <c r="D887" s="7"/>
@@ -29796,7 +29847,7 @@
       <c r="AB887" s="10"/>
     </row>
     <row r="888" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A888" s="49"/>
+      <c r="A888" s="48"/>
       <c r="B888" s="7"/>
       <c r="C888" s="6"/>
       <c r="D888" s="7"/>
@@ -29826,7 +29877,7 @@
       <c r="AB888" s="10"/>
     </row>
     <row r="889" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A889" s="49"/>
+      <c r="A889" s="48"/>
       <c r="B889" s="7"/>
       <c r="C889" s="6"/>
       <c r="D889" s="7"/>
@@ -29856,7 +29907,7 @@
       <c r="AB889" s="10"/>
     </row>
     <row r="890" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A890" s="49"/>
+      <c r="A890" s="48"/>
       <c r="B890" s="7"/>
       <c r="C890" s="6"/>
       <c r="D890" s="7"/>
@@ -29886,7 +29937,7 @@
       <c r="AB890" s="10"/>
     </row>
     <row r="891" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A891" s="49"/>
+      <c r="A891" s="48"/>
       <c r="B891" s="7"/>
       <c r="C891" s="6"/>
       <c r="D891" s="7"/>
@@ -29916,7 +29967,7 @@
       <c r="AB891" s="10"/>
     </row>
     <row r="892" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A892" s="49"/>
+      <c r="A892" s="48"/>
       <c r="B892" s="7"/>
       <c r="C892" s="6"/>
       <c r="D892" s="7"/>
@@ -29946,7 +29997,7 @@
       <c r="AB892" s="10"/>
     </row>
     <row r="893" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A893" s="49"/>
+      <c r="A893" s="48"/>
       <c r="B893" s="7"/>
       <c r="C893" s="6"/>
       <c r="D893" s="7"/>
@@ -29976,7 +30027,7 @@
       <c r="AB893" s="10"/>
     </row>
     <row r="894" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A894" s="49"/>
+      <c r="A894" s="48"/>
       <c r="B894" s="7"/>
       <c r="C894" s="6"/>
       <c r="D894" s="7"/>
@@ -30006,7 +30057,7 @@
       <c r="AB894" s="10"/>
     </row>
     <row r="895" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A895" s="49"/>
+      <c r="A895" s="48"/>
       <c r="B895" s="7"/>
       <c r="C895" s="6"/>
       <c r="D895" s="7"/>
@@ -30036,7 +30087,7 @@
       <c r="AB895" s="10"/>
     </row>
     <row r="896" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A896" s="49"/>
+      <c r="A896" s="48"/>
       <c r="B896" s="7"/>
       <c r="C896" s="6"/>
       <c r="D896" s="7"/>
@@ -30066,7 +30117,7 @@
       <c r="AB896" s="10"/>
     </row>
     <row r="897" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A897" s="49"/>
+      <c r="A897" s="48"/>
       <c r="B897" s="7"/>
       <c r="C897" s="6"/>
       <c r="D897" s="7"/>
@@ -30096,7 +30147,7 @@
       <c r="AB897" s="10"/>
     </row>
     <row r="898" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A898" s="49"/>
+      <c r="A898" s="48"/>
       <c r="B898" s="7"/>
       <c r="C898" s="6"/>
       <c r="D898" s="7"/>
@@ -30126,7 +30177,7 @@
       <c r="AB898" s="10"/>
     </row>
     <row r="899" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A899" s="49"/>
+      <c r="A899" s="48"/>
       <c r="B899" s="7"/>
       <c r="C899" s="6"/>
       <c r="D899" s="7"/>
@@ -30156,7 +30207,7 @@
       <c r="AB899" s="10"/>
     </row>
     <row r="900" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A900" s="49"/>
+      <c r="A900" s="48"/>
       <c r="B900" s="7"/>
       <c r="C900" s="6"/>
       <c r="D900" s="7"/>
@@ -30186,7 +30237,7 @@
       <c r="AB900" s="10"/>
     </row>
     <row r="901" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A901" s="49"/>
+      <c r="A901" s="48"/>
       <c r="B901" s="7"/>
       <c r="C901" s="6"/>
       <c r="D901" s="7"/>
@@ -30216,7 +30267,7 @@
       <c r="AB901" s="10"/>
     </row>
     <row r="902" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A902" s="49"/>
+      <c r="A902" s="48"/>
       <c r="B902" s="7"/>
       <c r="C902" s="6"/>
       <c r="D902" s="7"/>
@@ -30246,7 +30297,7 @@
       <c r="AB902" s="10"/>
     </row>
     <row r="903" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A903" s="49"/>
+      <c r="A903" s="48"/>
       <c r="B903" s="7"/>
       <c r="C903" s="6"/>
       <c r="D903" s="7"/>
@@ -30276,7 +30327,7 @@
       <c r="AB903" s="10"/>
     </row>
     <row r="904" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A904" s="49"/>
+      <c r="A904" s="48"/>
       <c r="B904" s="7"/>
       <c r="C904" s="6"/>
       <c r="D904" s="7"/>
@@ -30306,7 +30357,7 @@
       <c r="AB904" s="10"/>
     </row>
     <row r="905" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A905" s="49"/>
+      <c r="A905" s="48"/>
       <c r="B905" s="7"/>
       <c r="C905" s="6"/>
       <c r="D905" s="7"/>
@@ -30336,7 +30387,7 @@
       <c r="AB905" s="10"/>
     </row>
     <row r="906" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A906" s="49"/>
+      <c r="A906" s="48"/>
       <c r="B906" s="7"/>
       <c r="C906" s="6"/>
       <c r="D906" s="7"/>
@@ -30366,7 +30417,7 @@
       <c r="AB906" s="10"/>
     </row>
     <row r="907" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A907" s="49"/>
+      <c r="A907" s="48"/>
       <c r="B907" s="7"/>
       <c r="C907" s="6"/>
       <c r="D907" s="7"/>
@@ -30396,7 +30447,7 @@
       <c r="AB907" s="10"/>
     </row>
     <row r="908" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A908" s="49"/>
+      <c r="A908" s="48"/>
       <c r="B908" s="7"/>
       <c r="C908" s="6"/>
       <c r="D908" s="7"/>
@@ -30426,7 +30477,7 @@
       <c r="AB908" s="10"/>
     </row>
     <row r="909" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A909" s="49"/>
+      <c r="A909" s="48"/>
       <c r="B909" s="7"/>
       <c r="C909" s="6"/>
       <c r="D909" s="7"/>
@@ -30456,7 +30507,7 @@
       <c r="AB909" s="10"/>
     </row>
     <row r="910" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A910" s="49"/>
+      <c r="A910" s="48"/>
       <c r="B910" s="7"/>
       <c r="C910" s="6"/>
       <c r="D910" s="7"/>
@@ -30486,7 +30537,7 @@
       <c r="AB910" s="10"/>
     </row>
     <row r="911" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A911" s="49"/>
+      <c r="A911" s="48"/>
       <c r="B911" s="7"/>
       <c r="C911" s="6"/>
       <c r="D911" s="7"/>
@@ -30516,7 +30567,7 @@
       <c r="AB911" s="10"/>
     </row>
     <row r="912" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A912" s="49"/>
+      <c r="A912" s="48"/>
       <c r="B912" s="7"/>
       <c r="C912" s="6"/>
       <c r="D912" s="7"/>
@@ -30546,7 +30597,7 @@
       <c r="AB912" s="10"/>
     </row>
     <row r="913" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A913" s="49"/>
+      <c r="A913" s="48"/>
       <c r="B913" s="7"/>
       <c r="C913" s="6"/>
       <c r="D913" s="7"/>
@@ -30576,7 +30627,7 @@
       <c r="AB913" s="10"/>
     </row>
     <row r="914" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A914" s="49"/>
+      <c r="A914" s="48"/>
       <c r="B914" s="7"/>
       <c r="C914" s="6"/>
       <c r="D914" s="7"/>
@@ -30606,7 +30657,7 @@
       <c r="AB914" s="10"/>
     </row>
     <row r="915" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A915" s="49"/>
+      <c r="A915" s="48"/>
       <c r="B915" s="7"/>
       <c r="C915" s="6"/>
       <c r="D915" s="7"/>
@@ -30636,7 +30687,7 @@
       <c r="AB915" s="10"/>
     </row>
     <row r="916" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A916" s="49"/>
+      <c r="A916" s="48"/>
       <c r="B916" s="7"/>
       <c r="C916" s="6"/>
       <c r="D916" s="7"/>
@@ -30666,7 +30717,7 @@
       <c r="AB916" s="10"/>
     </row>
     <row r="917" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A917" s="49"/>
+      <c r="A917" s="48"/>
       <c r="B917" s="7"/>
       <c r="C917" s="6"/>
       <c r="D917" s="7"/>
@@ -30696,7 +30747,7 @@
       <c r="AB917" s="10"/>
     </row>
     <row r="918" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A918" s="49"/>
+      <c r="A918" s="48"/>
       <c r="B918" s="7"/>
       <c r="C918" s="6"/>
       <c r="D918" s="7"/>
@@ -30726,7 +30777,7 @@
       <c r="AB918" s="10"/>
     </row>
     <row r="919" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A919" s="49"/>
+      <c r="A919" s="48"/>
       <c r="B919" s="7"/>
       <c r="C919" s="6"/>
       <c r="D919" s="7"/>
@@ -30756,7 +30807,7 @@
       <c r="AB919" s="10"/>
     </row>
     <row r="920" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A920" s="49"/>
+      <c r="A920" s="48"/>
       <c r="B920" s="7"/>
       <c r="C920" s="6"/>
       <c r="D920" s="7"/>
@@ -30786,7 +30837,7 @@
       <c r="AB920" s="10"/>
     </row>
     <row r="921" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A921" s="49"/>
+      <c r="A921" s="48"/>
       <c r="B921" s="7"/>
       <c r="C921" s="6"/>
       <c r="D921" s="7"/>
@@ -30816,7 +30867,7 @@
       <c r="AB921" s="10"/>
     </row>
     <row r="922" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A922" s="49"/>
+      <c r="A922" s="48"/>
       <c r="B922" s="7"/>
       <c r="C922" s="6"/>
       <c r="D922" s="7"/>
@@ -30846,7 +30897,7 @@
       <c r="AB922" s="10"/>
     </row>
     <row r="923" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A923" s="49"/>
+      <c r="A923" s="48"/>
       <c r="B923" s="7"/>
       <c r="C923" s="6"/>
       <c r="D923" s="7"/>
@@ -30876,7 +30927,7 @@
       <c r="AB923" s="10"/>
     </row>
     <row r="924" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A924" s="49"/>
+      <c r="A924" s="48"/>
       <c r="B924" s="7"/>
       <c r="C924" s="6"/>
       <c r="D924" s="7"/>
@@ -30906,7 +30957,7 @@
       <c r="AB924" s="10"/>
     </row>
     <row r="925" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A925" s="49"/>
+      <c r="A925" s="48"/>
       <c r="B925" s="7"/>
       <c r="C925" s="6"/>
       <c r="D925" s="7"/>
@@ -30936,7 +30987,7 @@
       <c r="AB925" s="10"/>
     </row>
     <row r="926" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A926" s="49"/>
+      <c r="A926" s="48"/>
       <c r="B926" s="7"/>
       <c r="C926" s="6"/>
       <c r="D926" s="7"/>
@@ -30966,7 +31017,7 @@
       <c r="AB926" s="10"/>
     </row>
     <row r="927" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A927" s="49"/>
+      <c r="A927" s="48"/>
       <c r="B927" s="7"/>
       <c r="C927" s="6"/>
       <c r="D927" s="7"/>
@@ -30996,7 +31047,7 @@
       <c r="AB927" s="10"/>
     </row>
     <row r="928" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A928" s="49"/>
+      <c r="A928" s="48"/>
       <c r="B928" s="7"/>
       <c r="C928" s="6"/>
       <c r="D928" s="7"/>
@@ -31026,7 +31077,7 @@
       <c r="AB928" s="10"/>
     </row>
     <row r="929" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A929" s="49"/>
+      <c r="A929" s="48"/>
       <c r="B929" s="7"/>
       <c r="C929" s="6"/>
       <c r="D929" s="7"/>
@@ -31056,7 +31107,7 @@
       <c r="AB929" s="10"/>
     </row>
     <row r="930" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A930" s="49"/>
+      <c r="A930" s="48"/>
       <c r="B930" s="7"/>
       <c r="C930" s="6"/>
       <c r="D930" s="7"/>
@@ -31086,7 +31137,7 @@
       <c r="AB930" s="10"/>
     </row>
     <row r="931" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A931" s="49"/>
+      <c r="A931" s="48"/>
       <c r="B931" s="7"/>
       <c r="C931" s="6"/>
       <c r="D931" s="7"/>
@@ -31116,7 +31167,7 @@
       <c r="AB931" s="10"/>
     </row>
     <row r="932" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A932" s="49"/>
+      <c r="A932" s="48"/>
       <c r="B932" s="7"/>
       <c r="C932" s="6"/>
       <c r="D932" s="7"/>
@@ -31146,7 +31197,7 @@
       <c r="AB932" s="10"/>
     </row>
     <row r="933" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A933" s="49"/>
+      <c r="A933" s="48"/>
       <c r="B933" s="7"/>
       <c r="C933" s="6"/>
       <c r="D933" s="7"/>
@@ -31176,7 +31227,7 @@
       <c r="AB933" s="10"/>
     </row>
     <row r="934" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A934" s="49"/>
+      <c r="A934" s="48"/>
       <c r="B934" s="7"/>
       <c r="C934" s="6"/>
       <c r="D934" s="7"/>
@@ -31206,7 +31257,7 @@
       <c r="AB934" s="10"/>
     </row>
     <row r="935" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A935" s="49"/>
+      <c r="A935" s="48"/>
       <c r="B935" s="7"/>
       <c r="C935" s="6"/>
       <c r="D935" s="7"/>
@@ -31236,7 +31287,7 @@
       <c r="AB935" s="10"/>
     </row>
     <row r="936" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A936" s="49"/>
+      <c r="A936" s="48"/>
       <c r="B936" s="7"/>
       <c r="C936" s="6"/>
       <c r="D936" s="7"/>
@@ -31266,7 +31317,7 @@
       <c r="AB936" s="10"/>
     </row>
     <row r="937" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A937" s="49"/>
+      <c r="A937" s="48"/>
       <c r="B937" s="7"/>
       <c r="C937" s="6"/>
       <c r="D937" s="7"/>
@@ -31296,7 +31347,7 @@
       <c r="AB937" s="10"/>
     </row>
     <row r="938" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A938" s="49"/>
+      <c r="A938" s="48"/>
       <c r="B938" s="7"/>
       <c r="C938" s="6"/>
       <c r="D938" s="7"/>
@@ -31326,7 +31377,7 @@
       <c r="AB938" s="10"/>
     </row>
     <row r="939" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A939" s="49"/>
+      <c r="A939" s="48"/>
       <c r="B939" s="7"/>
       <c r="C939" s="6"/>
       <c r="D939" s="7"/>
@@ -31356,7 +31407,7 @@
       <c r="AB939" s="10"/>
     </row>
     <row r="940" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A940" s="49"/>
+      <c r="A940" s="48"/>
       <c r="B940" s="7"/>
       <c r="C940" s="6"/>
       <c r="D940" s="7"/>
@@ -31386,7 +31437,7 @@
       <c r="AB940" s="10"/>
     </row>
     <row r="941" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A941" s="49"/>
+      <c r="A941" s="48"/>
       <c r="B941" s="7"/>
       <c r="C941" s="6"/>
       <c r="D941" s="7"/>
@@ -31416,7 +31467,7 @@
       <c r="AB941" s="10"/>
     </row>
     <row r="942" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A942" s="49"/>
+      <c r="A942" s="48"/>
       <c r="B942" s="7"/>
       <c r="C942" s="6"/>
       <c r="D942" s="7"/>
@@ -31446,7 +31497,7 @@
       <c r="AB942" s="10"/>
     </row>
     <row r="943" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A943" s="49"/>
+      <c r="A943" s="48"/>
       <c r="B943" s="7"/>
       <c r="C943" s="6"/>
       <c r="D943" s="7"/>
@@ -31476,7 +31527,7 @@
       <c r="AB943" s="10"/>
     </row>
     <row r="944" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A944" s="49"/>
+      <c r="A944" s="48"/>
       <c r="B944" s="7"/>
       <c r="C944" s="6"/>
       <c r="D944" s="7"/>
@@ -31506,7 +31557,7 @@
       <c r="AB944" s="10"/>
     </row>
     <row r="945" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A945" s="49"/>
+      <c r="A945" s="48"/>
       <c r="B945" s="7"/>
       <c r="C945" s="6"/>
       <c r="D945" s="7"/>
@@ -31536,7 +31587,7 @@
       <c r="AB945" s="10"/>
     </row>
     <row r="946" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A946" s="49"/>
+      <c r="A946" s="48"/>
       <c r="B946" s="7"/>
       <c r="C946" s="6"/>
       <c r="D946" s="7"/>
@@ -31566,7 +31617,7 @@
       <c r="AB946" s="10"/>
     </row>
     <row r="947" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A947" s="49"/>
+      <c r="A947" s="48"/>
       <c r="B947" s="7"/>
       <c r="C947" s="6"/>
       <c r="D947" s="7"/>
@@ -31596,7 +31647,7 @@
       <c r="AB947" s="10"/>
     </row>
     <row r="948" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A948" s="49"/>
+      <c r="A948" s="48"/>
       <c r="B948" s="7"/>
       <c r="C948" s="6"/>
       <c r="D948" s="7"/>
@@ -31626,7 +31677,7 @@
       <c r="AB948" s="10"/>
     </row>
     <row r="949" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A949" s="49"/>
+      <c r="A949" s="48"/>
       <c r="B949" s="7"/>
       <c r="C949" s="6"/>
       <c r="D949" s="7"/>
@@ -31656,7 +31707,7 @@
       <c r="AB949" s="10"/>
     </row>
     <row r="950" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A950" s="49"/>
+      <c r="A950" s="48"/>
       <c r="B950" s="7"/>
       <c r="C950" s="6"/>
       <c r="D950" s="7"/>
@@ -31686,7 +31737,7 @@
       <c r="AB950" s="10"/>
     </row>
     <row r="951" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A951" s="49"/>
+      <c r="A951" s="48"/>
       <c r="B951" s="7"/>
       <c r="C951" s="6"/>
       <c r="D951" s="7"/>
@@ -31716,7 +31767,7 @@
       <c r="AB951" s="10"/>
     </row>
     <row r="952" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A952" s="49"/>
+      <c r="A952" s="48"/>
       <c r="B952" s="7"/>
       <c r="C952" s="6"/>
       <c r="D952" s="7"/>
@@ -31746,7 +31797,7 @@
       <c r="AB952" s="10"/>
     </row>
     <row r="953" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A953" s="49"/>
+      <c r="A953" s="48"/>
       <c r="B953" s="7"/>
       <c r="C953" s="6"/>
       <c r="D953" s="7"/>
@@ -31776,7 +31827,7 @@
       <c r="AB953" s="10"/>
     </row>
     <row r="954" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A954" s="49"/>
+      <c r="A954" s="48"/>
       <c r="B954" s="7"/>
       <c r="C954" s="6"/>
       <c r="D954" s="7"/>
@@ -31806,7 +31857,7 @@
       <c r="AB954" s="10"/>
     </row>
     <row r="955" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A955" s="49"/>
+      <c r="A955" s="48"/>
       <c r="B955" s="7"/>
       <c r="C955" s="6"/>
       <c r="D955" s="7"/>
@@ -31836,7 +31887,7 @@
       <c r="AB955" s="10"/>
     </row>
     <row r="956" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A956" s="49"/>
+      <c r="A956" s="48"/>
       <c r="B956" s="7"/>
       <c r="C956" s="6"/>
       <c r="D956" s="7"/>
@@ -31866,7 +31917,7 @@
       <c r="AB956" s="10"/>
     </row>
     <row r="957" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A957" s="49"/>
+      <c r="A957" s="48"/>
       <c r="B957" s="7"/>
       <c r="C957" s="6"/>
       <c r="D957" s="7"/>
@@ -31896,7 +31947,7 @@
       <c r="AB957" s="10"/>
     </row>
     <row r="958" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A958" s="49"/>
+      <c r="A958" s="48"/>
       <c r="B958" s="7"/>
       <c r="C958" s="6"/>
       <c r="D958" s="7"/>
@@ -31926,7 +31977,7 @@
       <c r="AB958" s="10"/>
     </row>
     <row r="959" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A959" s="49"/>
+      <c r="A959" s="48"/>
       <c r="B959" s="7"/>
       <c r="C959" s="6"/>
       <c r="D959" s="7"/>
@@ -31956,7 +32007,7 @@
       <c r="AB959" s="10"/>
     </row>
     <row r="960" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A960" s="49"/>
+      <c r="A960" s="48"/>
       <c r="B960" s="7"/>
       <c r="C960" s="6"/>
       <c r="D960" s="7"/>
@@ -31986,7 +32037,7 @@
       <c r="AB960" s="10"/>
     </row>
     <row r="961" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A961" s="49"/>
+      <c r="A961" s="48"/>
       <c r="B961" s="7"/>
       <c r="C961" s="6"/>
       <c r="D961" s="7"/>
@@ -32016,7 +32067,7 @@
       <c r="AB961" s="10"/>
     </row>
     <row r="962" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A962" s="49"/>
+      <c r="A962" s="48"/>
       <c r="B962" s="7"/>
       <c r="C962" s="6"/>
       <c r="D962" s="7"/>
@@ -32046,7 +32097,7 @@
       <c r="AB962" s="10"/>
     </row>
     <row r="963" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A963" s="49"/>
+      <c r="A963" s="48"/>
       <c r="B963" s="7"/>
       <c r="C963" s="6"/>
       <c r="D963" s="7"/>
@@ -32076,7 +32127,7 @@
       <c r="AB963" s="10"/>
     </row>
     <row r="964" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A964" s="49"/>
+      <c r="A964" s="48"/>
       <c r="B964" s="7"/>
       <c r="C964" s="6"/>
       <c r="D964" s="7"/>
@@ -32106,7 +32157,7 @@
       <c r="AB964" s="10"/>
     </row>
     <row r="965" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A965" s="49"/>
+      <c r="A965" s="48"/>
       <c r="B965" s="7"/>
       <c r="C965" s="6"/>
       <c r="D965" s="7"/>
@@ -32136,7 +32187,7 @@
       <c r="AB965" s="10"/>
     </row>
     <row r="966" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A966" s="49"/>
+      <c r="A966" s="48"/>
       <c r="B966" s="7"/>
       <c r="C966" s="6"/>
       <c r="D966" s="7"/>
@@ -32166,7 +32217,7 @@
       <c r="AB966" s="10"/>
     </row>
     <row r="967" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A967" s="49"/>
+      <c r="A967" s="48"/>
       <c r="B967" s="7"/>
       <c r="C967" s="6"/>
       <c r="D967" s="7"/>
@@ -32196,7 +32247,7 @@
       <c r="AB967" s="10"/>
     </row>
     <row r="968" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A968" s="49"/>
+      <c r="A968" s="48"/>
       <c r="B968" s="7"/>
       <c r="C968" s="6"/>
       <c r="D968" s="7"/>
@@ -32226,7 +32277,7 @@
       <c r="AB968" s="10"/>
     </row>
     <row r="969" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A969" s="49"/>
+      <c r="A969" s="48"/>
       <c r="B969" s="7"/>
       <c r="C969" s="6"/>
       <c r="D969" s="7"/>
@@ -32256,7 +32307,7 @@
       <c r="AB969" s="10"/>
     </row>
     <row r="970" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A970" s="49"/>
+      <c r="A970" s="48"/>
       <c r="B970" s="7"/>
       <c r="C970" s="6"/>
       <c r="D970" s="7"/>
@@ -32286,7 +32337,7 @@
       <c r="AB970" s="10"/>
     </row>
     <row r="971" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A971" s="49"/>
+      <c r="A971" s="48"/>
       <c r="B971" s="7"/>
       <c r="C971" s="6"/>
       <c r="D971" s="7"/>
@@ -32316,7 +32367,7 @@
       <c r="AB971" s="10"/>
     </row>
     <row r="972" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A972" s="49"/>
+      <c r="A972" s="48"/>
       <c r="B972" s="7"/>
       <c r="C972" s="6"/>
       <c r="D972" s="7"/>
@@ -32346,7 +32397,7 @@
       <c r="AB972" s="10"/>
     </row>
     <row r="973" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A973" s="49"/>
+      <c r="A973" s="48"/>
       <c r="B973" s="7"/>
       <c r="C973" s="6"/>
       <c r="D973" s="7"/>
@@ -32376,7 +32427,7 @@
       <c r="AB973" s="10"/>
     </row>
     <row r="974" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A974" s="49"/>
+      <c r="A974" s="48"/>
       <c r="B974" s="7"/>
       <c r="C974" s="6"/>
       <c r="D974" s="7"/>
@@ -32406,7 +32457,7 @@
       <c r="AB974" s="10"/>
     </row>
     <row r="975" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A975" s="49"/>
+      <c r="A975" s="48"/>
       <c r="B975" s="7"/>
       <c r="C975" s="6"/>
       <c r="D975" s="7"/>
@@ -32436,7 +32487,7 @@
       <c r="AB975" s="10"/>
     </row>
     <row r="976" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A976" s="49"/>
+      <c r="A976" s="48"/>
       <c r="B976" s="7"/>
       <c r="C976" s="6"/>
       <c r="D976" s="7"/>
@@ -32466,7 +32517,7 @@
       <c r="AB976" s="10"/>
     </row>
     <row r="977" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A977" s="49"/>
+      <c r="A977" s="48"/>
       <c r="B977" s="7"/>
       <c r="C977" s="6"/>
       <c r="D977" s="7"/>
@@ -32496,7 +32547,7 @@
       <c r="AB977" s="10"/>
     </row>
     <row r="978" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A978" s="49"/>
+      <c r="A978" s="48"/>
       <c r="B978" s="7"/>
       <c r="C978" s="6"/>
       <c r="D978" s="7"/>
@@ -32526,7 +32577,7 @@
       <c r="AB978" s="10"/>
     </row>
     <row r="979" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A979" s="49"/>
+      <c r="A979" s="48"/>
       <c r="B979" s="7"/>
       <c r="C979" s="6"/>
       <c r="D979" s="7"/>
@@ -32556,7 +32607,7 @@
       <c r="AB979" s="10"/>
     </row>
     <row r="980" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A980" s="49"/>
+      <c r="A980" s="48"/>
       <c r="B980" s="7"/>
       <c r="C980" s="6"/>
       <c r="D980" s="7"/>
@@ -32586,7 +32637,7 @@
       <c r="AB980" s="10"/>
     </row>
     <row r="981" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A981" s="49"/>
+      <c r="A981" s="48"/>
       <c r="B981" s="7"/>
       <c r="C981" s="6"/>
       <c r="D981" s="7"/>
@@ -32616,7 +32667,7 @@
       <c r="AB981" s="10"/>
     </row>
     <row r="982" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A982" s="49"/>
+      <c r="A982" s="48"/>
       <c r="B982" s="7"/>
       <c r="C982" s="6"/>
       <c r="D982" s="7"/>
@@ -32646,7 +32697,7 @@
       <c r="AB982" s="10"/>
     </row>
     <row r="983" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A983" s="49"/>
+      <c r="A983" s="48"/>
       <c r="B983" s="7"/>
       <c r="C983" s="6"/>
       <c r="D983" s="7"/>
@@ -32676,7 +32727,7 @@
       <c r="AB983" s="10"/>
     </row>
     <row r="984" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A984" s="49"/>
+      <c r="A984" s="48"/>
       <c r="B984" s="7"/>
       <c r="C984" s="6"/>
       <c r="D984" s="7"/>
@@ -32706,7 +32757,7 @@
       <c r="AB984" s="10"/>
     </row>
     <row r="985" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A985" s="49"/>
+      <c r="A985" s="48"/>
       <c r="B985" s="7"/>
       <c r="C985" s="6"/>
       <c r="D985" s="7"/>
@@ -32736,7 +32787,7 @@
       <c r="AB985" s="10"/>
     </row>
     <row r="986" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A986" s="49"/>
+      <c r="A986" s="48"/>
       <c r="B986" s="7"/>
       <c r="C986" s="6"/>
       <c r="D986" s="7"/>
@@ -32766,7 +32817,7 @@
       <c r="AB986" s="10"/>
     </row>
     <row r="987" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A987" s="49"/>
+      <c r="A987" s="48"/>
       <c r="B987" s="7"/>
       <c r="C987" s="6"/>
       <c r="D987" s="7"/>
@@ -32796,7 +32847,7 @@
       <c r="AB987" s="10"/>
     </row>
     <row r="988" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A988" s="49"/>
+      <c r="A988" s="48"/>
       <c r="B988" s="7"/>
       <c r="C988" s="6"/>
       <c r="D988" s="7"/>
@@ -32826,7 +32877,7 @@
       <c r="AB988" s="10"/>
     </row>
     <row r="989" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A989" s="49"/>
+      <c r="A989" s="48"/>
       <c r="B989" s="7"/>
       <c r="C989" s="6"/>
       <c r="D989" s="7"/>
@@ -32856,7 +32907,7 @@
       <c r="AB989" s="10"/>
     </row>
     <row r="990" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A990" s="49"/>
+      <c r="A990" s="48"/>
       <c r="B990" s="7"/>
       <c r="C990" s="6"/>
       <c r="D990" s="7"/>
@@ -32886,7 +32937,7 @@
       <c r="AB990" s="10"/>
     </row>
     <row r="991" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A991" s="49"/>
+      <c r="A991" s="48"/>
       <c r="B991" s="7"/>
       <c r="C991" s="6"/>
       <c r="D991" s="7"/>
@@ -32916,7 +32967,7 @@
       <c r="AB991" s="10"/>
     </row>
     <row r="992" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A992" s="49"/>
+      <c r="A992" s="48"/>
       <c r="B992" s="7"/>
       <c r="C992" s="6"/>
       <c r="D992" s="7"/>
@@ -32946,7 +32997,7 @@
       <c r="AB992" s="10"/>
     </row>
     <row r="993" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A993" s="49"/>
+      <c r="A993" s="48"/>
       <c r="B993" s="7"/>
       <c r="C993" s="6"/>
       <c r="D993" s="7"/>
@@ -32976,7 +33027,7 @@
       <c r="AB993" s="10"/>
     </row>
     <row r="994" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A994" s="49"/>
+      <c r="A994" s="48"/>
       <c r="B994" s="7"/>
       <c r="C994" s="6"/>
       <c r="D994" s="7"/>
@@ -33006,7 +33057,7 @@
       <c r="AB994" s="10"/>
     </row>
     <row r="995" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A995" s="49"/>
+      <c r="A995" s="48"/>
       <c r="B995" s="7"/>
       <c r="C995" s="6"/>
       <c r="D995" s="7"/>
@@ -33036,7 +33087,7 @@
       <c r="AB995" s="10"/>
     </row>
     <row r="996" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A996" s="49"/>
+      <c r="A996" s="48"/>
       <c r="B996" s="7"/>
       <c r="C996" s="6"/>
       <c r="D996" s="7"/>
@@ -33066,7 +33117,7 @@
       <c r="AB996" s="10"/>
     </row>
     <row r="997" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A997" s="49"/>
+      <c r="A997" s="48"/>
       <c r="B997" s="7"/>
       <c r="C997" s="6"/>
       <c r="D997" s="7"/>
@@ -33096,7 +33147,7 @@
       <c r="AB997" s="10"/>
     </row>
     <row r="998" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A998" s="49"/>
+      <c r="A998" s="48"/>
       <c r="B998" s="7"/>
       <c r="C998" s="6"/>
       <c r="D998" s="7"/>
@@ -33126,7 +33177,7 @@
       <c r="AB998" s="10"/>
     </row>
     <row r="999" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A999" s="49"/>
+      <c r="A999" s="48"/>
       <c r="B999" s="7"/>
       <c r="C999" s="6"/>
       <c r="D999" s="7"/>
@@ -33156,7 +33207,7 @@
       <c r="AB999" s="10"/>
     </row>
     <row r="1000" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1000" s="49"/>
+      <c r="A1000" s="48"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="6"/>
       <c r="D1000" s="7"/>
@@ -33186,7 +33237,7 @@
       <c r="AB1000" s="10"/>
     </row>
     <row r="1001" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1001" s="49"/>
+      <c r="A1001" s="48"/>
       <c r="B1001" s="7"/>
       <c r="C1001" s="6"/>
       <c r="D1001" s="7"/>
@@ -33216,7 +33267,7 @@
       <c r="AB1001" s="10"/>
     </row>
     <row r="1002" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1002" s="49"/>
+      <c r="A1002" s="48"/>
       <c r="B1002" s="7"/>
       <c r="C1002" s="6"/>
       <c r="D1002" s="7"/>
@@ -33246,7 +33297,7 @@
       <c r="AB1002" s="10"/>
     </row>
     <row r="1003" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1003" s="49"/>
+      <c r="A1003" s="48"/>
       <c r="B1003" s="7"/>
       <c r="C1003" s="6"/>
       <c r="D1003" s="7"/>
@@ -33276,7 +33327,7 @@
       <c r="AB1003" s="10"/>
     </row>
     <row r="1004" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1004" s="49"/>
+      <c r="A1004" s="48"/>
       <c r="B1004" s="7"/>
       <c r="C1004" s="6"/>
       <c r="D1004" s="7"/>
@@ -33306,7 +33357,7 @@
       <c r="AB1004" s="10"/>
     </row>
     <row r="1005" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1005" s="49"/>
+      <c r="A1005" s="48"/>
       <c r="B1005" s="7"/>
       <c r="C1005" s="6"/>
       <c r="D1005" s="7"/>
@@ -33336,7 +33387,7 @@
       <c r="AB1005" s="10"/>
     </row>
     <row r="1006" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1006" s="49"/>
+      <c r="A1006" s="48"/>
       <c r="B1006" s="7"/>
       <c r="C1006" s="6"/>
       <c r="D1006" s="7"/>
@@ -33366,7 +33417,7 @@
       <c r="AB1006" s="10"/>
     </row>
     <row r="1007" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1007" s="49"/>
+      <c r="A1007" s="48"/>
       <c r="B1007" s="7"/>
       <c r="C1007" s="6"/>
       <c r="D1007" s="7"/>

--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\1-LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C43F85-8911-45CC-AFD3-9CB4E05BE978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA0547-C29A-4089-8A53-80CE8BBE6E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-1365" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="262">
   <si>
     <t xml:space="preserve">code couleur: </t>
   </si>
@@ -785,18 +785,6 @@
     <t>Alimentation</t>
   </si>
   <si>
-    <t>à créer (lib fourni par fabricant), 
-https://www.we-online.fr/catalog/en/PHD_2_54_THT_DUAL_PIN_HEADER_6130XX21121</t>
-  </si>
-  <si>
-    <t>à créer (lib fourni par fabricant), 
-https://www.we-online.fr/catalog/en/PHD_2_54_SMT_DUAL_SOCKET_HEADER_BOTTOM_ENTRY_6100XX243021/</t>
-  </si>
-  <si>
-    <t>à créer (lib fourni par fabricant), 
-https://www.we-online.fr/catalog/en/PHD_2_54_SMT_DUAL_SOCKET_HEADER_6100XX21821</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -855,6 +843,30 @@
   </si>
   <si>
     <t>Nappe 1mm 8p top contact (utilisé avec 686608200001 ou 686708200001)</t>
+  </si>
+  <si>
+    <t>conn femelle DE0_nano 4p (2p power)</t>
+  </si>
+  <si>
+    <t>conn femelle DE0_nano 26p (26p IO)</t>
+  </si>
+  <si>
+    <t>conn femelle DE0_nano 20p (2x20p=40p IO)</t>
+  </si>
+  <si>
+    <t>conn male DE0_nano 26p (26p IO)</t>
+  </si>
+  <si>
+    <t>conn male DE0_nano 40p (40p IO)</t>
+  </si>
+  <si>
+    <t>conn femelle Nucleo 4p (2p power)</t>
+  </si>
+  <si>
+    <t>conn femelle Nucleo 40p (38p IO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61000421821	</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1164,9 +1176,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1194,6 +1203,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1204,9 +1216,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1592,11 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ1007"/>
+  <dimension ref="A1:AMJ1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,7 +4541,7 @@
         <v>190</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H60" s="8"/>
       <c r="I60" s="7"/>
@@ -4582,7 +4591,7 @@
         <v>190</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H61" s="8"/>
       <c r="I61" s="7"/>
@@ -4632,7 +4641,7 @@
         <v>190</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H62" s="8"/>
       <c r="I62" s="7"/>
@@ -4680,7 +4689,7 @@
         <v>190</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H63" s="8"/>
       <c r="I63" s="7"/>
@@ -4726,7 +4735,7 @@
         <v>190</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H64" s="8"/>
       <c r="I64" s="7"/>
@@ -4772,7 +4781,7 @@
         <v>190</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="7"/>
@@ -4818,7 +4827,7 @@
         <v>190</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="7"/>
@@ -4864,7 +4873,7 @@
         <v>190</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H67" s="8"/>
       <c r="I67" s="7"/>
@@ -4910,7 +4919,7 @@
         <v>190</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H68" s="8"/>
       <c r="I68" s="7"/>
@@ -4956,7 +4965,7 @@
         <v>190</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H69" s="8"/>
       <c r="I69" s="7"/>
@@ -4988,23 +4997,23 @@
       <c r="A70" s="12">
         <v>82400274</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="B70" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="49" t="s">
+      <c r="D70" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="E70" s="49" t="s">
+      <c r="E70" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="49" t="s">
+      <c r="F70" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="G70" s="49" t="s">
-        <v>239</v>
+      <c r="G70" s="48" t="s">
+        <v>236</v>
       </c>
       <c r="H70" s="8"/>
       <c r="I70" s="7"/>
@@ -5016,7 +5025,7 @@
         <v>43954</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N70" s="9" t="s">
         <v>33</v>
@@ -5056,7 +5065,7 @@
         <v>190</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H71" s="8"/>
       <c r="I71" s="7"/>
@@ -5104,7 +5113,7 @@
         <v>190</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H72" s="8"/>
       <c r="I72" s="7"/>
@@ -5202,10 +5211,10 @@
         <v>43953</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74" s="8"/>
@@ -5250,7 +5259,7 @@
         <v>43953</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J75" s="8">
         <v>43953</v>
@@ -5277,26 +5286,26 @@
       <c r="AB75" s="10"/>
     </row>
     <row r="76" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="D76" s="44" t="s">
+      <c r="D76" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="E76" s="44" t="s">
+      <c r="E76" s="43" t="s">
         <v>223</v>
       </c>
-      <c r="F76" s="44" t="s">
+      <c r="F76" s="43" t="s">
         <v>190</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="7"/>
@@ -5308,7 +5317,7 @@
         <v>43953</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N76" s="9" t="s">
         <v>33</v>
@@ -5346,10 +5355,10 @@
         <v>190</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H77" s="8"/>
-      <c r="I77" s="46"/>
+      <c r="I77" s="45"/>
       <c r="J77" s="8"/>
       <c r="K77" s="7" t="s">
         <v>27</v>
@@ -5396,10 +5405,10 @@
         <v>229</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H78" s="8"/>
-      <c r="I78" s="46"/>
+      <c r="I78" s="45"/>
       <c r="J78" s="8"/>
       <c r="K78" s="7"/>
       <c r="L78" s="8"/>
@@ -5445,7 +5454,7 @@
       <c r="H79" s="8">
         <v>43961</v>
       </c>
-      <c r="I79" s="46"/>
+      <c r="I79" s="45"/>
       <c r="J79" s="8"/>
       <c r="K79" s="7"/>
       <c r="L79" s="8"/>
@@ -5466,15 +5475,15 @@
       <c r="AA79" s="10"/>
       <c r="AB79" s="10"/>
     </row>
-    <row r="80" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="42">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
         <v>61304021121</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="47" t="s">
-        <v>234</v>
+      <c r="C80" s="46" t="s">
+        <v>258</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>102</v>
@@ -5485,9 +5494,13 @@
       <c r="F80" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="46"/>
+      <c r="G80" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="8">
+        <v>43975</v>
+      </c>
+      <c r="I80" s="45"/>
       <c r="J80" s="8"/>
       <c r="K80" s="7"/>
       <c r="L80" s="8"/>
@@ -5508,15 +5521,15 @@
       <c r="AA80" s="10"/>
       <c r="AB80" s="10"/>
     </row>
-    <row r="81" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="42">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
         <v>61302621121</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C81" s="47" t="s">
-        <v>234</v>
+      <c r="C81" s="46" t="s">
+        <v>257</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>102</v>
@@ -5527,9 +5540,13 @@
       <c r="F81" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="46"/>
+      <c r="G81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="8">
+        <v>43975</v>
+      </c>
+      <c r="I81" s="45"/>
       <c r="J81" s="8"/>
       <c r="K81" s="7"/>
       <c r="L81" s="8"/>
@@ -5550,15 +5567,15 @@
       <c r="AA81" s="10"/>
       <c r="AB81" s="10"/>
     </row>
-    <row r="82" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="42">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
         <v>610020243021</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="47" t="s">
-        <v>235</v>
+      <c r="C82" s="46" t="s">
+        <v>256</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>102</v>
@@ -5569,9 +5586,13 @@
       <c r="F82" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="46"/>
+      <c r="G82" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="8">
+        <v>43975</v>
+      </c>
+      <c r="I82" s="45"/>
       <c r="J82" s="8"/>
       <c r="K82" s="7"/>
       <c r="L82" s="8"/>
@@ -5592,15 +5613,15 @@
       <c r="AA82" s="10"/>
       <c r="AB82" s="10"/>
     </row>
-    <row r="83" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="42">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
         <v>610026243021</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C83" s="47" t="s">
-        <v>235</v>
+      <c r="C83" s="46" t="s">
+        <v>255</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>102</v>
@@ -5611,9 +5632,13 @@
       <c r="F83" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="46"/>
+      <c r="G83" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="8">
+        <v>43975</v>
+      </c>
+      <c r="I83" s="45"/>
       <c r="J83" s="8"/>
       <c r="K83" s="7"/>
       <c r="L83" s="8"/>
@@ -5634,15 +5659,15 @@
       <c r="AA83" s="10"/>
       <c r="AB83" s="10"/>
     </row>
-    <row r="84" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A84" s="42">
-        <v>61004021821</v>
-      </c>
-      <c r="B84" s="7" t="s">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>610004243021</v>
+      </c>
+      <c r="B84" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="C84" s="47" t="s">
-        <v>236</v>
+      <c r="C84" s="46" t="s">
+        <v>254</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>102</v>
@@ -5653,9 +5678,13 @@
       <c r="F84" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="46"/>
+      <c r="G84" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="8">
+        <v>43975</v>
+      </c>
+      <c r="I84" s="45"/>
       <c r="J84" s="8"/>
       <c r="K84" s="7"/>
       <c r="L84" s="8"/>
@@ -5676,32 +5705,32 @@
       <c r="AA84" s="10"/>
       <c r="AB84" s="10"/>
     </row>
-    <row r="85" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>255</v>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>61004021821</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>260</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H85" s="8">
-        <v>43961</v>
-      </c>
-      <c r="I85" s="46"/>
+        <v>43975</v>
+      </c>
+      <c r="I85" s="45"/>
       <c r="J85" s="8"/>
       <c r="K85" s="7"/>
       <c r="L85" s="8"/>
@@ -5722,32 +5751,32 @@
       <c r="AA85" s="10"/>
       <c r="AB85" s="10"/>
     </row>
-    <row r="86" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B86" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="C86" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="D86" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="E86" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="F86" s="49" t="s">
-        <v>190</v>
+        <v>261</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>27</v>
       </c>
       <c r="H86" s="8">
-        <v>43961</v>
-      </c>
-      <c r="I86" s="46"/>
+        <v>43975</v>
+      </c>
+      <c r="I86" s="45"/>
       <c r="J86" s="8"/>
       <c r="K86" s="7"/>
       <c r="L86" s="8"/>
@@ -5769,27 +5798,31 @@
       <c r="AB86" s="10"/>
     </row>
     <row r="87" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
-        <v>246</v>
+      <c r="A87" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G87" s="7"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="7"/>
+        <v>242</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" s="8">
+        <v>43961</v>
+      </c>
+      <c r="I87" s="45"/>
       <c r="J87" s="8"/>
       <c r="K87" s="7"/>
       <c r="L87" s="8"/>
@@ -5810,28 +5843,32 @@
       <c r="AA87" s="10"/>
       <c r="AB87" s="10"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F88" s="7" t="s">
+    <row r="88" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="E88" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="F88" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="G88" s="51"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" s="8">
+        <v>43961</v>
+      </c>
+      <c r="I88" s="45"/>
       <c r="J88" s="8"/>
       <c r="K88" s="7"/>
       <c r="L88" s="8"/>
@@ -5852,24 +5889,24 @@
       <c r="AA88" s="10"/>
       <c r="AB88" s="10"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="56">
-        <v>885012107010</v>
+    <row r="89" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="17" t="s">
+        <v>243</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="8"/>
@@ -5894,26 +5931,26 @@
       <c r="AA89" s="10"/>
       <c r="AB89" s="10"/>
     </row>
-    <row r="90" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="56">
-        <v>68610814122</v>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>246</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>146</v>
+        <v>247</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G90" s="7"/>
+        <v>190</v>
+      </c>
+      <c r="G90" s="50"/>
       <c r="H90" s="8"/>
       <c r="I90" s="7"/>
       <c r="J90" s="8"/>
@@ -5937,12 +5974,24 @@
       <c r="AB90" s="10"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="A91" s="51">
+        <v>885012107010</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>190</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="8"/>
       <c r="I91" s="7"/>
@@ -5966,13 +6015,25 @@
       <c r="AA91" s="10"/>
       <c r="AB91" s="10"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+    <row r="92" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>68610814122</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>242</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="8"/>
       <c r="I92" s="7"/>
@@ -5997,7 +6058,7 @@
       <c r="AB92" s="10"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
       <c r="D93" s="7"/>
@@ -6027,7 +6088,7 @@
       <c r="AB93" s="10"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
       <c r="D94" s="7"/>
@@ -6057,7 +6118,7 @@
       <c r="AB94" s="10"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
@@ -6087,7 +6148,7 @@
       <c r="AB95" s="10"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
       <c r="D96" s="7"/>
@@ -6117,7 +6178,7 @@
       <c r="AB96" s="10"/>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
       <c r="D97" s="7"/>
@@ -6147,7 +6208,7 @@
       <c r="AB97" s="10"/>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
       <c r="D98" s="7"/>
@@ -6177,7 +6238,7 @@
       <c r="AB98" s="10"/>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
       <c r="D99" s="7"/>
@@ -6207,7 +6268,7 @@
       <c r="AB99" s="10"/>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="47"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
       <c r="D100" s="7"/>
@@ -6237,7 +6298,7 @@
       <c r="AB100" s="10"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="47"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
       <c r="D101" s="7"/>
@@ -6267,7 +6328,7 @@
       <c r="AB101" s="10"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
       <c r="D102" s="7"/>
@@ -6297,7 +6358,7 @@
       <c r="AB102" s="10"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
       <c r="D103" s="7"/>
@@ -6327,7 +6388,7 @@
       <c r="AB103" s="10"/>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
       <c r="D104" s="7"/>
@@ -6357,7 +6418,7 @@
       <c r="AB104" s="10"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
       <c r="D105" s="7"/>
@@ -6387,7 +6448,7 @@
       <c r="AB105" s="10"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
       <c r="D106" s="7"/>
@@ -6417,7 +6478,7 @@
       <c r="AB106" s="10"/>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
       <c r="D107" s="7"/>
@@ -6447,7 +6508,7 @@
       <c r="AB107" s="10"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
+      <c r="A108" s="47"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
       <c r="D108" s="7"/>
@@ -6477,7 +6538,7 @@
       <c r="AB108" s="10"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="47"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
       <c r="D109" s="7"/>
@@ -6507,7 +6568,7 @@
       <c r="AB109" s="10"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="47"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
       <c r="D110" s="7"/>
@@ -6537,7 +6598,7 @@
       <c r="AB110" s="10"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
+      <c r="A111" s="47"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
       <c r="D111" s="7"/>
@@ -6567,7 +6628,7 @@
       <c r="AB111" s="10"/>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="47"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
       <c r="D112" s="7"/>
@@ -6597,7 +6658,7 @@
       <c r="AB112" s="10"/>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="47"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
       <c r="D113" s="7"/>
@@ -6627,7 +6688,7 @@
       <c r="AB113" s="10"/>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A114" s="48"/>
+      <c r="A114" s="47"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
       <c r="D114" s="7"/>
@@ -6657,7 +6718,7 @@
       <c r="AB114" s="10"/>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="47"/>
       <c r="B115" s="7"/>
       <c r="C115" s="6"/>
       <c r="D115" s="7"/>
@@ -6687,7 +6748,7 @@
       <c r="AB115" s="10"/>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="47"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
       <c r="D116" s="7"/>
@@ -6717,7 +6778,7 @@
       <c r="AB116" s="10"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="47"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
       <c r="D117" s="7"/>
@@ -6747,7 +6808,7 @@
       <c r="AB117" s="10"/>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="47"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
       <c r="D118" s="7"/>
@@ -6777,7 +6838,7 @@
       <c r="AB118" s="10"/>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="47"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
       <c r="D119" s="7"/>
@@ -6807,7 +6868,7 @@
       <c r="AB119" s="10"/>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="47"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
       <c r="D120" s="7"/>
@@ -6837,7 +6898,7 @@
       <c r="AB120" s="10"/>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
       <c r="D121" s="7"/>
@@ -6867,7 +6928,7 @@
       <c r="AB121" s="10"/>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="47"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
       <c r="D122" s="7"/>
@@ -6897,7 +6958,7 @@
       <c r="AB122" s="10"/>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="47"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
       <c r="D123" s="7"/>
@@ -6927,7 +6988,7 @@
       <c r="AB123" s="10"/>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
+      <c r="A124" s="47"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
       <c r="D124" s="7"/>
@@ -6957,7 +7018,7 @@
       <c r="AB124" s="10"/>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="47"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
       <c r="D125" s="7"/>
@@ -6987,7 +7048,7 @@
       <c r="AB125" s="10"/>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A126" s="48"/>
+      <c r="A126" s="47"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
       <c r="D126" s="7"/>
@@ -7017,7 +7078,7 @@
       <c r="AB126" s="10"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A127" s="48"/>
+      <c r="A127" s="47"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6"/>
       <c r="D127" s="7"/>
@@ -7047,7 +7108,7 @@
       <c r="AB127" s="10"/>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
+      <c r="A128" s="47"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
       <c r="D128" s="7"/>
@@ -7077,7 +7138,7 @@
       <c r="AB128" s="10"/>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
+      <c r="A129" s="47"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
       <c r="D129" s="7"/>
@@ -7107,7 +7168,7 @@
       <c r="AB129" s="10"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
+      <c r="A130" s="47"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
       <c r="D130" s="7"/>
@@ -7137,7 +7198,7 @@
       <c r="AB130" s="10"/>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A131" s="48"/>
+      <c r="A131" s="47"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
       <c r="D131" s="7"/>
@@ -7167,7 +7228,7 @@
       <c r="AB131" s="10"/>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A132" s="48"/>
+      <c r="A132" s="47"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
       <c r="D132" s="7"/>
@@ -7197,7 +7258,7 @@
       <c r="AB132" s="10"/>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A133" s="48"/>
+      <c r="A133" s="47"/>
       <c r="B133" s="7"/>
       <c r="C133" s="6"/>
       <c r="D133" s="7"/>
@@ -7227,7 +7288,7 @@
       <c r="AB133" s="10"/>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A134" s="48"/>
+      <c r="A134" s="47"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
       <c r="D134" s="7"/>
@@ -7257,7 +7318,7 @@
       <c r="AB134" s="10"/>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A135" s="48"/>
+      <c r="A135" s="47"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
       <c r="D135" s="7"/>
@@ -7287,7 +7348,7 @@
       <c r="AB135" s="10"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A136" s="48"/>
+      <c r="A136" s="47"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6"/>
       <c r="D136" s="7"/>
@@ -7317,7 +7378,7 @@
       <c r="AB136" s="10"/>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
+      <c r="A137" s="47"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
       <c r="D137" s="7"/>
@@ -7347,7 +7408,7 @@
       <c r="AB137" s="10"/>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
+      <c r="A138" s="47"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
       <c r="D138" s="7"/>
@@ -7377,7 +7438,7 @@
       <c r="AB138" s="10"/>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
+      <c r="A139" s="47"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6"/>
       <c r="D139" s="7"/>
@@ -7407,7 +7468,7 @@
       <c r="AB139" s="10"/>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A140" s="48"/>
+      <c r="A140" s="47"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
       <c r="D140" s="7"/>
@@ -7437,7 +7498,7 @@
       <c r="AB140" s="10"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="47"/>
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
       <c r="D141" s="7"/>
@@ -7467,7 +7528,7 @@
       <c r="AB141" s="10"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
+      <c r="A142" s="47"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
       <c r="D142" s="7"/>
@@ -7497,7 +7558,7 @@
       <c r="AB142" s="10"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
+      <c r="A143" s="47"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
       <c r="D143" s="7"/>
@@ -7527,7 +7588,7 @@
       <c r="AB143" s="10"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
+      <c r="A144" s="47"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
       <c r="D144" s="7"/>
@@ -7557,7 +7618,7 @@
       <c r="AB144" s="10"/>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="47"/>
       <c r="B145" s="7"/>
       <c r="C145" s="6"/>
       <c r="D145" s="7"/>
@@ -7587,7 +7648,7 @@
       <c r="AB145" s="10"/>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
+      <c r="A146" s="47"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
       <c r="D146" s="7"/>
@@ -7617,7 +7678,7 @@
       <c r="AB146" s="10"/>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="47"/>
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
       <c r="D147" s="7"/>
@@ -7647,7 +7708,7 @@
       <c r="AB147" s="10"/>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="47"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
       <c r="D148" s="7"/>
@@ -7677,7 +7738,7 @@
       <c r="AB148" s="10"/>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="47"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
@@ -7707,7 +7768,7 @@
       <c r="AB149" s="10"/>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="47"/>
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
       <c r="D150" s="7"/>
@@ -7737,7 +7798,7 @@
       <c r="AB150" s="10"/>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="47"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
       <c r="D151" s="7"/>
@@ -7767,7 +7828,7 @@
       <c r="AB151" s="10"/>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="47"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
       <c r="D152" s="7"/>
@@ -7797,7 +7858,7 @@
       <c r="AB152" s="10"/>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="47"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
       <c r="D153" s="7"/>
@@ -7827,7 +7888,7 @@
       <c r="AB153" s="10"/>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="47"/>
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
       <c r="D154" s="7"/>
@@ -7857,7 +7918,7 @@
       <c r="AB154" s="10"/>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A155" s="48"/>
+      <c r="A155" s="47"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6"/>
       <c r="D155" s="7"/>
@@ -7887,7 +7948,7 @@
       <c r="AB155" s="10"/>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A156" s="48"/>
+      <c r="A156" s="47"/>
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
       <c r="D156" s="7"/>
@@ -7917,7 +7978,7 @@
       <c r="AB156" s="10"/>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A157" s="48"/>
+      <c r="A157" s="47"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
       <c r="D157" s="7"/>
@@ -7947,7 +8008,7 @@
       <c r="AB157" s="10"/>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
+      <c r="A158" s="47"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6"/>
       <c r="D158" s="7"/>
@@ -7977,7 +8038,7 @@
       <c r="AB158" s="10"/>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
+      <c r="A159" s="47"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
@@ -8007,7 +8068,7 @@
       <c r="AB159" s="10"/>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
+      <c r="A160" s="47"/>
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
       <c r="D160" s="7"/>
@@ -8037,7 +8098,7 @@
       <c r="AB160" s="10"/>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
+      <c r="A161" s="47"/>
       <c r="B161" s="7"/>
       <c r="C161" s="6"/>
       <c r="D161" s="7"/>
@@ -8067,7 +8128,7 @@
       <c r="AB161" s="10"/>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
+      <c r="A162" s="47"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
       <c r="D162" s="7"/>
@@ -8097,7 +8158,7 @@
       <c r="AB162" s="10"/>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
+      <c r="A163" s="47"/>
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
       <c r="D163" s="7"/>
@@ -8127,7 +8188,7 @@
       <c r="AB163" s="10"/>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
+      <c r="A164" s="47"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6"/>
       <c r="D164" s="7"/>
@@ -8157,7 +8218,7 @@
       <c r="AB164" s="10"/>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
+      <c r="A165" s="47"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
       <c r="D165" s="7"/>
@@ -8187,7 +8248,7 @@
       <c r="AB165" s="10"/>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A166" s="48"/>
+      <c r="A166" s="47"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
       <c r="D166" s="7"/>
@@ -8217,7 +8278,7 @@
       <c r="AB166" s="10"/>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A167" s="48"/>
+      <c r="A167" s="47"/>
       <c r="B167" s="7"/>
       <c r="C167" s="6"/>
       <c r="D167" s="7"/>
@@ -8247,7 +8308,7 @@
       <c r="AB167" s="10"/>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A168" s="48"/>
+      <c r="A168" s="47"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
       <c r="D168" s="7"/>
@@ -8277,7 +8338,7 @@
       <c r="AB168" s="10"/>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A169" s="48"/>
+      <c r="A169" s="47"/>
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
       <c r="D169" s="7"/>
@@ -8307,7 +8368,7 @@
       <c r="AB169" s="10"/>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A170" s="48"/>
+      <c r="A170" s="47"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
       <c r="D170" s="7"/>
@@ -8337,7 +8398,7 @@
       <c r="AB170" s="10"/>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A171" s="48"/>
+      <c r="A171" s="47"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
       <c r="D171" s="7"/>
@@ -8367,7 +8428,7 @@
       <c r="AB171" s="10"/>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A172" s="48"/>
+      <c r="A172" s="47"/>
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
       <c r="D172" s="7"/>
@@ -8397,7 +8458,7 @@
       <c r="AB172" s="10"/>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A173" s="48"/>
+      <c r="A173" s="47"/>
       <c r="B173" s="7"/>
       <c r="C173" s="6"/>
       <c r="D173" s="7"/>
@@ -8427,7 +8488,7 @@
       <c r="AB173" s="10"/>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A174" s="48"/>
+      <c r="A174" s="47"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
       <c r="D174" s="7"/>
@@ -8457,7 +8518,7 @@
       <c r="AB174" s="10"/>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A175" s="48"/>
+      <c r="A175" s="47"/>
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
       <c r="D175" s="7"/>
@@ -8487,7 +8548,7 @@
       <c r="AB175" s="10"/>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A176" s="48"/>
+      <c r="A176" s="47"/>
       <c r="B176" s="7"/>
       <c r="C176" s="6"/>
       <c r="D176" s="7"/>
@@ -8517,7 +8578,7 @@
       <c r="AB176" s="10"/>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A177" s="48"/>
+      <c r="A177" s="47"/>
       <c r="B177" s="7"/>
       <c r="C177" s="6"/>
       <c r="D177" s="7"/>
@@ -8547,7 +8608,7 @@
       <c r="AB177" s="10"/>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A178" s="48"/>
+      <c r="A178" s="47"/>
       <c r="B178" s="7"/>
       <c r="C178" s="6"/>
       <c r="D178" s="7"/>
@@ -8577,7 +8638,7 @@
       <c r="AB178" s="10"/>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A179" s="48"/>
+      <c r="A179" s="47"/>
       <c r="B179" s="7"/>
       <c r="C179" s="6"/>
       <c r="D179" s="7"/>
@@ -8607,7 +8668,7 @@
       <c r="AB179" s="10"/>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A180" s="48"/>
+      <c r="A180" s="47"/>
       <c r="B180" s="7"/>
       <c r="C180" s="6"/>
       <c r="D180" s="7"/>
@@ -8637,7 +8698,7 @@
       <c r="AB180" s="10"/>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A181" s="48"/>
+      <c r="A181" s="47"/>
       <c r="B181" s="7"/>
       <c r="C181" s="6"/>
       <c r="D181" s="7"/>
@@ -8667,7 +8728,7 @@
       <c r="AB181" s="10"/>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A182" s="48"/>
+      <c r="A182" s="47"/>
       <c r="B182" s="7"/>
       <c r="C182" s="6"/>
       <c r="D182" s="7"/>
@@ -8697,7 +8758,7 @@
       <c r="AB182" s="10"/>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A183" s="48"/>
+      <c r="A183" s="47"/>
       <c r="B183" s="7"/>
       <c r="C183" s="6"/>
       <c r="D183" s="7"/>
@@ -8727,7 +8788,7 @@
       <c r="AB183" s="10"/>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A184" s="48"/>
+      <c r="A184" s="47"/>
       <c r="B184" s="7"/>
       <c r="C184" s="6"/>
       <c r="D184" s="7"/>
@@ -8757,7 +8818,7 @@
       <c r="AB184" s="10"/>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A185" s="48"/>
+      <c r="A185" s="47"/>
       <c r="B185" s="7"/>
       <c r="C185" s="6"/>
       <c r="D185" s="7"/>
@@ -8787,7 +8848,7 @@
       <c r="AB185" s="10"/>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A186" s="48"/>
+      <c r="A186" s="47"/>
       <c r="B186" s="7"/>
       <c r="C186" s="6"/>
       <c r="D186" s="7"/>
@@ -8817,7 +8878,7 @@
       <c r="AB186" s="10"/>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A187" s="48"/>
+      <c r="A187" s="47"/>
       <c r="B187" s="7"/>
       <c r="C187" s="6"/>
       <c r="D187" s="7"/>
@@ -8847,7 +8908,7 @@
       <c r="AB187" s="10"/>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A188" s="48"/>
+      <c r="A188" s="47"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
       <c r="D188" s="7"/>
@@ -8877,7 +8938,7 @@
       <c r="AB188" s="10"/>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A189" s="48"/>
+      <c r="A189" s="47"/>
       <c r="B189" s="7"/>
       <c r="C189" s="6"/>
       <c r="D189" s="7"/>
@@ -8907,7 +8968,7 @@
       <c r="AB189" s="10"/>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A190" s="48"/>
+      <c r="A190" s="47"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
       <c r="D190" s="7"/>
@@ -8937,7 +8998,7 @@
       <c r="AB190" s="10"/>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A191" s="48"/>
+      <c r="A191" s="47"/>
       <c r="B191" s="7"/>
       <c r="C191" s="6"/>
       <c r="D191" s="7"/>
@@ -8967,7 +9028,7 @@
       <c r="AB191" s="10"/>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A192" s="48"/>
+      <c r="A192" s="47"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
       <c r="D192" s="7"/>
@@ -8997,7 +9058,7 @@
       <c r="AB192" s="10"/>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A193" s="48"/>
+      <c r="A193" s="47"/>
       <c r="B193" s="7"/>
       <c r="C193" s="6"/>
       <c r="D193" s="7"/>
@@ -9027,7 +9088,7 @@
       <c r="AB193" s="10"/>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A194" s="48"/>
+      <c r="A194" s="47"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
       <c r="D194" s="7"/>
@@ -9057,7 +9118,7 @@
       <c r="AB194" s="10"/>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A195" s="48"/>
+      <c r="A195" s="47"/>
       <c r="B195" s="7"/>
       <c r="C195" s="6"/>
       <c r="D195" s="7"/>
@@ -9087,7 +9148,7 @@
       <c r="AB195" s="10"/>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A196" s="48"/>
+      <c r="A196" s="47"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
       <c r="D196" s="7"/>
@@ -9117,7 +9178,7 @@
       <c r="AB196" s="10"/>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A197" s="48"/>
+      <c r="A197" s="47"/>
       <c r="B197" s="7"/>
       <c r="C197" s="6"/>
       <c r="D197" s="7"/>
@@ -9147,7 +9208,7 @@
       <c r="AB197" s="10"/>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A198" s="48"/>
+      <c r="A198" s="47"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
       <c r="D198" s="7"/>
@@ -9177,7 +9238,7 @@
       <c r="AB198" s="10"/>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A199" s="48"/>
+      <c r="A199" s="47"/>
       <c r="B199" s="7"/>
       <c r="C199" s="6"/>
       <c r="D199" s="7"/>
@@ -9207,7 +9268,7 @@
       <c r="AB199" s="10"/>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A200" s="48"/>
+      <c r="A200" s="47"/>
       <c r="B200" s="7"/>
       <c r="C200" s="6"/>
       <c r="D200" s="7"/>
@@ -9237,7 +9298,7 @@
       <c r="AB200" s="10"/>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A201" s="48"/>
+      <c r="A201" s="47"/>
       <c r="B201" s="7"/>
       <c r="C201" s="6"/>
       <c r="D201" s="7"/>
@@ -9267,7 +9328,7 @@
       <c r="AB201" s="10"/>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A202" s="48"/>
+      <c r="A202" s="47"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
       <c r="D202" s="7"/>
@@ -9297,7 +9358,7 @@
       <c r="AB202" s="10"/>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A203" s="48"/>
+      <c r="A203" s="47"/>
       <c r="B203" s="7"/>
       <c r="C203" s="6"/>
       <c r="D203" s="7"/>
@@ -9327,7 +9388,7 @@
       <c r="AB203" s="10"/>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A204" s="48"/>
+      <c r="A204" s="47"/>
       <c r="B204" s="7"/>
       <c r="C204" s="6"/>
       <c r="D204" s="7"/>
@@ -9357,7 +9418,7 @@
       <c r="AB204" s="10"/>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A205" s="48"/>
+      <c r="A205" s="47"/>
       <c r="B205" s="7"/>
       <c r="C205" s="6"/>
       <c r="D205" s="7"/>
@@ -9387,7 +9448,7 @@
       <c r="AB205" s="10"/>
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A206" s="48"/>
+      <c r="A206" s="47"/>
       <c r="B206" s="7"/>
       <c r="C206" s="6"/>
       <c r="D206" s="7"/>
@@ -9417,7 +9478,7 @@
       <c r="AB206" s="10"/>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A207" s="48"/>
+      <c r="A207" s="47"/>
       <c r="B207" s="7"/>
       <c r="C207" s="6"/>
       <c r="D207" s="7"/>
@@ -9447,7 +9508,7 @@
       <c r="AB207" s="10"/>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A208" s="48"/>
+      <c r="A208" s="47"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
       <c r="D208" s="7"/>
@@ -9477,7 +9538,7 @@
       <c r="AB208" s="10"/>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A209" s="48"/>
+      <c r="A209" s="47"/>
       <c r="B209" s="7"/>
       <c r="C209" s="6"/>
       <c r="D209" s="7"/>
@@ -9507,7 +9568,7 @@
       <c r="AB209" s="10"/>
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A210" s="48"/>
+      <c r="A210" s="47"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
       <c r="D210" s="7"/>
@@ -9537,7 +9598,7 @@
       <c r="AB210" s="10"/>
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A211" s="48"/>
+      <c r="A211" s="47"/>
       <c r="B211" s="7"/>
       <c r="C211" s="6"/>
       <c r="D211" s="7"/>
@@ -9567,7 +9628,7 @@
       <c r="AB211" s="10"/>
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A212" s="48"/>
+      <c r="A212" s="47"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
       <c r="D212" s="7"/>
@@ -9597,7 +9658,7 @@
       <c r="AB212" s="10"/>
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A213" s="48"/>
+      <c r="A213" s="47"/>
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
       <c r="D213" s="7"/>
@@ -9627,7 +9688,7 @@
       <c r="AB213" s="10"/>
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A214" s="48"/>
+      <c r="A214" s="47"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
       <c r="D214" s="7"/>
@@ -9657,7 +9718,7 @@
       <c r="AB214" s="10"/>
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A215" s="48"/>
+      <c r="A215" s="47"/>
       <c r="B215" s="7"/>
       <c r="C215" s="6"/>
       <c r="D215" s="7"/>
@@ -9687,7 +9748,7 @@
       <c r="AB215" s="10"/>
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A216" s="48"/>
+      <c r="A216" s="47"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
       <c r="D216" s="7"/>
@@ -9717,7 +9778,7 @@
       <c r="AB216" s="10"/>
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A217" s="48"/>
+      <c r="A217" s="47"/>
       <c r="B217" s="7"/>
       <c r="C217" s="6"/>
       <c r="D217" s="7"/>
@@ -9747,7 +9808,7 @@
       <c r="AB217" s="10"/>
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A218" s="48"/>
+      <c r="A218" s="47"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
       <c r="D218" s="7"/>
@@ -9777,7 +9838,7 @@
       <c r="AB218" s="10"/>
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A219" s="48"/>
+      <c r="A219" s="47"/>
       <c r="B219" s="7"/>
       <c r="C219" s="6"/>
       <c r="D219" s="7"/>
@@ -9807,7 +9868,7 @@
       <c r="AB219" s="10"/>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A220" s="48"/>
+      <c r="A220" s="47"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
       <c r="D220" s="7"/>
@@ -9837,7 +9898,7 @@
       <c r="AB220" s="10"/>
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A221" s="48"/>
+      <c r="A221" s="47"/>
       <c r="B221" s="7"/>
       <c r="C221" s="6"/>
       <c r="D221" s="7"/>
@@ -9867,7 +9928,7 @@
       <c r="AB221" s="10"/>
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A222" s="48"/>
+      <c r="A222" s="47"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
       <c r="D222" s="7"/>
@@ -9897,7 +9958,7 @@
       <c r="AB222" s="10"/>
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A223" s="48"/>
+      <c r="A223" s="47"/>
       <c r="B223" s="7"/>
       <c r="C223" s="6"/>
       <c r="D223" s="7"/>
@@ -9927,7 +9988,7 @@
       <c r="AB223" s="10"/>
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A224" s="48"/>
+      <c r="A224" s="47"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
       <c r="D224" s="7"/>
@@ -9957,7 +10018,7 @@
       <c r="AB224" s="10"/>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A225" s="48"/>
+      <c r="A225" s="47"/>
       <c r="B225" s="7"/>
       <c r="C225" s="6"/>
       <c r="D225" s="7"/>
@@ -9987,7 +10048,7 @@
       <c r="AB225" s="10"/>
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A226" s="48"/>
+      <c r="A226" s="47"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
       <c r="D226" s="7"/>
@@ -10017,7 +10078,7 @@
       <c r="AB226" s="10"/>
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A227" s="48"/>
+      <c r="A227" s="47"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
       <c r="D227" s="7"/>
@@ -10047,7 +10108,7 @@
       <c r="AB227" s="10"/>
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A228" s="48"/>
+      <c r="A228" s="47"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
       <c r="D228" s="7"/>
@@ -10077,7 +10138,7 @@
       <c r="AB228" s="10"/>
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A229" s="48"/>
+      <c r="A229" s="47"/>
       <c r="B229" s="7"/>
       <c r="C229" s="6"/>
       <c r="D229" s="7"/>
@@ -10107,7 +10168,7 @@
       <c r="AB229" s="10"/>
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A230" s="48"/>
+      <c r="A230" s="47"/>
       <c r="B230" s="7"/>
       <c r="C230" s="6"/>
       <c r="D230" s="7"/>
@@ -10137,7 +10198,7 @@
       <c r="AB230" s="10"/>
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A231" s="48"/>
+      <c r="A231" s="47"/>
       <c r="B231" s="7"/>
       <c r="C231" s="6"/>
       <c r="D231" s="7"/>
@@ -10167,7 +10228,7 @@
       <c r="AB231" s="10"/>
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A232" s="48"/>
+      <c r="A232" s="47"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
       <c r="D232" s="7"/>
@@ -10197,7 +10258,7 @@
       <c r="AB232" s="10"/>
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A233" s="48"/>
+      <c r="A233" s="47"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
       <c r="D233" s="7"/>
@@ -10227,7 +10288,7 @@
       <c r="AB233" s="10"/>
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A234" s="48"/>
+      <c r="A234" s="47"/>
       <c r="B234" s="7"/>
       <c r="C234" s="6"/>
       <c r="D234" s="7"/>
@@ -10257,7 +10318,7 @@
       <c r="AB234" s="10"/>
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A235" s="48"/>
+      <c r="A235" s="47"/>
       <c r="B235" s="7"/>
       <c r="C235" s="6"/>
       <c r="D235" s="7"/>
@@ -10287,7 +10348,7 @@
       <c r="AB235" s="10"/>
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A236" s="48"/>
+      <c r="A236" s="47"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
       <c r="D236" s="7"/>
@@ -10317,7 +10378,7 @@
       <c r="AB236" s="10"/>
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A237" s="48"/>
+      <c r="A237" s="47"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
       <c r="D237" s="7"/>
@@ -10347,7 +10408,7 @@
       <c r="AB237" s="10"/>
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A238" s="48"/>
+      <c r="A238" s="47"/>
       <c r="B238" s="7"/>
       <c r="C238" s="6"/>
       <c r="D238" s="7"/>
@@ -10377,7 +10438,7 @@
       <c r="AB238" s="10"/>
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A239" s="48"/>
+      <c r="A239" s="47"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
       <c r="D239" s="7"/>
@@ -10407,7 +10468,7 @@
       <c r="AB239" s="10"/>
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A240" s="48"/>
+      <c r="A240" s="47"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
       <c r="D240" s="7"/>
@@ -10437,7 +10498,7 @@
       <c r="AB240" s="10"/>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A241" s="48"/>
+      <c r="A241" s="47"/>
       <c r="B241" s="7"/>
       <c r="C241" s="6"/>
       <c r="D241" s="7"/>
@@ -10467,7 +10528,7 @@
       <c r="AB241" s="10"/>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A242" s="48"/>
+      <c r="A242" s="47"/>
       <c r="B242" s="7"/>
       <c r="C242" s="6"/>
       <c r="D242" s="7"/>
@@ -10497,7 +10558,7 @@
       <c r="AB242" s="10"/>
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A243" s="48"/>
+      <c r="A243" s="47"/>
       <c r="B243" s="7"/>
       <c r="C243" s="6"/>
       <c r="D243" s="7"/>
@@ -10527,7 +10588,7 @@
       <c r="AB243" s="10"/>
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A244" s="48"/>
+      <c r="A244" s="47"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
       <c r="D244" s="7"/>
@@ -10557,7 +10618,7 @@
       <c r="AB244" s="10"/>
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A245" s="48"/>
+      <c r="A245" s="47"/>
       <c r="B245" s="7"/>
       <c r="C245" s="6"/>
       <c r="D245" s="7"/>
@@ -10587,7 +10648,7 @@
       <c r="AB245" s="10"/>
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A246" s="48"/>
+      <c r="A246" s="47"/>
       <c r="B246" s="7"/>
       <c r="C246" s="6"/>
       <c r="D246" s="7"/>
@@ -10617,7 +10678,7 @@
       <c r="AB246" s="10"/>
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A247" s="48"/>
+      <c r="A247" s="47"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
       <c r="D247" s="7"/>
@@ -10647,7 +10708,7 @@
       <c r="AB247" s="10"/>
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A248" s="48"/>
+      <c r="A248" s="47"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
       <c r="D248" s="7"/>
@@ -10677,7 +10738,7 @@
       <c r="AB248" s="10"/>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A249" s="48"/>
+      <c r="A249" s="47"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
       <c r="D249" s="7"/>
@@ -10707,7 +10768,7 @@
       <c r="AB249" s="10"/>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A250" s="48"/>
+      <c r="A250" s="47"/>
       <c r="B250" s="7"/>
       <c r="C250" s="6"/>
       <c r="D250" s="7"/>
@@ -10737,7 +10798,7 @@
       <c r="AB250" s="10"/>
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A251" s="48"/>
+      <c r="A251" s="47"/>
       <c r="B251" s="7"/>
       <c r="C251" s="6"/>
       <c r="D251" s="7"/>
@@ -10767,7 +10828,7 @@
       <c r="AB251" s="10"/>
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A252" s="48"/>
+      <c r="A252" s="47"/>
       <c r="B252" s="7"/>
       <c r="C252" s="6"/>
       <c r="D252" s="7"/>
@@ -10797,7 +10858,7 @@
       <c r="AB252" s="10"/>
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A253" s="48"/>
+      <c r="A253" s="47"/>
       <c r="B253" s="7"/>
       <c r="C253" s="6"/>
       <c r="D253" s="7"/>
@@ -10827,7 +10888,7 @@
       <c r="AB253" s="10"/>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A254" s="48"/>
+      <c r="A254" s="47"/>
       <c r="B254" s="7"/>
       <c r="C254" s="6"/>
       <c r="D254" s="7"/>
@@ -10857,7 +10918,7 @@
       <c r="AB254" s="10"/>
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A255" s="48"/>
+      <c r="A255" s="47"/>
       <c r="B255" s="7"/>
       <c r="C255" s="6"/>
       <c r="D255" s="7"/>
@@ -10887,7 +10948,7 @@
       <c r="AB255" s="10"/>
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A256" s="48"/>
+      <c r="A256" s="47"/>
       <c r="B256" s="7"/>
       <c r="C256" s="6"/>
       <c r="D256" s="7"/>
@@ -10917,7 +10978,7 @@
       <c r="AB256" s="10"/>
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A257" s="48"/>
+      <c r="A257" s="47"/>
       <c r="B257" s="7"/>
       <c r="C257" s="6"/>
       <c r="D257" s="7"/>
@@ -10947,7 +11008,7 @@
       <c r="AB257" s="10"/>
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A258" s="48"/>
+      <c r="A258" s="47"/>
       <c r="B258" s="7"/>
       <c r="C258" s="6"/>
       <c r="D258" s="7"/>
@@ -10977,7 +11038,7 @@
       <c r="AB258" s="10"/>
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A259" s="48"/>
+      <c r="A259" s="47"/>
       <c r="B259" s="7"/>
       <c r="C259" s="6"/>
       <c r="D259" s="7"/>
@@ -11007,7 +11068,7 @@
       <c r="AB259" s="10"/>
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A260" s="48"/>
+      <c r="A260" s="47"/>
       <c r="B260" s="7"/>
       <c r="C260" s="6"/>
       <c r="D260" s="7"/>
@@ -11037,7 +11098,7 @@
       <c r="AB260" s="10"/>
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A261" s="48"/>
+      <c r="A261" s="47"/>
       <c r="B261" s="7"/>
       <c r="C261" s="6"/>
       <c r="D261" s="7"/>
@@ -11067,7 +11128,7 @@
       <c r="AB261" s="10"/>
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A262" s="48"/>
+      <c r="A262" s="47"/>
       <c r="B262" s="7"/>
       <c r="C262" s="6"/>
       <c r="D262" s="7"/>
@@ -11097,7 +11158,7 @@
       <c r="AB262" s="10"/>
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A263" s="48"/>
+      <c r="A263" s="47"/>
       <c r="B263" s="7"/>
       <c r="C263" s="6"/>
       <c r="D263" s="7"/>
@@ -11127,7 +11188,7 @@
       <c r="AB263" s="10"/>
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A264" s="48"/>
+      <c r="A264" s="47"/>
       <c r="B264" s="7"/>
       <c r="C264" s="6"/>
       <c r="D264" s="7"/>
@@ -11157,7 +11218,7 @@
       <c r="AB264" s="10"/>
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A265" s="48"/>
+      <c r="A265" s="47"/>
       <c r="B265" s="7"/>
       <c r="C265" s="6"/>
       <c r="D265" s="7"/>
@@ -11187,7 +11248,7 @@
       <c r="AB265" s="10"/>
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A266" s="48"/>
+      <c r="A266" s="47"/>
       <c r="B266" s="7"/>
       <c r="C266" s="6"/>
       <c r="D266" s="7"/>
@@ -11217,7 +11278,7 @@
       <c r="AB266" s="10"/>
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A267" s="48"/>
+      <c r="A267" s="47"/>
       <c r="B267" s="7"/>
       <c r="C267" s="6"/>
       <c r="D267" s="7"/>
@@ -11247,7 +11308,7 @@
       <c r="AB267" s="10"/>
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A268" s="48"/>
+      <c r="A268" s="47"/>
       <c r="B268" s="7"/>
       <c r="C268" s="6"/>
       <c r="D268" s="7"/>
@@ -11277,7 +11338,7 @@
       <c r="AB268" s="10"/>
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A269" s="48"/>
+      <c r="A269" s="47"/>
       <c r="B269" s="7"/>
       <c r="C269" s="6"/>
       <c r="D269" s="7"/>
@@ -11307,7 +11368,7 @@
       <c r="AB269" s="10"/>
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A270" s="48"/>
+      <c r="A270" s="47"/>
       <c r="B270" s="7"/>
       <c r="C270" s="6"/>
       <c r="D270" s="7"/>
@@ -11337,7 +11398,7 @@
       <c r="AB270" s="10"/>
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A271" s="48"/>
+      <c r="A271" s="47"/>
       <c r="B271" s="7"/>
       <c r="C271" s="6"/>
       <c r="D271" s="7"/>
@@ -11367,7 +11428,7 @@
       <c r="AB271" s="10"/>
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A272" s="48"/>
+      <c r="A272" s="47"/>
       <c r="B272" s="7"/>
       <c r="C272" s="6"/>
       <c r="D272" s="7"/>
@@ -11397,7 +11458,7 @@
       <c r="AB272" s="10"/>
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A273" s="48"/>
+      <c r="A273" s="47"/>
       <c r="B273" s="7"/>
       <c r="C273" s="6"/>
       <c r="D273" s="7"/>
@@ -11427,7 +11488,7 @@
       <c r="AB273" s="10"/>
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A274" s="48"/>
+      <c r="A274" s="47"/>
       <c r="B274" s="7"/>
       <c r="C274" s="6"/>
       <c r="D274" s="7"/>
@@ -11457,7 +11518,7 @@
       <c r="AB274" s="10"/>
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A275" s="48"/>
+      <c r="A275" s="47"/>
       <c r="B275" s="7"/>
       <c r="C275" s="6"/>
       <c r="D275" s="7"/>
@@ -11487,7 +11548,7 @@
       <c r="AB275" s="10"/>
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A276" s="48"/>
+      <c r="A276" s="47"/>
       <c r="B276" s="7"/>
       <c r="C276" s="6"/>
       <c r="D276" s="7"/>
@@ -11517,7 +11578,7 @@
       <c r="AB276" s="10"/>
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A277" s="48"/>
+      <c r="A277" s="47"/>
       <c r="B277" s="7"/>
       <c r="C277" s="6"/>
       <c r="D277" s="7"/>
@@ -11547,7 +11608,7 @@
       <c r="AB277" s="10"/>
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A278" s="48"/>
+      <c r="A278" s="47"/>
       <c r="B278" s="7"/>
       <c r="C278" s="6"/>
       <c r="D278" s="7"/>
@@ -11577,7 +11638,7 @@
       <c r="AB278" s="10"/>
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A279" s="48"/>
+      <c r="A279" s="47"/>
       <c r="B279" s="7"/>
       <c r="C279" s="6"/>
       <c r="D279" s="7"/>
@@ -11607,7 +11668,7 @@
       <c r="AB279" s="10"/>
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A280" s="48"/>
+      <c r="A280" s="47"/>
       <c r="B280" s="7"/>
       <c r="C280" s="6"/>
       <c r="D280" s="7"/>
@@ -11637,7 +11698,7 @@
       <c r="AB280" s="10"/>
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A281" s="48"/>
+      <c r="A281" s="47"/>
       <c r="B281" s="7"/>
       <c r="C281" s="6"/>
       <c r="D281" s="7"/>
@@ -11667,7 +11728,7 @@
       <c r="AB281" s="10"/>
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A282" s="48"/>
+      <c r="A282" s="47"/>
       <c r="B282" s="7"/>
       <c r="C282" s="6"/>
       <c r="D282" s="7"/>
@@ -11697,7 +11758,7 @@
       <c r="AB282" s="10"/>
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A283" s="48"/>
+      <c r="A283" s="47"/>
       <c r="B283" s="7"/>
       <c r="C283" s="6"/>
       <c r="D283" s="7"/>
@@ -11727,7 +11788,7 @@
       <c r="AB283" s="10"/>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A284" s="48"/>
+      <c r="A284" s="47"/>
       <c r="B284" s="7"/>
       <c r="C284" s="6"/>
       <c r="D284" s="7"/>
@@ -11757,7 +11818,7 @@
       <c r="AB284" s="10"/>
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A285" s="48"/>
+      <c r="A285" s="47"/>
       <c r="B285" s="7"/>
       <c r="C285" s="6"/>
       <c r="D285" s="7"/>
@@ -11787,7 +11848,7 @@
       <c r="AB285" s="10"/>
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A286" s="48"/>
+      <c r="A286" s="47"/>
       <c r="B286" s="7"/>
       <c r="C286" s="6"/>
       <c r="D286" s="7"/>
@@ -11817,7 +11878,7 @@
       <c r="AB286" s="10"/>
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A287" s="48"/>
+      <c r="A287" s="47"/>
       <c r="B287" s="7"/>
       <c r="C287" s="6"/>
       <c r="D287" s="7"/>
@@ -11847,7 +11908,7 @@
       <c r="AB287" s="10"/>
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A288" s="48"/>
+      <c r="A288" s="47"/>
       <c r="B288" s="7"/>
       <c r="C288" s="6"/>
       <c r="D288" s="7"/>
@@ -11877,7 +11938,7 @@
       <c r="AB288" s="10"/>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A289" s="48"/>
+      <c r="A289" s="47"/>
       <c r="B289" s="7"/>
       <c r="C289" s="6"/>
       <c r="D289" s="7"/>
@@ -11907,7 +11968,7 @@
       <c r="AB289" s="10"/>
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A290" s="48"/>
+      <c r="A290" s="47"/>
       <c r="B290" s="7"/>
       <c r="C290" s="6"/>
       <c r="D290" s="7"/>
@@ -11937,7 +11998,7 @@
       <c r="AB290" s="10"/>
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A291" s="48"/>
+      <c r="A291" s="47"/>
       <c r="B291" s="7"/>
       <c r="C291" s="6"/>
       <c r="D291" s="7"/>
@@ -11967,7 +12028,7 @@
       <c r="AB291" s="10"/>
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A292" s="48"/>
+      <c r="A292" s="47"/>
       <c r="B292" s="7"/>
       <c r="C292" s="6"/>
       <c r="D292" s="7"/>
@@ -11997,7 +12058,7 @@
       <c r="AB292" s="10"/>
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A293" s="48"/>
+      <c r="A293" s="47"/>
       <c r="B293" s="7"/>
       <c r="C293" s="6"/>
       <c r="D293" s="7"/>
@@ -12027,7 +12088,7 @@
       <c r="AB293" s="10"/>
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A294" s="48"/>
+      <c r="A294" s="47"/>
       <c r="B294" s="7"/>
       <c r="C294" s="6"/>
       <c r="D294" s="7"/>
@@ -12057,7 +12118,7 @@
       <c r="AB294" s="10"/>
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A295" s="48"/>
+      <c r="A295" s="47"/>
       <c r="B295" s="7"/>
       <c r="C295" s="6"/>
       <c r="D295" s="7"/>
@@ -12087,7 +12148,7 @@
       <c r="AB295" s="10"/>
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A296" s="48"/>
+      <c r="A296" s="47"/>
       <c r="B296" s="7"/>
       <c r="C296" s="6"/>
       <c r="D296" s="7"/>
@@ -12117,7 +12178,7 @@
       <c r="AB296" s="10"/>
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A297" s="48"/>
+      <c r="A297" s="47"/>
       <c r="B297" s="7"/>
       <c r="C297" s="6"/>
       <c r="D297" s="7"/>
@@ -12147,7 +12208,7 @@
       <c r="AB297" s="10"/>
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A298" s="48"/>
+      <c r="A298" s="47"/>
       <c r="B298" s="7"/>
       <c r="C298" s="6"/>
       <c r="D298" s="7"/>
@@ -12177,7 +12238,7 @@
       <c r="AB298" s="10"/>
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A299" s="48"/>
+      <c r="A299" s="47"/>
       <c r="B299" s="7"/>
       <c r="C299" s="6"/>
       <c r="D299" s="7"/>
@@ -12207,7 +12268,7 @@
       <c r="AB299" s="10"/>
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A300" s="48"/>
+      <c r="A300" s="47"/>
       <c r="B300" s="7"/>
       <c r="C300" s="6"/>
       <c r="D300" s="7"/>
@@ -12237,7 +12298,7 @@
       <c r="AB300" s="10"/>
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A301" s="48"/>
+      <c r="A301" s="47"/>
       <c r="B301" s="7"/>
       <c r="C301" s="6"/>
       <c r="D301" s="7"/>
@@ -12267,7 +12328,7 @@
       <c r="AB301" s="10"/>
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A302" s="48"/>
+      <c r="A302" s="47"/>
       <c r="B302" s="7"/>
       <c r="C302" s="6"/>
       <c r="D302" s="7"/>
@@ -12297,7 +12358,7 @@
       <c r="AB302" s="10"/>
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A303" s="48"/>
+      <c r="A303" s="47"/>
       <c r="B303" s="7"/>
       <c r="C303" s="6"/>
       <c r="D303" s="7"/>
@@ -12327,7 +12388,7 @@
       <c r="AB303" s="10"/>
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A304" s="48"/>
+      <c r="A304" s="47"/>
       <c r="B304" s="7"/>
       <c r="C304" s="6"/>
       <c r="D304" s="7"/>
@@ -12357,7 +12418,7 @@
       <c r="AB304" s="10"/>
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A305" s="48"/>
+      <c r="A305" s="47"/>
       <c r="B305" s="7"/>
       <c r="C305" s="6"/>
       <c r="D305" s="7"/>
@@ -12387,7 +12448,7 @@
       <c r="AB305" s="10"/>
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A306" s="48"/>
+      <c r="A306" s="47"/>
       <c r="B306" s="7"/>
       <c r="C306" s="6"/>
       <c r="D306" s="7"/>
@@ -12417,7 +12478,7 @@
       <c r="AB306" s="10"/>
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A307" s="48"/>
+      <c r="A307" s="47"/>
       <c r="B307" s="7"/>
       <c r="C307" s="6"/>
       <c r="D307" s="7"/>
@@ -12447,7 +12508,7 @@
       <c r="AB307" s="10"/>
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A308" s="48"/>
+      <c r="A308" s="47"/>
       <c r="B308" s="7"/>
       <c r="C308" s="6"/>
       <c r="D308" s="7"/>
@@ -12477,7 +12538,7 @@
       <c r="AB308" s="10"/>
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A309" s="48"/>
+      <c r="A309" s="47"/>
       <c r="B309" s="7"/>
       <c r="C309" s="6"/>
       <c r="D309" s="7"/>
@@ -12507,7 +12568,7 @@
       <c r="AB309" s="10"/>
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A310" s="48"/>
+      <c r="A310" s="47"/>
       <c r="B310" s="7"/>
       <c r="C310" s="6"/>
       <c r="D310" s="7"/>
@@ -12537,7 +12598,7 @@
       <c r="AB310" s="10"/>
     </row>
     <row r="311" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A311" s="48"/>
+      <c r="A311" s="47"/>
       <c r="B311" s="7"/>
       <c r="C311" s="6"/>
       <c r="D311" s="7"/>
@@ -12567,7 +12628,7 @@
       <c r="AB311" s="10"/>
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A312" s="48"/>
+      <c r="A312" s="47"/>
       <c r="B312" s="7"/>
       <c r="C312" s="6"/>
       <c r="D312" s="7"/>
@@ -12597,7 +12658,7 @@
       <c r="AB312" s="10"/>
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A313" s="48"/>
+      <c r="A313" s="47"/>
       <c r="B313" s="7"/>
       <c r="C313" s="6"/>
       <c r="D313" s="7"/>
@@ -12627,7 +12688,7 @@
       <c r="AB313" s="10"/>
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A314" s="48"/>
+      <c r="A314" s="47"/>
       <c r="B314" s="7"/>
       <c r="C314" s="6"/>
       <c r="D314" s="7"/>
@@ -12657,7 +12718,7 @@
       <c r="AB314" s="10"/>
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A315" s="48"/>
+      <c r="A315" s="47"/>
       <c r="B315" s="7"/>
       <c r="C315" s="6"/>
       <c r="D315" s="7"/>
@@ -12687,7 +12748,7 @@
       <c r="AB315" s="10"/>
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A316" s="48"/>
+      <c r="A316" s="47"/>
       <c r="B316" s="7"/>
       <c r="C316" s="6"/>
       <c r="D316" s="7"/>
@@ -12717,7 +12778,7 @@
       <c r="AB316" s="10"/>
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A317" s="48"/>
+      <c r="A317" s="47"/>
       <c r="B317" s="7"/>
       <c r="C317" s="6"/>
       <c r="D317" s="7"/>
@@ -12747,7 +12808,7 @@
       <c r="AB317" s="10"/>
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A318" s="48"/>
+      <c r="A318" s="47"/>
       <c r="B318" s="7"/>
       <c r="C318" s="6"/>
       <c r="D318" s="7"/>
@@ -12777,7 +12838,7 @@
       <c r="AB318" s="10"/>
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A319" s="48"/>
+      <c r="A319" s="47"/>
       <c r="B319" s="7"/>
       <c r="C319" s="6"/>
       <c r="D319" s="7"/>
@@ -12807,7 +12868,7 @@
       <c r="AB319" s="10"/>
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A320" s="48"/>
+      <c r="A320" s="47"/>
       <c r="B320" s="7"/>
       <c r="C320" s="6"/>
       <c r="D320" s="7"/>
@@ -12837,7 +12898,7 @@
       <c r="AB320" s="10"/>
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A321" s="48"/>
+      <c r="A321" s="47"/>
       <c r="B321" s="7"/>
       <c r="C321" s="6"/>
       <c r="D321" s="7"/>
@@ -12867,7 +12928,7 @@
       <c r="AB321" s="10"/>
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A322" s="48"/>
+      <c r="A322" s="47"/>
       <c r="B322" s="7"/>
       <c r="C322" s="6"/>
       <c r="D322" s="7"/>
@@ -12897,7 +12958,7 @@
       <c r="AB322" s="10"/>
     </row>
     <row r="323" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A323" s="48"/>
+      <c r="A323" s="47"/>
       <c r="B323" s="7"/>
       <c r="C323" s="6"/>
       <c r="D323" s="7"/>
@@ -12927,7 +12988,7 @@
       <c r="AB323" s="10"/>
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A324" s="48"/>
+      <c r="A324" s="47"/>
       <c r="B324" s="7"/>
       <c r="C324" s="6"/>
       <c r="D324" s="7"/>
@@ -12957,7 +13018,7 @@
       <c r="AB324" s="10"/>
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A325" s="48"/>
+      <c r="A325" s="47"/>
       <c r="B325" s="7"/>
       <c r="C325" s="6"/>
       <c r="D325" s="7"/>
@@ -12987,7 +13048,7 @@
       <c r="AB325" s="10"/>
     </row>
     <row r="326" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A326" s="48"/>
+      <c r="A326" s="47"/>
       <c r="B326" s="7"/>
       <c r="C326" s="6"/>
       <c r="D326" s="7"/>
@@ -13017,7 +13078,7 @@
       <c r="AB326" s="10"/>
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A327" s="48"/>
+      <c r="A327" s="47"/>
       <c r="B327" s="7"/>
       <c r="C327" s="6"/>
       <c r="D327" s="7"/>
@@ -13047,7 +13108,7 @@
       <c r="AB327" s="10"/>
     </row>
     <row r="328" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A328" s="48"/>
+      <c r="A328" s="47"/>
       <c r="B328" s="7"/>
       <c r="C328" s="6"/>
       <c r="D328" s="7"/>
@@ -13077,7 +13138,7 @@
       <c r="AB328" s="10"/>
     </row>
     <row r="329" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A329" s="48"/>
+      <c r="A329" s="47"/>
       <c r="B329" s="7"/>
       <c r="C329" s="6"/>
       <c r="D329" s="7"/>
@@ -13107,7 +13168,7 @@
       <c r="AB329" s="10"/>
     </row>
     <row r="330" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A330" s="48"/>
+      <c r="A330" s="47"/>
       <c r="B330" s="7"/>
       <c r="C330" s="6"/>
       <c r="D330" s="7"/>
@@ -13137,7 +13198,7 @@
       <c r="AB330" s="10"/>
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A331" s="48"/>
+      <c r="A331" s="47"/>
       <c r="B331" s="7"/>
       <c r="C331" s="6"/>
       <c r="D331" s="7"/>
@@ -13167,7 +13228,7 @@
       <c r="AB331" s="10"/>
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A332" s="48"/>
+      <c r="A332" s="47"/>
       <c r="B332" s="7"/>
       <c r="C332" s="6"/>
       <c r="D332" s="7"/>
@@ -13197,7 +13258,7 @@
       <c r="AB332" s="10"/>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A333" s="48"/>
+      <c r="A333" s="47"/>
       <c r="B333" s="7"/>
       <c r="C333" s="6"/>
       <c r="D333" s="7"/>
@@ -13227,7 +13288,7 @@
       <c r="AB333" s="10"/>
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A334" s="48"/>
+      <c r="A334" s="47"/>
       <c r="B334" s="7"/>
       <c r="C334" s="6"/>
       <c r="D334" s="7"/>
@@ -13257,7 +13318,7 @@
       <c r="AB334" s="10"/>
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A335" s="48"/>
+      <c r="A335" s="47"/>
       <c r="B335" s="7"/>
       <c r="C335" s="6"/>
       <c r="D335" s="7"/>
@@ -13287,7 +13348,7 @@
       <c r="AB335" s="10"/>
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A336" s="48"/>
+      <c r="A336" s="47"/>
       <c r="B336" s="7"/>
       <c r="C336" s="6"/>
       <c r="D336" s="7"/>
@@ -13317,7 +13378,7 @@
       <c r="AB336" s="10"/>
     </row>
     <row r="337" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A337" s="48"/>
+      <c r="A337" s="47"/>
       <c r="B337" s="7"/>
       <c r="C337" s="6"/>
       <c r="D337" s="7"/>
@@ -13347,7 +13408,7 @@
       <c r="AB337" s="10"/>
     </row>
     <row r="338" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A338" s="48"/>
+      <c r="A338" s="47"/>
       <c r="B338" s="7"/>
       <c r="C338" s="6"/>
       <c r="D338" s="7"/>
@@ -13377,7 +13438,7 @@
       <c r="AB338" s="10"/>
     </row>
     <row r="339" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A339" s="48"/>
+      <c r="A339" s="47"/>
       <c r="B339" s="7"/>
       <c r="C339" s="6"/>
       <c r="D339" s="7"/>
@@ -13407,7 +13468,7 @@
       <c r="AB339" s="10"/>
     </row>
     <row r="340" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A340" s="48"/>
+      <c r="A340" s="47"/>
       <c r="B340" s="7"/>
       <c r="C340" s="6"/>
       <c r="D340" s="7"/>
@@ -13437,7 +13498,7 @@
       <c r="AB340" s="10"/>
     </row>
     <row r="341" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A341" s="48"/>
+      <c r="A341" s="47"/>
       <c r="B341" s="7"/>
       <c r="C341" s="6"/>
       <c r="D341" s="7"/>
@@ -13467,7 +13528,7 @@
       <c r="AB341" s="10"/>
     </row>
     <row r="342" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A342" s="48"/>
+      <c r="A342" s="47"/>
       <c r="B342" s="7"/>
       <c r="C342" s="6"/>
       <c r="D342" s="7"/>
@@ -13497,7 +13558,7 @@
       <c r="AB342" s="10"/>
     </row>
     <row r="343" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A343" s="48"/>
+      <c r="A343" s="47"/>
       <c r="B343" s="7"/>
       <c r="C343" s="6"/>
       <c r="D343" s="7"/>
@@ -13527,7 +13588,7 @@
       <c r="AB343" s="10"/>
     </row>
     <row r="344" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A344" s="48"/>
+      <c r="A344" s="47"/>
       <c r="B344" s="7"/>
       <c r="C344" s="6"/>
       <c r="D344" s="7"/>
@@ -13557,7 +13618,7 @@
       <c r="AB344" s="10"/>
     </row>
     <row r="345" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A345" s="48"/>
+      <c r="A345" s="47"/>
       <c r="B345" s="7"/>
       <c r="C345" s="6"/>
       <c r="D345" s="7"/>
@@ -13587,7 +13648,7 @@
       <c r="AB345" s="10"/>
     </row>
     <row r="346" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A346" s="48"/>
+      <c r="A346" s="47"/>
       <c r="B346" s="7"/>
       <c r="C346" s="6"/>
       <c r="D346" s="7"/>
@@ -13617,7 +13678,7 @@
       <c r="AB346" s="10"/>
     </row>
     <row r="347" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A347" s="48"/>
+      <c r="A347" s="47"/>
       <c r="B347" s="7"/>
       <c r="C347" s="6"/>
       <c r="D347" s="7"/>
@@ -13647,7 +13708,7 @@
       <c r="AB347" s="10"/>
     </row>
     <row r="348" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A348" s="48"/>
+      <c r="A348" s="47"/>
       <c r="B348" s="7"/>
       <c r="C348" s="6"/>
       <c r="D348" s="7"/>
@@ -13677,7 +13738,7 @@
       <c r="AB348" s="10"/>
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A349" s="48"/>
+      <c r="A349" s="47"/>
       <c r="B349" s="7"/>
       <c r="C349" s="6"/>
       <c r="D349" s="7"/>
@@ -13707,7 +13768,7 @@
       <c r="AB349" s="10"/>
     </row>
     <row r="350" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A350" s="48"/>
+      <c r="A350" s="47"/>
       <c r="B350" s="7"/>
       <c r="C350" s="6"/>
       <c r="D350" s="7"/>
@@ -13737,7 +13798,7 @@
       <c r="AB350" s="10"/>
     </row>
     <row r="351" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A351" s="48"/>
+      <c r="A351" s="47"/>
       <c r="B351" s="7"/>
       <c r="C351" s="6"/>
       <c r="D351" s="7"/>
@@ -13767,7 +13828,7 @@
       <c r="AB351" s="10"/>
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A352" s="48"/>
+      <c r="A352" s="47"/>
       <c r="B352" s="7"/>
       <c r="C352" s="6"/>
       <c r="D352" s="7"/>
@@ -13797,7 +13858,7 @@
       <c r="AB352" s="10"/>
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A353" s="48"/>
+      <c r="A353" s="47"/>
       <c r="B353" s="7"/>
       <c r="C353" s="6"/>
       <c r="D353" s="7"/>
@@ -13827,7 +13888,7 @@
       <c r="AB353" s="10"/>
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A354" s="48"/>
+      <c r="A354" s="47"/>
       <c r="B354" s="7"/>
       <c r="C354" s="6"/>
       <c r="D354" s="7"/>
@@ -13857,7 +13918,7 @@
       <c r="AB354" s="10"/>
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A355" s="48"/>
+      <c r="A355" s="47"/>
       <c r="B355" s="7"/>
       <c r="C355" s="6"/>
       <c r="D355" s="7"/>
@@ -13887,7 +13948,7 @@
       <c r="AB355" s="10"/>
     </row>
     <row r="356" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A356" s="48"/>
+      <c r="A356" s="47"/>
       <c r="B356" s="7"/>
       <c r="C356" s="6"/>
       <c r="D356" s="7"/>
@@ -13917,7 +13978,7 @@
       <c r="AB356" s="10"/>
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A357" s="48"/>
+      <c r="A357" s="47"/>
       <c r="B357" s="7"/>
       <c r="C357" s="6"/>
       <c r="D357" s="7"/>
@@ -13947,7 +14008,7 @@
       <c r="AB357" s="10"/>
     </row>
     <row r="358" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A358" s="48"/>
+      <c r="A358" s="47"/>
       <c r="B358" s="7"/>
       <c r="C358" s="6"/>
       <c r="D358" s="7"/>
@@ -13977,7 +14038,7 @@
       <c r="AB358" s="10"/>
     </row>
     <row r="359" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A359" s="48"/>
+      <c r="A359" s="47"/>
       <c r="B359" s="7"/>
       <c r="C359" s="6"/>
       <c r="D359" s="7"/>
@@ -14007,7 +14068,7 @@
       <c r="AB359" s="10"/>
     </row>
     <row r="360" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A360" s="48"/>
+      <c r="A360" s="47"/>
       <c r="B360" s="7"/>
       <c r="C360" s="6"/>
       <c r="D360" s="7"/>
@@ -14037,7 +14098,7 @@
       <c r="AB360" s="10"/>
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A361" s="48"/>
+      <c r="A361" s="47"/>
       <c r="B361" s="7"/>
       <c r="C361" s="6"/>
       <c r="D361" s="7"/>
@@ -14067,7 +14128,7 @@
       <c r="AB361" s="10"/>
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A362" s="48"/>
+      <c r="A362" s="47"/>
       <c r="B362" s="7"/>
       <c r="C362" s="6"/>
       <c r="D362" s="7"/>
@@ -14097,7 +14158,7 @@
       <c r="AB362" s="10"/>
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A363" s="48"/>
+      <c r="A363" s="47"/>
       <c r="B363" s="7"/>
       <c r="C363" s="6"/>
       <c r="D363" s="7"/>
@@ -14127,7 +14188,7 @@
       <c r="AB363" s="10"/>
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A364" s="48"/>
+      <c r="A364" s="47"/>
       <c r="B364" s="7"/>
       <c r="C364" s="6"/>
       <c r="D364" s="7"/>
@@ -14157,7 +14218,7 @@
       <c r="AB364" s="10"/>
     </row>
     <row r="365" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A365" s="48"/>
+      <c r="A365" s="47"/>
       <c r="B365" s="7"/>
       <c r="C365" s="6"/>
       <c r="D365" s="7"/>
@@ -14187,7 +14248,7 @@
       <c r="AB365" s="10"/>
     </row>
     <row r="366" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A366" s="48"/>
+      <c r="A366" s="47"/>
       <c r="B366" s="7"/>
       <c r="C366" s="6"/>
       <c r="D366" s="7"/>
@@ -14217,7 +14278,7 @@
       <c r="AB366" s="10"/>
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A367" s="48"/>
+      <c r="A367" s="47"/>
       <c r="B367" s="7"/>
       <c r="C367" s="6"/>
       <c r="D367" s="7"/>
@@ -14247,7 +14308,7 @@
       <c r="AB367" s="10"/>
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A368" s="48"/>
+      <c r="A368" s="47"/>
       <c r="B368" s="7"/>
       <c r="C368" s="6"/>
       <c r="D368" s="7"/>
@@ -14277,7 +14338,7 @@
       <c r="AB368" s="10"/>
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A369" s="48"/>
+      <c r="A369" s="47"/>
       <c r="B369" s="7"/>
       <c r="C369" s="6"/>
       <c r="D369" s="7"/>
@@ -14307,7 +14368,7 @@
       <c r="AB369" s="10"/>
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A370" s="48"/>
+      <c r="A370" s="47"/>
       <c r="B370" s="7"/>
       <c r="C370" s="6"/>
       <c r="D370" s="7"/>
@@ -14337,7 +14398,7 @@
       <c r="AB370" s="10"/>
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A371" s="48"/>
+      <c r="A371" s="47"/>
       <c r="B371" s="7"/>
       <c r="C371" s="6"/>
       <c r="D371" s="7"/>
@@ -14367,7 +14428,7 @@
       <c r="AB371" s="10"/>
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A372" s="48"/>
+      <c r="A372" s="47"/>
       <c r="B372" s="7"/>
       <c r="C372" s="6"/>
       <c r="D372" s="7"/>
@@ -14397,7 +14458,7 @@
       <c r="AB372" s="10"/>
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A373" s="48"/>
+      <c r="A373" s="47"/>
       <c r="B373" s="7"/>
       <c r="C373" s="6"/>
       <c r="D373" s="7"/>
@@ -14427,7 +14488,7 @@
       <c r="AB373" s="10"/>
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A374" s="48"/>
+      <c r="A374" s="47"/>
       <c r="B374" s="7"/>
       <c r="C374" s="6"/>
       <c r="D374" s="7"/>
@@ -14457,7 +14518,7 @@
       <c r="AB374" s="10"/>
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A375" s="48"/>
+      <c r="A375" s="47"/>
       <c r="B375" s="7"/>
       <c r="C375" s="6"/>
       <c r="D375" s="7"/>
@@ -14487,7 +14548,7 @@
       <c r="AB375" s="10"/>
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A376" s="48"/>
+      <c r="A376" s="47"/>
       <c r="B376" s="7"/>
       <c r="C376" s="6"/>
       <c r="D376" s="7"/>
@@ -14517,7 +14578,7 @@
       <c r="AB376" s="10"/>
     </row>
     <row r="377" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A377" s="48"/>
+      <c r="A377" s="47"/>
       <c r="B377" s="7"/>
       <c r="C377" s="6"/>
       <c r="D377" s="7"/>
@@ -14547,7 +14608,7 @@
       <c r="AB377" s="10"/>
     </row>
     <row r="378" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A378" s="48"/>
+      <c r="A378" s="47"/>
       <c r="B378" s="7"/>
       <c r="C378" s="6"/>
       <c r="D378" s="7"/>
@@ -14577,7 +14638,7 @@
       <c r="AB378" s="10"/>
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A379" s="48"/>
+      <c r="A379" s="47"/>
       <c r="B379" s="7"/>
       <c r="C379" s="6"/>
       <c r="D379" s="7"/>
@@ -14607,7 +14668,7 @@
       <c r="AB379" s="10"/>
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A380" s="48"/>
+      <c r="A380" s="47"/>
       <c r="B380" s="7"/>
       <c r="C380" s="6"/>
       <c r="D380" s="7"/>
@@ -14637,7 +14698,7 @@
       <c r="AB380" s="10"/>
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A381" s="48"/>
+      <c r="A381" s="47"/>
       <c r="B381" s="7"/>
       <c r="C381" s="6"/>
       <c r="D381" s="7"/>
@@ -14667,7 +14728,7 @@
       <c r="AB381" s="10"/>
     </row>
     <row r="382" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A382" s="48"/>
+      <c r="A382" s="47"/>
       <c r="B382" s="7"/>
       <c r="C382" s="6"/>
       <c r="D382" s="7"/>
@@ -14697,7 +14758,7 @@
       <c r="AB382" s="10"/>
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A383" s="48"/>
+      <c r="A383" s="47"/>
       <c r="B383" s="7"/>
       <c r="C383" s="6"/>
       <c r="D383" s="7"/>
@@ -14727,7 +14788,7 @@
       <c r="AB383" s="10"/>
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A384" s="48"/>
+      <c r="A384" s="47"/>
       <c r="B384" s="7"/>
       <c r="C384" s="6"/>
       <c r="D384" s="7"/>
@@ -14757,7 +14818,7 @@
       <c r="AB384" s="10"/>
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A385" s="48"/>
+      <c r="A385" s="47"/>
       <c r="B385" s="7"/>
       <c r="C385" s="6"/>
       <c r="D385" s="7"/>
@@ -14787,7 +14848,7 @@
       <c r="AB385" s="10"/>
     </row>
     <row r="386" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A386" s="48"/>
+      <c r="A386" s="47"/>
       <c r="B386" s="7"/>
       <c r="C386" s="6"/>
       <c r="D386" s="7"/>
@@ -14817,7 +14878,7 @@
       <c r="AB386" s="10"/>
     </row>
     <row r="387" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A387" s="48"/>
+      <c r="A387" s="47"/>
       <c r="B387" s="7"/>
       <c r="C387" s="6"/>
       <c r="D387" s="7"/>
@@ -14847,7 +14908,7 @@
       <c r="AB387" s="10"/>
     </row>
     <row r="388" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A388" s="48"/>
+      <c r="A388" s="47"/>
       <c r="B388" s="7"/>
       <c r="C388" s="6"/>
       <c r="D388" s="7"/>
@@ -14877,7 +14938,7 @@
       <c r="AB388" s="10"/>
     </row>
     <row r="389" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A389" s="48"/>
+      <c r="A389" s="47"/>
       <c r="B389" s="7"/>
       <c r="C389" s="6"/>
       <c r="D389" s="7"/>
@@ -14907,7 +14968,7 @@
       <c r="AB389" s="10"/>
     </row>
     <row r="390" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A390" s="48"/>
+      <c r="A390" s="47"/>
       <c r="B390" s="7"/>
       <c r="C390" s="6"/>
       <c r="D390" s="7"/>
@@ -14937,7 +14998,7 @@
       <c r="AB390" s="10"/>
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A391" s="48"/>
+      <c r="A391" s="47"/>
       <c r="B391" s="7"/>
       <c r="C391" s="6"/>
       <c r="D391" s="7"/>
@@ -14967,7 +15028,7 @@
       <c r="AB391" s="10"/>
     </row>
     <row r="392" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A392" s="48"/>
+      <c r="A392" s="47"/>
       <c r="B392" s="7"/>
       <c r="C392" s="6"/>
       <c r="D392" s="7"/>
@@ -14997,7 +15058,7 @@
       <c r="AB392" s="10"/>
     </row>
     <row r="393" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A393" s="48"/>
+      <c r="A393" s="47"/>
       <c r="B393" s="7"/>
       <c r="C393" s="6"/>
       <c r="D393" s="7"/>
@@ -15027,7 +15088,7 @@
       <c r="AB393" s="10"/>
     </row>
     <row r="394" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A394" s="48"/>
+      <c r="A394" s="47"/>
       <c r="B394" s="7"/>
       <c r="C394" s="6"/>
       <c r="D394" s="7"/>
@@ -15057,7 +15118,7 @@
       <c r="AB394" s="10"/>
     </row>
     <row r="395" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A395" s="48"/>
+      <c r="A395" s="47"/>
       <c r="B395" s="7"/>
       <c r="C395" s="6"/>
       <c r="D395" s="7"/>
@@ -15087,7 +15148,7 @@
       <c r="AB395" s="10"/>
     </row>
     <row r="396" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A396" s="48"/>
+      <c r="A396" s="47"/>
       <c r="B396" s="7"/>
       <c r="C396" s="6"/>
       <c r="D396" s="7"/>
@@ -15117,7 +15178,7 @@
       <c r="AB396" s="10"/>
     </row>
     <row r="397" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A397" s="48"/>
+      <c r="A397" s="47"/>
       <c r="B397" s="7"/>
       <c r="C397" s="6"/>
       <c r="D397" s="7"/>
@@ -15147,7 +15208,7 @@
       <c r="AB397" s="10"/>
     </row>
     <row r="398" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A398" s="48"/>
+      <c r="A398" s="47"/>
       <c r="B398" s="7"/>
       <c r="C398" s="6"/>
       <c r="D398" s="7"/>
@@ -15177,7 +15238,7 @@
       <c r="AB398" s="10"/>
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A399" s="48"/>
+      <c r="A399" s="47"/>
       <c r="B399" s="7"/>
       <c r="C399" s="6"/>
       <c r="D399" s="7"/>
@@ -15207,7 +15268,7 @@
       <c r="AB399" s="10"/>
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A400" s="48"/>
+      <c r="A400" s="47"/>
       <c r="B400" s="7"/>
       <c r="C400" s="6"/>
       <c r="D400" s="7"/>
@@ -15237,7 +15298,7 @@
       <c r="AB400" s="10"/>
     </row>
     <row r="401" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A401" s="48"/>
+      <c r="A401" s="47"/>
       <c r="B401" s="7"/>
       <c r="C401" s="6"/>
       <c r="D401" s="7"/>
@@ -15267,7 +15328,7 @@
       <c r="AB401" s="10"/>
     </row>
     <row r="402" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A402" s="48"/>
+      <c r="A402" s="47"/>
       <c r="B402" s="7"/>
       <c r="C402" s="6"/>
       <c r="D402" s="7"/>
@@ -15297,7 +15358,7 @@
       <c r="AB402" s="10"/>
     </row>
     <row r="403" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A403" s="48"/>
+      <c r="A403" s="47"/>
       <c r="B403" s="7"/>
       <c r="C403" s="6"/>
       <c r="D403" s="7"/>
@@ -15327,7 +15388,7 @@
       <c r="AB403" s="10"/>
     </row>
     <row r="404" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A404" s="48"/>
+      <c r="A404" s="47"/>
       <c r="B404" s="7"/>
       <c r="C404" s="6"/>
       <c r="D404" s="7"/>
@@ -15357,7 +15418,7 @@
       <c r="AB404" s="10"/>
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A405" s="48"/>
+      <c r="A405" s="47"/>
       <c r="B405" s="7"/>
       <c r="C405" s="6"/>
       <c r="D405" s="7"/>
@@ -15387,7 +15448,7 @@
       <c r="AB405" s="10"/>
     </row>
     <row r="406" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A406" s="48"/>
+      <c r="A406" s="47"/>
       <c r="B406" s="7"/>
       <c r="C406" s="6"/>
       <c r="D406" s="7"/>
@@ -15417,7 +15478,7 @@
       <c r="AB406" s="10"/>
     </row>
     <row r="407" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A407" s="48"/>
+      <c r="A407" s="47"/>
       <c r="B407" s="7"/>
       <c r="C407" s="6"/>
       <c r="D407" s="7"/>
@@ -15447,7 +15508,7 @@
       <c r="AB407" s="10"/>
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A408" s="48"/>
+      <c r="A408" s="47"/>
       <c r="B408" s="7"/>
       <c r="C408" s="6"/>
       <c r="D408" s="7"/>
@@ -15477,7 +15538,7 @@
       <c r="AB408" s="10"/>
     </row>
     <row r="409" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A409" s="48"/>
+      <c r="A409" s="47"/>
       <c r="B409" s="7"/>
       <c r="C409" s="6"/>
       <c r="D409" s="7"/>
@@ -15507,7 +15568,7 @@
       <c r="AB409" s="10"/>
     </row>
     <row r="410" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A410" s="48"/>
+      <c r="A410" s="47"/>
       <c r="B410" s="7"/>
       <c r="C410" s="6"/>
       <c r="D410" s="7"/>
@@ -15537,7 +15598,7 @@
       <c r="AB410" s="10"/>
     </row>
     <row r="411" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A411" s="48"/>
+      <c r="A411" s="47"/>
       <c r="B411" s="7"/>
       <c r="C411" s="6"/>
       <c r="D411" s="7"/>
@@ -15567,7 +15628,7 @@
       <c r="AB411" s="10"/>
     </row>
     <row r="412" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A412" s="48"/>
+      <c r="A412" s="47"/>
       <c r="B412" s="7"/>
       <c r="C412" s="6"/>
       <c r="D412" s="7"/>
@@ -15597,7 +15658,7 @@
       <c r="AB412" s="10"/>
     </row>
     <row r="413" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A413" s="48"/>
+      <c r="A413" s="47"/>
       <c r="B413" s="7"/>
       <c r="C413" s="6"/>
       <c r="D413" s="7"/>
@@ -15627,7 +15688,7 @@
       <c r="AB413" s="10"/>
     </row>
     <row r="414" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A414" s="48"/>
+      <c r="A414" s="47"/>
       <c r="B414" s="7"/>
       <c r="C414" s="6"/>
       <c r="D414" s="7"/>
@@ -15657,7 +15718,7 @@
       <c r="AB414" s="10"/>
     </row>
     <row r="415" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A415" s="48"/>
+      <c r="A415" s="47"/>
       <c r="B415" s="7"/>
       <c r="C415" s="6"/>
       <c r="D415" s="7"/>
@@ -15687,7 +15748,7 @@
       <c r="AB415" s="10"/>
     </row>
     <row r="416" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A416" s="48"/>
+      <c r="A416" s="47"/>
       <c r="B416" s="7"/>
       <c r="C416" s="6"/>
       <c r="D416" s="7"/>
@@ -15717,7 +15778,7 @@
       <c r="AB416" s="10"/>
     </row>
     <row r="417" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A417" s="48"/>
+      <c r="A417" s="47"/>
       <c r="B417" s="7"/>
       <c r="C417" s="6"/>
       <c r="D417" s="7"/>
@@ -15747,7 +15808,7 @@
       <c r="AB417" s="10"/>
     </row>
     <row r="418" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A418" s="48"/>
+      <c r="A418" s="47"/>
       <c r="B418" s="7"/>
       <c r="C418" s="6"/>
       <c r="D418" s="7"/>
@@ -15777,7 +15838,7 @@
       <c r="AB418" s="10"/>
     </row>
     <row r="419" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A419" s="48"/>
+      <c r="A419" s="47"/>
       <c r="B419" s="7"/>
       <c r="C419" s="6"/>
       <c r="D419" s="7"/>
@@ -15807,7 +15868,7 @@
       <c r="AB419" s="10"/>
     </row>
     <row r="420" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A420" s="48"/>
+      <c r="A420" s="47"/>
       <c r="B420" s="7"/>
       <c r="C420" s="6"/>
       <c r="D420" s="7"/>
@@ -15837,7 +15898,7 @@
       <c r="AB420" s="10"/>
     </row>
     <row r="421" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A421" s="48"/>
+      <c r="A421" s="47"/>
       <c r="B421" s="7"/>
       <c r="C421" s="6"/>
       <c r="D421" s="7"/>
@@ -15867,7 +15928,7 @@
       <c r="AB421" s="10"/>
     </row>
     <row r="422" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A422" s="48"/>
+      <c r="A422" s="47"/>
       <c r="B422" s="7"/>
       <c r="C422" s="6"/>
       <c r="D422" s="7"/>
@@ -15897,7 +15958,7 @@
       <c r="AB422" s="10"/>
     </row>
     <row r="423" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A423" s="48"/>
+      <c r="A423" s="47"/>
       <c r="B423" s="7"/>
       <c r="C423" s="6"/>
       <c r="D423" s="7"/>
@@ -15927,7 +15988,7 @@
       <c r="AB423" s="10"/>
     </row>
     <row r="424" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A424" s="48"/>
+      <c r="A424" s="47"/>
       <c r="B424" s="7"/>
       <c r="C424" s="6"/>
       <c r="D424" s="7"/>
@@ -15957,7 +16018,7 @@
       <c r="AB424" s="10"/>
     </row>
     <row r="425" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A425" s="48"/>
+      <c r="A425" s="47"/>
       <c r="B425" s="7"/>
       <c r="C425" s="6"/>
       <c r="D425" s="7"/>
@@ -15987,7 +16048,7 @@
       <c r="AB425" s="10"/>
     </row>
     <row r="426" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A426" s="48"/>
+      <c r="A426" s="47"/>
       <c r="B426" s="7"/>
       <c r="C426" s="6"/>
       <c r="D426" s="7"/>
@@ -16017,7 +16078,7 @@
       <c r="AB426" s="10"/>
     </row>
     <row r="427" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A427" s="48"/>
+      <c r="A427" s="47"/>
       <c r="B427" s="7"/>
       <c r="C427" s="6"/>
       <c r="D427" s="7"/>
@@ -16047,7 +16108,7 @@
       <c r="AB427" s="10"/>
     </row>
     <row r="428" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A428" s="48"/>
+      <c r="A428" s="47"/>
       <c r="B428" s="7"/>
       <c r="C428" s="6"/>
       <c r="D428" s="7"/>
@@ -16077,7 +16138,7 @@
       <c r="AB428" s="10"/>
     </row>
     <row r="429" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A429" s="48"/>
+      <c r="A429" s="47"/>
       <c r="B429" s="7"/>
       <c r="C429" s="6"/>
       <c r="D429" s="7"/>
@@ -16107,7 +16168,7 @@
       <c r="AB429" s="10"/>
     </row>
     <row r="430" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A430" s="48"/>
+      <c r="A430" s="47"/>
       <c r="B430" s="7"/>
       <c r="C430" s="6"/>
       <c r="D430" s="7"/>
@@ -16137,7 +16198,7 @@
       <c r="AB430" s="10"/>
     </row>
     <row r="431" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A431" s="48"/>
+      <c r="A431" s="47"/>
       <c r="B431" s="7"/>
       <c r="C431" s="6"/>
       <c r="D431" s="7"/>
@@ -16167,7 +16228,7 @@
       <c r="AB431" s="10"/>
     </row>
     <row r="432" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A432" s="48"/>
+      <c r="A432" s="47"/>
       <c r="B432" s="7"/>
       <c r="C432" s="6"/>
       <c r="D432" s="7"/>
@@ -16197,7 +16258,7 @@
       <c r="AB432" s="10"/>
     </row>
     <row r="433" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A433" s="48"/>
+      <c r="A433" s="47"/>
       <c r="B433" s="7"/>
       <c r="C433" s="6"/>
       <c r="D433" s="7"/>
@@ -16227,7 +16288,7 @@
       <c r="AB433" s="10"/>
     </row>
     <row r="434" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A434" s="48"/>
+      <c r="A434" s="47"/>
       <c r="B434" s="7"/>
       <c r="C434" s="6"/>
       <c r="D434" s="7"/>
@@ -16257,7 +16318,7 @@
       <c r="AB434" s="10"/>
     </row>
     <row r="435" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A435" s="48"/>
+      <c r="A435" s="47"/>
       <c r="B435" s="7"/>
       <c r="C435" s="6"/>
       <c r="D435" s="7"/>
@@ -16287,7 +16348,7 @@
       <c r="AB435" s="10"/>
     </row>
     <row r="436" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A436" s="48"/>
+      <c r="A436" s="47"/>
       <c r="B436" s="7"/>
       <c r="C436" s="6"/>
       <c r="D436" s="7"/>
@@ -16317,7 +16378,7 @@
       <c r="AB436" s="10"/>
     </row>
     <row r="437" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A437" s="48"/>
+      <c r="A437" s="47"/>
       <c r="B437" s="7"/>
       <c r="C437" s="6"/>
       <c r="D437" s="7"/>
@@ -16347,7 +16408,7 @@
       <c r="AB437" s="10"/>
     </row>
     <row r="438" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A438" s="48"/>
+      <c r="A438" s="47"/>
       <c r="B438" s="7"/>
       <c r="C438" s="6"/>
       <c r="D438" s="7"/>
@@ -16377,7 +16438,7 @@
       <c r="AB438" s="10"/>
     </row>
     <row r="439" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A439" s="48"/>
+      <c r="A439" s="47"/>
       <c r="B439" s="7"/>
       <c r="C439" s="6"/>
       <c r="D439" s="7"/>
@@ -16407,7 +16468,7 @@
       <c r="AB439" s="10"/>
     </row>
     <row r="440" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A440" s="48"/>
+      <c r="A440" s="47"/>
       <c r="B440" s="7"/>
       <c r="C440" s="6"/>
       <c r="D440" s="7"/>
@@ -16437,7 +16498,7 @@
       <c r="AB440" s="10"/>
     </row>
     <row r="441" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A441" s="48"/>
+      <c r="A441" s="47"/>
       <c r="B441" s="7"/>
       <c r="C441" s="6"/>
       <c r="D441" s="7"/>
@@ -16467,7 +16528,7 @@
       <c r="AB441" s="10"/>
     </row>
     <row r="442" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A442" s="48"/>
+      <c r="A442" s="47"/>
       <c r="B442" s="7"/>
       <c r="C442" s="6"/>
       <c r="D442" s="7"/>
@@ -16497,7 +16558,7 @@
       <c r="AB442" s="10"/>
     </row>
     <row r="443" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A443" s="48"/>
+      <c r="A443" s="47"/>
       <c r="B443" s="7"/>
       <c r="C443" s="6"/>
       <c r="D443" s="7"/>
@@ -16527,7 +16588,7 @@
       <c r="AB443" s="10"/>
     </row>
     <row r="444" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A444" s="48"/>
+      <c r="A444" s="47"/>
       <c r="B444" s="7"/>
       <c r="C444" s="6"/>
       <c r="D444" s="7"/>
@@ -16557,7 +16618,7 @@
       <c r="AB444" s="10"/>
     </row>
     <row r="445" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A445" s="48"/>
+      <c r="A445" s="47"/>
       <c r="B445" s="7"/>
       <c r="C445" s="6"/>
       <c r="D445" s="7"/>
@@ -16587,7 +16648,7 @@
       <c r="AB445" s="10"/>
     </row>
     <row r="446" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A446" s="48"/>
+      <c r="A446" s="47"/>
       <c r="B446" s="7"/>
       <c r="C446" s="6"/>
       <c r="D446" s="7"/>
@@ -16617,7 +16678,7 @@
       <c r="AB446" s="10"/>
     </row>
     <row r="447" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A447" s="48"/>
+      <c r="A447" s="47"/>
       <c r="B447" s="7"/>
       <c r="C447" s="6"/>
       <c r="D447" s="7"/>
@@ -16647,7 +16708,7 @@
       <c r="AB447" s="10"/>
     </row>
     <row r="448" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A448" s="48"/>
+      <c r="A448" s="47"/>
       <c r="B448" s="7"/>
       <c r="C448" s="6"/>
       <c r="D448" s="7"/>
@@ -16677,7 +16738,7 @@
       <c r="AB448" s="10"/>
     </row>
     <row r="449" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A449" s="48"/>
+      <c r="A449" s="47"/>
       <c r="B449" s="7"/>
       <c r="C449" s="6"/>
       <c r="D449" s="7"/>
@@ -16707,7 +16768,7 @@
       <c r="AB449" s="10"/>
     </row>
     <row r="450" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A450" s="48"/>
+      <c r="A450" s="47"/>
       <c r="B450" s="7"/>
       <c r="C450" s="6"/>
       <c r="D450" s="7"/>
@@ -16737,7 +16798,7 @@
       <c r="AB450" s="10"/>
     </row>
     <row r="451" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A451" s="48"/>
+      <c r="A451" s="47"/>
       <c r="B451" s="7"/>
       <c r="C451" s="6"/>
       <c r="D451" s="7"/>
@@ -16767,7 +16828,7 @@
       <c r="AB451" s="10"/>
     </row>
     <row r="452" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A452" s="48"/>
+      <c r="A452" s="47"/>
       <c r="B452" s="7"/>
       <c r="C452" s="6"/>
       <c r="D452" s="7"/>
@@ -16797,7 +16858,7 @@
       <c r="AB452" s="10"/>
     </row>
     <row r="453" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A453" s="48"/>
+      <c r="A453" s="47"/>
       <c r="B453" s="7"/>
       <c r="C453" s="6"/>
       <c r="D453" s="7"/>
@@ -16827,7 +16888,7 @@
       <c r="AB453" s="10"/>
     </row>
     <row r="454" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A454" s="48"/>
+      <c r="A454" s="47"/>
       <c r="B454" s="7"/>
       <c r="C454" s="6"/>
       <c r="D454" s="7"/>
@@ -16857,7 +16918,7 @@
       <c r="AB454" s="10"/>
     </row>
     <row r="455" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A455" s="48"/>
+      <c r="A455" s="47"/>
       <c r="B455" s="7"/>
       <c r="C455" s="6"/>
       <c r="D455" s="7"/>
@@ -16887,7 +16948,7 @@
       <c r="AB455" s="10"/>
     </row>
     <row r="456" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A456" s="48"/>
+      <c r="A456" s="47"/>
       <c r="B456" s="7"/>
       <c r="C456" s="6"/>
       <c r="D456" s="7"/>
@@ -16917,7 +16978,7 @@
       <c r="AB456" s="10"/>
     </row>
     <row r="457" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A457" s="48"/>
+      <c r="A457" s="47"/>
       <c r="B457" s="7"/>
       <c r="C457" s="6"/>
       <c r="D457" s="7"/>
@@ -16947,7 +17008,7 @@
       <c r="AB457" s="10"/>
     </row>
     <row r="458" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A458" s="48"/>
+      <c r="A458" s="47"/>
       <c r="B458" s="7"/>
       <c r="C458" s="6"/>
       <c r="D458" s="7"/>
@@ -16977,7 +17038,7 @@
       <c r="AB458" s="10"/>
     </row>
     <row r="459" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A459" s="48"/>
+      <c r="A459" s="47"/>
       <c r="B459" s="7"/>
       <c r="C459" s="6"/>
       <c r="D459" s="7"/>
@@ -17007,7 +17068,7 @@
       <c r="AB459" s="10"/>
     </row>
     <row r="460" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A460" s="48"/>
+      <c r="A460" s="47"/>
       <c r="B460" s="7"/>
       <c r="C460" s="6"/>
       <c r="D460" s="7"/>
@@ -17037,7 +17098,7 @@
       <c r="AB460" s="10"/>
     </row>
     <row r="461" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A461" s="48"/>
+      <c r="A461" s="47"/>
       <c r="B461" s="7"/>
       <c r="C461" s="6"/>
       <c r="D461" s="7"/>
@@ -17067,7 +17128,7 @@
       <c r="AB461" s="10"/>
     </row>
     <row r="462" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A462" s="48"/>
+      <c r="A462" s="47"/>
       <c r="B462" s="7"/>
       <c r="C462" s="6"/>
       <c r="D462" s="7"/>
@@ -17097,7 +17158,7 @@
       <c r="AB462" s="10"/>
     </row>
     <row r="463" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A463" s="48"/>
+      <c r="A463" s="47"/>
       <c r="B463" s="7"/>
       <c r="C463" s="6"/>
       <c r="D463" s="7"/>
@@ -17127,7 +17188,7 @@
       <c r="AB463" s="10"/>
     </row>
     <row r="464" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A464" s="48"/>
+      <c r="A464" s="47"/>
       <c r="B464" s="7"/>
       <c r="C464" s="6"/>
       <c r="D464" s="7"/>
@@ -17157,7 +17218,7 @@
       <c r="AB464" s="10"/>
     </row>
     <row r="465" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A465" s="48"/>
+      <c r="A465" s="47"/>
       <c r="B465" s="7"/>
       <c r="C465" s="6"/>
       <c r="D465" s="7"/>
@@ -17187,7 +17248,7 @@
       <c r="AB465" s="10"/>
     </row>
     <row r="466" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A466" s="48"/>
+      <c r="A466" s="47"/>
       <c r="B466" s="7"/>
       <c r="C466" s="6"/>
       <c r="D466" s="7"/>
@@ -17217,7 +17278,7 @@
       <c r="AB466" s="10"/>
     </row>
     <row r="467" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A467" s="48"/>
+      <c r="A467" s="47"/>
       <c r="B467" s="7"/>
       <c r="C467" s="6"/>
       <c r="D467" s="7"/>
@@ -17247,7 +17308,7 @@
       <c r="AB467" s="10"/>
     </row>
     <row r="468" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A468" s="48"/>
+      <c r="A468" s="47"/>
       <c r="B468" s="7"/>
       <c r="C468" s="6"/>
       <c r="D468" s="7"/>
@@ -17277,7 +17338,7 @@
       <c r="AB468" s="10"/>
     </row>
     <row r="469" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A469" s="48"/>
+      <c r="A469" s="47"/>
       <c r="B469" s="7"/>
       <c r="C469" s="6"/>
       <c r="D469" s="7"/>
@@ -17307,7 +17368,7 @@
       <c r="AB469" s="10"/>
     </row>
     <row r="470" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A470" s="48"/>
+      <c r="A470" s="47"/>
       <c r="B470" s="7"/>
       <c r="C470" s="6"/>
       <c r="D470" s="7"/>
@@ -17337,7 +17398,7 @@
       <c r="AB470" s="10"/>
     </row>
     <row r="471" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A471" s="48"/>
+      <c r="A471" s="47"/>
       <c r="B471" s="7"/>
       <c r="C471" s="6"/>
       <c r="D471" s="7"/>
@@ -17367,7 +17428,7 @@
       <c r="AB471" s="10"/>
     </row>
     <row r="472" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A472" s="48"/>
+      <c r="A472" s="47"/>
       <c r="B472" s="7"/>
       <c r="C472" s="6"/>
       <c r="D472" s="7"/>
@@ -17397,7 +17458,7 @@
       <c r="AB472" s="10"/>
     </row>
     <row r="473" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A473" s="48"/>
+      <c r="A473" s="47"/>
       <c r="B473" s="7"/>
       <c r="C473" s="6"/>
       <c r="D473" s="7"/>
@@ -17427,7 +17488,7 @@
       <c r="AB473" s="10"/>
     </row>
     <row r="474" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A474" s="48"/>
+      <c r="A474" s="47"/>
       <c r="B474" s="7"/>
       <c r="C474" s="6"/>
       <c r="D474" s="7"/>
@@ -17457,7 +17518,7 @@
       <c r="AB474" s="10"/>
     </row>
     <row r="475" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A475" s="48"/>
+      <c r="A475" s="47"/>
       <c r="B475" s="7"/>
       <c r="C475" s="6"/>
       <c r="D475" s="7"/>
@@ -17487,7 +17548,7 @@
       <c r="AB475" s="10"/>
     </row>
     <row r="476" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A476" s="48"/>
+      <c r="A476" s="47"/>
       <c r="B476" s="7"/>
       <c r="C476" s="6"/>
       <c r="D476" s="7"/>
@@ -17517,7 +17578,7 @@
       <c r="AB476" s="10"/>
     </row>
     <row r="477" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A477" s="48"/>
+      <c r="A477" s="47"/>
       <c r="B477" s="7"/>
       <c r="C477" s="6"/>
       <c r="D477" s="7"/>
@@ -17547,7 +17608,7 @@
       <c r="AB477" s="10"/>
     </row>
     <row r="478" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A478" s="48"/>
+      <c r="A478" s="47"/>
       <c r="B478" s="7"/>
       <c r="C478" s="6"/>
       <c r="D478" s="7"/>
@@ -17577,7 +17638,7 @@
       <c r="AB478" s="10"/>
     </row>
     <row r="479" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A479" s="48"/>
+      <c r="A479" s="47"/>
       <c r="B479" s="7"/>
       <c r="C479" s="6"/>
       <c r="D479" s="7"/>
@@ -17607,7 +17668,7 @@
       <c r="AB479" s="10"/>
     </row>
     <row r="480" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A480" s="48"/>
+      <c r="A480" s="47"/>
       <c r="B480" s="7"/>
       <c r="C480" s="6"/>
       <c r="D480" s="7"/>
@@ -17637,7 +17698,7 @@
       <c r="AB480" s="10"/>
     </row>
     <row r="481" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A481" s="48"/>
+      <c r="A481" s="47"/>
       <c r="B481" s="7"/>
       <c r="C481" s="6"/>
       <c r="D481" s="7"/>
@@ -17667,7 +17728,7 @@
       <c r="AB481" s="10"/>
     </row>
     <row r="482" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A482" s="48"/>
+      <c r="A482" s="47"/>
       <c r="B482" s="7"/>
       <c r="C482" s="6"/>
       <c r="D482" s="7"/>
@@ -17697,7 +17758,7 @@
       <c r="AB482" s="10"/>
     </row>
     <row r="483" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A483" s="48"/>
+      <c r="A483" s="47"/>
       <c r="B483" s="7"/>
       <c r="C483" s="6"/>
       <c r="D483" s="7"/>
@@ -17727,7 +17788,7 @@
       <c r="AB483" s="10"/>
     </row>
     <row r="484" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A484" s="48"/>
+      <c r="A484" s="47"/>
       <c r="B484" s="7"/>
       <c r="C484" s="6"/>
       <c r="D484" s="7"/>
@@ -17757,7 +17818,7 @@
       <c r="AB484" s="10"/>
     </row>
     <row r="485" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A485" s="48"/>
+      <c r="A485" s="47"/>
       <c r="B485" s="7"/>
       <c r="C485" s="6"/>
       <c r="D485" s="7"/>
@@ -17787,7 +17848,7 @@
       <c r="AB485" s="10"/>
     </row>
     <row r="486" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A486" s="48"/>
+      <c r="A486" s="47"/>
       <c r="B486" s="7"/>
       <c r="C486" s="6"/>
       <c r="D486" s="7"/>
@@ -17817,7 +17878,7 @@
       <c r="AB486" s="10"/>
     </row>
     <row r="487" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A487" s="48"/>
+      <c r="A487" s="47"/>
       <c r="B487" s="7"/>
       <c r="C487" s="6"/>
       <c r="D487" s="7"/>
@@ -17847,7 +17908,7 @@
       <c r="AB487" s="10"/>
     </row>
     <row r="488" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A488" s="48"/>
+      <c r="A488" s="47"/>
       <c r="B488" s="7"/>
       <c r="C488" s="6"/>
       <c r="D488" s="7"/>
@@ -17877,7 +17938,7 @@
       <c r="AB488" s="10"/>
     </row>
     <row r="489" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A489" s="48"/>
+      <c r="A489" s="47"/>
       <c r="B489" s="7"/>
       <c r="C489" s="6"/>
       <c r="D489" s="7"/>
@@ -17907,7 +17968,7 @@
       <c r="AB489" s="10"/>
     </row>
     <row r="490" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A490" s="48"/>
+      <c r="A490" s="47"/>
       <c r="B490" s="7"/>
       <c r="C490" s="6"/>
       <c r="D490" s="7"/>
@@ -17937,7 +17998,7 @@
       <c r="AB490" s="10"/>
     </row>
     <row r="491" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A491" s="48"/>
+      <c r="A491" s="47"/>
       <c r="B491" s="7"/>
       <c r="C491" s="6"/>
       <c r="D491" s="7"/>
@@ -17967,7 +18028,7 @@
       <c r="AB491" s="10"/>
     </row>
     <row r="492" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A492" s="48"/>
+      <c r="A492" s="47"/>
       <c r="B492" s="7"/>
       <c r="C492" s="6"/>
       <c r="D492" s="7"/>
@@ -17997,7 +18058,7 @@
       <c r="AB492" s="10"/>
     </row>
     <row r="493" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A493" s="48"/>
+      <c r="A493" s="47"/>
       <c r="B493" s="7"/>
       <c r="C493" s="6"/>
       <c r="D493" s="7"/>
@@ -18027,7 +18088,7 @@
       <c r="AB493" s="10"/>
     </row>
     <row r="494" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A494" s="48"/>
+      <c r="A494" s="47"/>
       <c r="B494" s="7"/>
       <c r="C494" s="6"/>
       <c r="D494" s="7"/>
@@ -18057,7 +18118,7 @@
       <c r="AB494" s="10"/>
     </row>
     <row r="495" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A495" s="48"/>
+      <c r="A495" s="47"/>
       <c r="B495" s="7"/>
       <c r="C495" s="6"/>
       <c r="D495" s="7"/>
@@ -18087,7 +18148,7 @@
       <c r="AB495" s="10"/>
     </row>
     <row r="496" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A496" s="48"/>
+      <c r="A496" s="47"/>
       <c r="B496" s="7"/>
       <c r="C496" s="6"/>
       <c r="D496" s="7"/>
@@ -18117,7 +18178,7 @@
       <c r="AB496" s="10"/>
     </row>
     <row r="497" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A497" s="48"/>
+      <c r="A497" s="47"/>
       <c r="B497" s="7"/>
       <c r="C497" s="6"/>
       <c r="D497" s="7"/>
@@ -18147,7 +18208,7 @@
       <c r="AB497" s="10"/>
     </row>
     <row r="498" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A498" s="48"/>
+      <c r="A498" s="47"/>
       <c r="B498" s="7"/>
       <c r="C498" s="6"/>
       <c r="D498" s="7"/>
@@ -18177,7 +18238,7 @@
       <c r="AB498" s="10"/>
     </row>
     <row r="499" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A499" s="48"/>
+      <c r="A499" s="47"/>
       <c r="B499" s="7"/>
       <c r="C499" s="6"/>
       <c r="D499" s="7"/>
@@ -18207,7 +18268,7 @@
       <c r="AB499" s="10"/>
     </row>
     <row r="500" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A500" s="48"/>
+      <c r="A500" s="47"/>
       <c r="B500" s="7"/>
       <c r="C500" s="6"/>
       <c r="D500" s="7"/>
@@ -18237,7 +18298,7 @@
       <c r="AB500" s="10"/>
     </row>
     <row r="501" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A501" s="48"/>
+      <c r="A501" s="47"/>
       <c r="B501" s="7"/>
       <c r="C501" s="6"/>
       <c r="D501" s="7"/>
@@ -18267,7 +18328,7 @@
       <c r="AB501" s="10"/>
     </row>
     <row r="502" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A502" s="48"/>
+      <c r="A502" s="47"/>
       <c r="B502" s="7"/>
       <c r="C502" s="6"/>
       <c r="D502" s="7"/>
@@ -18297,7 +18358,7 @@
       <c r="AB502" s="10"/>
     </row>
     <row r="503" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A503" s="48"/>
+      <c r="A503" s="47"/>
       <c r="B503" s="7"/>
       <c r="C503" s="6"/>
       <c r="D503" s="7"/>
@@ -18327,7 +18388,7 @@
       <c r="AB503" s="10"/>
     </row>
     <row r="504" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A504" s="48"/>
+      <c r="A504" s="47"/>
       <c r="B504" s="7"/>
       <c r="C504" s="6"/>
       <c r="D504" s="7"/>
@@ -18357,7 +18418,7 @@
       <c r="AB504" s="10"/>
     </row>
     <row r="505" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A505" s="48"/>
+      <c r="A505" s="47"/>
       <c r="B505" s="7"/>
       <c r="C505" s="6"/>
       <c r="D505" s="7"/>
@@ -18387,7 +18448,7 @@
       <c r="AB505" s="10"/>
     </row>
     <row r="506" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A506" s="48"/>
+      <c r="A506" s="47"/>
       <c r="B506" s="7"/>
       <c r="C506" s="6"/>
       <c r="D506" s="7"/>
@@ -18417,7 +18478,7 @@
       <c r="AB506" s="10"/>
     </row>
     <row r="507" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A507" s="48"/>
+      <c r="A507" s="47"/>
       <c r="B507" s="7"/>
       <c r="C507" s="6"/>
       <c r="D507" s="7"/>
@@ -18447,7 +18508,7 @@
       <c r="AB507" s="10"/>
     </row>
     <row r="508" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A508" s="48"/>
+      <c r="A508" s="47"/>
       <c r="B508" s="7"/>
       <c r="C508" s="6"/>
       <c r="D508" s="7"/>
@@ -18477,7 +18538,7 @@
       <c r="AB508" s="10"/>
     </row>
     <row r="509" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A509" s="48"/>
+      <c r="A509" s="47"/>
       <c r="B509" s="7"/>
       <c r="C509" s="6"/>
       <c r="D509" s="7"/>
@@ -18507,7 +18568,7 @@
       <c r="AB509" s="10"/>
     </row>
     <row r="510" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A510" s="48"/>
+      <c r="A510" s="47"/>
       <c r="B510" s="7"/>
       <c r="C510" s="6"/>
       <c r="D510" s="7"/>
@@ -18537,7 +18598,7 @@
       <c r="AB510" s="10"/>
     </row>
     <row r="511" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A511" s="48"/>
+      <c r="A511" s="47"/>
       <c r="B511" s="7"/>
       <c r="C511" s="6"/>
       <c r="D511" s="7"/>
@@ -18567,7 +18628,7 @@
       <c r="AB511" s="10"/>
     </row>
     <row r="512" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A512" s="48"/>
+      <c r="A512" s="47"/>
       <c r="B512" s="7"/>
       <c r="C512" s="6"/>
       <c r="D512" s="7"/>
@@ -18597,7 +18658,7 @@
       <c r="AB512" s="10"/>
     </row>
     <row r="513" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A513" s="48"/>
+      <c r="A513" s="47"/>
       <c r="B513" s="7"/>
       <c r="C513" s="6"/>
       <c r="D513" s="7"/>
@@ -18627,7 +18688,7 @@
       <c r="AB513" s="10"/>
     </row>
     <row r="514" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A514" s="48"/>
+      <c r="A514" s="47"/>
       <c r="B514" s="7"/>
       <c r="C514" s="6"/>
       <c r="D514" s="7"/>
@@ -18657,7 +18718,7 @@
       <c r="AB514" s="10"/>
     </row>
     <row r="515" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A515" s="48"/>
+      <c r="A515" s="47"/>
       <c r="B515" s="7"/>
       <c r="C515" s="6"/>
       <c r="D515" s="7"/>
@@ -18687,7 +18748,7 @@
       <c r="AB515" s="10"/>
     </row>
     <row r="516" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A516" s="48"/>
+      <c r="A516" s="47"/>
       <c r="B516" s="7"/>
       <c r="C516" s="6"/>
       <c r="D516" s="7"/>
@@ -18717,7 +18778,7 @@
       <c r="AB516" s="10"/>
     </row>
     <row r="517" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A517" s="48"/>
+      <c r="A517" s="47"/>
       <c r="B517" s="7"/>
       <c r="C517" s="6"/>
       <c r="D517" s="7"/>
@@ -18747,7 +18808,7 @@
       <c r="AB517" s="10"/>
     </row>
     <row r="518" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A518" s="48"/>
+      <c r="A518" s="47"/>
       <c r="B518" s="7"/>
       <c r="C518" s="6"/>
       <c r="D518" s="7"/>
@@ -18777,7 +18838,7 @@
       <c r="AB518" s="10"/>
     </row>
     <row r="519" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A519" s="48"/>
+      <c r="A519" s="47"/>
       <c r="B519" s="7"/>
       <c r="C519" s="6"/>
       <c r="D519" s="7"/>
@@ -18807,7 +18868,7 @@
       <c r="AB519" s="10"/>
     </row>
     <row r="520" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A520" s="48"/>
+      <c r="A520" s="47"/>
       <c r="B520" s="7"/>
       <c r="C520" s="6"/>
       <c r="D520" s="7"/>
@@ -18837,7 +18898,7 @@
       <c r="AB520" s="10"/>
     </row>
     <row r="521" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A521" s="48"/>
+      <c r="A521" s="47"/>
       <c r="B521" s="7"/>
       <c r="C521" s="6"/>
       <c r="D521" s="7"/>
@@ -18867,7 +18928,7 @@
       <c r="AB521" s="10"/>
     </row>
     <row r="522" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A522" s="48"/>
+      <c r="A522" s="47"/>
       <c r="B522" s="7"/>
       <c r="C522" s="6"/>
       <c r="D522" s="7"/>
@@ -18897,7 +18958,7 @@
       <c r="AB522" s="10"/>
     </row>
     <row r="523" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A523" s="48"/>
+      <c r="A523" s="47"/>
       <c r="B523" s="7"/>
       <c r="C523" s="6"/>
       <c r="D523" s="7"/>
@@ -18927,7 +18988,7 @@
       <c r="AB523" s="10"/>
     </row>
     <row r="524" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A524" s="48"/>
+      <c r="A524" s="47"/>
       <c r="B524" s="7"/>
       <c r="C524" s="6"/>
       <c r="D524" s="7"/>
@@ -18957,7 +19018,7 @@
       <c r="AB524" s="10"/>
     </row>
     <row r="525" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A525" s="48"/>
+      <c r="A525" s="47"/>
       <c r="B525" s="7"/>
       <c r="C525" s="6"/>
       <c r="D525" s="7"/>
@@ -18987,7 +19048,7 @@
       <c r="AB525" s="10"/>
     </row>
     <row r="526" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A526" s="48"/>
+      <c r="A526" s="47"/>
       <c r="B526" s="7"/>
       <c r="C526" s="6"/>
       <c r="D526" s="7"/>
@@ -19017,7 +19078,7 @@
       <c r="AB526" s="10"/>
     </row>
     <row r="527" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A527" s="48"/>
+      <c r="A527" s="47"/>
       <c r="B527" s="7"/>
       <c r="C527" s="6"/>
       <c r="D527" s="7"/>
@@ -19047,7 +19108,7 @@
       <c r="AB527" s="10"/>
     </row>
     <row r="528" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A528" s="48"/>
+      <c r="A528" s="47"/>
       <c r="B528" s="7"/>
       <c r="C528" s="6"/>
       <c r="D528" s="7"/>
@@ -19077,7 +19138,7 @@
       <c r="AB528" s="10"/>
     </row>
     <row r="529" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A529" s="48"/>
+      <c r="A529" s="47"/>
       <c r="B529" s="7"/>
       <c r="C529" s="6"/>
       <c r="D529" s="7"/>
@@ -19107,7 +19168,7 @@
       <c r="AB529" s="10"/>
     </row>
     <row r="530" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A530" s="48"/>
+      <c r="A530" s="47"/>
       <c r="B530" s="7"/>
       <c r="C530" s="6"/>
       <c r="D530" s="7"/>
@@ -19137,7 +19198,7 @@
       <c r="AB530" s="10"/>
     </row>
     <row r="531" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A531" s="48"/>
+      <c r="A531" s="47"/>
       <c r="B531" s="7"/>
       <c r="C531" s="6"/>
       <c r="D531" s="7"/>
@@ -19167,7 +19228,7 @@
       <c r="AB531" s="10"/>
     </row>
     <row r="532" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A532" s="48"/>
+      <c r="A532" s="47"/>
       <c r="B532" s="7"/>
       <c r="C532" s="6"/>
       <c r="D532" s="7"/>
@@ -19197,7 +19258,7 @@
       <c r="AB532" s="10"/>
     </row>
     <row r="533" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A533" s="48"/>
+      <c r="A533" s="47"/>
       <c r="B533" s="7"/>
       <c r="C533" s="6"/>
       <c r="D533" s="7"/>
@@ -19227,7 +19288,7 @@
       <c r="AB533" s="10"/>
     </row>
     <row r="534" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A534" s="48"/>
+      <c r="A534" s="47"/>
       <c r="B534" s="7"/>
       <c r="C534" s="6"/>
       <c r="D534" s="7"/>
@@ -19257,7 +19318,7 @@
       <c r="AB534" s="10"/>
     </row>
     <row r="535" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A535" s="48"/>
+      <c r="A535" s="47"/>
       <c r="B535" s="7"/>
       <c r="C535" s="6"/>
       <c r="D535" s="7"/>
@@ -19287,7 +19348,7 @@
       <c r="AB535" s="10"/>
     </row>
     <row r="536" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A536" s="48"/>
+      <c r="A536" s="47"/>
       <c r="B536" s="7"/>
       <c r="C536" s="6"/>
       <c r="D536" s="7"/>
@@ -19317,7 +19378,7 @@
       <c r="AB536" s="10"/>
     </row>
     <row r="537" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A537" s="48"/>
+      <c r="A537" s="47"/>
       <c r="B537" s="7"/>
       <c r="C537" s="6"/>
       <c r="D537" s="7"/>
@@ -19347,7 +19408,7 @@
       <c r="AB537" s="10"/>
     </row>
     <row r="538" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A538" s="48"/>
+      <c r="A538" s="47"/>
       <c r="B538" s="7"/>
       <c r="C538" s="6"/>
       <c r="D538" s="7"/>
@@ -19377,7 +19438,7 @@
       <c r="AB538" s="10"/>
     </row>
     <row r="539" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A539" s="48"/>
+      <c r="A539" s="47"/>
       <c r="B539" s="7"/>
       <c r="C539" s="6"/>
       <c r="D539" s="7"/>
@@ -19407,7 +19468,7 @@
       <c r="AB539" s="10"/>
     </row>
     <row r="540" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A540" s="48"/>
+      <c r="A540" s="47"/>
       <c r="B540" s="7"/>
       <c r="C540" s="6"/>
       <c r="D540" s="7"/>
@@ -19437,7 +19498,7 @@
       <c r="AB540" s="10"/>
     </row>
     <row r="541" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A541" s="48"/>
+      <c r="A541" s="47"/>
       <c r="B541" s="7"/>
       <c r="C541" s="6"/>
       <c r="D541" s="7"/>
@@ -19467,7 +19528,7 @@
       <c r="AB541" s="10"/>
     </row>
     <row r="542" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A542" s="48"/>
+      <c r="A542" s="47"/>
       <c r="B542" s="7"/>
       <c r="C542" s="6"/>
       <c r="D542" s="7"/>
@@ -19497,7 +19558,7 @@
       <c r="AB542" s="10"/>
     </row>
     <row r="543" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A543" s="48"/>
+      <c r="A543" s="47"/>
       <c r="B543" s="7"/>
       <c r="C543" s="6"/>
       <c r="D543" s="7"/>
@@ -19527,7 +19588,7 @@
       <c r="AB543" s="10"/>
     </row>
     <row r="544" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A544" s="48"/>
+      <c r="A544" s="47"/>
       <c r="B544" s="7"/>
       <c r="C544" s="6"/>
       <c r="D544" s="7"/>
@@ -19557,7 +19618,7 @@
       <c r="AB544" s="10"/>
     </row>
     <row r="545" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A545" s="48"/>
+      <c r="A545" s="47"/>
       <c r="B545" s="7"/>
       <c r="C545" s="6"/>
       <c r="D545" s="7"/>
@@ -19587,7 +19648,7 @@
       <c r="AB545" s="10"/>
     </row>
     <row r="546" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A546" s="48"/>
+      <c r="A546" s="47"/>
       <c r="B546" s="7"/>
       <c r="C546" s="6"/>
       <c r="D546" s="7"/>
@@ -19617,7 +19678,7 @@
       <c r="AB546" s="10"/>
     </row>
     <row r="547" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A547" s="48"/>
+      <c r="A547" s="47"/>
       <c r="B547" s="7"/>
       <c r="C547" s="6"/>
       <c r="D547" s="7"/>
@@ -19647,7 +19708,7 @@
       <c r="AB547" s="10"/>
     </row>
     <row r="548" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A548" s="48"/>
+      <c r="A548" s="47"/>
       <c r="B548" s="7"/>
       <c r="C548" s="6"/>
       <c r="D548" s="7"/>
@@ -19677,7 +19738,7 @@
       <c r="AB548" s="10"/>
     </row>
     <row r="549" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A549" s="48"/>
+      <c r="A549" s="47"/>
       <c r="B549" s="7"/>
       <c r="C549" s="6"/>
       <c r="D549" s="7"/>
@@ -19707,7 +19768,7 @@
       <c r="AB549" s="10"/>
     </row>
     <row r="550" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A550" s="48"/>
+      <c r="A550" s="47"/>
       <c r="B550" s="7"/>
       <c r="C550" s="6"/>
       <c r="D550" s="7"/>
@@ -19737,7 +19798,7 @@
       <c r="AB550" s="10"/>
     </row>
     <row r="551" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A551" s="48"/>
+      <c r="A551" s="47"/>
       <c r="B551" s="7"/>
       <c r="C551" s="6"/>
       <c r="D551" s="7"/>
@@ -19767,7 +19828,7 @@
       <c r="AB551" s="10"/>
     </row>
     <row r="552" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A552" s="48"/>
+      <c r="A552" s="47"/>
       <c r="B552" s="7"/>
       <c r="C552" s="6"/>
       <c r="D552" s="7"/>
@@ -19797,7 +19858,7 @@
       <c r="AB552" s="10"/>
     </row>
     <row r="553" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A553" s="48"/>
+      <c r="A553" s="47"/>
       <c r="B553" s="7"/>
       <c r="C553" s="6"/>
       <c r="D553" s="7"/>
@@ -19827,7 +19888,7 @@
       <c r="AB553" s="10"/>
     </row>
     <row r="554" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A554" s="48"/>
+      <c r="A554" s="47"/>
       <c r="B554" s="7"/>
       <c r="C554" s="6"/>
       <c r="D554" s="7"/>
@@ -19857,7 +19918,7 @@
       <c r="AB554" s="10"/>
     </row>
     <row r="555" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A555" s="48"/>
+      <c r="A555" s="47"/>
       <c r="B555" s="7"/>
       <c r="C555" s="6"/>
       <c r="D555" s="7"/>
@@ -19887,7 +19948,7 @@
       <c r="AB555" s="10"/>
     </row>
     <row r="556" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A556" s="48"/>
+      <c r="A556" s="47"/>
       <c r="B556" s="7"/>
       <c r="C556" s="6"/>
       <c r="D556" s="7"/>
@@ -19917,7 +19978,7 @@
       <c r="AB556" s="10"/>
     </row>
     <row r="557" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A557" s="48"/>
+      <c r="A557" s="47"/>
       <c r="B557" s="7"/>
       <c r="C557" s="6"/>
       <c r="D557" s="7"/>
@@ -19947,7 +20008,7 @@
       <c r="AB557" s="10"/>
     </row>
     <row r="558" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A558" s="48"/>
+      <c r="A558" s="47"/>
       <c r="B558" s="7"/>
       <c r="C558" s="6"/>
       <c r="D558" s="7"/>
@@ -19977,7 +20038,7 @@
       <c r="AB558" s="10"/>
     </row>
     <row r="559" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A559" s="48"/>
+      <c r="A559" s="47"/>
       <c r="B559" s="7"/>
       <c r="C559" s="6"/>
       <c r="D559" s="7"/>
@@ -20007,7 +20068,7 @@
       <c r="AB559" s="10"/>
     </row>
     <row r="560" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A560" s="48"/>
+      <c r="A560" s="47"/>
       <c r="B560" s="7"/>
       <c r="C560" s="6"/>
       <c r="D560" s="7"/>
@@ -20037,7 +20098,7 @@
       <c r="AB560" s="10"/>
     </row>
     <row r="561" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A561" s="48"/>
+      <c r="A561" s="47"/>
       <c r="B561" s="7"/>
       <c r="C561" s="6"/>
       <c r="D561" s="7"/>
@@ -20067,7 +20128,7 @@
       <c r="AB561" s="10"/>
     </row>
     <row r="562" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A562" s="48"/>
+      <c r="A562" s="47"/>
       <c r="B562" s="7"/>
       <c r="C562" s="6"/>
       <c r="D562" s="7"/>
@@ -20097,7 +20158,7 @@
       <c r="AB562" s="10"/>
     </row>
     <row r="563" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A563" s="48"/>
+      <c r="A563" s="47"/>
       <c r="B563" s="7"/>
       <c r="C563" s="6"/>
       <c r="D563" s="7"/>
@@ -20127,7 +20188,7 @@
       <c r="AB563" s="10"/>
     </row>
     <row r="564" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A564" s="48"/>
+      <c r="A564" s="47"/>
       <c r="B564" s="7"/>
       <c r="C564" s="6"/>
       <c r="D564" s="7"/>
@@ -20157,7 +20218,7 @@
       <c r="AB564" s="10"/>
     </row>
     <row r="565" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A565" s="48"/>
+      <c r="A565" s="47"/>
       <c r="B565" s="7"/>
       <c r="C565" s="6"/>
       <c r="D565" s="7"/>
@@ -20187,7 +20248,7 @@
       <c r="AB565" s="10"/>
     </row>
     <row r="566" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A566" s="48"/>
+      <c r="A566" s="47"/>
       <c r="B566" s="7"/>
       <c r="C566" s="6"/>
       <c r="D566" s="7"/>
@@ -20217,7 +20278,7 @@
       <c r="AB566" s="10"/>
     </row>
     <row r="567" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A567" s="48"/>
+      <c r="A567" s="47"/>
       <c r="B567" s="7"/>
       <c r="C567" s="6"/>
       <c r="D567" s="7"/>
@@ -20247,7 +20308,7 @@
       <c r="AB567" s="10"/>
     </row>
     <row r="568" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A568" s="48"/>
+      <c r="A568" s="47"/>
       <c r="B568" s="7"/>
       <c r="C568" s="6"/>
       <c r="D568" s="7"/>
@@ -20277,7 +20338,7 @@
       <c r="AB568" s="10"/>
     </row>
     <row r="569" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A569" s="48"/>
+      <c r="A569" s="47"/>
       <c r="B569" s="7"/>
       <c r="C569" s="6"/>
       <c r="D569" s="7"/>
@@ -20307,7 +20368,7 @@
       <c r="AB569" s="10"/>
     </row>
     <row r="570" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A570" s="48"/>
+      <c r="A570" s="47"/>
       <c r="B570" s="7"/>
       <c r="C570" s="6"/>
       <c r="D570" s="7"/>
@@ -20337,7 +20398,7 @@
       <c r="AB570" s="10"/>
     </row>
     <row r="571" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A571" s="48"/>
+      <c r="A571" s="47"/>
       <c r="B571" s="7"/>
       <c r="C571" s="6"/>
       <c r="D571" s="7"/>
@@ -20367,7 +20428,7 @@
       <c r="AB571" s="10"/>
     </row>
     <row r="572" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A572" s="48"/>
+      <c r="A572" s="47"/>
       <c r="B572" s="7"/>
       <c r="C572" s="6"/>
       <c r="D572" s="7"/>
@@ -20397,7 +20458,7 @@
       <c r="AB572" s="10"/>
     </row>
     <row r="573" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A573" s="48"/>
+      <c r="A573" s="47"/>
       <c r="B573" s="7"/>
       <c r="C573" s="6"/>
       <c r="D573" s="7"/>
@@ -20427,7 +20488,7 @@
       <c r="AB573" s="10"/>
     </row>
     <row r="574" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A574" s="48"/>
+      <c r="A574" s="47"/>
       <c r="B574" s="7"/>
       <c r="C574" s="6"/>
       <c r="D574" s="7"/>
@@ -20457,7 +20518,7 @@
       <c r="AB574" s="10"/>
     </row>
     <row r="575" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A575" s="48"/>
+      <c r="A575" s="47"/>
       <c r="B575" s="7"/>
       <c r="C575" s="6"/>
       <c r="D575" s="7"/>
@@ -20487,7 +20548,7 @@
       <c r="AB575" s="10"/>
     </row>
     <row r="576" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A576" s="48"/>
+      <c r="A576" s="47"/>
       <c r="B576" s="7"/>
       <c r="C576" s="6"/>
       <c r="D576" s="7"/>
@@ -20517,7 +20578,7 @@
       <c r="AB576" s="10"/>
     </row>
     <row r="577" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A577" s="48"/>
+      <c r="A577" s="47"/>
       <c r="B577" s="7"/>
       <c r="C577" s="6"/>
       <c r="D577" s="7"/>
@@ -20547,7 +20608,7 @@
       <c r="AB577" s="10"/>
     </row>
     <row r="578" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A578" s="48"/>
+      <c r="A578" s="47"/>
       <c r="B578" s="7"/>
       <c r="C578" s="6"/>
       <c r="D578" s="7"/>
@@ -20577,7 +20638,7 @@
       <c r="AB578" s="10"/>
     </row>
     <row r="579" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A579" s="48"/>
+      <c r="A579" s="47"/>
       <c r="B579" s="7"/>
       <c r="C579" s="6"/>
       <c r="D579" s="7"/>
@@ -20607,7 +20668,7 @@
       <c r="AB579" s="10"/>
     </row>
     <row r="580" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A580" s="48"/>
+      <c r="A580" s="47"/>
       <c r="B580" s="7"/>
       <c r="C580" s="6"/>
       <c r="D580" s="7"/>
@@ -20637,7 +20698,7 @@
       <c r="AB580" s="10"/>
     </row>
     <row r="581" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A581" s="48"/>
+      <c r="A581" s="47"/>
       <c r="B581" s="7"/>
       <c r="C581" s="6"/>
       <c r="D581" s="7"/>
@@ -20667,7 +20728,7 @@
       <c r="AB581" s="10"/>
     </row>
     <row r="582" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A582" s="48"/>
+      <c r="A582" s="47"/>
       <c r="B582" s="7"/>
       <c r="C582" s="6"/>
       <c r="D582" s="7"/>
@@ -20697,7 +20758,7 @@
       <c r="AB582" s="10"/>
     </row>
     <row r="583" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A583" s="48"/>
+      <c r="A583" s="47"/>
       <c r="B583" s="7"/>
       <c r="C583" s="6"/>
       <c r="D583" s="7"/>
@@ -20727,7 +20788,7 @@
       <c r="AB583" s="10"/>
     </row>
     <row r="584" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A584" s="48"/>
+      <c r="A584" s="47"/>
       <c r="B584" s="7"/>
       <c r="C584" s="6"/>
       <c r="D584" s="7"/>
@@ -20757,7 +20818,7 @@
       <c r="AB584" s="10"/>
     </row>
     <row r="585" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A585" s="48"/>
+      <c r="A585" s="47"/>
       <c r="B585" s="7"/>
       <c r="C585" s="6"/>
       <c r="D585" s="7"/>
@@ -20787,7 +20848,7 @@
       <c r="AB585" s="10"/>
     </row>
     <row r="586" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A586" s="48"/>
+      <c r="A586" s="47"/>
       <c r="B586" s="7"/>
       <c r="C586" s="6"/>
       <c r="D586" s="7"/>
@@ -20817,7 +20878,7 @@
       <c r="AB586" s="10"/>
     </row>
     <row r="587" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A587" s="48"/>
+      <c r="A587" s="47"/>
       <c r="B587" s="7"/>
       <c r="C587" s="6"/>
       <c r="D587" s="7"/>
@@ -20847,7 +20908,7 @@
       <c r="AB587" s="10"/>
     </row>
     <row r="588" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A588" s="48"/>
+      <c r="A588" s="47"/>
       <c r="B588" s="7"/>
       <c r="C588" s="6"/>
       <c r="D588" s="7"/>
@@ -20877,7 +20938,7 @@
       <c r="AB588" s="10"/>
     </row>
     <row r="589" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A589" s="48"/>
+      <c r="A589" s="47"/>
       <c r="B589" s="7"/>
       <c r="C589" s="6"/>
       <c r="D589" s="7"/>
@@ -20907,7 +20968,7 @@
       <c r="AB589" s="10"/>
     </row>
     <row r="590" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A590" s="48"/>
+      <c r="A590" s="47"/>
       <c r="B590" s="7"/>
       <c r="C590" s="6"/>
       <c r="D590" s="7"/>
@@ -20937,7 +20998,7 @@
       <c r="AB590" s="10"/>
     </row>
     <row r="591" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A591" s="48"/>
+      <c r="A591" s="47"/>
       <c r="B591" s="7"/>
       <c r="C591" s="6"/>
       <c r="D591" s="7"/>
@@ -20967,7 +21028,7 @@
       <c r="AB591" s="10"/>
     </row>
     <row r="592" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A592" s="48"/>
+      <c r="A592" s="47"/>
       <c r="B592" s="7"/>
       <c r="C592" s="6"/>
       <c r="D592" s="7"/>
@@ -20997,7 +21058,7 @@
       <c r="AB592" s="10"/>
     </row>
     <row r="593" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A593" s="48"/>
+      <c r="A593" s="47"/>
       <c r="B593" s="7"/>
       <c r="C593" s="6"/>
       <c r="D593" s="7"/>
@@ -21027,7 +21088,7 @@
       <c r="AB593" s="10"/>
     </row>
     <row r="594" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A594" s="48"/>
+      <c r="A594" s="47"/>
       <c r="B594" s="7"/>
       <c r="C594" s="6"/>
       <c r="D594" s="7"/>
@@ -21057,7 +21118,7 @@
       <c r="AB594" s="10"/>
     </row>
     <row r="595" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A595" s="48"/>
+      <c r="A595" s="47"/>
       <c r="B595" s="7"/>
       <c r="C595" s="6"/>
       <c r="D595" s="7"/>
@@ -21087,7 +21148,7 @@
       <c r="AB595" s="10"/>
     </row>
     <row r="596" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A596" s="48"/>
+      <c r="A596" s="47"/>
       <c r="B596" s="7"/>
       <c r="C596" s="6"/>
       <c r="D596" s="7"/>
@@ -21117,7 +21178,7 @@
       <c r="AB596" s="10"/>
     </row>
     <row r="597" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A597" s="48"/>
+      <c r="A597" s="47"/>
       <c r="B597" s="7"/>
       <c r="C597" s="6"/>
       <c r="D597" s="7"/>
@@ -21147,7 +21208,7 @@
       <c r="AB597" s="10"/>
     </row>
     <row r="598" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A598" s="48"/>
+      <c r="A598" s="47"/>
       <c r="B598" s="7"/>
       <c r="C598" s="6"/>
       <c r="D598" s="7"/>
@@ -21177,7 +21238,7 @@
       <c r="AB598" s="10"/>
     </row>
     <row r="599" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A599" s="48"/>
+      <c r="A599" s="47"/>
       <c r="B599" s="7"/>
       <c r="C599" s="6"/>
       <c r="D599" s="7"/>
@@ -21207,7 +21268,7 @@
       <c r="AB599" s="10"/>
     </row>
     <row r="600" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A600" s="48"/>
+      <c r="A600" s="47"/>
       <c r="B600" s="7"/>
       <c r="C600" s="6"/>
       <c r="D600" s="7"/>
@@ -21237,7 +21298,7 @@
       <c r="AB600" s="10"/>
     </row>
     <row r="601" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A601" s="48"/>
+      <c r="A601" s="47"/>
       <c r="B601" s="7"/>
       <c r="C601" s="6"/>
       <c r="D601" s="7"/>
@@ -21267,7 +21328,7 @@
       <c r="AB601" s="10"/>
     </row>
     <row r="602" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A602" s="48"/>
+      <c r="A602" s="47"/>
       <c r="B602" s="7"/>
       <c r="C602" s="6"/>
       <c r="D602" s="7"/>
@@ -21297,7 +21358,7 @@
       <c r="AB602" s="10"/>
     </row>
     <row r="603" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A603" s="48"/>
+      <c r="A603" s="47"/>
       <c r="B603" s="7"/>
       <c r="C603" s="6"/>
       <c r="D603" s="7"/>
@@ -21327,7 +21388,7 @@
       <c r="AB603" s="10"/>
     </row>
     <row r="604" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A604" s="48"/>
+      <c r="A604" s="47"/>
       <c r="B604" s="7"/>
       <c r="C604" s="6"/>
       <c r="D604" s="7"/>
@@ -21357,7 +21418,7 @@
       <c r="AB604" s="10"/>
     </row>
     <row r="605" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A605" s="48"/>
+      <c r="A605" s="47"/>
       <c r="B605" s="7"/>
       <c r="C605" s="6"/>
       <c r="D605" s="7"/>
@@ -21387,7 +21448,7 @@
       <c r="AB605" s="10"/>
     </row>
     <row r="606" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A606" s="48"/>
+      <c r="A606" s="47"/>
       <c r="B606" s="7"/>
       <c r="C606" s="6"/>
       <c r="D606" s="7"/>
@@ -21417,7 +21478,7 @@
       <c r="AB606" s="10"/>
     </row>
     <row r="607" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A607" s="48"/>
+      <c r="A607" s="47"/>
       <c r="B607" s="7"/>
       <c r="C607" s="6"/>
       <c r="D607" s="7"/>
@@ -21447,7 +21508,7 @@
       <c r="AB607" s="10"/>
     </row>
     <row r="608" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A608" s="48"/>
+      <c r="A608" s="47"/>
       <c r="B608" s="7"/>
       <c r="C608" s="6"/>
       <c r="D608" s="7"/>
@@ -21477,7 +21538,7 @@
       <c r="AB608" s="10"/>
     </row>
     <row r="609" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A609" s="48"/>
+      <c r="A609" s="47"/>
       <c r="B609" s="7"/>
       <c r="C609" s="6"/>
       <c r="D609" s="7"/>
@@ -21507,7 +21568,7 @@
       <c r="AB609" s="10"/>
     </row>
     <row r="610" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A610" s="48"/>
+      <c r="A610" s="47"/>
       <c r="B610" s="7"/>
       <c r="C610" s="6"/>
       <c r="D610" s="7"/>
@@ -21537,7 +21598,7 @@
       <c r="AB610" s="10"/>
     </row>
     <row r="611" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A611" s="48"/>
+      <c r="A611" s="47"/>
       <c r="B611" s="7"/>
       <c r="C611" s="6"/>
       <c r="D611" s="7"/>
@@ -21567,7 +21628,7 @@
       <c r="AB611" s="10"/>
     </row>
     <row r="612" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A612" s="48"/>
+      <c r="A612" s="47"/>
       <c r="B612" s="7"/>
       <c r="C612" s="6"/>
       <c r="D612" s="7"/>
@@ -21597,7 +21658,7 @@
       <c r="AB612" s="10"/>
     </row>
     <row r="613" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A613" s="48"/>
+      <c r="A613" s="47"/>
       <c r="B613" s="7"/>
       <c r="C613" s="6"/>
       <c r="D613" s="7"/>
@@ -21627,7 +21688,7 @@
       <c r="AB613" s="10"/>
     </row>
     <row r="614" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A614" s="48"/>
+      <c r="A614" s="47"/>
       <c r="B614" s="7"/>
       <c r="C614" s="6"/>
       <c r="D614" s="7"/>
@@ -21657,7 +21718,7 @@
       <c r="AB614" s="10"/>
     </row>
     <row r="615" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A615" s="48"/>
+      <c r="A615" s="47"/>
       <c r="B615" s="7"/>
       <c r="C615" s="6"/>
       <c r="D615" s="7"/>
@@ -21687,7 +21748,7 @@
       <c r="AB615" s="10"/>
     </row>
     <row r="616" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A616" s="48"/>
+      <c r="A616" s="47"/>
       <c r="B616" s="7"/>
       <c r="C616" s="6"/>
       <c r="D616" s="7"/>
@@ -21717,7 +21778,7 @@
       <c r="AB616" s="10"/>
     </row>
     <row r="617" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A617" s="48"/>
+      <c r="A617" s="47"/>
       <c r="B617" s="7"/>
       <c r="C617" s="6"/>
       <c r="D617" s="7"/>
@@ -21747,7 +21808,7 @@
       <c r="AB617" s="10"/>
     </row>
     <row r="618" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A618" s="48"/>
+      <c r="A618" s="47"/>
       <c r="B618" s="7"/>
       <c r="C618" s="6"/>
       <c r="D618" s="7"/>
@@ -21777,7 +21838,7 @@
       <c r="AB618" s="10"/>
     </row>
     <row r="619" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A619" s="48"/>
+      <c r="A619" s="47"/>
       <c r="B619" s="7"/>
       <c r="C619" s="6"/>
       <c r="D619" s="7"/>
@@ -21807,7 +21868,7 @@
       <c r="AB619" s="10"/>
     </row>
     <row r="620" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A620" s="48"/>
+      <c r="A620" s="47"/>
       <c r="B620" s="7"/>
       <c r="C620" s="6"/>
       <c r="D620" s="7"/>
@@ -21837,7 +21898,7 @@
       <c r="AB620" s="10"/>
     </row>
     <row r="621" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A621" s="48"/>
+      <c r="A621" s="47"/>
       <c r="B621" s="7"/>
       <c r="C621" s="6"/>
       <c r="D621" s="7"/>
@@ -21867,7 +21928,7 @@
       <c r="AB621" s="10"/>
     </row>
     <row r="622" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A622" s="48"/>
+      <c r="A622" s="47"/>
       <c r="B622" s="7"/>
       <c r="C622" s="6"/>
       <c r="D622" s="7"/>
@@ -21897,7 +21958,7 @@
       <c r="AB622" s="10"/>
     </row>
     <row r="623" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A623" s="48"/>
+      <c r="A623" s="47"/>
       <c r="B623" s="7"/>
       <c r="C623" s="6"/>
       <c r="D623" s="7"/>
@@ -21927,7 +21988,7 @@
       <c r="AB623" s="10"/>
     </row>
     <row r="624" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A624" s="48"/>
+      <c r="A624" s="47"/>
       <c r="B624" s="7"/>
       <c r="C624" s="6"/>
       <c r="D624" s="7"/>
@@ -21957,7 +22018,7 @@
       <c r="AB624" s="10"/>
     </row>
     <row r="625" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A625" s="48"/>
+      <c r="A625" s="47"/>
       <c r="B625" s="7"/>
       <c r="C625" s="6"/>
       <c r="D625" s="7"/>
@@ -21987,7 +22048,7 @@
       <c r="AB625" s="10"/>
     </row>
     <row r="626" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A626" s="48"/>
+      <c r="A626" s="47"/>
       <c r="B626" s="7"/>
       <c r="C626" s="6"/>
       <c r="D626" s="7"/>
@@ -22017,7 +22078,7 @@
       <c r="AB626" s="10"/>
     </row>
     <row r="627" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A627" s="48"/>
+      <c r="A627" s="47"/>
       <c r="B627" s="7"/>
       <c r="C627" s="6"/>
       <c r="D627" s="7"/>
@@ -22047,7 +22108,7 @@
       <c r="AB627" s="10"/>
     </row>
     <row r="628" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A628" s="48"/>
+      <c r="A628" s="47"/>
       <c r="B628" s="7"/>
       <c r="C628" s="6"/>
       <c r="D628" s="7"/>
@@ -22077,7 +22138,7 @@
       <c r="AB628" s="10"/>
     </row>
     <row r="629" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A629" s="48"/>
+      <c r="A629" s="47"/>
       <c r="B629" s="7"/>
       <c r="C629" s="6"/>
       <c r="D629" s="7"/>
@@ -22107,7 +22168,7 @@
       <c r="AB629" s="10"/>
     </row>
     <row r="630" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A630" s="48"/>
+      <c r="A630" s="47"/>
       <c r="B630" s="7"/>
       <c r="C630" s="6"/>
       <c r="D630" s="7"/>
@@ -22137,7 +22198,7 @@
       <c r="AB630" s="10"/>
     </row>
     <row r="631" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A631" s="48"/>
+      <c r="A631" s="47"/>
       <c r="B631" s="7"/>
       <c r="C631" s="6"/>
       <c r="D631" s="7"/>
@@ -22167,7 +22228,7 @@
       <c r="AB631" s="10"/>
     </row>
     <row r="632" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A632" s="48"/>
+      <c r="A632" s="47"/>
       <c r="B632" s="7"/>
       <c r="C632" s="6"/>
       <c r="D632" s="7"/>
@@ -22197,7 +22258,7 @@
       <c r="AB632" s="10"/>
     </row>
     <row r="633" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A633" s="48"/>
+      <c r="A633" s="47"/>
       <c r="B633" s="7"/>
       <c r="C633" s="6"/>
       <c r="D633" s="7"/>
@@ -22227,7 +22288,7 @@
       <c r="AB633" s="10"/>
     </row>
     <row r="634" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A634" s="48"/>
+      <c r="A634" s="47"/>
       <c r="B634" s="7"/>
       <c r="C634" s="6"/>
       <c r="D634" s="7"/>
@@ -22257,7 +22318,7 @@
       <c r="AB634" s="10"/>
     </row>
     <row r="635" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A635" s="48"/>
+      <c r="A635" s="47"/>
       <c r="B635" s="7"/>
       <c r="C635" s="6"/>
       <c r="D635" s="7"/>
@@ -22287,7 +22348,7 @@
       <c r="AB635" s="10"/>
     </row>
     <row r="636" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A636" s="48"/>
+      <c r="A636" s="47"/>
       <c r="B636" s="7"/>
       <c r="C636" s="6"/>
       <c r="D636" s="7"/>
@@ -22317,7 +22378,7 @@
       <c r="AB636" s="10"/>
     </row>
     <row r="637" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A637" s="48"/>
+      <c r="A637" s="47"/>
       <c r="B637" s="7"/>
       <c r="C637" s="6"/>
       <c r="D637" s="7"/>
@@ -22347,7 +22408,7 @@
       <c r="AB637" s="10"/>
     </row>
     <row r="638" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A638" s="48"/>
+      <c r="A638" s="47"/>
       <c r="B638" s="7"/>
       <c r="C638" s="6"/>
       <c r="D638" s="7"/>
@@ -22377,7 +22438,7 @@
       <c r="AB638" s="10"/>
     </row>
     <row r="639" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A639" s="48"/>
+      <c r="A639" s="47"/>
       <c r="B639" s="7"/>
       <c r="C639" s="6"/>
       <c r="D639" s="7"/>
@@ -22407,7 +22468,7 @@
       <c r="AB639" s="10"/>
     </row>
     <row r="640" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A640" s="48"/>
+      <c r="A640" s="47"/>
       <c r="B640" s="7"/>
       <c r="C640" s="6"/>
       <c r="D640" s="7"/>
@@ -22437,7 +22498,7 @@
       <c r="AB640" s="10"/>
     </row>
     <row r="641" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A641" s="48"/>
+      <c r="A641" s="47"/>
       <c r="B641" s="7"/>
       <c r="C641" s="6"/>
       <c r="D641" s="7"/>
@@ -22467,7 +22528,7 @@
       <c r="AB641" s="10"/>
     </row>
     <row r="642" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A642" s="48"/>
+      <c r="A642" s="47"/>
       <c r="B642" s="7"/>
       <c r="C642" s="6"/>
       <c r="D642" s="7"/>
@@ -22497,7 +22558,7 @@
       <c r="AB642" s="10"/>
     </row>
     <row r="643" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A643" s="48"/>
+      <c r="A643" s="47"/>
       <c r="B643" s="7"/>
       <c r="C643" s="6"/>
       <c r="D643" s="7"/>
@@ -22527,7 +22588,7 @@
       <c r="AB643" s="10"/>
     </row>
     <row r="644" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A644" s="48"/>
+      <c r="A644" s="47"/>
       <c r="B644" s="7"/>
       <c r="C644" s="6"/>
       <c r="D644" s="7"/>
@@ -22557,7 +22618,7 @@
       <c r="AB644" s="10"/>
     </row>
     <row r="645" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A645" s="48"/>
+      <c r="A645" s="47"/>
       <c r="B645" s="7"/>
       <c r="C645" s="6"/>
       <c r="D645" s="7"/>
@@ -22587,7 +22648,7 @@
       <c r="AB645" s="10"/>
     </row>
     <row r="646" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A646" s="48"/>
+      <c r="A646" s="47"/>
       <c r="B646" s="7"/>
       <c r="C646" s="6"/>
       <c r="D646" s="7"/>
@@ -22617,7 +22678,7 @@
       <c r="AB646" s="10"/>
     </row>
     <row r="647" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A647" s="48"/>
+      <c r="A647" s="47"/>
       <c r="B647" s="7"/>
       <c r="C647" s="6"/>
       <c r="D647" s="7"/>
@@ -22647,7 +22708,7 @@
       <c r="AB647" s="10"/>
     </row>
     <row r="648" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A648" s="48"/>
+      <c r="A648" s="47"/>
       <c r="B648" s="7"/>
       <c r="C648" s="6"/>
       <c r="D648" s="7"/>
@@ -22677,7 +22738,7 @@
       <c r="AB648" s="10"/>
     </row>
     <row r="649" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A649" s="48"/>
+      <c r="A649" s="47"/>
       <c r="B649" s="7"/>
       <c r="C649" s="6"/>
       <c r="D649" s="7"/>
@@ -22707,7 +22768,7 @@
       <c r="AB649" s="10"/>
     </row>
     <row r="650" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A650" s="48"/>
+      <c r="A650" s="47"/>
       <c r="B650" s="7"/>
       <c r="C650" s="6"/>
       <c r="D650" s="7"/>
@@ -22737,7 +22798,7 @@
       <c r="AB650" s="10"/>
     </row>
     <row r="651" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A651" s="48"/>
+      <c r="A651" s="47"/>
       <c r="B651" s="7"/>
       <c r="C651" s="6"/>
       <c r="D651" s="7"/>
@@ -22767,7 +22828,7 @@
       <c r="AB651" s="10"/>
     </row>
     <row r="652" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A652" s="48"/>
+      <c r="A652" s="47"/>
       <c r="B652" s="7"/>
       <c r="C652" s="6"/>
       <c r="D652" s="7"/>
@@ -22797,7 +22858,7 @@
       <c r="AB652" s="10"/>
     </row>
     <row r="653" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A653" s="48"/>
+      <c r="A653" s="47"/>
       <c r="B653" s="7"/>
       <c r="C653" s="6"/>
       <c r="D653" s="7"/>
@@ -22827,7 +22888,7 @@
       <c r="AB653" s="10"/>
     </row>
     <row r="654" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A654" s="48"/>
+      <c r="A654" s="47"/>
       <c r="B654" s="7"/>
       <c r="C654" s="6"/>
       <c r="D654" s="7"/>
@@ -22857,7 +22918,7 @@
       <c r="AB654" s="10"/>
     </row>
     <row r="655" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A655" s="48"/>
+      <c r="A655" s="47"/>
       <c r="B655" s="7"/>
       <c r="C655" s="6"/>
       <c r="D655" s="7"/>
@@ -22887,7 +22948,7 @@
       <c r="AB655" s="10"/>
     </row>
     <row r="656" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A656" s="48"/>
+      <c r="A656" s="47"/>
       <c r="B656" s="7"/>
       <c r="C656" s="6"/>
       <c r="D656" s="7"/>
@@ -22917,7 +22978,7 @@
       <c r="AB656" s="10"/>
     </row>
     <row r="657" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A657" s="48"/>
+      <c r="A657" s="47"/>
       <c r="B657" s="7"/>
       <c r="C657" s="6"/>
       <c r="D657" s="7"/>
@@ -22947,7 +23008,7 @@
       <c r="AB657" s="10"/>
     </row>
     <row r="658" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A658" s="48"/>
+      <c r="A658" s="47"/>
       <c r="B658" s="7"/>
       <c r="C658" s="6"/>
       <c r="D658" s="7"/>
@@ -22977,7 +23038,7 @@
       <c r="AB658" s="10"/>
     </row>
     <row r="659" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A659" s="48"/>
+      <c r="A659" s="47"/>
       <c r="B659" s="7"/>
       <c r="C659" s="6"/>
       <c r="D659" s="7"/>
@@ -23007,7 +23068,7 @@
       <c r="AB659" s="10"/>
     </row>
     <row r="660" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A660" s="48"/>
+      <c r="A660" s="47"/>
       <c r="B660" s="7"/>
       <c r="C660" s="6"/>
       <c r="D660" s="7"/>
@@ -23037,7 +23098,7 @@
       <c r="AB660" s="10"/>
     </row>
     <row r="661" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A661" s="48"/>
+      <c r="A661" s="47"/>
       <c r="B661" s="7"/>
       <c r="C661" s="6"/>
       <c r="D661" s="7"/>
@@ -23067,7 +23128,7 @@
       <c r="AB661" s="10"/>
     </row>
     <row r="662" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A662" s="48"/>
+      <c r="A662" s="47"/>
       <c r="B662" s="7"/>
       <c r="C662" s="6"/>
       <c r="D662" s="7"/>
@@ -23097,7 +23158,7 @@
       <c r="AB662" s="10"/>
     </row>
     <row r="663" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A663" s="48"/>
+      <c r="A663" s="47"/>
       <c r="B663" s="7"/>
       <c r="C663" s="6"/>
       <c r="D663" s="7"/>
@@ -23127,7 +23188,7 @@
       <c r="AB663" s="10"/>
     </row>
     <row r="664" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A664" s="48"/>
+      <c r="A664" s="47"/>
       <c r="B664" s="7"/>
       <c r="C664" s="6"/>
       <c r="D664" s="7"/>
@@ -23157,7 +23218,7 @@
       <c r="AB664" s="10"/>
     </row>
     <row r="665" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A665" s="48"/>
+      <c r="A665" s="47"/>
       <c r="B665" s="7"/>
       <c r="C665" s="6"/>
       <c r="D665" s="7"/>
@@ -23187,7 +23248,7 @@
       <c r="AB665" s="10"/>
     </row>
     <row r="666" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A666" s="48"/>
+      <c r="A666" s="47"/>
       <c r="B666" s="7"/>
       <c r="C666" s="6"/>
       <c r="D666" s="7"/>
@@ -23217,7 +23278,7 @@
       <c r="AB666" s="10"/>
     </row>
     <row r="667" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A667" s="48"/>
+      <c r="A667" s="47"/>
       <c r="B667" s="7"/>
       <c r="C667" s="6"/>
       <c r="D667" s="7"/>
@@ -23247,7 +23308,7 @@
       <c r="AB667" s="10"/>
     </row>
     <row r="668" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A668" s="48"/>
+      <c r="A668" s="47"/>
       <c r="B668" s="7"/>
       <c r="C668" s="6"/>
       <c r="D668" s="7"/>
@@ -23277,7 +23338,7 @@
       <c r="AB668" s="10"/>
     </row>
     <row r="669" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A669" s="48"/>
+      <c r="A669" s="47"/>
       <c r="B669" s="7"/>
       <c r="C669" s="6"/>
       <c r="D669" s="7"/>
@@ -23307,7 +23368,7 @@
       <c r="AB669" s="10"/>
     </row>
     <row r="670" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A670" s="48"/>
+      <c r="A670" s="47"/>
       <c r="B670" s="7"/>
       <c r="C670" s="6"/>
       <c r="D670" s="7"/>
@@ -23337,7 +23398,7 @@
       <c r="AB670" s="10"/>
     </row>
     <row r="671" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A671" s="48"/>
+      <c r="A671" s="47"/>
       <c r="B671" s="7"/>
       <c r="C671" s="6"/>
       <c r="D671" s="7"/>
@@ -23367,7 +23428,7 @@
       <c r="AB671" s="10"/>
     </row>
     <row r="672" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A672" s="48"/>
+      <c r="A672" s="47"/>
       <c r="B672" s="7"/>
       <c r="C672" s="6"/>
       <c r="D672" s="7"/>
@@ -23397,7 +23458,7 @@
       <c r="AB672" s="10"/>
     </row>
     <row r="673" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A673" s="48"/>
+      <c r="A673" s="47"/>
       <c r="B673" s="7"/>
       <c r="C673" s="6"/>
       <c r="D673" s="7"/>
@@ -23427,7 +23488,7 @@
       <c r="AB673" s="10"/>
     </row>
     <row r="674" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A674" s="48"/>
+      <c r="A674" s="47"/>
       <c r="B674" s="7"/>
       <c r="C674" s="6"/>
       <c r="D674" s="7"/>
@@ -23457,7 +23518,7 @@
       <c r="AB674" s="10"/>
     </row>
     <row r="675" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A675" s="48"/>
+      <c r="A675" s="47"/>
       <c r="B675" s="7"/>
       <c r="C675" s="6"/>
       <c r="D675" s="7"/>
@@ -23487,7 +23548,7 @@
       <c r="AB675" s="10"/>
     </row>
     <row r="676" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A676" s="48"/>
+      <c r="A676" s="47"/>
       <c r="B676" s="7"/>
       <c r="C676" s="6"/>
       <c r="D676" s="7"/>
@@ -23517,7 +23578,7 @@
       <c r="AB676" s="10"/>
     </row>
     <row r="677" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A677" s="48"/>
+      <c r="A677" s="47"/>
       <c r="B677" s="7"/>
       <c r="C677" s="6"/>
       <c r="D677" s="7"/>
@@ -23547,7 +23608,7 @@
       <c r="AB677" s="10"/>
     </row>
     <row r="678" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A678" s="48"/>
+      <c r="A678" s="47"/>
       <c r="B678" s="7"/>
       <c r="C678" s="6"/>
       <c r="D678" s="7"/>
@@ -23577,7 +23638,7 @@
       <c r="AB678" s="10"/>
     </row>
     <row r="679" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A679" s="48"/>
+      <c r="A679" s="47"/>
       <c r="B679" s="7"/>
       <c r="C679" s="6"/>
       <c r="D679" s="7"/>
@@ -23607,7 +23668,7 @@
       <c r="AB679" s="10"/>
     </row>
     <row r="680" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A680" s="48"/>
+      <c r="A680" s="47"/>
       <c r="B680" s="7"/>
       <c r="C680" s="6"/>
       <c r="D680" s="7"/>
@@ -23637,7 +23698,7 @@
       <c r="AB680" s="10"/>
     </row>
     <row r="681" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A681" s="48"/>
+      <c r="A681" s="47"/>
       <c r="B681" s="7"/>
       <c r="C681" s="6"/>
       <c r="D681" s="7"/>
@@ -23667,7 +23728,7 @@
       <c r="AB681" s="10"/>
     </row>
     <row r="682" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A682" s="48"/>
+      <c r="A682" s="47"/>
       <c r="B682" s="7"/>
       <c r="C682" s="6"/>
       <c r="D682" s="7"/>
@@ -23697,7 +23758,7 @@
       <c r="AB682" s="10"/>
     </row>
     <row r="683" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A683" s="48"/>
+      <c r="A683" s="47"/>
       <c r="B683" s="7"/>
       <c r="C683" s="6"/>
       <c r="D683" s="7"/>
@@ -23727,7 +23788,7 @@
       <c r="AB683" s="10"/>
     </row>
     <row r="684" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A684" s="48"/>
+      <c r="A684" s="47"/>
       <c r="B684" s="7"/>
       <c r="C684" s="6"/>
       <c r="D684" s="7"/>
@@ -23757,7 +23818,7 @@
       <c r="AB684" s="10"/>
     </row>
     <row r="685" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A685" s="48"/>
+      <c r="A685" s="47"/>
       <c r="B685" s="7"/>
       <c r="C685" s="6"/>
       <c r="D685" s="7"/>
@@ -23787,7 +23848,7 @@
       <c r="AB685" s="10"/>
     </row>
     <row r="686" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A686" s="48"/>
+      <c r="A686" s="47"/>
       <c r="B686" s="7"/>
       <c r="C686" s="6"/>
       <c r="D686" s="7"/>
@@ -23817,7 +23878,7 @@
       <c r="AB686" s="10"/>
     </row>
     <row r="687" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A687" s="48"/>
+      <c r="A687" s="47"/>
       <c r="B687" s="7"/>
       <c r="C687" s="6"/>
       <c r="D687" s="7"/>
@@ -23847,7 +23908,7 @@
       <c r="AB687" s="10"/>
     </row>
     <row r="688" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A688" s="48"/>
+      <c r="A688" s="47"/>
       <c r="B688" s="7"/>
       <c r="C688" s="6"/>
       <c r="D688" s="7"/>
@@ -23877,7 +23938,7 @@
       <c r="AB688" s="10"/>
     </row>
     <row r="689" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A689" s="48"/>
+      <c r="A689" s="47"/>
       <c r="B689" s="7"/>
       <c r="C689" s="6"/>
       <c r="D689" s="7"/>
@@ -23907,7 +23968,7 @@
       <c r="AB689" s="10"/>
     </row>
     <row r="690" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A690" s="48"/>
+      <c r="A690" s="47"/>
       <c r="B690" s="7"/>
       <c r="C690" s="6"/>
       <c r="D690" s="7"/>
@@ -23937,7 +23998,7 @@
       <c r="AB690" s="10"/>
     </row>
     <row r="691" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A691" s="48"/>
+      <c r="A691" s="47"/>
       <c r="B691" s="7"/>
       <c r="C691" s="6"/>
       <c r="D691" s="7"/>
@@ -23967,7 +24028,7 @@
       <c r="AB691" s="10"/>
     </row>
     <row r="692" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A692" s="48"/>
+      <c r="A692" s="47"/>
       <c r="B692" s="7"/>
       <c r="C692" s="6"/>
       <c r="D692" s="7"/>
@@ -23997,7 +24058,7 @@
       <c r="AB692" s="10"/>
     </row>
     <row r="693" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A693" s="48"/>
+      <c r="A693" s="47"/>
       <c r="B693" s="7"/>
       <c r="C693" s="6"/>
       <c r="D693" s="7"/>
@@ -24027,7 +24088,7 @@
       <c r="AB693" s="10"/>
     </row>
     <row r="694" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A694" s="48"/>
+      <c r="A694" s="47"/>
       <c r="B694" s="7"/>
       <c r="C694" s="6"/>
       <c r="D694" s="7"/>
@@ -24057,7 +24118,7 @@
       <c r="AB694" s="10"/>
     </row>
     <row r="695" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A695" s="48"/>
+      <c r="A695" s="47"/>
       <c r="B695" s="7"/>
       <c r="C695" s="6"/>
       <c r="D695" s="7"/>
@@ -24087,7 +24148,7 @@
       <c r="AB695" s="10"/>
     </row>
     <row r="696" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A696" s="48"/>
+      <c r="A696" s="47"/>
       <c r="B696" s="7"/>
       <c r="C696" s="6"/>
       <c r="D696" s="7"/>
@@ -24117,7 +24178,7 @@
       <c r="AB696" s="10"/>
     </row>
     <row r="697" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A697" s="48"/>
+      <c r="A697" s="47"/>
       <c r="B697" s="7"/>
       <c r="C697" s="6"/>
       <c r="D697" s="7"/>
@@ -24147,7 +24208,7 @@
       <c r="AB697" s="10"/>
     </row>
     <row r="698" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A698" s="48"/>
+      <c r="A698" s="47"/>
       <c r="B698" s="7"/>
       <c r="C698" s="6"/>
       <c r="D698" s="7"/>
@@ -24177,7 +24238,7 @@
       <c r="AB698" s="10"/>
     </row>
     <row r="699" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A699" s="48"/>
+      <c r="A699" s="47"/>
       <c r="B699" s="7"/>
       <c r="C699" s="6"/>
       <c r="D699" s="7"/>
@@ -24207,7 +24268,7 @@
       <c r="AB699" s="10"/>
     </row>
     <row r="700" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A700" s="48"/>
+      <c r="A700" s="47"/>
       <c r="B700" s="7"/>
       <c r="C700" s="6"/>
       <c r="D700" s="7"/>
@@ -24237,7 +24298,7 @@
       <c r="AB700" s="10"/>
     </row>
     <row r="701" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A701" s="48"/>
+      <c r="A701" s="47"/>
       <c r="B701" s="7"/>
       <c r="C701" s="6"/>
       <c r="D701" s="7"/>
@@ -24267,7 +24328,7 @@
       <c r="AB701" s="10"/>
     </row>
     <row r="702" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A702" s="48"/>
+      <c r="A702" s="47"/>
       <c r="B702" s="7"/>
       <c r="C702" s="6"/>
       <c r="D702" s="7"/>
@@ -24297,7 +24358,7 @@
       <c r="AB702" s="10"/>
     </row>
     <row r="703" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A703" s="48"/>
+      <c r="A703" s="47"/>
       <c r="B703" s="7"/>
       <c r="C703" s="6"/>
       <c r="D703" s="7"/>
@@ -24327,7 +24388,7 @@
       <c r="AB703" s="10"/>
     </row>
     <row r="704" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A704" s="48"/>
+      <c r="A704" s="47"/>
       <c r="B704" s="7"/>
       <c r="C704" s="6"/>
       <c r="D704" s="7"/>
@@ -24357,7 +24418,7 @@
       <c r="AB704" s="10"/>
     </row>
     <row r="705" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A705" s="48"/>
+      <c r="A705" s="47"/>
       <c r="B705" s="7"/>
       <c r="C705" s="6"/>
       <c r="D705" s="7"/>
@@ -24387,7 +24448,7 @@
       <c r="AB705" s="10"/>
     </row>
     <row r="706" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A706" s="48"/>
+      <c r="A706" s="47"/>
       <c r="B706" s="7"/>
       <c r="C706" s="6"/>
       <c r="D706" s="7"/>
@@ -24417,7 +24478,7 @@
       <c r="AB706" s="10"/>
     </row>
     <row r="707" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A707" s="48"/>
+      <c r="A707" s="47"/>
       <c r="B707" s="7"/>
       <c r="C707" s="6"/>
       <c r="D707" s="7"/>
@@ -24447,7 +24508,7 @@
       <c r="AB707" s="10"/>
     </row>
     <row r="708" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A708" s="48"/>
+      <c r="A708" s="47"/>
       <c r="B708" s="7"/>
       <c r="C708" s="6"/>
       <c r="D708" s="7"/>
@@ -24477,7 +24538,7 @@
       <c r="AB708" s="10"/>
     </row>
     <row r="709" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A709" s="48"/>
+      <c r="A709" s="47"/>
       <c r="B709" s="7"/>
       <c r="C709" s="6"/>
       <c r="D709" s="7"/>
@@ -24507,7 +24568,7 @@
       <c r="AB709" s="10"/>
     </row>
     <row r="710" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A710" s="48"/>
+      <c r="A710" s="47"/>
       <c r="B710" s="7"/>
       <c r="C710" s="6"/>
       <c r="D710" s="7"/>
@@ -24537,7 +24598,7 @@
       <c r="AB710" s="10"/>
     </row>
     <row r="711" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A711" s="48"/>
+      <c r="A711" s="47"/>
       <c r="B711" s="7"/>
       <c r="C711" s="6"/>
       <c r="D711" s="7"/>
@@ -24567,7 +24628,7 @@
       <c r="AB711" s="10"/>
     </row>
     <row r="712" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A712" s="48"/>
+      <c r="A712" s="47"/>
       <c r="B712" s="7"/>
       <c r="C712" s="6"/>
       <c r="D712" s="7"/>
@@ -24597,7 +24658,7 @@
       <c r="AB712" s="10"/>
     </row>
     <row r="713" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A713" s="48"/>
+      <c r="A713" s="47"/>
       <c r="B713" s="7"/>
       <c r="C713" s="6"/>
       <c r="D713" s="7"/>
@@ -24627,7 +24688,7 @@
       <c r="AB713" s="10"/>
     </row>
     <row r="714" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A714" s="48"/>
+      <c r="A714" s="47"/>
       <c r="B714" s="7"/>
       <c r="C714" s="6"/>
       <c r="D714" s="7"/>
@@ -24657,7 +24718,7 @@
       <c r="AB714" s="10"/>
     </row>
     <row r="715" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A715" s="48"/>
+      <c r="A715" s="47"/>
       <c r="B715" s="7"/>
       <c r="C715" s="6"/>
       <c r="D715" s="7"/>
@@ -24687,7 +24748,7 @@
       <c r="AB715" s="10"/>
     </row>
     <row r="716" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A716" s="48"/>
+      <c r="A716" s="47"/>
       <c r="B716" s="7"/>
       <c r="C716" s="6"/>
       <c r="D716" s="7"/>
@@ -24717,7 +24778,7 @@
       <c r="AB716" s="10"/>
     </row>
     <row r="717" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A717" s="48"/>
+      <c r="A717" s="47"/>
       <c r="B717" s="7"/>
       <c r="C717" s="6"/>
       <c r="D717" s="7"/>
@@ -24747,7 +24808,7 @@
       <c r="AB717" s="10"/>
     </row>
     <row r="718" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A718" s="48"/>
+      <c r="A718" s="47"/>
       <c r="B718" s="7"/>
       <c r="C718" s="6"/>
       <c r="D718" s="7"/>
@@ -24777,7 +24838,7 @@
       <c r="AB718" s="10"/>
     </row>
     <row r="719" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A719" s="48"/>
+      <c r="A719" s="47"/>
       <c r="B719" s="7"/>
       <c r="C719" s="6"/>
       <c r="D719" s="7"/>
@@ -24807,7 +24868,7 @@
       <c r="AB719" s="10"/>
     </row>
     <row r="720" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A720" s="48"/>
+      <c r="A720" s="47"/>
       <c r="B720" s="7"/>
       <c r="C720" s="6"/>
       <c r="D720" s="7"/>
@@ -24837,7 +24898,7 @@
       <c r="AB720" s="10"/>
     </row>
     <row r="721" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A721" s="48"/>
+      <c r="A721" s="47"/>
       <c r="B721" s="7"/>
       <c r="C721" s="6"/>
       <c r="D721" s="7"/>
@@ -24867,7 +24928,7 @@
       <c r="AB721" s="10"/>
     </row>
     <row r="722" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A722" s="48"/>
+      <c r="A722" s="47"/>
       <c r="B722" s="7"/>
       <c r="C722" s="6"/>
       <c r="D722" s="7"/>
@@ -24897,7 +24958,7 @@
       <c r="AB722" s="10"/>
     </row>
     <row r="723" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A723" s="48"/>
+      <c r="A723" s="47"/>
       <c r="B723" s="7"/>
       <c r="C723" s="6"/>
       <c r="D723" s="7"/>
@@ -24927,7 +24988,7 @@
       <c r="AB723" s="10"/>
     </row>
     <row r="724" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A724" s="48"/>
+      <c r="A724" s="47"/>
       <c r="B724" s="7"/>
       <c r="C724" s="6"/>
       <c r="D724" s="7"/>
@@ -24957,7 +25018,7 @@
       <c r="AB724" s="10"/>
     </row>
     <row r="725" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A725" s="48"/>
+      <c r="A725" s="47"/>
       <c r="B725" s="7"/>
       <c r="C725" s="6"/>
       <c r="D725" s="7"/>
@@ -24987,7 +25048,7 @@
       <c r="AB725" s="10"/>
     </row>
     <row r="726" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A726" s="48"/>
+      <c r="A726" s="47"/>
       <c r="B726" s="7"/>
       <c r="C726" s="6"/>
       <c r="D726" s="7"/>
@@ -25017,7 +25078,7 @@
       <c r="AB726" s="10"/>
     </row>
     <row r="727" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A727" s="48"/>
+      <c r="A727" s="47"/>
       <c r="B727" s="7"/>
       <c r="C727" s="6"/>
       <c r="D727" s="7"/>
@@ -25047,7 +25108,7 @@
       <c r="AB727" s="10"/>
     </row>
     <row r="728" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A728" s="48"/>
+      <c r="A728" s="47"/>
       <c r="B728" s="7"/>
       <c r="C728" s="6"/>
       <c r="D728" s="7"/>
@@ -25077,7 +25138,7 @@
       <c r="AB728" s="10"/>
     </row>
     <row r="729" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A729" s="48"/>
+      <c r="A729" s="47"/>
       <c r="B729" s="7"/>
       <c r="C729" s="6"/>
       <c r="D729" s="7"/>
@@ -25107,7 +25168,7 @@
       <c r="AB729" s="10"/>
     </row>
     <row r="730" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A730" s="48"/>
+      <c r="A730" s="47"/>
       <c r="B730" s="7"/>
       <c r="C730" s="6"/>
       <c r="D730" s="7"/>
@@ -25137,7 +25198,7 @@
       <c r="AB730" s="10"/>
     </row>
     <row r="731" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A731" s="48"/>
+      <c r="A731" s="47"/>
       <c r="B731" s="7"/>
       <c r="C731" s="6"/>
       <c r="D731" s="7"/>
@@ -25167,7 +25228,7 @@
       <c r="AB731" s="10"/>
     </row>
     <row r="732" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A732" s="48"/>
+      <c r="A732" s="47"/>
       <c r="B732" s="7"/>
       <c r="C732" s="6"/>
       <c r="D732" s="7"/>
@@ -25197,7 +25258,7 @@
       <c r="AB732" s="10"/>
     </row>
     <row r="733" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A733" s="48"/>
+      <c r="A733" s="47"/>
       <c r="B733" s="7"/>
       <c r="C733" s="6"/>
       <c r="D733" s="7"/>
@@ -25227,7 +25288,7 @@
       <c r="AB733" s="10"/>
     </row>
     <row r="734" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A734" s="48"/>
+      <c r="A734" s="47"/>
       <c r="B734" s="7"/>
       <c r="C734" s="6"/>
       <c r="D734" s="7"/>
@@ -25257,7 +25318,7 @@
       <c r="AB734" s="10"/>
     </row>
     <row r="735" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A735" s="48"/>
+      <c r="A735" s="47"/>
       <c r="B735" s="7"/>
       <c r="C735" s="6"/>
       <c r="D735" s="7"/>
@@ -25287,7 +25348,7 @@
       <c r="AB735" s="10"/>
     </row>
     <row r="736" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A736" s="48"/>
+      <c r="A736" s="47"/>
       <c r="B736" s="7"/>
       <c r="C736" s="6"/>
       <c r="D736" s="7"/>
@@ -25317,7 +25378,7 @@
       <c r="AB736" s="10"/>
     </row>
     <row r="737" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A737" s="48"/>
+      <c r="A737" s="47"/>
       <c r="B737" s="7"/>
       <c r="C737" s="6"/>
       <c r="D737" s="7"/>
@@ -25347,7 +25408,7 @@
       <c r="AB737" s="10"/>
     </row>
     <row r="738" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A738" s="48"/>
+      <c r="A738" s="47"/>
       <c r="B738" s="7"/>
       <c r="C738" s="6"/>
       <c r="D738" s="7"/>
@@ -25377,7 +25438,7 @@
       <c r="AB738" s="10"/>
     </row>
     <row r="739" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A739" s="48"/>
+      <c r="A739" s="47"/>
       <c r="B739" s="7"/>
       <c r="C739" s="6"/>
       <c r="D739" s="7"/>
@@ -25407,7 +25468,7 @@
       <c r="AB739" s="10"/>
     </row>
     <row r="740" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A740" s="48"/>
+      <c r="A740" s="47"/>
       <c r="B740" s="7"/>
       <c r="C740" s="6"/>
       <c r="D740" s="7"/>
@@ -25437,7 +25498,7 @@
       <c r="AB740" s="10"/>
     </row>
     <row r="741" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A741" s="48"/>
+      <c r="A741" s="47"/>
       <c r="B741" s="7"/>
       <c r="C741" s="6"/>
       <c r="D741" s="7"/>
@@ -25467,7 +25528,7 @@
       <c r="AB741" s="10"/>
     </row>
     <row r="742" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A742" s="48"/>
+      <c r="A742" s="47"/>
       <c r="B742" s="7"/>
       <c r="C742" s="6"/>
       <c r="D742" s="7"/>
@@ -25497,7 +25558,7 @@
       <c r="AB742" s="10"/>
     </row>
     <row r="743" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A743" s="48"/>
+      <c r="A743" s="47"/>
       <c r="B743" s="7"/>
       <c r="C743" s="6"/>
       <c r="D743" s="7"/>
@@ -25527,7 +25588,7 @@
       <c r="AB743" s="10"/>
     </row>
     <row r="744" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A744" s="48"/>
+      <c r="A744" s="47"/>
       <c r="B744" s="7"/>
       <c r="C744" s="6"/>
       <c r="D744" s="7"/>
@@ -25557,7 +25618,7 @@
       <c r="AB744" s="10"/>
     </row>
     <row r="745" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A745" s="48"/>
+      <c r="A745" s="47"/>
       <c r="B745" s="7"/>
       <c r="C745" s="6"/>
       <c r="D745" s="7"/>
@@ -25587,7 +25648,7 @@
       <c r="AB745" s="10"/>
     </row>
     <row r="746" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A746" s="48"/>
+      <c r="A746" s="47"/>
       <c r="B746" s="7"/>
       <c r="C746" s="6"/>
       <c r="D746" s="7"/>
@@ -25617,7 +25678,7 @@
       <c r="AB746" s="10"/>
     </row>
     <row r="747" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A747" s="48"/>
+      <c r="A747" s="47"/>
       <c r="B747" s="7"/>
       <c r="C747" s="6"/>
       <c r="D747" s="7"/>
@@ -25647,7 +25708,7 @@
       <c r="AB747" s="10"/>
     </row>
     <row r="748" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A748" s="48"/>
+      <c r="A748" s="47"/>
       <c r="B748" s="7"/>
       <c r="C748" s="6"/>
       <c r="D748" s="7"/>
@@ -25677,7 +25738,7 @@
       <c r="AB748" s="10"/>
     </row>
     <row r="749" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A749" s="48"/>
+      <c r="A749" s="47"/>
       <c r="B749" s="7"/>
       <c r="C749" s="6"/>
       <c r="D749" s="7"/>
@@ -25707,7 +25768,7 @@
       <c r="AB749" s="10"/>
     </row>
     <row r="750" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A750" s="48"/>
+      <c r="A750" s="47"/>
       <c r="B750" s="7"/>
       <c r="C750" s="6"/>
       <c r="D750" s="7"/>
@@ -25737,7 +25798,7 @@
       <c r="AB750" s="10"/>
     </row>
     <row r="751" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A751" s="48"/>
+      <c r="A751" s="47"/>
       <c r="B751" s="7"/>
       <c r="C751" s="6"/>
       <c r="D751" s="7"/>
@@ -25767,7 +25828,7 @@
       <c r="AB751" s="10"/>
     </row>
     <row r="752" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A752" s="48"/>
+      <c r="A752" s="47"/>
       <c r="B752" s="7"/>
       <c r="C752" s="6"/>
       <c r="D752" s="7"/>
@@ -25797,7 +25858,7 @@
       <c r="AB752" s="10"/>
     </row>
     <row r="753" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A753" s="48"/>
+      <c r="A753" s="47"/>
       <c r="B753" s="7"/>
       <c r="C753" s="6"/>
       <c r="D753" s="7"/>
@@ -25827,7 +25888,7 @@
       <c r="AB753" s="10"/>
     </row>
     <row r="754" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A754" s="48"/>
+      <c r="A754" s="47"/>
       <c r="B754" s="7"/>
       <c r="C754" s="6"/>
       <c r="D754" s="7"/>
@@ -25857,7 +25918,7 @@
       <c r="AB754" s="10"/>
     </row>
     <row r="755" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A755" s="48"/>
+      <c r="A755" s="47"/>
       <c r="B755" s="7"/>
       <c r="C755" s="6"/>
       <c r="D755" s="7"/>
@@ -25887,7 +25948,7 @@
       <c r="AB755" s="10"/>
     </row>
     <row r="756" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A756" s="48"/>
+      <c r="A756" s="47"/>
       <c r="B756" s="7"/>
       <c r="C756" s="6"/>
       <c r="D756" s="7"/>
@@ -25917,7 +25978,7 @@
       <c r="AB756" s="10"/>
     </row>
     <row r="757" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A757" s="48"/>
+      <c r="A757" s="47"/>
       <c r="B757" s="7"/>
       <c r="C757" s="6"/>
       <c r="D757" s="7"/>
@@ -25947,7 +26008,7 @@
       <c r="AB757" s="10"/>
     </row>
     <row r="758" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A758" s="48"/>
+      <c r="A758" s="47"/>
       <c r="B758" s="7"/>
       <c r="C758" s="6"/>
       <c r="D758" s="7"/>
@@ -25977,7 +26038,7 @@
       <c r="AB758" s="10"/>
     </row>
     <row r="759" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A759" s="48"/>
+      <c r="A759" s="47"/>
       <c r="B759" s="7"/>
       <c r="C759" s="6"/>
       <c r="D759" s="7"/>
@@ -26007,7 +26068,7 @@
       <c r="AB759" s="10"/>
     </row>
     <row r="760" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A760" s="48"/>
+      <c r="A760" s="47"/>
       <c r="B760" s="7"/>
       <c r="C760" s="6"/>
       <c r="D760" s="7"/>
@@ -26037,7 +26098,7 @@
       <c r="AB760" s="10"/>
     </row>
     <row r="761" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A761" s="48"/>
+      <c r="A761" s="47"/>
       <c r="B761" s="7"/>
       <c r="C761" s="6"/>
       <c r="D761" s="7"/>
@@ -26067,7 +26128,7 @@
       <c r="AB761" s="10"/>
     </row>
     <row r="762" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A762" s="48"/>
+      <c r="A762" s="47"/>
       <c r="B762" s="7"/>
       <c r="C762" s="6"/>
       <c r="D762" s="7"/>
@@ -26097,7 +26158,7 @@
       <c r="AB762" s="10"/>
     </row>
     <row r="763" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A763" s="48"/>
+      <c r="A763" s="47"/>
       <c r="B763" s="7"/>
       <c r="C763" s="6"/>
       <c r="D763" s="7"/>
@@ -26127,7 +26188,7 @@
       <c r="AB763" s="10"/>
     </row>
     <row r="764" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A764" s="48"/>
+      <c r="A764" s="47"/>
       <c r="B764" s="7"/>
       <c r="C764" s="6"/>
       <c r="D764" s="7"/>
@@ -26157,7 +26218,7 @@
       <c r="AB764" s="10"/>
     </row>
     <row r="765" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A765" s="48"/>
+      <c r="A765" s="47"/>
       <c r="B765" s="7"/>
       <c r="C765" s="6"/>
       <c r="D765" s="7"/>
@@ -26187,7 +26248,7 @@
       <c r="AB765" s="10"/>
     </row>
     <row r="766" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A766" s="48"/>
+      <c r="A766" s="47"/>
       <c r="B766" s="7"/>
       <c r="C766" s="6"/>
       <c r="D766" s="7"/>
@@ -26217,7 +26278,7 @@
       <c r="AB766" s="10"/>
     </row>
     <row r="767" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A767" s="48"/>
+      <c r="A767" s="47"/>
       <c r="B767" s="7"/>
       <c r="C767" s="6"/>
       <c r="D767" s="7"/>
@@ -26247,7 +26308,7 @@
       <c r="AB767" s="10"/>
     </row>
     <row r="768" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A768" s="48"/>
+      <c r="A768" s="47"/>
       <c r="B768" s="7"/>
       <c r="C768" s="6"/>
       <c r="D768" s="7"/>
@@ -26277,7 +26338,7 @@
       <c r="AB768" s="10"/>
     </row>
     <row r="769" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A769" s="48"/>
+      <c r="A769" s="47"/>
       <c r="B769" s="7"/>
       <c r="C769" s="6"/>
       <c r="D769" s="7"/>
@@ -26307,7 +26368,7 @@
       <c r="AB769" s="10"/>
     </row>
     <row r="770" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A770" s="48"/>
+      <c r="A770" s="47"/>
       <c r="B770" s="7"/>
       <c r="C770" s="6"/>
       <c r="D770" s="7"/>
@@ -26337,7 +26398,7 @@
       <c r="AB770" s="10"/>
     </row>
     <row r="771" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A771" s="48"/>
+      <c r="A771" s="47"/>
       <c r="B771" s="7"/>
       <c r="C771" s="6"/>
       <c r="D771" s="7"/>
@@ -26367,7 +26428,7 @@
       <c r="AB771" s="10"/>
     </row>
     <row r="772" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A772" s="48"/>
+      <c r="A772" s="47"/>
       <c r="B772" s="7"/>
       <c r="C772" s="6"/>
       <c r="D772" s="7"/>
@@ -26397,7 +26458,7 @@
       <c r="AB772" s="10"/>
     </row>
     <row r="773" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A773" s="48"/>
+      <c r="A773" s="47"/>
       <c r="B773" s="7"/>
       <c r="C773" s="6"/>
       <c r="D773" s="7"/>
@@ -26427,7 +26488,7 @@
       <c r="AB773" s="10"/>
     </row>
     <row r="774" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A774" s="48"/>
+      <c r="A774" s="47"/>
       <c r="B774" s="7"/>
       <c r="C774" s="6"/>
       <c r="D774" s="7"/>
@@ -26457,7 +26518,7 @@
       <c r="AB774" s="10"/>
     </row>
     <row r="775" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A775" s="48"/>
+      <c r="A775" s="47"/>
       <c r="B775" s="7"/>
       <c r="C775" s="6"/>
       <c r="D775" s="7"/>
@@ -26487,7 +26548,7 @@
       <c r="AB775" s="10"/>
     </row>
     <row r="776" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A776" s="48"/>
+      <c r="A776" s="47"/>
       <c r="B776" s="7"/>
       <c r="C776" s="6"/>
       <c r="D776" s="7"/>
@@ -26517,7 +26578,7 @@
       <c r="AB776" s="10"/>
     </row>
     <row r="777" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A777" s="48"/>
+      <c r="A777" s="47"/>
       <c r="B777" s="7"/>
       <c r="C777" s="6"/>
       <c r="D777" s="7"/>
@@ -26547,7 +26608,7 @@
       <c r="AB777" s="10"/>
     </row>
     <row r="778" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A778" s="48"/>
+      <c r="A778" s="47"/>
       <c r="B778" s="7"/>
       <c r="C778" s="6"/>
       <c r="D778" s="7"/>
@@ -26577,7 +26638,7 @@
       <c r="AB778" s="10"/>
     </row>
     <row r="779" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A779" s="48"/>
+      <c r="A779" s="47"/>
       <c r="B779" s="7"/>
       <c r="C779" s="6"/>
       <c r="D779" s="7"/>
@@ -26607,7 +26668,7 @@
       <c r="AB779" s="10"/>
     </row>
     <row r="780" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A780" s="48"/>
+      <c r="A780" s="47"/>
       <c r="B780" s="7"/>
       <c r="C780" s="6"/>
       <c r="D780" s="7"/>
@@ -26637,7 +26698,7 @@
       <c r="AB780" s="10"/>
     </row>
     <row r="781" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A781" s="48"/>
+      <c r="A781" s="47"/>
       <c r="B781" s="7"/>
       <c r="C781" s="6"/>
       <c r="D781" s="7"/>
@@ -26667,7 +26728,7 @@
       <c r="AB781" s="10"/>
     </row>
     <row r="782" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A782" s="48"/>
+      <c r="A782" s="47"/>
       <c r="B782" s="7"/>
       <c r="C782" s="6"/>
       <c r="D782" s="7"/>
@@ -26697,7 +26758,7 @@
       <c r="AB782" s="10"/>
     </row>
     <row r="783" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A783" s="48"/>
+      <c r="A783" s="47"/>
       <c r="B783" s="7"/>
       <c r="C783" s="6"/>
       <c r="D783" s="7"/>
@@ -26727,7 +26788,7 @@
       <c r="AB783" s="10"/>
     </row>
     <row r="784" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A784" s="48"/>
+      <c r="A784" s="47"/>
       <c r="B784" s="7"/>
       <c r="C784" s="6"/>
       <c r="D784" s="7"/>
@@ -26757,7 +26818,7 @@
       <c r="AB784" s="10"/>
     </row>
     <row r="785" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A785" s="48"/>
+      <c r="A785" s="47"/>
       <c r="B785" s="7"/>
       <c r="C785" s="6"/>
       <c r="D785" s="7"/>
@@ -26787,7 +26848,7 @@
       <c r="AB785" s="10"/>
     </row>
     <row r="786" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A786" s="48"/>
+      <c r="A786" s="47"/>
       <c r="B786" s="7"/>
       <c r="C786" s="6"/>
       <c r="D786" s="7"/>
@@ -26817,7 +26878,7 @@
       <c r="AB786" s="10"/>
     </row>
     <row r="787" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A787" s="48"/>
+      <c r="A787" s="47"/>
       <c r="B787" s="7"/>
       <c r="C787" s="6"/>
       <c r="D787" s="7"/>
@@ -26847,7 +26908,7 @@
       <c r="AB787" s="10"/>
     </row>
     <row r="788" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A788" s="48"/>
+      <c r="A788" s="47"/>
       <c r="B788" s="7"/>
       <c r="C788" s="6"/>
       <c r="D788" s="7"/>
@@ -26877,7 +26938,7 @@
       <c r="AB788" s="10"/>
     </row>
     <row r="789" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A789" s="48"/>
+      <c r="A789" s="47"/>
       <c r="B789" s="7"/>
       <c r="C789" s="6"/>
       <c r="D789" s="7"/>
@@ -26907,7 +26968,7 @@
       <c r="AB789" s="10"/>
     </row>
     <row r="790" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A790" s="48"/>
+      <c r="A790" s="47"/>
       <c r="B790" s="7"/>
       <c r="C790" s="6"/>
       <c r="D790" s="7"/>
@@ -26937,7 +26998,7 @@
       <c r="AB790" s="10"/>
     </row>
     <row r="791" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A791" s="48"/>
+      <c r="A791" s="47"/>
       <c r="B791" s="7"/>
       <c r="C791" s="6"/>
       <c r="D791" s="7"/>
@@ -26967,7 +27028,7 @@
       <c r="AB791" s="10"/>
     </row>
     <row r="792" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A792" s="48"/>
+      <c r="A792" s="47"/>
       <c r="B792" s="7"/>
       <c r="C792" s="6"/>
       <c r="D792" s="7"/>
@@ -26997,7 +27058,7 @@
       <c r="AB792" s="10"/>
     </row>
     <row r="793" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A793" s="48"/>
+      <c r="A793" s="47"/>
       <c r="B793" s="7"/>
       <c r="C793" s="6"/>
       <c r="D793" s="7"/>
@@ -27027,7 +27088,7 @@
       <c r="AB793" s="10"/>
     </row>
     <row r="794" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A794" s="48"/>
+      <c r="A794" s="47"/>
       <c r="B794" s="7"/>
       <c r="C794" s="6"/>
       <c r="D794" s="7"/>
@@ -27057,7 +27118,7 @@
       <c r="AB794" s="10"/>
     </row>
     <row r="795" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A795" s="48"/>
+      <c r="A795" s="47"/>
       <c r="B795" s="7"/>
       <c r="C795" s="6"/>
       <c r="D795" s="7"/>
@@ -27087,7 +27148,7 @@
       <c r="AB795" s="10"/>
     </row>
     <row r="796" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A796" s="48"/>
+      <c r="A796" s="47"/>
       <c r="B796" s="7"/>
       <c r="C796" s="6"/>
       <c r="D796" s="7"/>
@@ -27117,7 +27178,7 @@
       <c r="AB796" s="10"/>
     </row>
     <row r="797" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A797" s="48"/>
+      <c r="A797" s="47"/>
       <c r="B797" s="7"/>
       <c r="C797" s="6"/>
       <c r="D797" s="7"/>
@@ -27147,7 +27208,7 @@
       <c r="AB797" s="10"/>
     </row>
     <row r="798" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A798" s="48"/>
+      <c r="A798" s="47"/>
       <c r="B798" s="7"/>
       <c r="C798" s="6"/>
       <c r="D798" s="7"/>
@@ -27177,7 +27238,7 @@
       <c r="AB798" s="10"/>
     </row>
     <row r="799" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A799" s="48"/>
+      <c r="A799" s="47"/>
       <c r="B799" s="7"/>
       <c r="C799" s="6"/>
       <c r="D799" s="7"/>
@@ -27207,7 +27268,7 @@
       <c r="AB799" s="10"/>
     </row>
     <row r="800" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A800" s="48"/>
+      <c r="A800" s="47"/>
       <c r="B800" s="7"/>
       <c r="C800" s="6"/>
       <c r="D800" s="7"/>
@@ -27237,7 +27298,7 @@
       <c r="AB800" s="10"/>
     </row>
     <row r="801" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A801" s="48"/>
+      <c r="A801" s="47"/>
       <c r="B801" s="7"/>
       <c r="C801" s="6"/>
       <c r="D801" s="7"/>
@@ -27267,7 +27328,7 @@
       <c r="AB801" s="10"/>
     </row>
     <row r="802" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A802" s="48"/>
+      <c r="A802" s="47"/>
       <c r="B802" s="7"/>
       <c r="C802" s="6"/>
       <c r="D802" s="7"/>
@@ -27297,7 +27358,7 @@
       <c r="AB802" s="10"/>
     </row>
     <row r="803" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A803" s="48"/>
+      <c r="A803" s="47"/>
       <c r="B803" s="7"/>
       <c r="C803" s="6"/>
       <c r="D803" s="7"/>
@@ -27327,7 +27388,7 @@
       <c r="AB803" s="10"/>
     </row>
     <row r="804" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A804" s="48"/>
+      <c r="A804" s="47"/>
       <c r="B804" s="7"/>
       <c r="C804" s="6"/>
       <c r="D804" s="7"/>
@@ -27357,7 +27418,7 @@
       <c r="AB804" s="10"/>
     </row>
     <row r="805" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A805" s="48"/>
+      <c r="A805" s="47"/>
       <c r="B805" s="7"/>
       <c r="C805" s="6"/>
       <c r="D805" s="7"/>
@@ -27387,7 +27448,7 @@
       <c r="AB805" s="10"/>
     </row>
     <row r="806" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A806" s="48"/>
+      <c r="A806" s="47"/>
       <c r="B806" s="7"/>
       <c r="C806" s="6"/>
       <c r="D806" s="7"/>
@@ -27417,7 +27478,7 @@
       <c r="AB806" s="10"/>
     </row>
     <row r="807" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A807" s="48"/>
+      <c r="A807" s="47"/>
       <c r="B807" s="7"/>
       <c r="C807" s="6"/>
       <c r="D807" s="7"/>
@@ -27447,7 +27508,7 @@
       <c r="AB807" s="10"/>
     </row>
     <row r="808" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A808" s="48"/>
+      <c r="A808" s="47"/>
       <c r="B808" s="7"/>
       <c r="C808" s="6"/>
       <c r="D808" s="7"/>
@@ -27477,7 +27538,7 @@
       <c r="AB808" s="10"/>
     </row>
     <row r="809" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A809" s="48"/>
+      <c r="A809" s="47"/>
       <c r="B809" s="7"/>
       <c r="C809" s="6"/>
       <c r="D809" s="7"/>
@@ -27507,7 +27568,7 @@
       <c r="AB809" s="10"/>
     </row>
     <row r="810" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A810" s="48"/>
+      <c r="A810" s="47"/>
       <c r="B810" s="7"/>
       <c r="C810" s="6"/>
       <c r="D810" s="7"/>
@@ -27537,7 +27598,7 @@
       <c r="AB810" s="10"/>
     </row>
     <row r="811" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A811" s="48"/>
+      <c r="A811" s="47"/>
       <c r="B811" s="7"/>
       <c r="C811" s="6"/>
       <c r="D811" s="7"/>
@@ -27567,7 +27628,7 @@
       <c r="AB811" s="10"/>
     </row>
     <row r="812" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A812" s="48"/>
+      <c r="A812" s="47"/>
       <c r="B812" s="7"/>
       <c r="C812" s="6"/>
       <c r="D812" s="7"/>
@@ -27597,7 +27658,7 @@
       <c r="AB812" s="10"/>
     </row>
     <row r="813" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A813" s="48"/>
+      <c r="A813" s="47"/>
       <c r="B813" s="7"/>
       <c r="C813" s="6"/>
       <c r="D813" s="7"/>
@@ -27627,7 +27688,7 @@
       <c r="AB813" s="10"/>
     </row>
     <row r="814" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A814" s="48"/>
+      <c r="A814" s="47"/>
       <c r="B814" s="7"/>
       <c r="C814" s="6"/>
       <c r="D814" s="7"/>
@@ -27657,7 +27718,7 @@
       <c r="AB814" s="10"/>
     </row>
     <row r="815" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A815" s="48"/>
+      <c r="A815" s="47"/>
       <c r="B815" s="7"/>
       <c r="C815" s="6"/>
       <c r="D815" s="7"/>
@@ -27687,7 +27748,7 @@
       <c r="AB815" s="10"/>
     </row>
     <row r="816" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A816" s="48"/>
+      <c r="A816" s="47"/>
       <c r="B816" s="7"/>
       <c r="C816" s="6"/>
       <c r="D816" s="7"/>
@@ -27717,7 +27778,7 @@
       <c r="AB816" s="10"/>
     </row>
     <row r="817" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A817" s="48"/>
+      <c r="A817" s="47"/>
       <c r="B817" s="7"/>
       <c r="C817" s="6"/>
       <c r="D817" s="7"/>
@@ -27747,7 +27808,7 @@
       <c r="AB817" s="10"/>
     </row>
     <row r="818" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A818" s="48"/>
+      <c r="A818" s="47"/>
       <c r="B818" s="7"/>
       <c r="C818" s="6"/>
       <c r="D818" s="7"/>
@@ -27777,7 +27838,7 @@
       <c r="AB818" s="10"/>
     </row>
     <row r="819" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A819" s="48"/>
+      <c r="A819" s="47"/>
       <c r="B819" s="7"/>
       <c r="C819" s="6"/>
       <c r="D819" s="7"/>
@@ -27807,7 +27868,7 @@
       <c r="AB819" s="10"/>
     </row>
     <row r="820" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A820" s="48"/>
+      <c r="A820" s="47"/>
       <c r="B820" s="7"/>
       <c r="C820" s="6"/>
       <c r="D820" s="7"/>
@@ -27837,7 +27898,7 @@
       <c r="AB820" s="10"/>
     </row>
     <row r="821" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A821" s="48"/>
+      <c r="A821" s="47"/>
       <c r="B821" s="7"/>
       <c r="C821" s="6"/>
       <c r="D821" s="7"/>
@@ -27867,7 +27928,7 @@
       <c r="AB821" s="10"/>
     </row>
     <row r="822" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A822" s="48"/>
+      <c r="A822" s="47"/>
       <c r="B822" s="7"/>
       <c r="C822" s="6"/>
       <c r="D822" s="7"/>
@@ -27897,7 +27958,7 @@
       <c r="AB822" s="10"/>
     </row>
     <row r="823" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A823" s="48"/>
+      <c r="A823" s="47"/>
       <c r="B823" s="7"/>
       <c r="C823" s="6"/>
       <c r="D823" s="7"/>
@@ -27927,7 +27988,7 @@
       <c r="AB823" s="10"/>
     </row>
     <row r="824" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A824" s="48"/>
+      <c r="A824" s="47"/>
       <c r="B824" s="7"/>
       <c r="C824" s="6"/>
       <c r="D824" s="7"/>
@@ -27957,7 +28018,7 @@
       <c r="AB824" s="10"/>
     </row>
     <row r="825" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A825" s="48"/>
+      <c r="A825" s="47"/>
       <c r="B825" s="7"/>
       <c r="C825" s="6"/>
       <c r="D825" s="7"/>
@@ -27987,7 +28048,7 @@
       <c r="AB825" s="10"/>
     </row>
     <row r="826" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A826" s="48"/>
+      <c r="A826" s="47"/>
       <c r="B826" s="7"/>
       <c r="C826" s="6"/>
       <c r="D826" s="7"/>
@@ -28017,7 +28078,7 @@
       <c r="AB826" s="10"/>
     </row>
     <row r="827" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A827" s="48"/>
+      <c r="A827" s="47"/>
       <c r="B827" s="7"/>
       <c r="C827" s="6"/>
       <c r="D827" s="7"/>
@@ -28047,7 +28108,7 @@
       <c r="AB827" s="10"/>
     </row>
     <row r="828" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A828" s="48"/>
+      <c r="A828" s="47"/>
       <c r="B828" s="7"/>
       <c r="C828" s="6"/>
       <c r="D828" s="7"/>
@@ -28077,7 +28138,7 @@
       <c r="AB828" s="10"/>
     </row>
     <row r="829" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A829" s="48"/>
+      <c r="A829" s="47"/>
       <c r="B829" s="7"/>
       <c r="C829" s="6"/>
       <c r="D829" s="7"/>
@@ -28107,7 +28168,7 @@
       <c r="AB829" s="10"/>
     </row>
     <row r="830" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A830" s="48"/>
+      <c r="A830" s="47"/>
       <c r="B830" s="7"/>
       <c r="C830" s="6"/>
       <c r="D830" s="7"/>
@@ -28137,7 +28198,7 @@
       <c r="AB830" s="10"/>
     </row>
     <row r="831" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A831" s="48"/>
+      <c r="A831" s="47"/>
       <c r="B831" s="7"/>
       <c r="C831" s="6"/>
       <c r="D831" s="7"/>
@@ -28167,7 +28228,7 @@
       <c r="AB831" s="10"/>
     </row>
     <row r="832" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A832" s="48"/>
+      <c r="A832" s="47"/>
       <c r="B832" s="7"/>
       <c r="C832" s="6"/>
       <c r="D832" s="7"/>
@@ -28197,7 +28258,7 @@
       <c r="AB832" s="10"/>
     </row>
     <row r="833" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A833" s="48"/>
+      <c r="A833" s="47"/>
       <c r="B833" s="7"/>
       <c r="C833" s="6"/>
       <c r="D833" s="7"/>
@@ -28227,7 +28288,7 @@
       <c r="AB833" s="10"/>
     </row>
     <row r="834" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A834" s="48"/>
+      <c r="A834" s="47"/>
       <c r="B834" s="7"/>
       <c r="C834" s="6"/>
       <c r="D834" s="7"/>
@@ -28257,7 +28318,7 @@
       <c r="AB834" s="10"/>
     </row>
     <row r="835" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A835" s="48"/>
+      <c r="A835" s="47"/>
       <c r="B835" s="7"/>
       <c r="C835" s="6"/>
       <c r="D835" s="7"/>
@@ -28287,7 +28348,7 @@
       <c r="AB835" s="10"/>
     </row>
     <row r="836" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A836" s="48"/>
+      <c r="A836" s="47"/>
       <c r="B836" s="7"/>
       <c r="C836" s="6"/>
       <c r="D836" s="7"/>
@@ -28317,7 +28378,7 @@
       <c r="AB836" s="10"/>
     </row>
     <row r="837" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A837" s="48"/>
+      <c r="A837" s="47"/>
       <c r="B837" s="7"/>
       <c r="C837" s="6"/>
       <c r="D837" s="7"/>
@@ -28347,7 +28408,7 @@
       <c r="AB837" s="10"/>
     </row>
     <row r="838" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A838" s="48"/>
+      <c r="A838" s="47"/>
       <c r="B838" s="7"/>
       <c r="C838" s="6"/>
       <c r="D838" s="7"/>
@@ -28377,7 +28438,7 @@
       <c r="AB838" s="10"/>
     </row>
     <row r="839" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A839" s="48"/>
+      <c r="A839" s="47"/>
       <c r="B839" s="7"/>
       <c r="C839" s="6"/>
       <c r="D839" s="7"/>
@@ -28407,7 +28468,7 @@
       <c r="AB839" s="10"/>
     </row>
     <row r="840" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A840" s="48"/>
+      <c r="A840" s="47"/>
       <c r="B840" s="7"/>
       <c r="C840" s="6"/>
       <c r="D840" s="7"/>
@@ -28437,7 +28498,7 @@
       <c r="AB840" s="10"/>
     </row>
     <row r="841" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A841" s="48"/>
+      <c r="A841" s="47"/>
       <c r="B841" s="7"/>
       <c r="C841" s="6"/>
       <c r="D841" s="7"/>
@@ -28467,7 +28528,7 @@
       <c r="AB841" s="10"/>
     </row>
     <row r="842" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A842" s="48"/>
+      <c r="A842" s="47"/>
       <c r="B842" s="7"/>
       <c r="C842" s="6"/>
       <c r="D842" s="7"/>
@@ -28497,7 +28558,7 @@
       <c r="AB842" s="10"/>
     </row>
     <row r="843" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A843" s="48"/>
+      <c r="A843" s="47"/>
       <c r="B843" s="7"/>
       <c r="C843" s="6"/>
       <c r="D843" s="7"/>
@@ -28527,7 +28588,7 @@
       <c r="AB843" s="10"/>
     </row>
     <row r="844" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A844" s="48"/>
+      <c r="A844" s="47"/>
       <c r="B844" s="7"/>
       <c r="C844" s="6"/>
       <c r="D844" s="7"/>
@@ -28557,7 +28618,7 @@
       <c r="AB844" s="10"/>
     </row>
     <row r="845" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A845" s="48"/>
+      <c r="A845" s="47"/>
       <c r="B845" s="7"/>
       <c r="C845" s="6"/>
       <c r="D845" s="7"/>
@@ -28587,7 +28648,7 @@
       <c r="AB845" s="10"/>
     </row>
     <row r="846" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A846" s="48"/>
+      <c r="A846" s="47"/>
       <c r="B846" s="7"/>
       <c r="C846" s="6"/>
       <c r="D846" s="7"/>
@@ -28617,7 +28678,7 @@
       <c r="AB846" s="10"/>
     </row>
     <row r="847" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A847" s="48"/>
+      <c r="A847" s="47"/>
       <c r="B847" s="7"/>
       <c r="C847" s="6"/>
       <c r="D847" s="7"/>
@@ -28647,7 +28708,7 @@
       <c r="AB847" s="10"/>
     </row>
     <row r="848" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A848" s="48"/>
+      <c r="A848" s="47"/>
       <c r="B848" s="7"/>
       <c r="C848" s="6"/>
       <c r="D848" s="7"/>
@@ -28677,7 +28738,7 @@
       <c r="AB848" s="10"/>
     </row>
     <row r="849" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A849" s="48"/>
+      <c r="A849" s="47"/>
       <c r="B849" s="7"/>
       <c r="C849" s="6"/>
       <c r="D849" s="7"/>
@@ -28707,7 +28768,7 @@
       <c r="AB849" s="10"/>
     </row>
     <row r="850" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A850" s="48"/>
+      <c r="A850" s="47"/>
       <c r="B850" s="7"/>
       <c r="C850" s="6"/>
       <c r="D850" s="7"/>
@@ -28737,7 +28798,7 @@
       <c r="AB850" s="10"/>
     </row>
     <row r="851" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A851" s="48"/>
+      <c r="A851" s="47"/>
       <c r="B851" s="7"/>
       <c r="C851" s="6"/>
       <c r="D851" s="7"/>
@@ -28767,7 +28828,7 @@
       <c r="AB851" s="10"/>
     </row>
     <row r="852" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A852" s="48"/>
+      <c r="A852" s="47"/>
       <c r="B852" s="7"/>
       <c r="C852" s="6"/>
       <c r="D852" s="7"/>
@@ -28797,7 +28858,7 @@
       <c r="AB852" s="10"/>
     </row>
     <row r="853" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A853" s="48"/>
+      <c r="A853" s="47"/>
       <c r="B853" s="7"/>
       <c r="C853" s="6"/>
       <c r="D853" s="7"/>
@@ -28827,7 +28888,7 @@
       <c r="AB853" s="10"/>
     </row>
     <row r="854" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A854" s="48"/>
+      <c r="A854" s="47"/>
       <c r="B854" s="7"/>
       <c r="C854" s="6"/>
       <c r="D854" s="7"/>
@@ -28857,7 +28918,7 @@
       <c r="AB854" s="10"/>
     </row>
     <row r="855" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A855" s="48"/>
+      <c r="A855" s="47"/>
       <c r="B855" s="7"/>
       <c r="C855" s="6"/>
       <c r="D855" s="7"/>
@@ -28887,7 +28948,7 @@
       <c r="AB855" s="10"/>
     </row>
     <row r="856" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A856" s="48"/>
+      <c r="A856" s="47"/>
       <c r="B856" s="7"/>
       <c r="C856" s="6"/>
       <c r="D856" s="7"/>
@@ -28917,7 +28978,7 @@
       <c r="AB856" s="10"/>
     </row>
     <row r="857" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A857" s="48"/>
+      <c r="A857" s="47"/>
       <c r="B857" s="7"/>
       <c r="C857" s="6"/>
       <c r="D857" s="7"/>
@@ -28947,7 +29008,7 @@
       <c r="AB857" s="10"/>
     </row>
     <row r="858" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A858" s="48"/>
+      <c r="A858" s="47"/>
       <c r="B858" s="7"/>
       <c r="C858" s="6"/>
       <c r="D858" s="7"/>
@@ -28977,7 +29038,7 @@
       <c r="AB858" s="10"/>
     </row>
     <row r="859" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A859" s="48"/>
+      <c r="A859" s="47"/>
       <c r="B859" s="7"/>
       <c r="C859" s="6"/>
       <c r="D859" s="7"/>
@@ -29007,7 +29068,7 @@
       <c r="AB859" s="10"/>
     </row>
     <row r="860" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A860" s="48"/>
+      <c r="A860" s="47"/>
       <c r="B860" s="7"/>
       <c r="C860" s="6"/>
       <c r="D860" s="7"/>
@@ -29037,7 +29098,7 @@
       <c r="AB860" s="10"/>
     </row>
     <row r="861" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A861" s="48"/>
+      <c r="A861" s="47"/>
       <c r="B861" s="7"/>
       <c r="C861" s="6"/>
       <c r="D861" s="7"/>
@@ -29067,7 +29128,7 @@
       <c r="AB861" s="10"/>
     </row>
     <row r="862" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A862" s="48"/>
+      <c r="A862" s="47"/>
       <c r="B862" s="7"/>
       <c r="C862" s="6"/>
       <c r="D862" s="7"/>
@@ -29097,7 +29158,7 @@
       <c r="AB862" s="10"/>
     </row>
     <row r="863" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A863" s="48"/>
+      <c r="A863" s="47"/>
       <c r="B863" s="7"/>
       <c r="C863" s="6"/>
       <c r="D863" s="7"/>
@@ -29127,7 +29188,7 @@
       <c r="AB863" s="10"/>
     </row>
     <row r="864" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A864" s="48"/>
+      <c r="A864" s="47"/>
       <c r="B864" s="7"/>
       <c r="C864" s="6"/>
       <c r="D864" s="7"/>
@@ -29157,7 +29218,7 @@
       <c r="AB864" s="10"/>
     </row>
     <row r="865" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A865" s="48"/>
+      <c r="A865" s="47"/>
       <c r="B865" s="7"/>
       <c r="C865" s="6"/>
       <c r="D865" s="7"/>
@@ -29187,7 +29248,7 @@
       <c r="AB865" s="10"/>
     </row>
     <row r="866" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A866" s="48"/>
+      <c r="A866" s="47"/>
       <c r="B866" s="7"/>
       <c r="C866" s="6"/>
       <c r="D866" s="7"/>
@@ -29217,7 +29278,7 @@
       <c r="AB866" s="10"/>
     </row>
     <row r="867" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A867" s="48"/>
+      <c r="A867" s="47"/>
       <c r="B867" s="7"/>
       <c r="C867" s="6"/>
       <c r="D867" s="7"/>
@@ -29247,7 +29308,7 @@
       <c r="AB867" s="10"/>
     </row>
     <row r="868" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A868" s="48"/>
+      <c r="A868" s="47"/>
       <c r="B868" s="7"/>
       <c r="C868" s="6"/>
       <c r="D868" s="7"/>
@@ -29277,7 +29338,7 @@
       <c r="AB868" s="10"/>
     </row>
     <row r="869" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A869" s="48"/>
+      <c r="A869" s="47"/>
       <c r="B869" s="7"/>
       <c r="C869" s="6"/>
       <c r="D869" s="7"/>
@@ -29307,7 +29368,7 @@
       <c r="AB869" s="10"/>
     </row>
     <row r="870" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A870" s="48"/>
+      <c r="A870" s="47"/>
       <c r="B870" s="7"/>
       <c r="C870" s="6"/>
       <c r="D870" s="7"/>
@@ -29337,7 +29398,7 @@
       <c r="AB870" s="10"/>
     </row>
     <row r="871" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A871" s="48"/>
+      <c r="A871" s="47"/>
       <c r="B871" s="7"/>
       <c r="C871" s="6"/>
       <c r="D871" s="7"/>
@@ -29367,7 +29428,7 @@
       <c r="AB871" s="10"/>
     </row>
     <row r="872" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A872" s="48"/>
+      <c r="A872" s="47"/>
       <c r="B872" s="7"/>
       <c r="C872" s="6"/>
       <c r="D872" s="7"/>
@@ -29397,7 +29458,7 @@
       <c r="AB872" s="10"/>
     </row>
     <row r="873" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A873" s="48"/>
+      <c r="A873" s="47"/>
       <c r="B873" s="7"/>
       <c r="C873" s="6"/>
       <c r="D873" s="7"/>
@@ -29427,7 +29488,7 @@
       <c r="AB873" s="10"/>
     </row>
     <row r="874" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A874" s="48"/>
+      <c r="A874" s="47"/>
       <c r="B874" s="7"/>
       <c r="C874" s="6"/>
       <c r="D874" s="7"/>
@@ -29457,7 +29518,7 @@
       <c r="AB874" s="10"/>
     </row>
     <row r="875" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A875" s="48"/>
+      <c r="A875" s="47"/>
       <c r="B875" s="7"/>
       <c r="C875" s="6"/>
       <c r="D875" s="7"/>
@@ -29487,7 +29548,7 @@
       <c r="AB875" s="10"/>
     </row>
     <row r="876" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A876" s="48"/>
+      <c r="A876" s="47"/>
       <c r="B876" s="7"/>
       <c r="C876" s="6"/>
       <c r="D876" s="7"/>
@@ -29517,7 +29578,7 @@
       <c r="AB876" s="10"/>
     </row>
     <row r="877" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A877" s="48"/>
+      <c r="A877" s="47"/>
       <c r="B877" s="7"/>
       <c r="C877" s="6"/>
       <c r="D877" s="7"/>
@@ -29547,7 +29608,7 @@
       <c r="AB877" s="10"/>
     </row>
     <row r="878" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A878" s="48"/>
+      <c r="A878" s="47"/>
       <c r="B878" s="7"/>
       <c r="C878" s="6"/>
       <c r="D878" s="7"/>
@@ -29577,7 +29638,7 @@
       <c r="AB878" s="10"/>
     </row>
     <row r="879" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A879" s="48"/>
+      <c r="A879" s="47"/>
       <c r="B879" s="7"/>
       <c r="C879" s="6"/>
       <c r="D879" s="7"/>
@@ -29607,7 +29668,7 @@
       <c r="AB879" s="10"/>
     </row>
     <row r="880" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A880" s="48"/>
+      <c r="A880" s="47"/>
       <c r="B880" s="7"/>
       <c r="C880" s="6"/>
       <c r="D880" s="7"/>
@@ -29637,7 +29698,7 @@
       <c r="AB880" s="10"/>
     </row>
     <row r="881" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A881" s="48"/>
+      <c r="A881" s="47"/>
       <c r="B881" s="7"/>
       <c r="C881" s="6"/>
       <c r="D881" s="7"/>
@@ -29667,7 +29728,7 @@
       <c r="AB881" s="10"/>
     </row>
     <row r="882" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A882" s="48"/>
+      <c r="A882" s="47"/>
       <c r="B882" s="7"/>
       <c r="C882" s="6"/>
       <c r="D882" s="7"/>
@@ -29697,7 +29758,7 @@
       <c r="AB882" s="10"/>
     </row>
     <row r="883" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A883" s="48"/>
+      <c r="A883" s="47"/>
       <c r="B883" s="7"/>
       <c r="C883" s="6"/>
       <c r="D883" s="7"/>
@@ -29727,7 +29788,7 @@
       <c r="AB883" s="10"/>
     </row>
     <row r="884" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A884" s="48"/>
+      <c r="A884" s="47"/>
       <c r="B884" s="7"/>
       <c r="C884" s="6"/>
       <c r="D884" s="7"/>
@@ -29757,7 +29818,7 @@
       <c r="AB884" s="10"/>
     </row>
     <row r="885" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A885" s="48"/>
+      <c r="A885" s="47"/>
       <c r="B885" s="7"/>
       <c r="C885" s="6"/>
       <c r="D885" s="7"/>
@@ -29787,7 +29848,7 @@
       <c r="AB885" s="10"/>
     </row>
     <row r="886" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A886" s="48"/>
+      <c r="A886" s="47"/>
       <c r="B886" s="7"/>
       <c r="C886" s="6"/>
       <c r="D886" s="7"/>
@@ -29817,7 +29878,7 @@
       <c r="AB886" s="10"/>
     </row>
     <row r="887" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A887" s="48"/>
+      <c r="A887" s="47"/>
       <c r="B887" s="7"/>
       <c r="C887" s="6"/>
       <c r="D887" s="7"/>
@@ -29847,7 +29908,7 @@
       <c r="AB887" s="10"/>
     </row>
     <row r="888" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A888" s="48"/>
+      <c r="A888" s="47"/>
       <c r="B888" s="7"/>
       <c r="C888" s="6"/>
       <c r="D888" s="7"/>
@@ -29877,7 +29938,7 @@
       <c r="AB888" s="10"/>
     </row>
     <row r="889" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A889" s="48"/>
+      <c r="A889" s="47"/>
       <c r="B889" s="7"/>
       <c r="C889" s="6"/>
       <c r="D889" s="7"/>
@@ -29907,7 +29968,7 @@
       <c r="AB889" s="10"/>
     </row>
     <row r="890" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A890" s="48"/>
+      <c r="A890" s="47"/>
       <c r="B890" s="7"/>
       <c r="C890" s="6"/>
       <c r="D890" s="7"/>
@@ -29937,7 +29998,7 @@
       <c r="AB890" s="10"/>
     </row>
     <row r="891" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A891" s="48"/>
+      <c r="A891" s="47"/>
       <c r="B891" s="7"/>
       <c r="C891" s="6"/>
       <c r="D891" s="7"/>
@@ -29967,7 +30028,7 @@
       <c r="AB891" s="10"/>
     </row>
     <row r="892" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A892" s="48"/>
+      <c r="A892" s="47"/>
       <c r="B892" s="7"/>
       <c r="C892" s="6"/>
       <c r="D892" s="7"/>
@@ -29997,7 +30058,7 @@
       <c r="AB892" s="10"/>
     </row>
     <row r="893" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A893" s="48"/>
+      <c r="A893" s="47"/>
       <c r="B893" s="7"/>
       <c r="C893" s="6"/>
       <c r="D893" s="7"/>
@@ -30027,7 +30088,7 @@
       <c r="AB893" s="10"/>
     </row>
     <row r="894" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A894" s="48"/>
+      <c r="A894" s="47"/>
       <c r="B894" s="7"/>
       <c r="C894" s="6"/>
       <c r="D894" s="7"/>
@@ -30057,7 +30118,7 @@
       <c r="AB894" s="10"/>
     </row>
     <row r="895" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A895" s="48"/>
+      <c r="A895" s="47"/>
       <c r="B895" s="7"/>
       <c r="C895" s="6"/>
       <c r="D895" s="7"/>
@@ -30087,7 +30148,7 @@
       <c r="AB895" s="10"/>
     </row>
     <row r="896" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A896" s="48"/>
+      <c r="A896" s="47"/>
       <c r="B896" s="7"/>
       <c r="C896" s="6"/>
       <c r="D896" s="7"/>
@@ -30117,7 +30178,7 @@
       <c r="AB896" s="10"/>
     </row>
     <row r="897" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A897" s="48"/>
+      <c r="A897" s="47"/>
       <c r="B897" s="7"/>
       <c r="C897" s="6"/>
       <c r="D897" s="7"/>
@@ -30147,7 +30208,7 @@
       <c r="AB897" s="10"/>
     </row>
     <row r="898" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A898" s="48"/>
+      <c r="A898" s="47"/>
       <c r="B898" s="7"/>
       <c r="C898" s="6"/>
       <c r="D898" s="7"/>
@@ -30177,7 +30238,7 @@
       <c r="AB898" s="10"/>
     </row>
     <row r="899" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A899" s="48"/>
+      <c r="A899" s="47"/>
       <c r="B899" s="7"/>
       <c r="C899" s="6"/>
       <c r="D899" s="7"/>
@@ -30207,7 +30268,7 @@
       <c r="AB899" s="10"/>
     </row>
     <row r="900" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A900" s="48"/>
+      <c r="A900" s="47"/>
       <c r="B900" s="7"/>
       <c r="C900" s="6"/>
       <c r="D900" s="7"/>
@@ -30237,7 +30298,7 @@
       <c r="AB900" s="10"/>
     </row>
     <row r="901" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A901" s="48"/>
+      <c r="A901" s="47"/>
       <c r="B901" s="7"/>
       <c r="C901" s="6"/>
       <c r="D901" s="7"/>
@@ -30267,7 +30328,7 @@
       <c r="AB901" s="10"/>
     </row>
     <row r="902" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A902" s="48"/>
+      <c r="A902" s="47"/>
       <c r="B902" s="7"/>
       <c r="C902" s="6"/>
       <c r="D902" s="7"/>
@@ -30297,7 +30358,7 @@
       <c r="AB902" s="10"/>
     </row>
     <row r="903" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A903" s="48"/>
+      <c r="A903" s="47"/>
       <c r="B903" s="7"/>
       <c r="C903" s="6"/>
       <c r="D903" s="7"/>
@@ -30327,7 +30388,7 @@
       <c r="AB903" s="10"/>
     </row>
     <row r="904" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A904" s="48"/>
+      <c r="A904" s="47"/>
       <c r="B904" s="7"/>
       <c r="C904" s="6"/>
       <c r="D904" s="7"/>
@@ -30357,7 +30418,7 @@
       <c r="AB904" s="10"/>
     </row>
     <row r="905" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A905" s="48"/>
+      <c r="A905" s="47"/>
       <c r="B905" s="7"/>
       <c r="C905" s="6"/>
       <c r="D905" s="7"/>
@@ -30387,7 +30448,7 @@
       <c r="AB905" s="10"/>
     </row>
     <row r="906" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A906" s="48"/>
+      <c r="A906" s="47"/>
       <c r="B906" s="7"/>
       <c r="C906" s="6"/>
       <c r="D906" s="7"/>
@@ -30417,7 +30478,7 @@
       <c r="AB906" s="10"/>
     </row>
     <row r="907" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A907" s="48"/>
+      <c r="A907" s="47"/>
       <c r="B907" s="7"/>
       <c r="C907" s="6"/>
       <c r="D907" s="7"/>
@@ -30447,7 +30508,7 @@
       <c r="AB907" s="10"/>
     </row>
     <row r="908" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A908" s="48"/>
+      <c r="A908" s="47"/>
       <c r="B908" s="7"/>
       <c r="C908" s="6"/>
       <c r="D908" s="7"/>
@@ -30477,7 +30538,7 @@
       <c r="AB908" s="10"/>
     </row>
     <row r="909" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A909" s="48"/>
+      <c r="A909" s="47"/>
       <c r="B909" s="7"/>
       <c r="C909" s="6"/>
       <c r="D909" s="7"/>
@@ -30507,7 +30568,7 @@
       <c r="AB909" s="10"/>
     </row>
     <row r="910" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A910" s="48"/>
+      <c r="A910" s="47"/>
       <c r="B910" s="7"/>
       <c r="C910" s="6"/>
       <c r="D910" s="7"/>
@@ -30537,7 +30598,7 @@
       <c r="AB910" s="10"/>
     </row>
     <row r="911" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A911" s="48"/>
+      <c r="A911" s="47"/>
       <c r="B911" s="7"/>
       <c r="C911" s="6"/>
       <c r="D911" s="7"/>
@@ -30567,7 +30628,7 @@
       <c r="AB911" s="10"/>
     </row>
     <row r="912" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A912" s="48"/>
+      <c r="A912" s="47"/>
       <c r="B912" s="7"/>
       <c r="C912" s="6"/>
       <c r="D912" s="7"/>
@@ -30597,7 +30658,7 @@
       <c r="AB912" s="10"/>
     </row>
     <row r="913" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A913" s="48"/>
+      <c r="A913" s="47"/>
       <c r="B913" s="7"/>
       <c r="C913" s="6"/>
       <c r="D913" s="7"/>
@@ -30627,7 +30688,7 @@
       <c r="AB913" s="10"/>
     </row>
     <row r="914" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A914" s="48"/>
+      <c r="A914" s="47"/>
       <c r="B914" s="7"/>
       <c r="C914" s="6"/>
       <c r="D914" s="7"/>
@@ -30657,7 +30718,7 @@
       <c r="AB914" s="10"/>
     </row>
     <row r="915" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A915" s="48"/>
+      <c r="A915" s="47"/>
       <c r="B915" s="7"/>
       <c r="C915" s="6"/>
       <c r="D915" s="7"/>
@@ -30687,7 +30748,7 @@
       <c r="AB915" s="10"/>
     </row>
     <row r="916" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A916" s="48"/>
+      <c r="A916" s="47"/>
       <c r="B916" s="7"/>
       <c r="C916" s="6"/>
       <c r="D916" s="7"/>
@@ -30717,7 +30778,7 @@
       <c r="AB916" s="10"/>
     </row>
     <row r="917" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A917" s="48"/>
+      <c r="A917" s="47"/>
       <c r="B917" s="7"/>
       <c r="C917" s="6"/>
       <c r="D917" s="7"/>
@@ -30747,7 +30808,7 @@
       <c r="AB917" s="10"/>
     </row>
     <row r="918" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A918" s="48"/>
+      <c r="A918" s="47"/>
       <c r="B918" s="7"/>
       <c r="C918" s="6"/>
       <c r="D918" s="7"/>
@@ -30777,7 +30838,7 @@
       <c r="AB918" s="10"/>
     </row>
     <row r="919" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A919" s="48"/>
+      <c r="A919" s="47"/>
       <c r="B919" s="7"/>
       <c r="C919" s="6"/>
       <c r="D919" s="7"/>
@@ -30807,7 +30868,7 @@
       <c r="AB919" s="10"/>
     </row>
     <row r="920" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A920" s="48"/>
+      <c r="A920" s="47"/>
       <c r="B920" s="7"/>
       <c r="C920" s="6"/>
       <c r="D920" s="7"/>
@@ -30837,7 +30898,7 @@
       <c r="AB920" s="10"/>
     </row>
     <row r="921" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A921" s="48"/>
+      <c r="A921" s="47"/>
       <c r="B921" s="7"/>
       <c r="C921" s="6"/>
       <c r="D921" s="7"/>
@@ -30867,7 +30928,7 @@
       <c r="AB921" s="10"/>
     </row>
     <row r="922" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A922" s="48"/>
+      <c r="A922" s="47"/>
       <c r="B922" s="7"/>
       <c r="C922" s="6"/>
       <c r="D922" s="7"/>
@@ -30897,7 +30958,7 @@
       <c r="AB922" s="10"/>
     </row>
     <row r="923" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A923" s="48"/>
+      <c r="A923" s="47"/>
       <c r="B923" s="7"/>
       <c r="C923" s="6"/>
       <c r="D923" s="7"/>
@@ -30927,7 +30988,7 @@
       <c r="AB923" s="10"/>
     </row>
     <row r="924" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A924" s="48"/>
+      <c r="A924" s="47"/>
       <c r="B924" s="7"/>
       <c r="C924" s="6"/>
       <c r="D924" s="7"/>
@@ -30957,7 +31018,7 @@
       <c r="AB924" s="10"/>
     </row>
     <row r="925" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A925" s="48"/>
+      <c r="A925" s="47"/>
       <c r="B925" s="7"/>
       <c r="C925" s="6"/>
       <c r="D925" s="7"/>
@@ -30987,7 +31048,7 @@
       <c r="AB925" s="10"/>
     </row>
     <row r="926" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A926" s="48"/>
+      <c r="A926" s="47"/>
       <c r="B926" s="7"/>
       <c r="C926" s="6"/>
       <c r="D926" s="7"/>
@@ -31017,7 +31078,7 @@
       <c r="AB926" s="10"/>
     </row>
     <row r="927" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A927" s="48"/>
+      <c r="A927" s="47"/>
       <c r="B927" s="7"/>
       <c r="C927" s="6"/>
       <c r="D927" s="7"/>
@@ -31047,7 +31108,7 @@
       <c r="AB927" s="10"/>
     </row>
     <row r="928" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A928" s="48"/>
+      <c r="A928" s="47"/>
       <c r="B928" s="7"/>
       <c r="C928" s="6"/>
       <c r="D928" s="7"/>
@@ -31077,7 +31138,7 @@
       <c r="AB928" s="10"/>
     </row>
     <row r="929" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A929" s="48"/>
+      <c r="A929" s="47"/>
       <c r="B929" s="7"/>
       <c r="C929" s="6"/>
       <c r="D929" s="7"/>
@@ -31107,7 +31168,7 @@
       <c r="AB929" s="10"/>
     </row>
     <row r="930" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A930" s="48"/>
+      <c r="A930" s="47"/>
       <c r="B930" s="7"/>
       <c r="C930" s="6"/>
       <c r="D930" s="7"/>
@@ -31137,7 +31198,7 @@
       <c r="AB930" s="10"/>
     </row>
     <row r="931" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A931" s="48"/>
+      <c r="A931" s="47"/>
       <c r="B931" s="7"/>
       <c r="C931" s="6"/>
       <c r="D931" s="7"/>
@@ -31167,7 +31228,7 @@
       <c r="AB931" s="10"/>
     </row>
     <row r="932" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A932" s="48"/>
+      <c r="A932" s="47"/>
       <c r="B932" s="7"/>
       <c r="C932" s="6"/>
       <c r="D932" s="7"/>
@@ -31197,7 +31258,7 @@
       <c r="AB932" s="10"/>
     </row>
     <row r="933" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A933" s="48"/>
+      <c r="A933" s="47"/>
       <c r="B933" s="7"/>
       <c r="C933" s="6"/>
       <c r="D933" s="7"/>
@@ -31227,7 +31288,7 @@
       <c r="AB933" s="10"/>
     </row>
     <row r="934" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A934" s="48"/>
+      <c r="A934" s="47"/>
       <c r="B934" s="7"/>
       <c r="C934" s="6"/>
       <c r="D934" s="7"/>
@@ -31257,7 +31318,7 @@
       <c r="AB934" s="10"/>
     </row>
     <row r="935" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A935" s="48"/>
+      <c r="A935" s="47"/>
       <c r="B935" s="7"/>
       <c r="C935" s="6"/>
       <c r="D935" s="7"/>
@@ -31287,7 +31348,7 @@
       <c r="AB935" s="10"/>
     </row>
     <row r="936" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A936" s="48"/>
+      <c r="A936" s="47"/>
       <c r="B936" s="7"/>
       <c r="C936" s="6"/>
       <c r="D936" s="7"/>
@@ -31317,7 +31378,7 @@
       <c r="AB936" s="10"/>
     </row>
     <row r="937" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A937" s="48"/>
+      <c r="A937" s="47"/>
       <c r="B937" s="7"/>
       <c r="C937" s="6"/>
       <c r="D937" s="7"/>
@@ -31347,7 +31408,7 @@
       <c r="AB937" s="10"/>
     </row>
     <row r="938" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A938" s="48"/>
+      <c r="A938" s="47"/>
       <c r="B938" s="7"/>
       <c r="C938" s="6"/>
       <c r="D938" s="7"/>
@@ -31377,7 +31438,7 @@
       <c r="AB938" s="10"/>
     </row>
     <row r="939" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A939" s="48"/>
+      <c r="A939" s="47"/>
       <c r="B939" s="7"/>
       <c r="C939" s="6"/>
       <c r="D939" s="7"/>
@@ -31407,7 +31468,7 @@
       <c r="AB939" s="10"/>
     </row>
     <row r="940" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A940" s="48"/>
+      <c r="A940" s="47"/>
       <c r="B940" s="7"/>
       <c r="C940" s="6"/>
       <c r="D940" s="7"/>
@@ -31437,7 +31498,7 @@
       <c r="AB940" s="10"/>
     </row>
     <row r="941" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A941" s="48"/>
+      <c r="A941" s="47"/>
       <c r="B941" s="7"/>
       <c r="C941" s="6"/>
       <c r="D941" s="7"/>
@@ -31467,7 +31528,7 @@
       <c r="AB941" s="10"/>
     </row>
     <row r="942" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A942" s="48"/>
+      <c r="A942" s="47"/>
       <c r="B942" s="7"/>
       <c r="C942" s="6"/>
       <c r="D942" s="7"/>
@@ -31497,7 +31558,7 @@
       <c r="AB942" s="10"/>
     </row>
     <row r="943" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A943" s="48"/>
+      <c r="A943" s="47"/>
       <c r="B943" s="7"/>
       <c r="C943" s="6"/>
       <c r="D943" s="7"/>
@@ -31527,7 +31588,7 @@
       <c r="AB943" s="10"/>
     </row>
     <row r="944" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A944" s="48"/>
+      <c r="A944" s="47"/>
       <c r="B944" s="7"/>
       <c r="C944" s="6"/>
       <c r="D944" s="7"/>
@@ -31557,7 +31618,7 @@
       <c r="AB944" s="10"/>
     </row>
     <row r="945" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A945" s="48"/>
+      <c r="A945" s="47"/>
       <c r="B945" s="7"/>
       <c r="C945" s="6"/>
       <c r="D945" s="7"/>
@@ -31587,7 +31648,7 @@
       <c r="AB945" s="10"/>
     </row>
     <row r="946" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A946" s="48"/>
+      <c r="A946" s="47"/>
       <c r="B946" s="7"/>
       <c r="C946" s="6"/>
       <c r="D946" s="7"/>
@@ -31617,7 +31678,7 @@
       <c r="AB946" s="10"/>
     </row>
     <row r="947" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A947" s="48"/>
+      <c r="A947" s="47"/>
       <c r="B947" s="7"/>
       <c r="C947" s="6"/>
       <c r="D947" s="7"/>
@@ -31647,7 +31708,7 @@
       <c r="AB947" s="10"/>
     </row>
     <row r="948" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A948" s="48"/>
+      <c r="A948" s="47"/>
       <c r="B948" s="7"/>
       <c r="C948" s="6"/>
       <c r="D948" s="7"/>
@@ -31677,7 +31738,7 @@
       <c r="AB948" s="10"/>
     </row>
     <row r="949" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A949" s="48"/>
+      <c r="A949" s="47"/>
       <c r="B949" s="7"/>
       <c r="C949" s="6"/>
       <c r="D949" s="7"/>
@@ -31707,7 +31768,7 @@
       <c r="AB949" s="10"/>
     </row>
     <row r="950" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A950" s="48"/>
+      <c r="A950" s="47"/>
       <c r="B950" s="7"/>
       <c r="C950" s="6"/>
       <c r="D950" s="7"/>
@@ -31737,7 +31798,7 @@
       <c r="AB950" s="10"/>
     </row>
     <row r="951" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A951" s="48"/>
+      <c r="A951" s="47"/>
       <c r="B951" s="7"/>
       <c r="C951" s="6"/>
       <c r="D951" s="7"/>
@@ -31767,7 +31828,7 @@
       <c r="AB951" s="10"/>
     </row>
     <row r="952" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A952" s="48"/>
+      <c r="A952" s="47"/>
       <c r="B952" s="7"/>
       <c r="C952" s="6"/>
       <c r="D952" s="7"/>
@@ -31797,7 +31858,7 @@
       <c r="AB952" s="10"/>
     </row>
     <row r="953" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A953" s="48"/>
+      <c r="A953" s="47"/>
       <c r="B953" s="7"/>
       <c r="C953" s="6"/>
       <c r="D953" s="7"/>
@@ -31827,7 +31888,7 @@
       <c r="AB953" s="10"/>
     </row>
     <row r="954" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A954" s="48"/>
+      <c r="A954" s="47"/>
       <c r="B954" s="7"/>
       <c r="C954" s="6"/>
       <c r="D954" s="7"/>
@@ -31857,7 +31918,7 @@
       <c r="AB954" s="10"/>
     </row>
     <row r="955" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A955" s="48"/>
+      <c r="A955" s="47"/>
       <c r="B955" s="7"/>
       <c r="C955" s="6"/>
       <c r="D955" s="7"/>
@@ -31887,7 +31948,7 @@
       <c r="AB955" s="10"/>
     </row>
     <row r="956" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A956" s="48"/>
+      <c r="A956" s="47"/>
       <c r="B956" s="7"/>
       <c r="C956" s="6"/>
       <c r="D956" s="7"/>
@@ -31917,7 +31978,7 @@
       <c r="AB956" s="10"/>
     </row>
     <row r="957" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A957" s="48"/>
+      <c r="A957" s="47"/>
       <c r="B957" s="7"/>
       <c r="C957" s="6"/>
       <c r="D957" s="7"/>
@@ -31947,7 +32008,7 @@
       <c r="AB957" s="10"/>
     </row>
     <row r="958" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A958" s="48"/>
+      <c r="A958" s="47"/>
       <c r="B958" s="7"/>
       <c r="C958" s="6"/>
       <c r="D958" s="7"/>
@@ -31977,7 +32038,7 @@
       <c r="AB958" s="10"/>
     </row>
     <row r="959" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A959" s="48"/>
+      <c r="A959" s="47"/>
       <c r="B959" s="7"/>
       <c r="C959" s="6"/>
       <c r="D959" s="7"/>
@@ -32007,7 +32068,7 @@
       <c r="AB959" s="10"/>
     </row>
     <row r="960" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A960" s="48"/>
+      <c r="A960" s="47"/>
       <c r="B960" s="7"/>
       <c r="C960" s="6"/>
       <c r="D960" s="7"/>
@@ -32037,7 +32098,7 @@
       <c r="AB960" s="10"/>
     </row>
     <row r="961" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A961" s="48"/>
+      <c r="A961" s="47"/>
       <c r="B961" s="7"/>
       <c r="C961" s="6"/>
       <c r="D961" s="7"/>
@@ -32067,7 +32128,7 @@
       <c r="AB961" s="10"/>
     </row>
     <row r="962" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A962" s="48"/>
+      <c r="A962" s="47"/>
       <c r="B962" s="7"/>
       <c r="C962" s="6"/>
       <c r="D962" s="7"/>
@@ -32097,7 +32158,7 @@
       <c r="AB962" s="10"/>
     </row>
     <row r="963" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A963" s="48"/>
+      <c r="A963" s="47"/>
       <c r="B963" s="7"/>
       <c r="C963" s="6"/>
       <c r="D963" s="7"/>
@@ -32127,7 +32188,7 @@
       <c r="AB963" s="10"/>
     </row>
     <row r="964" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A964" s="48"/>
+      <c r="A964" s="47"/>
       <c r="B964" s="7"/>
       <c r="C964" s="6"/>
       <c r="D964" s="7"/>
@@ -32157,7 +32218,7 @@
       <c r="AB964" s="10"/>
     </row>
     <row r="965" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A965" s="48"/>
+      <c r="A965" s="47"/>
       <c r="B965" s="7"/>
       <c r="C965" s="6"/>
       <c r="D965" s="7"/>
@@ -32187,7 +32248,7 @@
       <c r="AB965" s="10"/>
     </row>
     <row r="966" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A966" s="48"/>
+      <c r="A966" s="47"/>
       <c r="B966" s="7"/>
       <c r="C966" s="6"/>
       <c r="D966" s="7"/>
@@ -32217,7 +32278,7 @@
       <c r="AB966" s="10"/>
     </row>
     <row r="967" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A967" s="48"/>
+      <c r="A967" s="47"/>
       <c r="B967" s="7"/>
       <c r="C967" s="6"/>
       <c r="D967" s="7"/>
@@ -32247,7 +32308,7 @@
       <c r="AB967" s="10"/>
     </row>
     <row r="968" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A968" s="48"/>
+      <c r="A968" s="47"/>
       <c r="B968" s="7"/>
       <c r="C968" s="6"/>
       <c r="D968" s="7"/>
@@ -32277,7 +32338,7 @@
       <c r="AB968" s="10"/>
     </row>
     <row r="969" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A969" s="48"/>
+      <c r="A969" s="47"/>
       <c r="B969" s="7"/>
       <c r="C969" s="6"/>
       <c r="D969" s="7"/>
@@ -32307,7 +32368,7 @@
       <c r="AB969" s="10"/>
     </row>
     <row r="970" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A970" s="48"/>
+      <c r="A970" s="47"/>
       <c r="B970" s="7"/>
       <c r="C970" s="6"/>
       <c r="D970" s="7"/>
@@ -32337,7 +32398,7 @@
       <c r="AB970" s="10"/>
     </row>
     <row r="971" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A971" s="48"/>
+      <c r="A971" s="47"/>
       <c r="B971" s="7"/>
       <c r="C971" s="6"/>
       <c r="D971" s="7"/>
@@ -32367,7 +32428,7 @@
       <c r="AB971" s="10"/>
     </row>
     <row r="972" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A972" s="48"/>
+      <c r="A972" s="47"/>
       <c r="B972" s="7"/>
       <c r="C972" s="6"/>
       <c r="D972" s="7"/>
@@ -32397,7 +32458,7 @@
       <c r="AB972" s="10"/>
     </row>
     <row r="973" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A973" s="48"/>
+      <c r="A973" s="47"/>
       <c r="B973" s="7"/>
       <c r="C973" s="6"/>
       <c r="D973" s="7"/>
@@ -32427,7 +32488,7 @@
       <c r="AB973" s="10"/>
     </row>
     <row r="974" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A974" s="48"/>
+      <c r="A974" s="47"/>
       <c r="B974" s="7"/>
       <c r="C974" s="6"/>
       <c r="D974" s="7"/>
@@ -32457,7 +32518,7 @@
       <c r="AB974" s="10"/>
     </row>
     <row r="975" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A975" s="48"/>
+      <c r="A975" s="47"/>
       <c r="B975" s="7"/>
       <c r="C975" s="6"/>
       <c r="D975" s="7"/>
@@ -32487,7 +32548,7 @@
       <c r="AB975" s="10"/>
     </row>
     <row r="976" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A976" s="48"/>
+      <c r="A976" s="47"/>
       <c r="B976" s="7"/>
       <c r="C976" s="6"/>
       <c r="D976" s="7"/>
@@ -32517,7 +32578,7 @@
       <c r="AB976" s="10"/>
     </row>
     <row r="977" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A977" s="48"/>
+      <c r="A977" s="47"/>
       <c r="B977" s="7"/>
       <c r="C977" s="6"/>
       <c r="D977" s="7"/>
@@ -32547,7 +32608,7 @@
       <c r="AB977" s="10"/>
     </row>
     <row r="978" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A978" s="48"/>
+      <c r="A978" s="47"/>
       <c r="B978" s="7"/>
       <c r="C978" s="6"/>
       <c r="D978" s="7"/>
@@ -32577,7 +32638,7 @@
       <c r="AB978" s="10"/>
     </row>
     <row r="979" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A979" s="48"/>
+      <c r="A979" s="47"/>
       <c r="B979" s="7"/>
       <c r="C979" s="6"/>
       <c r="D979" s="7"/>
@@ -32607,7 +32668,7 @@
       <c r="AB979" s="10"/>
     </row>
     <row r="980" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A980" s="48"/>
+      <c r="A980" s="47"/>
       <c r="B980" s="7"/>
       <c r="C980" s="6"/>
       <c r="D980" s="7"/>
@@ -32637,7 +32698,7 @@
       <c r="AB980" s="10"/>
     </row>
     <row r="981" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A981" s="48"/>
+      <c r="A981" s="47"/>
       <c r="B981" s="7"/>
       <c r="C981" s="6"/>
       <c r="D981" s="7"/>
@@ -32667,7 +32728,7 @@
       <c r="AB981" s="10"/>
     </row>
     <row r="982" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A982" s="48"/>
+      <c r="A982" s="47"/>
       <c r="B982" s="7"/>
       <c r="C982" s="6"/>
       <c r="D982" s="7"/>
@@ -32697,7 +32758,7 @@
       <c r="AB982" s="10"/>
     </row>
     <row r="983" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A983" s="48"/>
+      <c r="A983" s="47"/>
       <c r="B983" s="7"/>
       <c r="C983" s="6"/>
       <c r="D983" s="7"/>
@@ -32727,7 +32788,7 @@
       <c r="AB983" s="10"/>
     </row>
     <row r="984" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A984" s="48"/>
+      <c r="A984" s="47"/>
       <c r="B984" s="7"/>
       <c r="C984" s="6"/>
       <c r="D984" s="7"/>
@@ -32757,7 +32818,7 @@
       <c r="AB984" s="10"/>
     </row>
     <row r="985" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A985" s="48"/>
+      <c r="A985" s="47"/>
       <c r="B985" s="7"/>
       <c r="C985" s="6"/>
       <c r="D985" s="7"/>
@@ -32787,7 +32848,7 @@
       <c r="AB985" s="10"/>
     </row>
     <row r="986" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A986" s="48"/>
+      <c r="A986" s="47"/>
       <c r="B986" s="7"/>
       <c r="C986" s="6"/>
       <c r="D986" s="7"/>
@@ -32817,7 +32878,7 @@
       <c r="AB986" s="10"/>
     </row>
     <row r="987" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A987" s="48"/>
+      <c r="A987" s="47"/>
       <c r="B987" s="7"/>
       <c r="C987" s="6"/>
       <c r="D987" s="7"/>
@@ -32847,7 +32908,7 @@
       <c r="AB987" s="10"/>
     </row>
     <row r="988" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A988" s="48"/>
+      <c r="A988" s="47"/>
       <c r="B988" s="7"/>
       <c r="C988" s="6"/>
       <c r="D988" s="7"/>
@@ -32877,7 +32938,7 @@
       <c r="AB988" s="10"/>
     </row>
     <row r="989" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A989" s="48"/>
+      <c r="A989" s="47"/>
       <c r="B989" s="7"/>
       <c r="C989" s="6"/>
       <c r="D989" s="7"/>
@@ -32907,7 +32968,7 @@
       <c r="AB989" s="10"/>
     </row>
     <row r="990" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A990" s="48"/>
+      <c r="A990" s="47"/>
       <c r="B990" s="7"/>
       <c r="C990" s="6"/>
       <c r="D990" s="7"/>
@@ -32937,7 +32998,7 @@
       <c r="AB990" s="10"/>
     </row>
     <row r="991" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A991" s="48"/>
+      <c r="A991" s="47"/>
       <c r="B991" s="7"/>
       <c r="C991" s="6"/>
       <c r="D991" s="7"/>
@@ -32967,7 +33028,7 @@
       <c r="AB991" s="10"/>
     </row>
     <row r="992" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A992" s="48"/>
+      <c r="A992" s="47"/>
       <c r="B992" s="7"/>
       <c r="C992" s="6"/>
       <c r="D992" s="7"/>
@@ -32997,7 +33058,7 @@
       <c r="AB992" s="10"/>
     </row>
     <row r="993" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A993" s="48"/>
+      <c r="A993" s="47"/>
       <c r="B993" s="7"/>
       <c r="C993" s="6"/>
       <c r="D993" s="7"/>
@@ -33027,7 +33088,7 @@
       <c r="AB993" s="10"/>
     </row>
     <row r="994" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A994" s="48"/>
+      <c r="A994" s="47"/>
       <c r="B994" s="7"/>
       <c r="C994" s="6"/>
       <c r="D994" s="7"/>
@@ -33057,7 +33118,7 @@
       <c r="AB994" s="10"/>
     </row>
     <row r="995" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A995" s="48"/>
+      <c r="A995" s="47"/>
       <c r="B995" s="7"/>
       <c r="C995" s="6"/>
       <c r="D995" s="7"/>
@@ -33087,7 +33148,7 @@
       <c r="AB995" s="10"/>
     </row>
     <row r="996" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A996" s="48"/>
+      <c r="A996" s="47"/>
       <c r="B996" s="7"/>
       <c r="C996" s="6"/>
       <c r="D996" s="7"/>
@@ -33117,7 +33178,7 @@
       <c r="AB996" s="10"/>
     </row>
     <row r="997" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A997" s="48"/>
+      <c r="A997" s="47"/>
       <c r="B997" s="7"/>
       <c r="C997" s="6"/>
       <c r="D997" s="7"/>
@@ -33147,7 +33208,7 @@
       <c r="AB997" s="10"/>
     </row>
     <row r="998" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A998" s="48"/>
+      <c r="A998" s="47"/>
       <c r="B998" s="7"/>
       <c r="C998" s="6"/>
       <c r="D998" s="7"/>
@@ -33177,7 +33238,7 @@
       <c r="AB998" s="10"/>
     </row>
     <row r="999" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A999" s="48"/>
+      <c r="A999" s="47"/>
       <c r="B999" s="7"/>
       <c r="C999" s="6"/>
       <c r="D999" s="7"/>
@@ -33207,7 +33268,7 @@
       <c r="AB999" s="10"/>
     </row>
     <row r="1000" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1000" s="48"/>
+      <c r="A1000" s="47"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="6"/>
       <c r="D1000" s="7"/>
@@ -33237,7 +33298,7 @@
       <c r="AB1000" s="10"/>
     </row>
     <row r="1001" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1001" s="48"/>
+      <c r="A1001" s="47"/>
       <c r="B1001" s="7"/>
       <c r="C1001" s="6"/>
       <c r="D1001" s="7"/>
@@ -33267,7 +33328,7 @@
       <c r="AB1001" s="10"/>
     </row>
     <row r="1002" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1002" s="48"/>
+      <c r="A1002" s="47"/>
       <c r="B1002" s="7"/>
       <c r="C1002" s="6"/>
       <c r="D1002" s="7"/>
@@ -33297,7 +33358,7 @@
       <c r="AB1002" s="10"/>
     </row>
     <row r="1003" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1003" s="48"/>
+      <c r="A1003" s="47"/>
       <c r="B1003" s="7"/>
       <c r="C1003" s="6"/>
       <c r="D1003" s="7"/>
@@ -33327,7 +33388,7 @@
       <c r="AB1003" s="10"/>
     </row>
     <row r="1004" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1004" s="48"/>
+      <c r="A1004" s="47"/>
       <c r="B1004" s="7"/>
       <c r="C1004" s="6"/>
       <c r="D1004" s="7"/>
@@ -33357,7 +33418,7 @@
       <c r="AB1004" s="10"/>
     </row>
     <row r="1005" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1005" s="48"/>
+      <c r="A1005" s="47"/>
       <c r="B1005" s="7"/>
       <c r="C1005" s="6"/>
       <c r="D1005" s="7"/>
@@ -33387,7 +33448,7 @@
       <c r="AB1005" s="10"/>
     </row>
     <row r="1006" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1006" s="48"/>
+      <c r="A1006" s="47"/>
       <c r="B1006" s="7"/>
       <c r="C1006" s="6"/>
       <c r="D1006" s="7"/>
@@ -33417,7 +33478,7 @@
       <c r="AB1006" s="10"/>
     </row>
     <row r="1007" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1007" s="48"/>
+      <c r="A1007" s="47"/>
       <c r="B1007" s="7"/>
       <c r="C1007" s="6"/>
       <c r="D1007" s="7"/>
@@ -33446,6 +33507,66 @@
       <c r="AA1007" s="10"/>
       <c r="AB1007" s="10"/>
     </row>
+    <row r="1008" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1008" s="47"/>
+      <c r="B1008" s="7"/>
+      <c r="C1008" s="6"/>
+      <c r="D1008" s="7"/>
+      <c r="E1008" s="7"/>
+      <c r="F1008" s="7"/>
+      <c r="G1008" s="7"/>
+      <c r="H1008" s="8"/>
+      <c r="I1008" s="7"/>
+      <c r="J1008" s="8"/>
+      <c r="K1008" s="7"/>
+      <c r="L1008" s="8"/>
+      <c r="M1008" s="9"/>
+      <c r="N1008" s="9"/>
+      <c r="O1008" s="9"/>
+      <c r="P1008" s="10"/>
+      <c r="Q1008" s="10"/>
+      <c r="R1008" s="10"/>
+      <c r="S1008" s="10"/>
+      <c r="T1008" s="10"/>
+      <c r="U1008" s="10"/>
+      <c r="V1008" s="10"/>
+      <c r="W1008" s="10"/>
+      <c r="X1008" s="10"/>
+      <c r="Y1008" s="10"/>
+      <c r="Z1008" s="10"/>
+      <c r="AA1008" s="10"/>
+      <c r="AB1008" s="10"/>
+    </row>
+    <row r="1009" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1009" s="47"/>
+      <c r="B1009" s="7"/>
+      <c r="C1009" s="6"/>
+      <c r="D1009" s="7"/>
+      <c r="E1009" s="7"/>
+      <c r="F1009" s="7"/>
+      <c r="G1009" s="7"/>
+      <c r="H1009" s="8"/>
+      <c r="I1009" s="7"/>
+      <c r="J1009" s="8"/>
+      <c r="K1009" s="7"/>
+      <c r="L1009" s="8"/>
+      <c r="M1009" s="9"/>
+      <c r="N1009" s="9"/>
+      <c r="O1009" s="9"/>
+      <c r="P1009" s="10"/>
+      <c r="Q1009" s="10"/>
+      <c r="R1009" s="10"/>
+      <c r="S1009" s="10"/>
+      <c r="T1009" s="10"/>
+      <c r="U1009" s="10"/>
+      <c r="V1009" s="10"/>
+      <c r="W1009" s="10"/>
+      <c r="X1009" s="10"/>
+      <c r="Y1009" s="10"/>
+      <c r="Z1009" s="10"/>
+      <c r="AA1009" s="10"/>
+      <c r="AB1009" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:F4"/>

--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\1-LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACA0547-C29A-4089-8A53-80CE8BBE6E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCFB946-E06D-4D2E-B536-43EC364E667A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-1365" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1203,9 +1203,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1217,6 +1214,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1604,8 +1604,8 @@
   <dimension ref="A1:AMJ1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M91" sqref="M91"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,28 +1732,28 @@
       <c r="AB3" s="23"/>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
       <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
@@ -5974,7 +5974,7 @@
       <c r="AB90" s="10"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="51">
+      <c r="A91" s="55">
         <v>885012107010</v>
       </c>
       <c r="B91" s="7" t="s">

--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\1-LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCFB946-E06D-4D2E-B536-43EC364E667A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA039D6A-7A31-4724-950B-65A25E855F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1365" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="-120" windowWidth="28980" windowHeight="15930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="composant_a_creer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="265">
   <si>
     <t xml:space="preserve">code couleur: </t>
   </si>
@@ -868,6 +868,15 @@
   <si>
     <t xml:space="preserve">61000421821	</t>
   </si>
+  <si>
+    <t>SN74LVC1G17DBVR</t>
+  </si>
+  <si>
+    <t>Buffer non inverseur</t>
+  </si>
+  <si>
+    <t>OPB 2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1203,6 +1212,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1214,9 +1226,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1604,8 +1613,8 @@
   <dimension ref="A1:AMJ1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,28 +1741,28 @@
       <c r="AB3" s="23"/>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54" t="s">
+      <c r="J4" s="54"/>
+      <c r="K4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
@@ -5974,7 +5983,7 @@
       <c r="AB90" s="10"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="55">
+      <c r="A91" s="51">
         <v>885012107010</v>
       </c>
       <c r="B91" s="7" t="s">
@@ -6034,7 +6043,9 @@
       <c r="F92" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="G92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="H92" s="8"/>
       <c r="I92" s="7"/>
       <c r="J92" s="8"/>
@@ -6058,14 +6069,30 @@
       <c r="AB92" s="10"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="8"/>
+      <c r="A93" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" s="8">
+        <v>43978</v>
+      </c>
       <c r="I93" s="7"/>
       <c r="J93" s="8"/>
       <c r="K93" s="7"/>

--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\1-LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA039D6A-7A31-4724-950B-65A25E855F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FA10F-50E4-4048-8C79-72E54CB34424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="-120" windowWidth="28980" windowHeight="15930" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="composant_a_creer" sheetId="1" r:id="rId1"/>
@@ -1613,8 +1613,8 @@
   <dimension ref="A1:AMJ1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B100" sqref="B100"/>
+      <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1-LIB/Composant_a_creer.xlsx
+++ b/1-LIB/Composant_a_creer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOC\Audran\GIT\ELEC\1-LIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5FA10F-50E4-4048-8C79-72E54CB34424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0681FA3-368F-4C8A-B01C-4EE1E8141F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="265">
   <si>
     <t xml:space="preserve">code couleur: </t>
   </si>
@@ -836,9 +836,6 @@
     <t>l'association JLCPCB avait été oublié (ou perdue)</t>
   </si>
   <si>
-    <t>capa 10uF 25V JLCPCB C15850??</t>
-  </si>
-  <si>
     <t>LDO 5V, associer JLCPCB C16106</t>
   </si>
   <si>
@@ -876,6 +873,9 @@
   </si>
   <si>
     <t>OPB 2020</t>
+  </si>
+  <si>
+    <t>capa 10uF 10V JLCPCB C15850??</t>
   </si>
 </sst>
 </file>
@@ -1212,9 +1212,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1226,6 +1223,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1614,7 +1614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,28 +1741,28 @@
       <c r="AB3" s="23"/>
     </row>
     <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="53" t="s">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
       <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="AB77" s="10"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B78" s="7" t="s">
@@ -5419,8 +5419,12 @@
       <c r="H78" s="8"/>
       <c r="I78" s="45"/>
       <c r="J78" s="8"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="8"/>
+      <c r="K78" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" s="8">
+        <v>43982</v>
+      </c>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
@@ -5492,7 +5496,7 @@
         <v>146</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>102</v>
@@ -5538,7 +5542,7 @@
         <v>146</v>
       </c>
       <c r="C81" s="46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D81" s="7" t="s">
         <v>102</v>
@@ -5584,7 +5588,7 @@
         <v>146</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>102</v>
@@ -5630,7 +5634,7 @@
         <v>146</v>
       </c>
       <c r="C83" s="46" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D83" s="7" t="s">
         <v>102</v>
@@ -5676,7 +5680,7 @@
         <v>146</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D84" s="7" t="s">
         <v>102</v>
@@ -5722,7 +5726,7 @@
         <v>146</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>102</v>
@@ -5762,13 +5766,13 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B86" s="43" t="s">
         <v>146</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>102</v>
@@ -5814,7 +5818,7 @@
         <v>239</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>232</v>
@@ -5899,7 +5903,7 @@
       <c r="AB88" s="10"/>
     </row>
     <row r="89" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="s">
+      <c r="A89" s="12" t="s">
         <v>243</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -5917,8 +5921,12 @@
       <c r="F89" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="8"/>
+      <c r="G89" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="8">
+        <v>43982</v>
+      </c>
       <c r="I89" s="7"/>
       <c r="J89" s="8"/>
       <c r="K89" s="7"/>
@@ -5983,14 +5991,14 @@
       <c r="AB90" s="10"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="51">
+      <c r="A91" s="55">
         <v>885012107010</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>76</v>
@@ -6001,8 +6009,12 @@
       <c r="F91" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G91" s="7"/>
-      <c r="H91" s="8"/>
+      <c r="G91" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" s="8">
+        <v>43982</v>
+      </c>
       <c r="I91" s="7"/>
       <c r="J91" s="8"/>
       <c r="K91" s="7"/>
@@ -6032,7 +6044,7 @@
         <v>146</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="7" t="s">
         <v>102</v>
@@ -6070,13 +6082,13 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>140</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>56</v>
@@ -6085,7 +6097,7 @@
         <v>56</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>27</v>
